--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10573" uniqueCount="1054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10575" uniqueCount="1055">
   <si>
     <t>Path</t>
   </si>
@@ -1068,7 +1068,10 @@
     <t>Some insurers need a declaration of the type of relationship.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/RelatedClaimVS</t>
+    <t>Relationship of this claim to a related Claim.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/related-claim-relationship</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.related.reference</t>
@@ -1397,7 +1400,10 @@
     <t>When multiple parties are present it is required to distinguish the roles performed by each member.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/CareTeamRoleVS</t>
+    <t>The role codes for the care team members.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/claim-careteamrole</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.careTeam.qualification</t>
@@ -1469,7 +1475,7 @@
     <t>Required to group or associate information items with common characteristics. For example: admission information or prior treatments.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/InformationCategoryVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimInformationCategoryVS</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.supportingInfo.category.id</t>
@@ -1491,9 +1497,6 @@
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimInformationCategoryVS</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -2807,7 +2810,7 @@
     <t>Needed to convey the type of total provided.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AdjudicationAmountCategoryVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerAdjudicationAmountCategoryVS</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.total.amount</t>
@@ -3424,7 +3427,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="124.64453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="66.53125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="71.7265625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -9523,11 +9526,13 @@
         <v>43</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X55" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="Y55" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>43</v>
@@ -9574,7 +9579,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -9600,16 +9605,16 @@
         <v>159</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>43</v>
@@ -9658,7 +9663,7 @@
         <v>43</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -9687,7 +9692,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9710,17 +9715,17 @@
         <v>43</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>43</v>
@@ -9769,7 +9774,7 @@
         <v>43</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -9798,7 +9803,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9821,19 +9826,19 @@
         <v>43</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>43</v>
@@ -9882,7 +9887,7 @@
         <v>43</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -9911,7 +9916,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9937,16 +9942,16 @@
         <v>316</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>43</v>
@@ -9995,7 +10000,7 @@
         <v>43</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -10024,7 +10029,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -10133,7 +10138,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -10244,7 +10249,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -10357,7 +10362,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -10383,14 +10388,14 @@
         <v>180</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>43</v>
@@ -10419,7 +10424,7 @@
       </c>
       <c r="X63" s="2"/>
       <c r="Y63" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>43</v>
@@ -10437,7 +10442,7 @@
         <v>43</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -10466,7 +10471,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -10489,19 +10494,19 @@
         <v>43</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>43</v>
@@ -10550,7 +10555,7 @@
         <v>43</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -10579,7 +10584,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -10602,19 +10607,19 @@
         <v>43</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>43</v>
@@ -10663,7 +10668,7 @@
         <v>43</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -10681,7 +10686,7 @@
         <v>43</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>43</v>
@@ -10692,7 +10697,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -10715,17 +10720,17 @@
         <v>43</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>43</v>
@@ -10774,7 +10779,7 @@
         <v>43</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -10789,10 +10794,10 @@
         <v>62</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>43</v>
@@ -10803,7 +10808,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10829,14 +10834,14 @@
         <v>329</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>43</v>
@@ -10885,7 +10890,7 @@
         <v>43</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -10903,7 +10908,7 @@
         <v>43</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>43</v>
@@ -10914,7 +10919,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10937,17 +10942,17 @@
         <v>43</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>43</v>
@@ -10996,7 +11001,7 @@
         <v>43</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -11025,7 +11030,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -11051,16 +11056,16 @@
         <v>126</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>43</v>
@@ -11088,10 +11093,10 @@
         <v>174</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>43</v>
@@ -11109,7 +11114,7 @@
         <v>43</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>50</v>
@@ -11138,7 +11143,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -11164,14 +11169,14 @@
         <v>52</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>43</v>
@@ -11220,7 +11225,7 @@
         <v>43</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -11249,7 +11254,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -11275,16 +11280,16 @@
         <v>52</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>43</v>
@@ -11333,7 +11338,7 @@
         <v>43</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -11362,7 +11367,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -11388,16 +11393,16 @@
         <v>207</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>43</v>
@@ -11446,7 +11451,7 @@
         <v>43</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -11475,7 +11480,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -11501,14 +11506,14 @@
         <v>316</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>43</v>
@@ -11557,7 +11562,7 @@
         <v>43</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -11586,7 +11591,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11695,7 +11700,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11806,7 +11811,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11919,7 +11924,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11942,17 +11947,17 @@
         <v>43</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>43</v>
@@ -12001,7 +12006,7 @@
         <v>43</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>50</v>
@@ -12030,7 +12035,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -12056,14 +12061,14 @@
         <v>289</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>43</v>
@@ -12112,7 +12117,7 @@
         <v>43</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>50</v>
@@ -12130,7 +12135,7 @@
         <v>43</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>43</v>
@@ -12141,7 +12146,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -12164,19 +12169,19 @@
         <v>43</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>43</v>
@@ -12225,7 +12230,7 @@
         <v>43</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -12254,7 +12259,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -12280,16 +12285,16 @@
         <v>180</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>43</v>
@@ -12314,11 +12319,13 @@
         <v>43</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X80" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="Y80" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>43</v>
@@ -12336,7 +12343,7 @@
         <v>43</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -12365,7 +12372,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -12391,14 +12398,14 @@
         <v>180</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>43</v>
@@ -12426,10 +12433,10 @@
         <v>116</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>43</v>
@@ -12447,7 +12454,7 @@
         <v>43</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -12476,7 +12483,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12502,16 +12509,16 @@
         <v>316</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>43</v>
@@ -12560,7 +12567,7 @@
         <v>43</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -12589,7 +12596,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12698,7 +12705,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12809,7 +12816,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12922,7 +12929,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12945,17 +12952,17 @@
         <v>43</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>43</v>
@@ -13004,7 +13011,7 @@
         <v>43</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>50</v>
@@ -13033,7 +13040,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -13059,16 +13066,16 @@
         <v>180</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>43</v>
@@ -13097,7 +13104,7 @@
       </c>
       <c r="X87" s="2"/>
       <c r="Y87" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>43</v>
@@ -13115,7 +13122,7 @@
         <v>43</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>50</v>
@@ -13144,7 +13151,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -13253,7 +13260,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -13364,7 +13371,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -13390,16 +13397,16 @@
         <v>104</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>43</v>
@@ -13428,7 +13435,7 @@
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>43</v>
@@ -13446,7 +13453,7 @@
         <v>43</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
@@ -13467,15 +13474,15 @@
         <v>43</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13501,16 +13508,16 @@
         <v>52</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>43</v>
@@ -13559,7 +13566,7 @@
         <v>43</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
@@ -13580,15 +13587,15 @@
         <v>43</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13614,16 +13621,16 @@
         <v>180</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M92" t="s" s="2">
         <v>244</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>43</v>
@@ -13651,10 +13658,10 @@
         <v>116</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>43</v>
@@ -13672,7 +13679,7 @@
         <v>43</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>41</v>
@@ -13701,7 +13708,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13724,13 +13731,13 @@
         <v>43</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -13781,7 +13788,7 @@
         <v>43</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>41</v>
@@ -13810,7 +13817,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13833,19 +13840,19 @@
         <v>43</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>43</v>
@@ -13894,7 +13901,7 @@
         <v>43</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>41</v>
@@ -13923,7 +13930,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13949,16 +13956,16 @@
         <v>104</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>43</v>
@@ -13986,10 +13993,10 @@
         <v>116</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>43</v>
@@ -14007,7 +14014,7 @@
         <v>43</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>41</v>
@@ -14036,7 +14043,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -14062,14 +14069,14 @@
         <v>316</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>43</v>
@@ -14118,7 +14125,7 @@
         <v>43</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>41</v>
@@ -14147,7 +14154,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -14256,7 +14263,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -14367,7 +14374,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14480,7 +14487,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14503,19 +14510,19 @@
         <v>43</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>43</v>
@@ -14564,7 +14571,7 @@
         <v>43</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>50</v>
@@ -14593,7 +14600,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14616,17 +14623,17 @@
         <v>43</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>43</v>
@@ -14654,10 +14661,10 @@
         <v>116</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="Z101" t="s" s="2">
         <v>43</v>
@@ -14675,7 +14682,7 @@
         <v>43</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>50</v>
@@ -14704,7 +14711,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14730,16 +14737,16 @@
         <v>180</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>43</v>
@@ -14767,10 +14774,10 @@
         <v>116</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>43</v>
@@ -14788,7 +14795,7 @@
         <v>43</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>41</v>
@@ -14817,7 +14824,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14843,14 +14850,14 @@
         <v>180</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>43</v>
@@ -14878,10 +14885,10 @@
         <v>116</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>43</v>
@@ -14899,7 +14906,7 @@
         <v>43</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>41</v>
@@ -14928,7 +14935,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14954,16 +14961,16 @@
         <v>180</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>43</v>
@@ -14991,10 +14998,10 @@
         <v>116</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>43</v>
@@ -15012,7 +15019,7 @@
         <v>43</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>41</v>
@@ -15041,7 +15048,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -15067,14 +15074,14 @@
         <v>316</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>43</v>
@@ -15123,7 +15130,7 @@
         <v>43</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>41</v>
@@ -15152,7 +15159,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -15261,7 +15268,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -15372,7 +15379,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15485,7 +15492,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15508,17 +15515,17 @@
         <v>43</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>43</v>
@@ -15567,7 +15574,7 @@
         <v>43</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>50</v>
@@ -15596,7 +15603,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15622,14 +15629,14 @@
         <v>180</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>43</v>
@@ -15657,10 +15664,10 @@
         <v>116</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>43</v>
@@ -15678,7 +15685,7 @@
         <v>43</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>41</v>
@@ -15707,7 +15714,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15733,14 +15740,14 @@
         <v>269</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>43</v>
@@ -15789,7 +15796,7 @@
         <v>43</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>41</v>
@@ -15818,7 +15825,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15844,14 +15851,14 @@
         <v>180</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>43</v>
@@ -15879,10 +15886,10 @@
         <v>116</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>43</v>
@@ -15900,7 +15907,7 @@
         <v>43</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>50</v>
@@ -15929,7 +15936,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15952,17 +15959,17 @@
         <v>43</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>43</v>
@@ -16011,7 +16018,7 @@
         <v>43</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>41</v>
@@ -16040,7 +16047,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -16063,17 +16070,17 @@
         <v>43</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>43</v>
@@ -16122,7 +16129,7 @@
         <v>43</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>41</v>
@@ -16151,7 +16158,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -16162,7 +16169,7 @@
         <v>50</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>43</v>
@@ -16177,16 +16184,16 @@
         <v>316</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>43</v>
@@ -16223,7 +16230,7 @@
         <v>43</v>
       </c>
       <c r="AA115" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AB115" t="s" s="2">
         <v>164</v>
@@ -16232,10 +16239,10 @@
         <v>43</v>
       </c>
       <c r="AD115" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>50</v>
@@ -16256,7 +16263,7 @@
         <v>43</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>43</v>
@@ -16264,7 +16271,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -16373,7 +16380,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16484,7 +16491,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16597,7 +16604,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16620,19 +16627,19 @@
         <v>51</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>43</v>
@@ -16681,7 +16688,7 @@
         <v>43</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>50</v>
@@ -16710,7 +16717,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16733,17 +16740,17 @@
         <v>51</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>43</v>
@@ -16792,7 +16799,7 @@
         <v>43</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>50</v>
@@ -16821,7 +16828,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16847,16 +16854,16 @@
         <v>52</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>43</v>
@@ -16905,7 +16912,7 @@
         <v>43</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>41</v>
@@ -16934,10 +16941,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C122" t="s" s="2">
         <v>43</v>
@@ -16962,16 +16969,16 @@
         <v>316</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>43</v>
@@ -17020,7 +17027,7 @@
         <v>43</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>50</v>
@@ -17041,7 +17048,7 @@
         <v>43</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>43</v>
@@ -17049,7 +17056,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -17158,7 +17165,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -17269,7 +17276,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -17382,7 +17389,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17405,19 +17412,19 @@
         <v>51</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>43</v>
@@ -17427,7 +17434,7 @@
         <v>43</v>
       </c>
       <c r="R126" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>43</v>
@@ -17466,7 +17473,7 @@
         <v>43</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>50</v>
@@ -17495,7 +17502,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -17518,17 +17525,17 @@
         <v>51</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>43</v>
@@ -17577,7 +17584,7 @@
         <v>43</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>50</v>
@@ -17606,7 +17613,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17632,16 +17639,16 @@
         <v>52</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>43</v>
@@ -17690,7 +17697,7 @@
         <v>43</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>41</v>
@@ -17719,10 +17726,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C129" t="s" s="2">
         <v>43</v>
@@ -17747,16 +17754,16 @@
         <v>316</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>43</v>
@@ -17805,7 +17812,7 @@
         <v>43</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>50</v>
@@ -17826,7 +17833,7 @@
         <v>43</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>43</v>
@@ -17834,7 +17841,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17943,7 +17950,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -18054,7 +18061,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -18167,7 +18174,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -18190,19 +18197,19 @@
         <v>51</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>43</v>
@@ -18212,7 +18219,7 @@
         <v>43</v>
       </c>
       <c r="R133" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="S133" t="s" s="2">
         <v>43</v>
@@ -18251,7 +18258,7 @@
         <v>43</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>50</v>
@@ -18280,7 +18287,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -18303,17 +18310,17 @@
         <v>51</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>43</v>
@@ -18362,7 +18369,7 @@
         <v>43</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>50</v>
@@ -18391,7 +18398,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -18417,16 +18424,16 @@
         <v>52</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>43</v>
@@ -18475,7 +18482,7 @@
         <v>43</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>41</v>
@@ -18504,7 +18511,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18530,14 +18537,14 @@
         <v>316</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>43</v>
@@ -18586,7 +18593,7 @@
         <v>43</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>41</v>
@@ -18615,7 +18622,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -18724,7 +18731,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -18835,7 +18842,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -18948,7 +18955,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18971,19 +18978,19 @@
         <v>43</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>43</v>
@@ -19032,7 +19039,7 @@
         <v>43</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>41</v>
@@ -19061,7 +19068,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -19087,14 +19094,14 @@
         <v>180</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>43</v>
@@ -19122,10 +19129,10 @@
         <v>108</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="Z141" t="s" s="2">
         <v>43</v>
@@ -19143,7 +19150,7 @@
         <v>43</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>41</v>
@@ -19172,7 +19179,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -19195,17 +19202,17 @@
         <v>43</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>43</v>
@@ -19254,7 +19261,7 @@
         <v>43</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>41</v>
@@ -19283,7 +19290,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -19309,14 +19316,14 @@
         <v>316</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>43</v>
@@ -19365,7 +19372,7 @@
         <v>43</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>41</v>
@@ -19394,7 +19401,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -19503,7 +19510,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19614,7 +19621,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19727,7 +19734,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19750,17 +19757,17 @@
         <v>43</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>43</v>
@@ -19809,7 +19816,7 @@
         <v>43</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>50</v>
@@ -19838,7 +19845,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19861,17 +19868,17 @@
         <v>43</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>43</v>
@@ -19920,7 +19927,7 @@
         <v>43</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>41</v>
@@ -19949,7 +19956,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19972,17 +19979,17 @@
         <v>43</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="M149" s="2"/>
       <c r="N149" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>43</v>
@@ -20031,7 +20038,7 @@
         <v>43</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>41</v>
@@ -20060,7 +20067,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -20083,17 +20090,17 @@
         <v>43</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>43</v>
@@ -20142,7 +20149,7 @@
         <v>43</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>41</v>
@@ -20171,7 +20178,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -20194,17 +20201,17 @@
         <v>43</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>43</v>
@@ -20253,7 +20260,7 @@
         <v>43</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>41</v>
@@ -20282,7 +20289,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -20308,14 +20315,14 @@
         <v>180</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>43</v>
@@ -20343,10 +20350,10 @@
         <v>116</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="Z152" t="s" s="2">
         <v>43</v>
@@ -20364,7 +20371,7 @@
         <v>43</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>41</v>
@@ -20393,7 +20400,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20419,16 +20426,16 @@
         <v>180</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>43</v>
@@ -20456,10 +20463,10 @@
         <v>116</v>
       </c>
       <c r="X153" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="Y153" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="Z153" t="s" s="2">
         <v>43</v>
@@ -20477,7 +20484,7 @@
         <v>43</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>41</v>
@@ -20506,11 +20513,11 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -20532,16 +20539,16 @@
         <v>180</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>43</v>
@@ -20569,10 +20576,10 @@
         <v>116</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="Z154" t="s" s="2">
         <v>43</v>
@@ -20590,7 +20597,7 @@
         <v>43</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>50</v>
@@ -20619,7 +20626,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20645,16 +20652,16 @@
         <v>180</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>43</v>
@@ -20682,10 +20689,10 @@
         <v>116</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="Z155" t="s" s="2">
         <v>43</v>
@@ -20703,7 +20710,7 @@
         <v>43</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>41</v>
@@ -20732,7 +20739,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20758,16 +20765,16 @@
         <v>180</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>43</v>
@@ -20795,10 +20802,10 @@
         <v>116</v>
       </c>
       <c r="X156" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="Y156" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="Z156" t="s" s="2">
         <v>43</v>
@@ -20816,7 +20823,7 @@
         <v>43</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>41</v>
@@ -20845,7 +20852,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20868,17 +20875,17 @@
         <v>43</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="M157" s="2"/>
       <c r="N157" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>43</v>
@@ -20927,7 +20934,7 @@
         <v>43</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>41</v>
@@ -20956,7 +20963,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20979,17 +20986,17 @@
         <v>43</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>43</v>
@@ -21017,10 +21024,10 @@
         <v>116</v>
       </c>
       <c r="X158" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="Y158" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="Z158" t="s" s="2">
         <v>43</v>
@@ -21038,7 +21045,7 @@
         <v>43</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>41</v>
@@ -21056,7 +21063,7 @@
         <v>43</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL158" t="s" s="2">
         <v>43</v>
@@ -21067,7 +21074,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -21090,17 +21097,17 @@
         <v>43</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>43</v>
@@ -21149,7 +21156,7 @@
         <v>43</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>41</v>
@@ -21178,7 +21185,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -21201,17 +21208,17 @@
         <v>43</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="M160" s="2"/>
       <c r="N160" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>43</v>
@@ -21260,7 +21267,7 @@
         <v>43</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>41</v>
@@ -21289,7 +21296,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -21312,19 +21319,19 @@
         <v>43</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>43</v>
@@ -21373,7 +21380,7 @@
         <v>43</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>41</v>
@@ -21402,7 +21409,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21425,19 +21432,19 @@
         <v>43</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>43</v>
@@ -21486,7 +21493,7 @@
         <v>43</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>41</v>
@@ -21515,7 +21522,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21538,17 +21545,17 @@
         <v>43</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M163" s="2"/>
       <c r="N163" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>43</v>
@@ -21597,7 +21604,7 @@
         <v>43</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>41</v>
@@ -21626,7 +21633,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21652,16 +21659,16 @@
         <v>180</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>43</v>
@@ -21689,10 +21696,10 @@
         <v>116</v>
       </c>
       <c r="X164" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="Z164" t="s" s="2">
         <v>43</v>
@@ -21710,7 +21717,7 @@
         <v>43</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>41</v>
@@ -21739,7 +21746,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21765,14 +21772,14 @@
         <v>180</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="M165" s="2"/>
       <c r="N165" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>43</v>
@@ -21800,10 +21807,10 @@
         <v>116</v>
       </c>
       <c r="X165" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="Z165" t="s" s="2">
         <v>43</v>
@@ -21821,7 +21828,7 @@
         <v>43</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>41</v>
@@ -21850,7 +21857,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21873,17 +21880,17 @@
         <v>43</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>43</v>
@@ -21932,7 +21939,7 @@
         <v>43</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>41</v>
@@ -21961,7 +21968,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21984,17 +21991,17 @@
         <v>43</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>43</v>
@@ -22043,7 +22050,7 @@
         <v>43</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>41</v>
@@ -22072,7 +22079,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -22098,14 +22105,14 @@
         <v>316</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>43</v>
@@ -22154,7 +22161,7 @@
         <v>43</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>41</v>
@@ -22183,7 +22190,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -22292,7 +22299,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -22403,7 +22410,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -22516,7 +22523,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22542,16 +22549,16 @@
         <v>180</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>43</v>
@@ -22580,7 +22587,7 @@
       </c>
       <c r="X172" s="2"/>
       <c r="Y172" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="Z172" t="s" s="2">
         <v>43</v>
@@ -22598,7 +22605,7 @@
         <v>43</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>50</v>
@@ -22627,7 +22634,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -22653,16 +22660,16 @@
         <v>180</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>43</v>
@@ -22690,10 +22697,10 @@
         <v>116</v>
       </c>
       <c r="X173" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="Y173" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="Z173" t="s" s="2">
         <v>43</v>
@@ -22711,7 +22718,7 @@
         <v>43</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>41</v>
@@ -22740,7 +22747,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22763,19 +22770,19 @@
         <v>43</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>43</v>
@@ -22824,7 +22831,7 @@
         <v>43</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>41</v>
@@ -22853,7 +22860,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22876,19 +22883,19 @@
         <v>43</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>43</v>
@@ -22937,7 +22944,7 @@
         <v>43</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>41</v>
@@ -22966,7 +22973,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -22992,10 +22999,10 @@
         <v>316</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
@@ -23046,7 +23053,7 @@
         <v>43</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>41</v>
@@ -23075,7 +23082,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -23184,7 +23191,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23295,7 +23302,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -23408,7 +23415,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23431,17 +23438,17 @@
         <v>43</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="M180" s="2"/>
       <c r="N180" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>43</v>
@@ -23490,7 +23497,7 @@
         <v>43</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>50</v>
@@ -23519,7 +23526,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -23545,14 +23552,14 @@
         <v>180</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="M181" s="2"/>
       <c r="N181" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="O181" t="s" s="2">
         <v>43</v>
@@ -23580,10 +23587,10 @@
         <v>116</v>
       </c>
       <c r="X181" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="Y181" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="Z181" t="s" s="2">
         <v>43</v>
@@ -23601,7 +23608,7 @@
         <v>43</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>41</v>
@@ -23630,7 +23637,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23656,16 +23663,16 @@
         <v>180</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="O182" t="s" s="2">
         <v>43</v>
@@ -23693,10 +23700,10 @@
         <v>116</v>
       </c>
       <c r="X182" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="Y182" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="Z182" t="s" s="2">
         <v>43</v>
@@ -23714,7 +23721,7 @@
         <v>43</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>41</v>
@@ -23743,11 +23750,11 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -23769,16 +23776,16 @@
         <v>180</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="O183" t="s" s="2">
         <v>43</v>
@@ -23806,10 +23813,10 @@
         <v>116</v>
       </c>
       <c r="X183" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="Y183" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="Z183" t="s" s="2">
         <v>43</v>
@@ -23827,7 +23834,7 @@
         <v>43</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>50</v>
@@ -23856,7 +23863,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23882,16 +23889,16 @@
         <v>180</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>43</v>
@@ -23919,10 +23926,10 @@
         <v>116</v>
       </c>
       <c r="X184" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="Y184" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="Z184" t="s" s="2">
         <v>43</v>
@@ -23940,7 +23947,7 @@
         <v>43</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>41</v>
@@ -23969,7 +23976,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -23995,16 +24002,16 @@
         <v>180</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>43</v>
@@ -24032,10 +24039,10 @@
         <v>116</v>
       </c>
       <c r="X185" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="Y185" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="Z185" t="s" s="2">
         <v>43</v>
@@ -24053,7 +24060,7 @@
         <v>43</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>41</v>
@@ -24082,7 +24089,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -24105,17 +24112,17 @@
         <v>43</v>
       </c>
       <c r="J186" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M186" s="2"/>
       <c r="N186" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="O186" t="s" s="2">
         <v>43</v>
@@ -24164,7 +24171,7 @@
         <v>43</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>41</v>
@@ -24193,7 +24200,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -24216,17 +24223,17 @@
         <v>43</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="M187" s="2"/>
       <c r="N187" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>43</v>
@@ -24275,7 +24282,7 @@
         <v>43</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>41</v>
@@ -24304,7 +24311,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -24327,19 +24334,19 @@
         <v>43</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>43</v>
@@ -24388,7 +24395,7 @@
         <v>43</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>41</v>
@@ -24417,7 +24424,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -24440,19 +24447,19 @@
         <v>43</v>
       </c>
       <c r="J189" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="N189" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>43</v>
@@ -24501,7 +24508,7 @@
         <v>43</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>41</v>
@@ -24530,7 +24537,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -24553,17 +24560,17 @@
         <v>43</v>
       </c>
       <c r="J190" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M190" s="2"/>
       <c r="N190" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>43</v>
@@ -24612,7 +24619,7 @@
         <v>43</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>41</v>
@@ -24641,7 +24648,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -24664,17 +24671,17 @@
         <v>43</v>
       </c>
       <c r="J191" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="M191" s="2"/>
       <c r="N191" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>43</v>
@@ -24723,7 +24730,7 @@
         <v>43</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>41</v>
@@ -24752,7 +24759,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24778,10 +24785,10 @@
         <v>43</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="M192" s="2"/>
       <c r="N192" s="2"/>
@@ -24832,7 +24839,7 @@
         <v>43</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>41</v>
@@ -24861,7 +24868,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -24887,10 +24894,10 @@
         <v>316</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
@@ -24941,7 +24948,7 @@
         <v>43</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>41</v>
@@ -24970,7 +24977,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -25079,7 +25086,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -25190,7 +25197,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -25303,7 +25310,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -25326,17 +25333,17 @@
         <v>43</v>
       </c>
       <c r="J197" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>43</v>
@@ -25385,7 +25392,7 @@
         <v>43</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>50</v>
@@ -25414,7 +25421,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25440,14 +25447,14 @@
         <v>180</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="M198" s="2"/>
       <c r="N198" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="O198" t="s" s="2">
         <v>43</v>
@@ -25475,10 +25482,10 @@
         <v>116</v>
       </c>
       <c r="X198" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="Y198" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="Z198" t="s" s="2">
         <v>43</v>
@@ -25496,7 +25503,7 @@
         <v>43</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>41</v>
@@ -25525,7 +25532,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25551,16 +25558,16 @@
         <v>180</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="O199" t="s" s="2">
         <v>43</v>
@@ -25588,10 +25595,10 @@
         <v>116</v>
       </c>
       <c r="X199" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="Y199" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="Z199" t="s" s="2">
         <v>43</v>
@@ -25609,7 +25616,7 @@
         <v>43</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>41</v>
@@ -25638,11 +25645,11 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" t="s" s="2">
@@ -25664,16 +25671,16 @@
         <v>180</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>43</v>
@@ -25701,10 +25708,10 @@
         <v>116</v>
       </c>
       <c r="X200" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="Y200" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="Z200" t="s" s="2">
         <v>43</v>
@@ -25722,7 +25729,7 @@
         <v>43</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>50</v>
@@ -25751,7 +25758,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -25777,16 +25784,16 @@
         <v>180</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="O201" t="s" s="2">
         <v>43</v>
@@ -25814,10 +25821,10 @@
         <v>116</v>
       </c>
       <c r="X201" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="Y201" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="Z201" t="s" s="2">
         <v>43</v>
@@ -25835,7 +25842,7 @@
         <v>43</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>41</v>
@@ -25864,7 +25871,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -25890,16 +25897,16 @@
         <v>180</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="O202" t="s" s="2">
         <v>43</v>
@@ -25927,10 +25934,10 @@
         <v>116</v>
       </c>
       <c r="X202" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="Y202" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="Z202" t="s" s="2">
         <v>43</v>
@@ -25948,7 +25955,7 @@
         <v>43</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>41</v>
@@ -25977,7 +25984,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -26000,17 +26007,17 @@
         <v>43</v>
       </c>
       <c r="J203" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M203" s="2"/>
       <c r="N203" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="O203" t="s" s="2">
         <v>43</v>
@@ -26059,7 +26066,7 @@
         <v>43</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>41</v>
@@ -26088,7 +26095,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -26111,17 +26118,17 @@
         <v>43</v>
       </c>
       <c r="J204" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>43</v>
@@ -26170,7 +26177,7 @@
         <v>43</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>41</v>
@@ -26199,7 +26206,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -26222,19 +26229,19 @@
         <v>43</v>
       </c>
       <c r="J205" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="O205" t="s" s="2">
         <v>43</v>
@@ -26283,7 +26290,7 @@
         <v>43</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>41</v>
@@ -26312,7 +26319,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26335,19 +26342,19 @@
         <v>43</v>
       </c>
       <c r="J206" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="O206" t="s" s="2">
         <v>43</v>
@@ -26396,7 +26403,7 @@
         <v>43</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>41</v>
@@ -26425,7 +26432,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -26448,17 +26455,17 @@
         <v>43</v>
       </c>
       <c r="J207" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M207" s="2"/>
       <c r="N207" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="O207" t="s" s="2">
         <v>43</v>
@@ -26507,7 +26514,7 @@
         <v>43</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="AF207" t="s" s="2">
         <v>41</v>
@@ -26536,7 +26543,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -26559,17 +26566,17 @@
         <v>43</v>
       </c>
       <c r="J208" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="M208" s="2"/>
       <c r="N208" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="O208" t="s" s="2">
         <v>43</v>
@@ -26618,7 +26625,7 @@
         <v>43</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>41</v>
@@ -26647,7 +26654,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -26673,10 +26680,10 @@
         <v>43</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="M209" s="2"/>
       <c r="N209" s="2"/>
@@ -26727,7 +26734,7 @@
         <v>43</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>41</v>
@@ -26756,7 +26763,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -26782,14 +26789,14 @@
         <v>316</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="M210" s="2"/>
       <c r="N210" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>43</v>
@@ -26838,7 +26845,7 @@
         <v>43</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>41</v>
@@ -26867,7 +26874,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -26976,7 +26983,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -27087,7 +27094,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -27200,7 +27207,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -27223,17 +27230,17 @@
         <v>43</v>
       </c>
       <c r="J214" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="M214" s="2"/>
       <c r="N214" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="O214" t="s" s="2">
         <v>43</v>
@@ -27282,7 +27289,7 @@
         <v>43</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>41</v>
@@ -27311,7 +27318,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -27334,17 +27341,17 @@
         <v>43</v>
       </c>
       <c r="J215" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="M215" s="2"/>
       <c r="N215" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="O215" t="s" s="2">
         <v>43</v>
@@ -27393,7 +27400,7 @@
         <v>43</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="AF215" t="s" s="2">
         <v>41</v>
@@ -27422,7 +27429,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -27445,17 +27452,17 @@
         <v>43</v>
       </c>
       <c r="J216" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="M216" s="2"/>
       <c r="N216" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="O216" t="s" s="2">
         <v>43</v>
@@ -27504,7 +27511,7 @@
         <v>43</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>41</v>
@@ -27533,7 +27540,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -27559,14 +27566,14 @@
         <v>289</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="M217" s="2"/>
       <c r="N217" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="O217" t="s" s="2">
         <v>43</v>
@@ -27615,7 +27622,7 @@
         <v>43</v>
       </c>
       <c r="AE217" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="AF217" t="s" s="2">
         <v>41</v>
@@ -27644,11 +27651,11 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" t="s" s="2">
@@ -27670,16 +27677,16 @@
         <v>180</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="O218" t="s" s="2">
         <v>43</v>
@@ -27707,10 +27714,10 @@
         <v>116</v>
       </c>
       <c r="X218" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="Y218" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="Z218" t="s" s="2">
         <v>43</v>
@@ -27728,7 +27735,7 @@
         <v>43</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="AF218" t="s" s="2">
         <v>50</v>
@@ -27757,7 +27764,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -27783,16 +27790,16 @@
         <v>180</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="O219" t="s" s="2">
         <v>43</v>
@@ -27820,10 +27827,10 @@
         <v>116</v>
       </c>
       <c r="X219" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="Y219" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="Z219" t="s" s="2">
         <v>43</v>
@@ -27841,7 +27848,7 @@
         <v>43</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>41</v>
@@ -27870,7 +27877,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -27896,16 +27903,16 @@
         <v>180</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="O220" t="s" s="2">
         <v>43</v>
@@ -27933,10 +27940,10 @@
         <v>116</v>
       </c>
       <c r="X220" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="Y220" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="Z220" t="s" s="2">
         <v>43</v>
@@ -27954,7 +27961,7 @@
         <v>43</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AF220" t="s" s="2">
         <v>41</v>
@@ -27983,7 +27990,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -28006,17 +28013,17 @@
         <v>43</v>
       </c>
       <c r="J221" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="M221" s="2"/>
       <c r="N221" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="O221" t="s" s="2">
         <v>43</v>
@@ -28065,7 +28072,7 @@
         <v>43</v>
       </c>
       <c r="AE221" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="AF221" t="s" s="2">
         <v>41</v>
@@ -28094,7 +28101,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -28117,17 +28124,17 @@
         <v>43</v>
       </c>
       <c r="J222" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="M222" s="2"/>
       <c r="N222" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="O222" t="s" s="2">
         <v>43</v>
@@ -28155,10 +28162,10 @@
         <v>116</v>
       </c>
       <c r="X222" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="Y222" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="Z222" t="s" s="2">
         <v>43</v>
@@ -28176,7 +28183,7 @@
         <v>43</v>
       </c>
       <c r="AE222" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="AF222" t="s" s="2">
         <v>41</v>
@@ -28194,7 +28201,7 @@
         <v>43</v>
       </c>
       <c r="AK222" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL222" t="s" s="2">
         <v>43</v>
@@ -28205,7 +28212,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -28228,17 +28235,17 @@
         <v>43</v>
       </c>
       <c r="J223" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M223" s="2"/>
       <c r="N223" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="O223" t="s" s="2">
         <v>43</v>
@@ -28287,7 +28294,7 @@
         <v>43</v>
       </c>
       <c r="AE223" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="AF223" t="s" s="2">
         <v>41</v>
@@ -28316,7 +28323,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -28339,17 +28346,17 @@
         <v>43</v>
       </c>
       <c r="J224" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="M224" s="2"/>
       <c r="N224" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="O224" t="s" s="2">
         <v>43</v>
@@ -28398,7 +28405,7 @@
         <v>43</v>
       </c>
       <c r="AE224" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="AF224" t="s" s="2">
         <v>41</v>
@@ -28427,7 +28434,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -28450,19 +28457,19 @@
         <v>43</v>
       </c>
       <c r="J225" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="O225" t="s" s="2">
         <v>43</v>
@@ -28511,7 +28518,7 @@
         <v>43</v>
       </c>
       <c r="AE225" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="AF225" t="s" s="2">
         <v>41</v>
@@ -28540,7 +28547,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -28563,19 +28570,19 @@
         <v>43</v>
       </c>
       <c r="J226" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="O226" t="s" s="2">
         <v>43</v>
@@ -28624,7 +28631,7 @@
         <v>43</v>
       </c>
       <c r="AE226" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="AF226" t="s" s="2">
         <v>41</v>
@@ -28653,7 +28660,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -28679,16 +28686,16 @@
         <v>180</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="O227" t="s" s="2">
         <v>43</v>
@@ -28716,10 +28723,10 @@
         <v>116</v>
       </c>
       <c r="X227" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Y227" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="Z227" t="s" s="2">
         <v>43</v>
@@ -28737,7 +28744,7 @@
         <v>43</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>41</v>
@@ -28766,7 +28773,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -28792,14 +28799,14 @@
         <v>180</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="M228" s="2"/>
       <c r="N228" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="O228" t="s" s="2">
         <v>43</v>
@@ -28827,10 +28834,10 @@
         <v>116</v>
       </c>
       <c r="X228" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="Y228" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="Z228" t="s" s="2">
         <v>43</v>
@@ -28848,7 +28855,7 @@
         <v>43</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="AF228" t="s" s="2">
         <v>41</v>
@@ -28877,7 +28884,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -28900,17 +28907,17 @@
         <v>43</v>
       </c>
       <c r="J229" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="M229" s="2"/>
       <c r="N229" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="O229" t="s" s="2">
         <v>43</v>
@@ -28959,7 +28966,7 @@
         <v>43</v>
       </c>
       <c r="AE229" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="AF229" t="s" s="2">
         <v>41</v>
@@ -28988,7 +28995,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -29014,10 +29021,10 @@
         <v>43</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="M230" s="2"/>
       <c r="N230" s="2"/>
@@ -29068,7 +29075,7 @@
         <v>43</v>
       </c>
       <c r="AE230" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="AF230" t="s" s="2">
         <v>41</v>
@@ -29097,7 +29104,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -29123,10 +29130,10 @@
         <v>316</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="M231" s="2"/>
       <c r="N231" s="2"/>
@@ -29177,7 +29184,7 @@
         <v>43</v>
       </c>
       <c r="AE231" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="AF231" t="s" s="2">
         <v>41</v>
@@ -29206,7 +29213,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -29315,7 +29322,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -29426,7 +29433,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -29539,11 +29546,11 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" t="s" s="2">
@@ -29565,16 +29572,16 @@
         <v>180</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="O235" t="s" s="2">
         <v>43</v>
@@ -29602,10 +29609,10 @@
         <v>116</v>
       </c>
       <c r="X235" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="Y235" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="Z235" t="s" s="2">
         <v>43</v>
@@ -29623,7 +29630,7 @@
         <v>43</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>50</v>
@@ -29652,7 +29659,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -29678,16 +29685,16 @@
         <v>180</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="N236" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="O236" t="s" s="2">
         <v>43</v>
@@ -29715,10 +29722,10 @@
         <v>116</v>
       </c>
       <c r="X236" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="Y236" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="Z236" t="s" s="2">
         <v>43</v>
@@ -29736,7 +29743,7 @@
         <v>43</v>
       </c>
       <c r="AE236" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="AF236" t="s" s="2">
         <v>41</v>
@@ -29765,7 +29772,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -29788,17 +29795,17 @@
         <v>43</v>
       </c>
       <c r="J237" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M237" s="2"/>
       <c r="N237" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="O237" t="s" s="2">
         <v>43</v>
@@ -29847,7 +29854,7 @@
         <v>43</v>
       </c>
       <c r="AE237" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="AF237" t="s" s="2">
         <v>41</v>
@@ -29876,7 +29883,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -29899,17 +29906,17 @@
         <v>43</v>
       </c>
       <c r="J238" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="M238" s="2"/>
       <c r="N238" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="O238" t="s" s="2">
         <v>43</v>
@@ -29958,7 +29965,7 @@
         <v>43</v>
       </c>
       <c r="AE238" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="AF238" t="s" s="2">
         <v>41</v>
@@ -29987,7 +29994,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -30010,19 +30017,19 @@
         <v>43</v>
       </c>
       <c r="J239" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K239" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="N239" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="O239" t="s" s="2">
         <v>43</v>
@@ -30071,7 +30078,7 @@
         <v>43</v>
       </c>
       <c r="AE239" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="AF239" t="s" s="2">
         <v>41</v>
@@ -30100,7 +30107,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -30123,19 +30130,19 @@
         <v>43</v>
       </c>
       <c r="J240" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="N240" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="O240" t="s" s="2">
         <v>43</v>
@@ -30184,7 +30191,7 @@
         <v>43</v>
       </c>
       <c r="AE240" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="AF240" t="s" s="2">
         <v>41</v>
@@ -30213,7 +30220,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -30236,17 +30243,17 @@
         <v>43</v>
       </c>
       <c r="J241" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="M241" s="2"/>
       <c r="N241" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="O241" t="s" s="2">
         <v>43</v>
@@ -30295,7 +30302,7 @@
         <v>43</v>
       </c>
       <c r="AE241" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="AF241" t="s" s="2">
         <v>41</v>
@@ -30324,7 +30331,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -30350,10 +30357,10 @@
         <v>43</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="M242" s="2"/>
       <c r="N242" s="2"/>
@@ -30404,7 +30411,7 @@
         <v>43</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>41</v>
@@ -30433,7 +30440,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -30459,10 +30466,10 @@
         <v>316</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="M243" s="2"/>
       <c r="N243" s="2"/>
@@ -30513,7 +30520,7 @@
         <v>43</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>41</v>
@@ -30542,7 +30549,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -30651,7 +30658,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -30762,7 +30769,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -30875,11 +30882,11 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" t="s" s="2">
@@ -30901,16 +30908,16 @@
         <v>180</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="N247" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="O247" t="s" s="2">
         <v>43</v>
@@ -30938,10 +30945,10 @@
         <v>116</v>
       </c>
       <c r="X247" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="Y247" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="Z247" t="s" s="2">
         <v>43</v>
@@ -30959,7 +30966,7 @@
         <v>43</v>
       </c>
       <c r="AE247" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="AF247" t="s" s="2">
         <v>50</v>
@@ -30988,7 +30995,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
@@ -31014,16 +31021,16 @@
         <v>180</v>
       </c>
       <c r="K248" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="M248" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="N248" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="O248" t="s" s="2">
         <v>43</v>
@@ -31051,10 +31058,10 @@
         <v>116</v>
       </c>
       <c r="X248" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="Y248" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="Z248" t="s" s="2">
         <v>43</v>
@@ -31072,7 +31079,7 @@
         <v>43</v>
       </c>
       <c r="AE248" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="AF248" t="s" s="2">
         <v>41</v>
@@ -31101,7 +31108,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -31124,17 +31131,17 @@
         <v>43</v>
       </c>
       <c r="J249" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="K249" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M249" s="2"/>
       <c r="N249" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="O249" t="s" s="2">
         <v>43</v>
@@ -31183,7 +31190,7 @@
         <v>43</v>
       </c>
       <c r="AE249" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="AF249" t="s" s="2">
         <v>41</v>
@@ -31212,7 +31219,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -31235,17 +31242,17 @@
         <v>43</v>
       </c>
       <c r="J250" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="M250" s="2"/>
       <c r="N250" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="O250" t="s" s="2">
         <v>43</v>
@@ -31294,7 +31301,7 @@
         <v>43</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>41</v>
@@ -31323,7 +31330,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -31346,19 +31353,19 @@
         <v>43</v>
       </c>
       <c r="J251" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K251" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="N251" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="O251" t="s" s="2">
         <v>43</v>
@@ -31407,7 +31414,7 @@
         <v>43</v>
       </c>
       <c r="AE251" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="AF251" t="s" s="2">
         <v>41</v>
@@ -31436,7 +31443,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -31459,19 +31466,19 @@
         <v>43</v>
       </c>
       <c r="J252" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="N252" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>43</v>
@@ -31520,7 +31527,7 @@
         <v>43</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="AF252" t="s" s="2">
         <v>41</v>
@@ -31549,7 +31556,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -31572,17 +31579,17 @@
         <v>43</v>
       </c>
       <c r="J253" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="M253" s="2"/>
       <c r="N253" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="O253" t="s" s="2">
         <v>43</v>
@@ -31631,7 +31638,7 @@
         <v>43</v>
       </c>
       <c r="AE253" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="AF253" t="s" s="2">
         <v>41</v>
@@ -31660,7 +31667,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -31686,10 +31693,10 @@
         <v>43</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="M254" s="2"/>
       <c r="N254" s="2"/>
@@ -31740,7 +31747,7 @@
         <v>43</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>41</v>
@@ -31769,7 +31776,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -31795,14 +31802,14 @@
         <v>43</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="M255" s="2"/>
       <c r="N255" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="O255" t="s" s="2">
         <v>43</v>
@@ -31851,7 +31858,7 @@
         <v>43</v>
       </c>
       <c r="AE255" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="AF255" t="s" s="2">
         <v>41</v>
@@ -31880,7 +31887,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -31906,16 +31913,16 @@
         <v>316</v>
       </c>
       <c r="K256" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="M256" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="N256" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="O256" t="s" s="2">
         <v>43</v>
@@ -31964,7 +31971,7 @@
         <v>43</v>
       </c>
       <c r="AE256" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="AF256" t="s" s="2">
         <v>41</v>
@@ -31993,7 +32000,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -32102,7 +32109,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -32213,7 +32220,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -32326,7 +32333,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -32352,16 +32359,16 @@
         <v>180</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="N260" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="O260" t="s" s="2">
         <v>43</v>
@@ -32390,7 +32397,7 @@
       </c>
       <c r="X260" s="2"/>
       <c r="Y260" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="Z260" t="s" s="2">
         <v>43</v>
@@ -32408,7 +32415,7 @@
         <v>43</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>50</v>
@@ -32437,7 +32444,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -32460,17 +32467,17 @@
         <v>51</v>
       </c>
       <c r="J261" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="M261" s="2"/>
       <c r="N261" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="O261" t="s" s="2">
         <v>43</v>
@@ -32519,7 +32526,7 @@
         <v>43</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>50</v>
@@ -32548,7 +32555,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -32574,14 +32581,14 @@
         <v>316</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="M262" s="2"/>
       <c r="N262" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="O262" t="s" s="2">
         <v>43</v>
@@ -32630,7 +32637,7 @@
         <v>43</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>41</v>
@@ -32659,7 +32666,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -32768,7 +32775,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -32879,7 +32886,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -32992,7 +32999,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -33018,14 +33025,14 @@
         <v>180</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="M266" s="2"/>
       <c r="N266" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="O266" t="s" s="2">
         <v>43</v>
@@ -33054,7 +33061,7 @@
       </c>
       <c r="X266" s="2"/>
       <c r="Y266" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="Z266" t="s" s="2">
         <v>43</v>
@@ -33072,7 +33079,7 @@
         <v>43</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>41</v>
@@ -33101,7 +33108,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -33124,19 +33131,19 @@
         <v>43</v>
       </c>
       <c r="J267" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K267" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="N267" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="O267" t="s" s="2">
         <v>43</v>
@@ -33185,7 +33192,7 @@
         <v>43</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>41</v>
@@ -33214,7 +33221,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -33240,14 +33247,14 @@
         <v>180</v>
       </c>
       <c r="K268" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="M268" s="2"/>
       <c r="N268" t="s" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="O268" t="s" s="2">
         <v>43</v>
@@ -33276,7 +33283,7 @@
       </c>
       <c r="X268" s="2"/>
       <c r="Y268" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="Z268" t="s" s="2">
         <v>43</v>
@@ -33294,7 +33301,7 @@
         <v>43</v>
       </c>
       <c r="AE268" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="AF268" t="s" s="2">
         <v>41</v>
@@ -33323,7 +33330,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -33346,17 +33353,17 @@
         <v>43</v>
       </c>
       <c r="J269" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="M269" s="2"/>
       <c r="N269" t="s" s="2">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>43</v>
@@ -33405,7 +33412,7 @@
         <v>43</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>41</v>
@@ -33434,7 +33441,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -33457,17 +33464,17 @@
         <v>43</v>
       </c>
       <c r="J270" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="M270" s="2"/>
       <c r="N270" t="s" s="2">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="O270" t="s" s="2">
         <v>43</v>
@@ -33516,7 +33523,7 @@
         <v>43</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>41</v>
@@ -33545,7 +33552,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -33571,16 +33578,16 @@
         <v>159</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="M271" t="s" s="2">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="N271" t="s" s="2">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="O271" t="s" s="2">
         <v>43</v>
@@ -33629,7 +33636,7 @@
         <v>43</v>
       </c>
       <c r="AE271" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="AF271" t="s" s="2">
         <v>41</v>
@@ -33658,7 +33665,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -33684,16 +33691,16 @@
         <v>180</v>
       </c>
       <c r="K272" t="s" s="2">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="M272" t="s" s="2">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="N272" t="s" s="2">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="O272" t="s" s="2">
         <v>43</v>
@@ -33721,10 +33728,10 @@
         <v>116</v>
       </c>
       <c r="X272" t="s" s="2">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="Y272" t="s" s="2">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="Z272" t="s" s="2">
         <v>43</v>
@@ -33742,7 +33749,7 @@
         <v>43</v>
       </c>
       <c r="AE272" t="s" s="2">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="AF272" t="s" s="2">
         <v>41</v>
@@ -33771,7 +33778,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -33794,19 +33801,19 @@
         <v>43</v>
       </c>
       <c r="J273" t="s" s="2">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="M273" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="N273" t="s" s="2">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="O273" t="s" s="2">
         <v>43</v>
@@ -33855,7 +33862,7 @@
         <v>43</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>41</v>
@@ -33884,7 +33891,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -33910,14 +33917,14 @@
         <v>316</v>
       </c>
       <c r="K274" t="s" s="2">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="M274" s="2"/>
       <c r="N274" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="O274" t="s" s="2">
         <v>43</v>
@@ -33966,7 +33973,7 @@
         <v>43</v>
       </c>
       <c r="AE274" t="s" s="2">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="AF274" t="s" s="2">
         <v>41</v>
@@ -33995,7 +34002,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -34104,7 +34111,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -34215,7 +34222,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -34328,7 +34335,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -34351,17 +34358,17 @@
         <v>43</v>
       </c>
       <c r="J278" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="M278" s="2"/>
       <c r="N278" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="O278" t="s" s="2">
         <v>43</v>
@@ -34410,7 +34417,7 @@
         <v>43</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>41</v>
@@ -34439,7 +34446,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -34465,14 +34472,14 @@
         <v>126</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="M279" s="2"/>
       <c r="N279" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="O279" t="s" s="2">
         <v>43</v>
@@ -34500,10 +34507,10 @@
         <v>174</v>
       </c>
       <c r="X279" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="Y279" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="Z279" t="s" s="2">
         <v>43</v>
@@ -34521,7 +34528,7 @@
         <v>43</v>
       </c>
       <c r="AE279" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="AF279" t="s" s="2">
         <v>41</v>
@@ -34550,7 +34557,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -34576,14 +34583,14 @@
         <v>52</v>
       </c>
       <c r="K280" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="M280" s="2"/>
       <c r="N280" t="s" s="2">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="O280" t="s" s="2">
         <v>43</v>
@@ -34632,7 +34639,7 @@
         <v>43</v>
       </c>
       <c r="AE280" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="AF280" t="s" s="2">
         <v>41</v>
@@ -34661,7 +34668,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -34687,16 +34694,16 @@
         <v>180</v>
       </c>
       <c r="K281" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="N281" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="O281" t="s" s="2">
         <v>43</v>
@@ -34745,7 +34752,7 @@
         <v>43</v>
       </c>
       <c r="AE281" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="AF281" t="s" s="2">
         <v>41</v>
@@ -34774,7 +34781,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -34800,16 +34807,16 @@
         <v>207</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="N282" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="O282" t="s" s="2">
         <v>43</v>
@@ -34858,7 +34865,7 @@
         <v>43</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>41</v>
@@ -34887,7 +34894,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -34913,10 +34920,10 @@
         <v>316</v>
       </c>
       <c r="K283" t="s" s="2">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="M283" s="2"/>
       <c r="N283" s="2"/>
@@ -34967,7 +34974,7 @@
         <v>43</v>
       </c>
       <c r="AE283" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="AF283" t="s" s="2">
         <v>41</v>
@@ -34996,7 +35003,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -35105,7 +35112,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -35216,7 +35223,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -35329,7 +35336,7 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -35355,16 +35362,16 @@
         <v>180</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="N287" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="O287" t="s" s="2">
         <v>43</v>
@@ -35392,10 +35399,10 @@
         <v>116</v>
       </c>
       <c r="X287" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="Y287" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="Z287" t="s" s="2">
         <v>43</v>
@@ -35413,7 +35420,7 @@
         <v>43</v>
       </c>
       <c r="AE287" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="AF287" t="s" s="2">
         <v>50</v>
@@ -35442,7 +35449,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -35465,17 +35472,17 @@
         <v>43</v>
       </c>
       <c r="J288" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="M288" s="2"/>
       <c r="N288" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="O288" t="s" s="2">
         <v>43</v>
@@ -35524,7 +35531,7 @@
         <v>43</v>
       </c>
       <c r="AE288" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="AF288" t="s" s="2">
         <v>41</v>
@@ -35553,7 +35560,7 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -35579,16 +35586,16 @@
         <v>52</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="N289" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="O289" t="s" s="2">
         <v>43</v>
@@ -35637,7 +35644,7 @@
         <v>43</v>
       </c>
       <c r="AE289" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="AF289" t="s" s="2">
         <v>41</v>
@@ -35666,7 +35673,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -35692,16 +35699,16 @@
         <v>52</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="M290" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="N290" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="O290" t="s" s="2">
         <v>43</v>
@@ -35750,7 +35757,7 @@
         <v>43</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="AF290" t="s" s="2">
         <v>41</v>
@@ -35779,7 +35786,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -35805,14 +35812,14 @@
         <v>180</v>
       </c>
       <c r="K291" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="M291" s="2"/>
       <c r="N291" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="O291" t="s" s="2">
         <v>43</v>
@@ -35840,10 +35847,10 @@
         <v>116</v>
       </c>
       <c r="X291" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="Y291" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="Z291" t="s" s="2">
         <v>43</v>
@@ -35861,7 +35868,7 @@
         <v>43</v>
       </c>
       <c r="AE291" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="AF291" t="s" s="2">
         <v>41</v>
@@ -35890,7 +35897,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -35916,14 +35923,14 @@
         <v>180</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="M292" s="2"/>
       <c r="N292" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="O292" t="s" s="2">
         <v>43</v>
@@ -35951,10 +35958,10 @@
         <v>116</v>
       </c>
       <c r="X292" t="s" s="2">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="Y292" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="Z292" t="s" s="2">
         <v>43</v>
@@ -35972,7 +35979,7 @@
         <v>43</v>
       </c>
       <c r="AE292" t="s" s="2">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="AF292" t="s" s="2">
         <v>41</v>
@@ -36001,7 +36008,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -36027,14 +36034,14 @@
         <v>180</v>
       </c>
       <c r="K293" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="M293" s="2"/>
       <c r="N293" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="O293" t="s" s="2">
         <v>43</v>
@@ -36062,10 +36069,10 @@
         <v>116</v>
       </c>
       <c r="X293" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="Y293" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="Z293" t="s" s="2">
         <v>43</v>
@@ -36083,7 +36090,7 @@
         <v>43</v>
       </c>
       <c r="AE293" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="AF293" t="s" s="2">
         <v>41</v>
@@ -36112,7 +36119,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -36138,10 +36145,10 @@
         <v>316</v>
       </c>
       <c r="K294" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="M294" s="2"/>
       <c r="N294" s="2"/>
@@ -36192,7 +36199,7 @@
         <v>43</v>
       </c>
       <c r="AE294" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="AF294" t="s" s="2">
         <v>41</v>
@@ -36221,7 +36228,7 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -36330,7 +36337,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -36441,7 +36448,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -36554,7 +36561,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -36580,16 +36587,16 @@
         <v>180</v>
       </c>
       <c r="K298" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="L298" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="M298" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="N298" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="O298" t="s" s="2">
         <v>43</v>
@@ -36617,10 +36624,10 @@
         <v>116</v>
       </c>
       <c r="X298" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="Y298" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="Z298" t="s" s="2">
         <v>43</v>
@@ -36638,7 +36645,7 @@
         <v>43</v>
       </c>
       <c r="AE298" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="AF298" t="s" s="2">
         <v>50</v>
@@ -36667,7 +36674,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
@@ -36690,17 +36697,17 @@
         <v>43</v>
       </c>
       <c r="J299" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="K299" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="M299" s="2"/>
       <c r="N299" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="O299" t="s" s="2">
         <v>43</v>
@@ -36749,7 +36756,7 @@
         <v>43</v>
       </c>
       <c r="AE299" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AF299" t="s" s="2">
         <v>41</v>
@@ -36778,7 +36785,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -36801,17 +36808,17 @@
         <v>43</v>
       </c>
       <c r="J300" t="s" s="2">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="K300" t="s" s="2">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="M300" s="2"/>
       <c r="N300" t="s" s="2">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="O300" t="s" s="2">
         <v>43</v>
@@ -36860,7 +36867,7 @@
         <v>43</v>
       </c>
       <c r="AE300" t="s" s="2">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="AF300" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9937" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9937" uniqueCount="1028">
   <si>
     <t>Path</t>
   </si>
@@ -1586,10 +1586,6 @@
   </si>
   <si>
     <t>ExplanationOfBenefit.diagnosis.diagnosis[x]</t>
-  </si>
-  <si>
-    <t>CodeableConcept
-Reference(Condition)</t>
   </si>
   <si>
     <t>Nature of illness or problem</t>
@@ -14099,17 +14095,17 @@
         <v>43</v>
       </c>
       <c r="J97" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K97" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="K97" t="s" s="2">
+      <c r="L97" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>43</v>
@@ -14137,10 +14133,10 @@
         <v>116</v>
       </c>
       <c r="X97" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="Y97" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>43</v>
@@ -14187,7 +14183,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -14213,16 +14209,16 @@
         <v>180</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>43</v>
@@ -14250,11 +14246,11 @@
         <v>116</v>
       </c>
       <c r="X98" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="Y98" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="Y98" t="s" s="2">
-        <v>519</v>
-      </c>
       <c r="Z98" t="s" s="2">
         <v>43</v>
       </c>
@@ -14271,7 +14267,7 @@
         <v>43</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>41</v>
@@ -14300,7 +14296,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14326,14 +14322,14 @@
         <v>180</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>43</v>
@@ -14361,11 +14357,11 @@
         <v>116</v>
       </c>
       <c r="X99" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="Y99" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="Y99" t="s" s="2">
-        <v>525</v>
-      </c>
       <c r="Z99" t="s" s="2">
         <v>43</v>
       </c>
@@ -14382,7 +14378,7 @@
         <v>43</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>41</v>
@@ -14411,7 +14407,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14437,16 +14433,16 @@
         <v>180</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="L100" t="s" s="2">
+      <c r="M100" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>43</v>
@@ -14474,11 +14470,11 @@
         <v>116</v>
       </c>
       <c r="X100" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="Y100" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="Y100" t="s" s="2">
-        <v>532</v>
-      </c>
       <c r="Z100" t="s" s="2">
         <v>43</v>
       </c>
@@ -14495,7 +14491,7 @@
         <v>43</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>41</v>
@@ -14524,7 +14520,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14550,14 +14546,14 @@
         <v>316</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>43</v>
@@ -14606,7 +14602,7 @@
         <v>43</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>41</v>
@@ -14635,7 +14631,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14744,7 +14740,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14855,7 +14851,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14968,7 +14964,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14994,14 +14990,14 @@
         <v>425</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>43</v>
@@ -15050,7 +15046,7 @@
         <v>43</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>50</v>
@@ -15079,7 +15075,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -15105,14 +15101,14 @@
         <v>180</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>43</v>
@@ -15140,11 +15136,11 @@
         <v>116</v>
       </c>
       <c r="X106" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="Y106" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="Y106" t="s" s="2">
-        <v>547</v>
-      </c>
       <c r="Z106" t="s" s="2">
         <v>43</v>
       </c>
@@ -15161,7 +15157,7 @@
         <v>43</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>41</v>
@@ -15190,7 +15186,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -15216,14 +15212,14 @@
         <v>269</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>43</v>
@@ -15272,7 +15268,7 @@
         <v>43</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>41</v>
@@ -15301,7 +15297,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15327,14 +15323,14 @@
         <v>180</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>43</v>
@@ -15362,11 +15358,11 @@
         <v>116</v>
       </c>
       <c r="X108" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="Y108" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="Y108" t="s" s="2">
-        <v>557</v>
-      </c>
       <c r="Z108" t="s" s="2">
         <v>43</v>
       </c>
@@ -15383,7 +15379,7 @@
         <v>43</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>50</v>
@@ -15412,7 +15408,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15435,17 +15431,17 @@
         <v>43</v>
       </c>
       <c r="J109" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="K109" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="K109" t="s" s="2">
+      <c r="L109" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>43</v>
@@ -15494,7 +15490,7 @@
         <v>43</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>41</v>
@@ -15523,7 +15519,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15549,14 +15545,14 @@
         <v>425</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>565</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>43</v>
@@ -15605,7 +15601,7 @@
         <v>43</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>41</v>
@@ -15634,7 +15630,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15660,16 +15656,16 @@
         <v>316</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="L111" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="L111" t="s" s="2">
+      <c r="M111" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="M111" t="s" s="2">
+      <c r="N111" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>43</v>
@@ -15718,7 +15714,7 @@
         <v>43</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>50</v>
@@ -15739,7 +15735,7 @@
         <v>43</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>43</v>
@@ -15747,7 +15743,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15856,7 +15852,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15967,7 +15963,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -16080,7 +16076,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -16106,16 +16102,16 @@
         <v>435</v>
       </c>
       <c r="K115" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="L115" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="L115" t="s" s="2">
+      <c r="M115" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="M115" t="s" s="2">
+      <c r="N115" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>43</v>
@@ -16164,7 +16160,7 @@
         <v>43</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>50</v>
@@ -16193,7 +16189,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -16216,17 +16212,17 @@
         <v>51</v>
       </c>
       <c r="J116" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="K116" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="K116" t="s" s="2">
+      <c r="L116" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>43</v>
@@ -16275,7 +16271,7 @@
         <v>43</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>50</v>
@@ -16304,7 +16300,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16330,16 +16326,16 @@
         <v>52</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="L117" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="L117" t="s" s="2">
+      <c r="M117" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="M117" t="s" s="2">
+      <c r="N117" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>590</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>43</v>
@@ -16388,7 +16384,7 @@
         <v>43</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>41</v>
@@ -16417,7 +16413,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16443,14 +16439,14 @@
         <v>316</v>
       </c>
       <c r="K118" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="L118" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>43</v>
@@ -16499,7 +16495,7 @@
         <v>43</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>41</v>
@@ -16528,7 +16524,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16637,7 +16633,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16748,7 +16744,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16861,7 +16857,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16884,19 +16880,19 @@
         <v>43</v>
       </c>
       <c r="J122" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="K122" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="K122" t="s" s="2">
+      <c r="L122" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="L122" t="s" s="2">
+      <c r="M122" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="M122" t="s" s="2">
+      <c r="N122" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>43</v>
@@ -16945,7 +16941,7 @@
         <v>43</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>41</v>
@@ -16974,7 +16970,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -17000,14 +16996,14 @@
         <v>180</v>
       </c>
       <c r="K123" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="L123" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>606</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>43</v>
@@ -17035,11 +17031,11 @@
         <v>108</v>
       </c>
       <c r="X123" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="Y123" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="Y123" t="s" s="2">
-        <v>609</v>
-      </c>
       <c r="Z123" t="s" s="2">
         <v>43</v>
       </c>
@@ -17056,7 +17052,7 @@
         <v>43</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>41</v>
@@ -17085,7 +17081,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -17108,17 +17104,17 @@
         <v>43</v>
       </c>
       <c r="J124" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="K124" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="K124" t="s" s="2">
+      <c r="L124" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>43</v>
@@ -17167,7 +17163,7 @@
         <v>43</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>41</v>
@@ -17196,7 +17192,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -17222,14 +17218,14 @@
         <v>316</v>
       </c>
       <c r="K125" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="L125" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>43</v>
@@ -17278,7 +17274,7 @@
         <v>43</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>41</v>
@@ -17307,7 +17303,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17416,7 +17412,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -17527,7 +17523,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17640,7 +17636,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17666,14 +17662,14 @@
         <v>425</v>
       </c>
       <c r="K129" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="L129" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>624</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>43</v>
@@ -17722,7 +17718,7 @@
         <v>43</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>50</v>
@@ -17751,7 +17747,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17777,14 +17773,14 @@
         <v>425</v>
       </c>
       <c r="K130" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="L130" t="s" s="2">
         <v>627</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>43</v>
@@ -17833,7 +17829,7 @@
         <v>43</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>41</v>
@@ -17862,7 +17858,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17888,14 +17884,14 @@
         <v>425</v>
       </c>
       <c r="K131" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="L131" t="s" s="2">
         <v>631</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>632</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>43</v>
@@ -17944,7 +17940,7 @@
         <v>43</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>41</v>
@@ -17973,7 +17969,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17999,14 +17995,14 @@
         <v>425</v>
       </c>
       <c r="K132" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="L132" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>636</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>43</v>
@@ -18055,7 +18051,7 @@
         <v>43</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>41</v>
@@ -18084,7 +18080,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -18110,14 +18106,14 @@
         <v>425</v>
       </c>
       <c r="K133" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="L133" t="s" s="2">
         <v>639</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>43</v>
@@ -18166,7 +18162,7 @@
         <v>43</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>41</v>
@@ -18195,7 +18191,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -18221,14 +18217,14 @@
         <v>180</v>
       </c>
       <c r="K134" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="L134" t="s" s="2">
         <v>643</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>644</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>43</v>
@@ -18256,11 +18252,11 @@
         <v>116</v>
       </c>
       <c r="X134" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="Y134" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="Y134" t="s" s="2">
-        <v>647</v>
-      </c>
       <c r="Z134" t="s" s="2">
         <v>43</v>
       </c>
@@ -18277,7 +18273,7 @@
         <v>43</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>41</v>
@@ -18306,7 +18302,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -18332,16 +18328,16 @@
         <v>180</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="L135" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="L135" t="s" s="2">
+      <c r="M135" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="M135" t="s" s="2">
+      <c r="N135" t="s" s="2">
         <v>651</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>43</v>
@@ -18369,11 +18365,11 @@
         <v>116</v>
       </c>
       <c r="X135" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="Y135" t="s" s="2">
         <v>653</v>
       </c>
-      <c r="Y135" t="s" s="2">
-        <v>654</v>
-      </c>
       <c r="Z135" t="s" s="2">
         <v>43</v>
       </c>
@@ -18390,7 +18386,7 @@
         <v>43</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>41</v>
@@ -18419,11 +18415,11 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -18445,16 +18441,16 @@
         <v>180</v>
       </c>
       <c r="K136" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="L136" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="L136" t="s" s="2">
+      <c r="M136" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="M136" t="s" s="2">
+      <c r="N136" t="s" s="2">
         <v>659</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>660</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>43</v>
@@ -18482,11 +18478,11 @@
         <v>116</v>
       </c>
       <c r="X136" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="Y136" t="s" s="2">
         <v>661</v>
       </c>
-      <c r="Y136" t="s" s="2">
-        <v>662</v>
-      </c>
       <c r="Z136" t="s" s="2">
         <v>43</v>
       </c>
@@ -18503,7 +18499,7 @@
         <v>43</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>50</v>
@@ -18532,7 +18528,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -18558,16 +18554,16 @@
         <v>180</v>
       </c>
       <c r="K137" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="L137" t="s" s="2">
         <v>664</v>
       </c>
-      <c r="L137" t="s" s="2">
+      <c r="M137" t="s" s="2">
         <v>665</v>
       </c>
-      <c r="M137" t="s" s="2">
+      <c r="N137" t="s" s="2">
         <v>666</v>
-      </c>
-      <c r="N137" t="s" s="2">
-        <v>667</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>43</v>
@@ -18595,11 +18591,11 @@
         <v>116</v>
       </c>
       <c r="X137" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="Y137" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="Y137" t="s" s="2">
-        <v>669</v>
-      </c>
       <c r="Z137" t="s" s="2">
         <v>43</v>
       </c>
@@ -18616,7 +18612,7 @@
         <v>43</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>41</v>
@@ -18645,7 +18641,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -18671,16 +18667,16 @@
         <v>180</v>
       </c>
       <c r="K138" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="L138" t="s" s="2">
         <v>671</v>
       </c>
-      <c r="L138" t="s" s="2">
+      <c r="M138" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="M138" t="s" s="2">
+      <c r="N138" t="s" s="2">
         <v>673</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>674</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>43</v>
@@ -18708,11 +18704,11 @@
         <v>116</v>
       </c>
       <c r="X138" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="Y138" t="s" s="2">
         <v>675</v>
       </c>
-      <c r="Y138" t="s" s="2">
-        <v>676</v>
-      </c>
       <c r="Z138" t="s" s="2">
         <v>43</v>
       </c>
@@ -18729,7 +18725,7 @@
         <v>43</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>41</v>
@@ -18758,7 +18754,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -18784,14 +18780,14 @@
         <v>478</v>
       </c>
       <c r="K139" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="L139" t="s" s="2">
         <v>678</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>679</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>43</v>
@@ -18840,7 +18836,7 @@
         <v>43</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>41</v>
@@ -18869,7 +18865,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18892,17 +18888,17 @@
         <v>43</v>
       </c>
       <c r="J140" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="K140" t="s" s="2">
         <v>682</v>
       </c>
-      <c r="K140" t="s" s="2">
+      <c r="L140" t="s" s="2">
         <v>683</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>684</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>43</v>
@@ -18930,11 +18926,11 @@
         <v>116</v>
       </c>
       <c r="X140" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="Y140" t="s" s="2">
         <v>686</v>
       </c>
-      <c r="Y140" t="s" s="2">
-        <v>687</v>
-      </c>
       <c r="Z140" t="s" s="2">
         <v>43</v>
       </c>
@@ -18951,7 +18947,7 @@
         <v>43</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>41</v>
@@ -18980,7 +18976,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -19003,17 +18999,17 @@
         <v>43</v>
       </c>
       <c r="J141" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="K141" t="s" s="2">
         <v>689</v>
       </c>
-      <c r="K141" t="s" s="2">
+      <c r="L141" t="s" s="2">
         <v>690</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>691</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>43</v>
@@ -19062,7 +19058,7 @@
         <v>43</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>41</v>
@@ -19091,7 +19087,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -19114,17 +19110,17 @@
         <v>43</v>
       </c>
       <c r="J142" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="K142" t="s" s="2">
         <v>694</v>
       </c>
-      <c r="K142" t="s" s="2">
+      <c r="L142" t="s" s="2">
         <v>695</v>
-      </c>
-      <c r="L142" t="s" s="2">
-        <v>696</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>43</v>
@@ -19173,7 +19169,7 @@
         <v>43</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>41</v>
@@ -19202,7 +19198,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -19225,19 +19221,19 @@
         <v>43</v>
       </c>
       <c r="J143" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="K143" t="s" s="2">
         <v>699</v>
       </c>
-      <c r="K143" t="s" s="2">
+      <c r="L143" t="s" s="2">
         <v>700</v>
       </c>
-      <c r="L143" t="s" s="2">
+      <c r="M143" t="s" s="2">
         <v>701</v>
       </c>
-      <c r="M143" t="s" s="2">
+      <c r="N143" t="s" s="2">
         <v>702</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>703</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>43</v>
@@ -19286,7 +19282,7 @@
         <v>43</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>41</v>
@@ -19315,7 +19311,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -19338,19 +19334,19 @@
         <v>43</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="K144" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="L144" t="s" s="2">
         <v>705</v>
       </c>
-      <c r="L144" t="s" s="2">
+      <c r="M144" t="s" s="2">
         <v>706</v>
       </c>
-      <c r="M144" t="s" s="2">
+      <c r="N144" t="s" s="2">
         <v>707</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>708</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>43</v>
@@ -19399,7 +19395,7 @@
         <v>43</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>41</v>
@@ -19428,7 +19424,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19451,17 +19447,17 @@
         <v>43</v>
       </c>
       <c r="J145" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="K145" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="K145" t="s" s="2">
+      <c r="L145" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="L145" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>43</v>
@@ -19510,7 +19506,7 @@
         <v>43</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>41</v>
@@ -19539,7 +19535,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19565,16 +19561,16 @@
         <v>180</v>
       </c>
       <c r="K146" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="L146" t="s" s="2">
         <v>711</v>
       </c>
-      <c r="L146" t="s" s="2">
+      <c r="M146" t="s" s="2">
         <v>712</v>
       </c>
-      <c r="M146" t="s" s="2">
+      <c r="N146" t="s" s="2">
         <v>713</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>714</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>43</v>
@@ -19602,11 +19598,11 @@
         <v>116</v>
       </c>
       <c r="X146" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="Y146" t="s" s="2">
         <v>715</v>
       </c>
-      <c r="Y146" t="s" s="2">
-        <v>716</v>
-      </c>
       <c r="Z146" t="s" s="2">
         <v>43</v>
       </c>
@@ -19623,7 +19619,7 @@
         <v>43</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>41</v>
@@ -19652,7 +19648,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19678,14 +19674,14 @@
         <v>180</v>
       </c>
       <c r="K147" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="L147" t="s" s="2">
         <v>718</v>
-      </c>
-      <c r="L147" t="s" s="2">
-        <v>719</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>43</v>
@@ -19713,11 +19709,11 @@
         <v>116</v>
       </c>
       <c r="X147" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="Y147" t="s" s="2">
         <v>720</v>
       </c>
-      <c r="Y147" t="s" s="2">
-        <v>721</v>
-      </c>
       <c r="Z147" t="s" s="2">
         <v>43</v>
       </c>
@@ -19734,7 +19730,7 @@
         <v>43</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>41</v>
@@ -19763,7 +19759,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19786,17 +19782,17 @@
         <v>43</v>
       </c>
       <c r="J148" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="K148" t="s" s="2">
         <v>723</v>
       </c>
-      <c r="K148" t="s" s="2">
+      <c r="L148" t="s" s="2">
         <v>724</v>
-      </c>
-      <c r="L148" t="s" s="2">
-        <v>725</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>43</v>
@@ -19845,7 +19841,7 @@
         <v>43</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>41</v>
@@ -19874,7 +19870,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19900,14 +19896,14 @@
         <v>425</v>
       </c>
       <c r="K149" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="L149" t="s" s="2">
         <v>728</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>729</v>
       </c>
       <c r="M149" s="2"/>
       <c r="N149" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>43</v>
@@ -19956,7 +19952,7 @@
         <v>43</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>41</v>
@@ -19985,7 +19981,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -20011,14 +20007,14 @@
         <v>316</v>
       </c>
       <c r="K150" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="L150" t="s" s="2">
         <v>732</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>733</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" t="s" s="2">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>43</v>
@@ -20067,7 +20063,7 @@
         <v>43</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>41</v>
@@ -20096,7 +20092,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -20205,7 +20201,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -20316,7 +20312,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20429,7 +20425,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20455,16 +20451,16 @@
         <v>180</v>
       </c>
       <c r="K154" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="L154" t="s" s="2">
         <v>739</v>
       </c>
-      <c r="L154" t="s" s="2">
+      <c r="M154" t="s" s="2">
         <v>740</v>
       </c>
-      <c r="M154" t="s" s="2">
+      <c r="N154" t="s" s="2">
         <v>741</v>
-      </c>
-      <c r="N154" t="s" s="2">
-        <v>742</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>43</v>
@@ -20493,7 +20489,7 @@
       </c>
       <c r="X154" s="2"/>
       <c r="Y154" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="Z154" t="s" s="2">
         <v>43</v>
@@ -20511,7 +20507,7 @@
         <v>43</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>50</v>
@@ -20540,7 +20536,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20566,16 +20562,16 @@
         <v>180</v>
       </c>
       <c r="K155" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="L155" t="s" s="2">
         <v>745</v>
       </c>
-      <c r="L155" t="s" s="2">
+      <c r="M155" t="s" s="2">
         <v>746</v>
       </c>
-      <c r="M155" t="s" s="2">
+      <c r="N155" t="s" s="2">
         <v>747</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>748</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>43</v>
@@ -20603,11 +20599,11 @@
         <v>116</v>
       </c>
       <c r="X155" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="Y155" t="s" s="2">
         <v>749</v>
       </c>
-      <c r="Y155" t="s" s="2">
-        <v>750</v>
-      </c>
       <c r="Z155" t="s" s="2">
         <v>43</v>
       </c>
@@ -20624,7 +20620,7 @@
         <v>43</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>41</v>
@@ -20653,7 +20649,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20676,19 +20672,19 @@
         <v>43</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="K156" t="s" s="2">
+        <v>751</v>
+      </c>
+      <c r="L156" t="s" s="2">
         <v>752</v>
       </c>
-      <c r="L156" t="s" s="2">
+      <c r="M156" t="s" s="2">
         <v>753</v>
       </c>
-      <c r="M156" t="s" s="2">
+      <c r="N156" t="s" s="2">
         <v>754</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>755</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>43</v>
@@ -20737,7 +20733,7 @@
         <v>43</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>41</v>
@@ -20766,7 +20762,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20789,19 +20785,19 @@
         <v>43</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="K157" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="L157" t="s" s="2">
         <v>757</v>
       </c>
-      <c r="L157" t="s" s="2">
+      <c r="M157" t="s" s="2">
         <v>758</v>
       </c>
-      <c r="M157" t="s" s="2">
+      <c r="N157" t="s" s="2">
         <v>759</v>
-      </c>
-      <c r="N157" t="s" s="2">
-        <v>760</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>43</v>
@@ -20850,7 +20846,7 @@
         <v>43</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>41</v>
@@ -20879,7 +20875,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20905,10 +20901,10 @@
         <v>316</v>
       </c>
       <c r="K158" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="L158" t="s" s="2">
         <v>762</v>
-      </c>
-      <c r="L158" t="s" s="2">
-        <v>763</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
@@ -20959,7 +20955,7 @@
         <v>43</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>41</v>
@@ -20988,7 +20984,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -21097,7 +21093,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -21208,7 +21204,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -21321,7 +21317,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21347,14 +21343,14 @@
         <v>425</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="M162" s="2"/>
       <c r="N162" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>43</v>
@@ -21403,7 +21399,7 @@
         <v>43</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>50</v>
@@ -21432,7 +21428,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21458,14 +21454,14 @@
         <v>180</v>
       </c>
       <c r="K163" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="L163" t="s" s="2">
         <v>643</v>
-      </c>
-      <c r="L163" t="s" s="2">
-        <v>644</v>
       </c>
       <c r="M163" s="2"/>
       <c r="N163" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>43</v>
@@ -21493,11 +21489,11 @@
         <v>116</v>
       </c>
       <c r="X163" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="Y163" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="Y163" t="s" s="2">
-        <v>647</v>
-      </c>
       <c r="Z163" t="s" s="2">
         <v>43</v>
       </c>
@@ -21514,7 +21510,7 @@
         <v>43</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>41</v>
@@ -21543,7 +21539,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21569,16 +21565,16 @@
         <v>180</v>
       </c>
       <c r="K164" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="L164" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="L164" t="s" s="2">
-        <v>650</v>
-      </c>
       <c r="M164" t="s" s="2">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>43</v>
@@ -21606,11 +21602,11 @@
         <v>116</v>
       </c>
       <c r="X164" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="Y164" t="s" s="2">
         <v>653</v>
       </c>
-      <c r="Y164" t="s" s="2">
-        <v>654</v>
-      </c>
       <c r="Z164" t="s" s="2">
         <v>43</v>
       </c>
@@ -21627,7 +21623,7 @@
         <v>43</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>41</v>
@@ -21656,11 +21652,11 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -21682,16 +21678,16 @@
         <v>180</v>
       </c>
       <c r="K165" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="L165" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="L165" t="s" s="2">
+      <c r="M165" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="M165" t="s" s="2">
+      <c r="N165" t="s" s="2">
         <v>659</v>
-      </c>
-      <c r="N165" t="s" s="2">
-        <v>660</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>43</v>
@@ -21719,11 +21715,11 @@
         <v>116</v>
       </c>
       <c r="X165" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="Y165" t="s" s="2">
         <v>661</v>
       </c>
-      <c r="Y165" t="s" s="2">
-        <v>662</v>
-      </c>
       <c r="Z165" t="s" s="2">
         <v>43</v>
       </c>
@@ -21740,7 +21736,7 @@
         <v>43</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>50</v>
@@ -21769,7 +21765,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21795,16 +21791,16 @@
         <v>180</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="L166" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="M166" t="s" s="2">
         <v>665</v>
       </c>
-      <c r="M166" t="s" s="2">
+      <c r="N166" t="s" s="2">
         <v>666</v>
-      </c>
-      <c r="N166" t="s" s="2">
-        <v>667</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>43</v>
@@ -21832,11 +21828,11 @@
         <v>116</v>
       </c>
       <c r="X166" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="Y166" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="Y166" t="s" s="2">
-        <v>669</v>
-      </c>
       <c r="Z166" t="s" s="2">
         <v>43</v>
       </c>
@@ -21853,7 +21849,7 @@
         <v>43</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>41</v>
@@ -21882,7 +21878,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21908,16 +21904,16 @@
         <v>180</v>
       </c>
       <c r="K167" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="L167" t="s" s="2">
         <v>671</v>
       </c>
-      <c r="L167" t="s" s="2">
+      <c r="M167" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="M167" t="s" s="2">
+      <c r="N167" t="s" s="2">
         <v>673</v>
-      </c>
-      <c r="N167" t="s" s="2">
-        <v>674</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>43</v>
@@ -21945,11 +21941,11 @@
         <v>116</v>
       </c>
       <c r="X167" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="Y167" t="s" s="2">
         <v>675</v>
       </c>
-      <c r="Y167" t="s" s="2">
-        <v>676</v>
-      </c>
       <c r="Z167" t="s" s="2">
         <v>43</v>
       </c>
@@ -21966,7 +21962,7 @@
         <v>43</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>41</v>
@@ -21995,7 +21991,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -22018,17 +22014,17 @@
         <v>43</v>
       </c>
       <c r="J168" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="K168" t="s" s="2">
         <v>689</v>
       </c>
-      <c r="K168" t="s" s="2">
+      <c r="L168" t="s" s="2">
         <v>690</v>
-      </c>
-      <c r="L168" t="s" s="2">
-        <v>691</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>43</v>
@@ -22077,7 +22073,7 @@
         <v>43</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>41</v>
@@ -22106,7 +22102,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -22129,17 +22125,17 @@
         <v>43</v>
       </c>
       <c r="J169" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="K169" t="s" s="2">
         <v>694</v>
       </c>
-      <c r="K169" t="s" s="2">
+      <c r="L169" t="s" s="2">
         <v>695</v>
-      </c>
-      <c r="L169" t="s" s="2">
-        <v>696</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>43</v>
@@ -22188,7 +22184,7 @@
         <v>43</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>41</v>
@@ -22217,7 +22213,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -22240,19 +22236,19 @@
         <v>43</v>
       </c>
       <c r="J170" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="K170" t="s" s="2">
         <v>699</v>
       </c>
-      <c r="K170" t="s" s="2">
+      <c r="L170" t="s" s="2">
         <v>700</v>
       </c>
-      <c r="L170" t="s" s="2">
+      <c r="M170" t="s" s="2">
         <v>701</v>
       </c>
-      <c r="M170" t="s" s="2">
+      <c r="N170" t="s" s="2">
         <v>702</v>
-      </c>
-      <c r="N170" t="s" s="2">
-        <v>703</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>43</v>
@@ -22301,7 +22297,7 @@
         <v>43</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>41</v>
@@ -22330,7 +22326,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -22353,19 +22349,19 @@
         <v>43</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="K171" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="L171" t="s" s="2">
         <v>705</v>
       </c>
-      <c r="L171" t="s" s="2">
+      <c r="M171" t="s" s="2">
         <v>706</v>
       </c>
-      <c r="M171" t="s" s="2">
+      <c r="N171" t="s" s="2">
         <v>707</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>708</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>43</v>
@@ -22414,7 +22410,7 @@
         <v>43</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>41</v>
@@ -22443,7 +22439,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22466,17 +22462,17 @@
         <v>43</v>
       </c>
       <c r="J172" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="K172" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="K172" t="s" s="2">
+      <c r="L172" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="L172" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>43</v>
@@ -22525,7 +22521,7 @@
         <v>43</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>41</v>
@@ -22554,7 +22550,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -22580,14 +22576,14 @@
         <v>425</v>
       </c>
       <c r="K173" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="L173" t="s" s="2">
         <v>728</v>
-      </c>
-      <c r="L173" t="s" s="2">
-        <v>729</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>43</v>
@@ -22636,7 +22632,7 @@
         <v>43</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>41</v>
@@ -22665,7 +22661,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22691,10 +22687,10 @@
         <v>43</v>
       </c>
       <c r="K174" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="L174" t="s" s="2">
         <v>783</v>
-      </c>
-      <c r="L174" t="s" s="2">
-        <v>784</v>
       </c>
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
@@ -22745,7 +22741,7 @@
         <v>43</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>41</v>
@@ -22774,7 +22770,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22800,10 +22796,10 @@
         <v>316</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="M175" s="2"/>
       <c r="N175" s="2"/>
@@ -22854,7 +22850,7 @@
         <v>43</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>41</v>
@@ -22883,7 +22879,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -22992,7 +22988,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -23103,7 +23099,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23216,7 +23212,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -23242,14 +23238,14 @@
         <v>425</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>43</v>
@@ -23298,7 +23294,7 @@
         <v>43</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>50</v>
@@ -23327,7 +23323,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23353,14 +23349,14 @@
         <v>180</v>
       </c>
       <c r="K180" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="L180" t="s" s="2">
         <v>643</v>
-      </c>
-      <c r="L180" t="s" s="2">
-        <v>644</v>
       </c>
       <c r="M180" s="2"/>
       <c r="N180" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>43</v>
@@ -23388,11 +23384,11 @@
         <v>116</v>
       </c>
       <c r="X180" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="Y180" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="Y180" t="s" s="2">
-        <v>647</v>
-      </c>
       <c r="Z180" t="s" s="2">
         <v>43</v>
       </c>
@@ -23409,7 +23405,7 @@
         <v>43</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>41</v>
@@ -23438,7 +23434,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -23464,16 +23460,16 @@
         <v>180</v>
       </c>
       <c r="K181" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="L181" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="L181" t="s" s="2">
+      <c r="M181" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="M181" t="s" s="2">
+      <c r="N181" t="s" s="2">
         <v>651</v>
-      </c>
-      <c r="N181" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="O181" t="s" s="2">
         <v>43</v>
@@ -23501,11 +23497,11 @@
         <v>116</v>
       </c>
       <c r="X181" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="Y181" t="s" s="2">
         <v>653</v>
       </c>
-      <c r="Y181" t="s" s="2">
-        <v>654</v>
-      </c>
       <c r="Z181" t="s" s="2">
         <v>43</v>
       </c>
@@ -23522,7 +23518,7 @@
         <v>43</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>41</v>
@@ -23551,11 +23547,11 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
@@ -23577,16 +23573,16 @@
         <v>180</v>
       </c>
       <c r="K182" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="L182" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="L182" t="s" s="2">
+      <c r="M182" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="M182" t="s" s="2">
+      <c r="N182" t="s" s="2">
         <v>659</v>
-      </c>
-      <c r="N182" t="s" s="2">
-        <v>660</v>
       </c>
       <c r="O182" t="s" s="2">
         <v>43</v>
@@ -23614,11 +23610,11 @@
         <v>116</v>
       </c>
       <c r="X182" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="Y182" t="s" s="2">
         <v>661</v>
       </c>
-      <c r="Y182" t="s" s="2">
-        <v>662</v>
-      </c>
       <c r="Z182" t="s" s="2">
         <v>43</v>
       </c>
@@ -23635,7 +23631,7 @@
         <v>43</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>50</v>
@@ -23664,7 +23660,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -23690,16 +23686,16 @@
         <v>180</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="O183" t="s" s="2">
         <v>43</v>
@@ -23727,11 +23723,11 @@
         <v>116</v>
       </c>
       <c r="X183" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="Y183" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="Y183" t="s" s="2">
-        <v>669</v>
-      </c>
       <c r="Z183" t="s" s="2">
         <v>43</v>
       </c>
@@ -23748,7 +23744,7 @@
         <v>43</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>41</v>
@@ -23777,7 +23773,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23803,16 +23799,16 @@
         <v>180</v>
       </c>
       <c r="K184" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="L184" t="s" s="2">
         <v>671</v>
       </c>
-      <c r="L184" t="s" s="2">
+      <c r="M184" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="M184" t="s" s="2">
+      <c r="N184" t="s" s="2">
         <v>673</v>
-      </c>
-      <c r="N184" t="s" s="2">
-        <v>674</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>43</v>
@@ -23840,11 +23836,11 @@
         <v>116</v>
       </c>
       <c r="X184" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="Y184" t="s" s="2">
         <v>675</v>
       </c>
-      <c r="Y184" t="s" s="2">
-        <v>676</v>
-      </c>
       <c r="Z184" t="s" s="2">
         <v>43</v>
       </c>
@@ -23861,7 +23857,7 @@
         <v>43</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>41</v>
@@ -23890,7 +23886,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -23913,17 +23909,17 @@
         <v>43</v>
       </c>
       <c r="J185" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="K185" t="s" s="2">
         <v>689</v>
       </c>
-      <c r="K185" t="s" s="2">
+      <c r="L185" t="s" s="2">
         <v>690</v>
-      </c>
-      <c r="L185" t="s" s="2">
-        <v>691</v>
       </c>
       <c r="M185" s="2"/>
       <c r="N185" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>43</v>
@@ -23972,7 +23968,7 @@
         <v>43</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>41</v>
@@ -24001,7 +23997,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -24024,17 +24020,17 @@
         <v>43</v>
       </c>
       <c r="J186" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="K186" t="s" s="2">
         <v>694</v>
       </c>
-      <c r="K186" t="s" s="2">
+      <c r="L186" t="s" s="2">
         <v>695</v>
-      </c>
-      <c r="L186" t="s" s="2">
-        <v>696</v>
       </c>
       <c r="M186" s="2"/>
       <c r="N186" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="O186" t="s" s="2">
         <v>43</v>
@@ -24083,7 +24079,7 @@
         <v>43</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>41</v>
@@ -24112,7 +24108,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -24135,19 +24131,19 @@
         <v>43</v>
       </c>
       <c r="J187" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="K187" t="s" s="2">
         <v>699</v>
       </c>
-      <c r="K187" t="s" s="2">
+      <c r="L187" t="s" s="2">
         <v>700</v>
       </c>
-      <c r="L187" t="s" s="2">
+      <c r="M187" t="s" s="2">
         <v>701</v>
       </c>
-      <c r="M187" t="s" s="2">
+      <c r="N187" t="s" s="2">
         <v>702</v>
-      </c>
-      <c r="N187" t="s" s="2">
-        <v>703</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>43</v>
@@ -24196,7 +24192,7 @@
         <v>43</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>41</v>
@@ -24225,7 +24221,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -24248,19 +24244,19 @@
         <v>43</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="K188" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="L188" t="s" s="2">
         <v>705</v>
       </c>
-      <c r="L188" t="s" s="2">
+      <c r="M188" t="s" s="2">
         <v>706</v>
       </c>
-      <c r="M188" t="s" s="2">
+      <c r="N188" t="s" s="2">
         <v>707</v>
-      </c>
-      <c r="N188" t="s" s="2">
-        <v>708</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>43</v>
@@ -24309,7 +24305,7 @@
         <v>43</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>41</v>
@@ -24338,7 +24334,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -24361,17 +24357,17 @@
         <v>43</v>
       </c>
       <c r="J189" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="K189" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="K189" t="s" s="2">
+      <c r="L189" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="L189" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="M189" s="2"/>
       <c r="N189" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>43</v>
@@ -24420,7 +24416,7 @@
         <v>43</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>41</v>
@@ -24449,7 +24445,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -24475,14 +24471,14 @@
         <v>425</v>
       </c>
       <c r="K190" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="L190" t="s" s="2">
         <v>728</v>
-      </c>
-      <c r="L190" t="s" s="2">
-        <v>729</v>
       </c>
       <c r="M190" s="2"/>
       <c r="N190" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>43</v>
@@ -24531,7 +24527,7 @@
         <v>43</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>41</v>
@@ -24560,7 +24556,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -24586,10 +24582,10 @@
         <v>43</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="M191" s="2"/>
       <c r="N191" s="2"/>
@@ -24640,7 +24636,7 @@
         <v>43</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>41</v>
@@ -24669,7 +24665,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24695,14 +24691,14 @@
         <v>316</v>
       </c>
       <c r="K192" t="s" s="2">
+        <v>805</v>
+      </c>
+      <c r="L192" t="s" s="2">
         <v>806</v>
-      </c>
-      <c r="L192" t="s" s="2">
-        <v>807</v>
       </c>
       <c r="M192" s="2"/>
       <c r="N192" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>43</v>
@@ -24751,7 +24747,7 @@
         <v>43</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>41</v>
@@ -24780,7 +24776,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -24889,7 +24885,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -25000,7 +24996,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -25113,7 +25109,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -25139,14 +25135,14 @@
         <v>425</v>
       </c>
       <c r="K196" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="L196" t="s" s="2">
         <v>813</v>
-      </c>
-      <c r="L196" t="s" s="2">
-        <v>814</v>
       </c>
       <c r="M196" s="2"/>
       <c r="N196" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>43</v>
@@ -25195,7 +25191,7 @@
         <v>43</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>41</v>
@@ -25224,7 +25220,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -25250,14 +25246,14 @@
         <v>425</v>
       </c>
       <c r="K197" t="s" s="2">
+        <v>816</v>
+      </c>
+      <c r="L197" t="s" s="2">
         <v>817</v>
-      </c>
-      <c r="L197" t="s" s="2">
-        <v>818</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>43</v>
@@ -25306,7 +25302,7 @@
         <v>43</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>41</v>
@@ -25335,7 +25331,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25361,14 +25357,14 @@
         <v>425</v>
       </c>
       <c r="K198" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="L198" t="s" s="2">
         <v>821</v>
-      </c>
-      <c r="L198" t="s" s="2">
-        <v>822</v>
       </c>
       <c r="M198" s="2"/>
       <c r="N198" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="O198" t="s" s="2">
         <v>43</v>
@@ -25417,7 +25413,7 @@
         <v>43</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>41</v>
@@ -25446,7 +25442,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25472,14 +25468,14 @@
         <v>289</v>
       </c>
       <c r="K199" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="L199" t="s" s="2">
         <v>825</v>
-      </c>
-      <c r="L199" t="s" s="2">
-        <v>826</v>
       </c>
       <c r="M199" s="2"/>
       <c r="N199" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="O199" t="s" s="2">
         <v>43</v>
@@ -25528,7 +25524,7 @@
         <v>43</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>41</v>
@@ -25557,11 +25553,11 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" t="s" s="2">
@@ -25583,16 +25579,16 @@
         <v>180</v>
       </c>
       <c r="K200" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="L200" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="L200" t="s" s="2">
+      <c r="M200" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="M200" t="s" s="2">
+      <c r="N200" t="s" s="2">
         <v>659</v>
-      </c>
-      <c r="N200" t="s" s="2">
-        <v>660</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>43</v>
@@ -25620,11 +25616,11 @@
         <v>116</v>
       </c>
       <c r="X200" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="Y200" t="s" s="2">
         <v>661</v>
       </c>
-      <c r="Y200" t="s" s="2">
-        <v>662</v>
-      </c>
       <c r="Z200" t="s" s="2">
         <v>43</v>
       </c>
@@ -25641,7 +25637,7 @@
         <v>43</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>50</v>
@@ -25670,7 +25666,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -25696,16 +25692,16 @@
         <v>180</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="L201" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="M201" t="s" s="2">
         <v>665</v>
       </c>
-      <c r="M201" t="s" s="2">
+      <c r="N201" t="s" s="2">
         <v>666</v>
-      </c>
-      <c r="N201" t="s" s="2">
-        <v>667</v>
       </c>
       <c r="O201" t="s" s="2">
         <v>43</v>
@@ -25733,11 +25729,11 @@
         <v>116</v>
       </c>
       <c r="X201" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="Y201" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="Y201" t="s" s="2">
-        <v>669</v>
-      </c>
       <c r="Z201" t="s" s="2">
         <v>43</v>
       </c>
@@ -25754,7 +25750,7 @@
         <v>43</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>41</v>
@@ -25783,7 +25779,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -25809,16 +25805,16 @@
         <v>180</v>
       </c>
       <c r="K202" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="L202" t="s" s="2">
         <v>671</v>
       </c>
-      <c r="L202" t="s" s="2">
+      <c r="M202" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="M202" t="s" s="2">
+      <c r="N202" t="s" s="2">
         <v>673</v>
-      </c>
-      <c r="N202" t="s" s="2">
-        <v>674</v>
       </c>
       <c r="O202" t="s" s="2">
         <v>43</v>
@@ -25846,11 +25842,11 @@
         <v>116</v>
       </c>
       <c r="X202" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="Y202" t="s" s="2">
         <v>675</v>
       </c>
-      <c r="Y202" t="s" s="2">
-        <v>676</v>
-      </c>
       <c r="Z202" t="s" s="2">
         <v>43</v>
       </c>
@@ -25867,7 +25863,7 @@
         <v>43</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>41</v>
@@ -25896,7 +25892,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -25922,14 +25918,14 @@
         <v>478</v>
       </c>
       <c r="K203" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="L203" t="s" s="2">
         <v>678</v>
-      </c>
-      <c r="L203" t="s" s="2">
-        <v>679</v>
       </c>
       <c r="M203" s="2"/>
       <c r="N203" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O203" t="s" s="2">
         <v>43</v>
@@ -25978,7 +25974,7 @@
         <v>43</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>41</v>
@@ -26007,7 +26003,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -26030,17 +26026,17 @@
         <v>43</v>
       </c>
       <c r="J204" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="K204" t="s" s="2">
         <v>682</v>
       </c>
-      <c r="K204" t="s" s="2">
+      <c r="L204" t="s" s="2">
         <v>683</v>
-      </c>
-      <c r="L204" t="s" s="2">
-        <v>684</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>43</v>
@@ -26068,11 +26064,11 @@
         <v>116</v>
       </c>
       <c r="X204" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="Y204" t="s" s="2">
         <v>686</v>
       </c>
-      <c r="Y204" t="s" s="2">
-        <v>687</v>
-      </c>
       <c r="Z204" t="s" s="2">
         <v>43</v>
       </c>
@@ -26089,7 +26085,7 @@
         <v>43</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>41</v>
@@ -26118,7 +26114,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -26141,17 +26137,17 @@
         <v>43</v>
       </c>
       <c r="J205" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="K205" t="s" s="2">
         <v>689</v>
       </c>
-      <c r="K205" t="s" s="2">
+      <c r="L205" t="s" s="2">
         <v>690</v>
-      </c>
-      <c r="L205" t="s" s="2">
-        <v>691</v>
       </c>
       <c r="M205" s="2"/>
       <c r="N205" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="O205" t="s" s="2">
         <v>43</v>
@@ -26200,7 +26196,7 @@
         <v>43</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>41</v>
@@ -26229,7 +26225,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26252,17 +26248,17 @@
         <v>43</v>
       </c>
       <c r="J206" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="K206" t="s" s="2">
         <v>694</v>
       </c>
-      <c r="K206" t="s" s="2">
+      <c r="L206" t="s" s="2">
         <v>695</v>
-      </c>
-      <c r="L206" t="s" s="2">
-        <v>696</v>
       </c>
       <c r="M206" s="2"/>
       <c r="N206" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="O206" t="s" s="2">
         <v>43</v>
@@ -26311,7 +26307,7 @@
         <v>43</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>41</v>
@@ -26340,7 +26336,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -26363,19 +26359,19 @@
         <v>43</v>
       </c>
       <c r="J207" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="K207" t="s" s="2">
         <v>699</v>
       </c>
-      <c r="K207" t="s" s="2">
+      <c r="L207" t="s" s="2">
         <v>700</v>
       </c>
-      <c r="L207" t="s" s="2">
+      <c r="M207" t="s" s="2">
         <v>701</v>
       </c>
-      <c r="M207" t="s" s="2">
+      <c r="N207" t="s" s="2">
         <v>702</v>
-      </c>
-      <c r="N207" t="s" s="2">
-        <v>703</v>
       </c>
       <c r="O207" t="s" s="2">
         <v>43</v>
@@ -26424,7 +26420,7 @@
         <v>43</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AF207" t="s" s="2">
         <v>41</v>
@@ -26453,7 +26449,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -26476,19 +26472,19 @@
         <v>43</v>
       </c>
       <c r="J208" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="K208" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="L208" t="s" s="2">
         <v>705</v>
       </c>
-      <c r="L208" t="s" s="2">
+      <c r="M208" t="s" s="2">
         <v>706</v>
       </c>
-      <c r="M208" t="s" s="2">
+      <c r="N208" t="s" s="2">
         <v>707</v>
-      </c>
-      <c r="N208" t="s" s="2">
-        <v>708</v>
       </c>
       <c r="O208" t="s" s="2">
         <v>43</v>
@@ -26537,7 +26533,7 @@
         <v>43</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>41</v>
@@ -26566,7 +26562,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -26592,16 +26588,16 @@
         <v>180</v>
       </c>
       <c r="K209" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="L209" t="s" s="2">
         <v>711</v>
       </c>
-      <c r="L209" t="s" s="2">
-        <v>712</v>
-      </c>
       <c r="M209" t="s" s="2">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="O209" t="s" s="2">
         <v>43</v>
@@ -26629,11 +26625,11 @@
         <v>116</v>
       </c>
       <c r="X209" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="Y209" t="s" s="2">
         <v>715</v>
       </c>
-      <c r="Y209" t="s" s="2">
-        <v>716</v>
-      </c>
       <c r="Z209" t="s" s="2">
         <v>43</v>
       </c>
@@ -26650,7 +26646,7 @@
         <v>43</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>41</v>
@@ -26679,7 +26675,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -26705,14 +26701,14 @@
         <v>180</v>
       </c>
       <c r="K210" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="L210" t="s" s="2">
         <v>718</v>
-      </c>
-      <c r="L210" t="s" s="2">
-        <v>719</v>
       </c>
       <c r="M210" s="2"/>
       <c r="N210" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>43</v>
@@ -26740,11 +26736,11 @@
         <v>116</v>
       </c>
       <c r="X210" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="Y210" t="s" s="2">
         <v>720</v>
       </c>
-      <c r="Y210" t="s" s="2">
-        <v>721</v>
-      </c>
       <c r="Z210" t="s" s="2">
         <v>43</v>
       </c>
@@ -26761,7 +26757,7 @@
         <v>43</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>41</v>
@@ -26790,7 +26786,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -26816,14 +26812,14 @@
         <v>425</v>
       </c>
       <c r="K211" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="L211" t="s" s="2">
         <v>728</v>
-      </c>
-      <c r="L211" t="s" s="2">
-        <v>729</v>
       </c>
       <c r="M211" s="2"/>
       <c r="N211" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="O211" t="s" s="2">
         <v>43</v>
@@ -26872,7 +26868,7 @@
         <v>43</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>41</v>
@@ -26901,7 +26897,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -26927,10 +26923,10 @@
         <v>43</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="M212" s="2"/>
       <c r="N212" s="2"/>
@@ -26981,7 +26977,7 @@
         <v>43</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>41</v>
@@ -27010,7 +27006,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -27036,10 +27032,10 @@
         <v>316</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="M213" s="2"/>
       <c r="N213" s="2"/>
@@ -27090,7 +27086,7 @@
         <v>43</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="AF213" t="s" s="2">
         <v>41</v>
@@ -27119,7 +27115,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -27228,7 +27224,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -27339,7 +27335,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -27452,11 +27448,11 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" t="s" s="2">
@@ -27478,16 +27474,16 @@
         <v>180</v>
       </c>
       <c r="K217" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="L217" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="L217" t="s" s="2">
+      <c r="M217" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="M217" t="s" s="2">
+      <c r="N217" t="s" s="2">
         <v>659</v>
-      </c>
-      <c r="N217" t="s" s="2">
-        <v>660</v>
       </c>
       <c r="O217" t="s" s="2">
         <v>43</v>
@@ -27515,11 +27511,11 @@
         <v>116</v>
       </c>
       <c r="X217" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="Y217" t="s" s="2">
         <v>661</v>
       </c>
-      <c r="Y217" t="s" s="2">
-        <v>662</v>
-      </c>
       <c r="Z217" t="s" s="2">
         <v>43</v>
       </c>
@@ -27536,7 +27532,7 @@
         <v>43</v>
       </c>
       <c r="AE217" t="s" s="2">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AF217" t="s" s="2">
         <v>50</v>
@@ -27565,7 +27561,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -27591,16 +27587,16 @@
         <v>180</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="L218" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="M218" t="s" s="2">
         <v>665</v>
       </c>
-      <c r="M218" t="s" s="2">
+      <c r="N218" t="s" s="2">
         <v>666</v>
-      </c>
-      <c r="N218" t="s" s="2">
-        <v>667</v>
       </c>
       <c r="O218" t="s" s="2">
         <v>43</v>
@@ -27628,11 +27624,11 @@
         <v>116</v>
       </c>
       <c r="X218" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="Y218" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="Y218" t="s" s="2">
-        <v>669</v>
-      </c>
       <c r="Z218" t="s" s="2">
         <v>43</v>
       </c>
@@ -27649,7 +27645,7 @@
         <v>43</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AF218" t="s" s="2">
         <v>41</v>
@@ -27678,7 +27674,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -27701,17 +27697,17 @@
         <v>43</v>
       </c>
       <c r="J219" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="K219" t="s" s="2">
         <v>689</v>
       </c>
-      <c r="K219" t="s" s="2">
+      <c r="L219" t="s" s="2">
         <v>690</v>
-      </c>
-      <c r="L219" t="s" s="2">
-        <v>691</v>
       </c>
       <c r="M219" s="2"/>
       <c r="N219" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="O219" t="s" s="2">
         <v>43</v>
@@ -27760,7 +27756,7 @@
         <v>43</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>41</v>
@@ -27789,7 +27785,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -27812,17 +27808,17 @@
         <v>43</v>
       </c>
       <c r="J220" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="K220" t="s" s="2">
         <v>694</v>
       </c>
-      <c r="K220" t="s" s="2">
+      <c r="L220" t="s" s="2">
         <v>695</v>
-      </c>
-      <c r="L220" t="s" s="2">
-        <v>696</v>
       </c>
       <c r="M220" s="2"/>
       <c r="N220" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="O220" t="s" s="2">
         <v>43</v>
@@ -27871,7 +27867,7 @@
         <v>43</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AF220" t="s" s="2">
         <v>41</v>
@@ -27900,7 +27896,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -27923,19 +27919,19 @@
         <v>43</v>
       </c>
       <c r="J221" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="K221" t="s" s="2">
         <v>699</v>
       </c>
-      <c r="K221" t="s" s="2">
+      <c r="L221" t="s" s="2">
         <v>700</v>
       </c>
-      <c r="L221" t="s" s="2">
+      <c r="M221" t="s" s="2">
         <v>701</v>
       </c>
-      <c r="M221" t="s" s="2">
+      <c r="N221" t="s" s="2">
         <v>702</v>
-      </c>
-      <c r="N221" t="s" s="2">
-        <v>703</v>
       </c>
       <c r="O221" t="s" s="2">
         <v>43</v>
@@ -27984,7 +27980,7 @@
         <v>43</v>
       </c>
       <c r="AE221" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="AF221" t="s" s="2">
         <v>41</v>
@@ -28013,7 +28009,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -28036,19 +28032,19 @@
         <v>43</v>
       </c>
       <c r="J222" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="K222" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="L222" t="s" s="2">
         <v>705</v>
       </c>
-      <c r="L222" t="s" s="2">
+      <c r="M222" t="s" s="2">
         <v>706</v>
       </c>
-      <c r="M222" t="s" s="2">
+      <c r="N222" t="s" s="2">
         <v>707</v>
-      </c>
-      <c r="N222" t="s" s="2">
-        <v>708</v>
       </c>
       <c r="O222" t="s" s="2">
         <v>43</v>
@@ -28097,7 +28093,7 @@
         <v>43</v>
       </c>
       <c r="AE222" t="s" s="2">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AF222" t="s" s="2">
         <v>41</v>
@@ -28126,7 +28122,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -28152,14 +28148,14 @@
         <v>425</v>
       </c>
       <c r="K223" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="L223" t="s" s="2">
         <v>728</v>
-      </c>
-      <c r="L223" t="s" s="2">
-        <v>729</v>
       </c>
       <c r="M223" s="2"/>
       <c r="N223" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="O223" t="s" s="2">
         <v>43</v>
@@ -28208,7 +28204,7 @@
         <v>43</v>
       </c>
       <c r="AE223" t="s" s="2">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AF223" t="s" s="2">
         <v>41</v>
@@ -28237,7 +28233,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -28263,10 +28259,10 @@
         <v>43</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="M224" s="2"/>
       <c r="N224" s="2"/>
@@ -28317,7 +28313,7 @@
         <v>43</v>
       </c>
       <c r="AE224" t="s" s="2">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="AF224" t="s" s="2">
         <v>41</v>
@@ -28346,7 +28342,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -28372,10 +28368,10 @@
         <v>316</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="M225" s="2"/>
       <c r="N225" s="2"/>
@@ -28426,7 +28422,7 @@
         <v>43</v>
       </c>
       <c r="AE225" t="s" s="2">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AF225" t="s" s="2">
         <v>41</v>
@@ -28455,7 +28451,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -28564,7 +28560,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -28675,7 +28671,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -28788,11 +28784,11 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" t="s" s="2">
@@ -28814,16 +28810,16 @@
         <v>180</v>
       </c>
       <c r="K229" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="L229" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="L229" t="s" s="2">
+      <c r="M229" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="M229" t="s" s="2">
+      <c r="N229" t="s" s="2">
         <v>659</v>
-      </c>
-      <c r="N229" t="s" s="2">
-        <v>660</v>
       </c>
       <c r="O229" t="s" s="2">
         <v>43</v>
@@ -28851,11 +28847,11 @@
         <v>116</v>
       </c>
       <c r="X229" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="Y229" t="s" s="2">
         <v>661</v>
       </c>
-      <c r="Y229" t="s" s="2">
-        <v>662</v>
-      </c>
       <c r="Z229" t="s" s="2">
         <v>43</v>
       </c>
@@ -28872,7 +28868,7 @@
         <v>43</v>
       </c>
       <c r="AE229" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="AF229" t="s" s="2">
         <v>50</v>
@@ -28901,7 +28897,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -28927,16 +28923,16 @@
         <v>180</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="L230" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="M230" t="s" s="2">
         <v>665</v>
       </c>
-      <c r="M230" t="s" s="2">
+      <c r="N230" t="s" s="2">
         <v>666</v>
-      </c>
-      <c r="N230" t="s" s="2">
-        <v>667</v>
       </c>
       <c r="O230" t="s" s="2">
         <v>43</v>
@@ -28964,11 +28960,11 @@
         <v>116</v>
       </c>
       <c r="X230" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="Y230" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="Y230" t="s" s="2">
-        <v>669</v>
-      </c>
       <c r="Z230" t="s" s="2">
         <v>43</v>
       </c>
@@ -28985,7 +28981,7 @@
         <v>43</v>
       </c>
       <c r="AE230" t="s" s="2">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="AF230" t="s" s="2">
         <v>41</v>
@@ -29014,7 +29010,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -29037,17 +29033,17 @@
         <v>43</v>
       </c>
       <c r="J231" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="K231" t="s" s="2">
         <v>689</v>
       </c>
-      <c r="K231" t="s" s="2">
+      <c r="L231" t="s" s="2">
         <v>690</v>
-      </c>
-      <c r="L231" t="s" s="2">
-        <v>691</v>
       </c>
       <c r="M231" s="2"/>
       <c r="N231" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="O231" t="s" s="2">
         <v>43</v>
@@ -29096,7 +29092,7 @@
         <v>43</v>
       </c>
       <c r="AE231" t="s" s="2">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="AF231" t="s" s="2">
         <v>41</v>
@@ -29125,7 +29121,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -29148,17 +29144,17 @@
         <v>43</v>
       </c>
       <c r="J232" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="K232" t="s" s="2">
         <v>694</v>
       </c>
-      <c r="K232" t="s" s="2">
+      <c r="L232" t="s" s="2">
         <v>695</v>
-      </c>
-      <c r="L232" t="s" s="2">
-        <v>696</v>
       </c>
       <c r="M232" s="2"/>
       <c r="N232" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="O232" t="s" s="2">
         <v>43</v>
@@ -29207,7 +29203,7 @@
         <v>43</v>
       </c>
       <c r="AE232" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AF232" t="s" s="2">
         <v>41</v>
@@ -29236,7 +29232,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -29259,19 +29255,19 @@
         <v>43</v>
       </c>
       <c r="J233" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="K233" t="s" s="2">
         <v>699</v>
       </c>
-      <c r="K233" t="s" s="2">
+      <c r="L233" t="s" s="2">
         <v>700</v>
       </c>
-      <c r="L233" t="s" s="2">
+      <c r="M233" t="s" s="2">
         <v>701</v>
       </c>
-      <c r="M233" t="s" s="2">
+      <c r="N233" t="s" s="2">
         <v>702</v>
-      </c>
-      <c r="N233" t="s" s="2">
-        <v>703</v>
       </c>
       <c r="O233" t="s" s="2">
         <v>43</v>
@@ -29320,7 +29316,7 @@
         <v>43</v>
       </c>
       <c r="AE233" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="AF233" t="s" s="2">
         <v>41</v>
@@ -29349,7 +29345,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -29372,19 +29368,19 @@
         <v>43</v>
       </c>
       <c r="J234" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="K234" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="L234" t="s" s="2">
         <v>705</v>
       </c>
-      <c r="L234" t="s" s="2">
+      <c r="M234" t="s" s="2">
         <v>706</v>
       </c>
-      <c r="M234" t="s" s="2">
+      <c r="N234" t="s" s="2">
         <v>707</v>
-      </c>
-      <c r="N234" t="s" s="2">
-        <v>708</v>
       </c>
       <c r="O234" t="s" s="2">
         <v>43</v>
@@ -29433,7 +29429,7 @@
         <v>43</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="AF234" t="s" s="2">
         <v>41</v>
@@ -29462,7 +29458,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -29488,14 +29484,14 @@
         <v>425</v>
       </c>
       <c r="K235" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="L235" t="s" s="2">
         <v>728</v>
-      </c>
-      <c r="L235" t="s" s="2">
-        <v>729</v>
       </c>
       <c r="M235" s="2"/>
       <c r="N235" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="O235" t="s" s="2">
         <v>43</v>
@@ -29544,7 +29540,7 @@
         <v>43</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>41</v>
@@ -29573,7 +29569,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -29599,10 +29595,10 @@
         <v>43</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="M236" s="2"/>
       <c r="N236" s="2"/>
@@ -29653,7 +29649,7 @@
         <v>43</v>
       </c>
       <c r="AE236" t="s" s="2">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="AF236" t="s" s="2">
         <v>41</v>
@@ -29682,7 +29678,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -29708,14 +29704,14 @@
         <v>43</v>
       </c>
       <c r="K237" t="s" s="2">
+        <v>869</v>
+      </c>
+      <c r="L237" t="s" s="2">
         <v>870</v>
-      </c>
-      <c r="L237" t="s" s="2">
-        <v>871</v>
       </c>
       <c r="M237" s="2"/>
       <c r="N237" t="s" s="2">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="O237" t="s" s="2">
         <v>43</v>
@@ -29764,7 +29760,7 @@
         <v>43</v>
       </c>
       <c r="AE237" t="s" s="2">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="AF237" t="s" s="2">
         <v>41</v>
@@ -29793,7 +29789,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -29819,16 +29815,16 @@
         <v>316</v>
       </c>
       <c r="K238" t="s" s="2">
+        <v>873</v>
+      </c>
+      <c r="L238" t="s" s="2">
         <v>874</v>
       </c>
-      <c r="L238" t="s" s="2">
+      <c r="M238" t="s" s="2">
         <v>875</v>
       </c>
-      <c r="M238" t="s" s="2">
+      <c r="N238" t="s" s="2">
         <v>876</v>
-      </c>
-      <c r="N238" t="s" s="2">
-        <v>877</v>
       </c>
       <c r="O238" t="s" s="2">
         <v>43</v>
@@ -29877,7 +29873,7 @@
         <v>43</v>
       </c>
       <c r="AE238" t="s" s="2">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="AF238" t="s" s="2">
         <v>41</v>
@@ -29906,7 +29902,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -30015,7 +30011,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -30126,7 +30122,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -30239,7 +30235,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -30265,16 +30261,16 @@
         <v>180</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="L242" t="s" s="2">
+        <v>881</v>
+      </c>
+      <c r="M242" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="N242" t="s" s="2">
         <v>882</v>
-      </c>
-      <c r="M242" t="s" s="2">
-        <v>741</v>
-      </c>
-      <c r="N242" t="s" s="2">
-        <v>883</v>
       </c>
       <c r="O242" t="s" s="2">
         <v>43</v>
@@ -30303,7 +30299,7 @@
       </c>
       <c r="X242" s="2"/>
       <c r="Y242" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="Z242" t="s" s="2">
         <v>43</v>
@@ -30321,7 +30317,7 @@
         <v>43</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>50</v>
@@ -30350,7 +30346,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -30373,17 +30369,17 @@
         <v>51</v>
       </c>
       <c r="J243" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="K243" t="s" s="2">
+        <v>885</v>
+      </c>
+      <c r="L243" t="s" s="2">
         <v>886</v>
-      </c>
-      <c r="L243" t="s" s="2">
-        <v>887</v>
       </c>
       <c r="M243" s="2"/>
       <c r="N243" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="O243" t="s" s="2">
         <v>43</v>
@@ -30432,7 +30428,7 @@
         <v>43</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>50</v>
@@ -30461,7 +30457,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -30487,14 +30483,14 @@
         <v>316</v>
       </c>
       <c r="K244" t="s" s="2">
+        <v>889</v>
+      </c>
+      <c r="L244" t="s" s="2">
         <v>890</v>
-      </c>
-      <c r="L244" t="s" s="2">
-        <v>891</v>
       </c>
       <c r="M244" s="2"/>
       <c r="N244" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="O244" t="s" s="2">
         <v>43</v>
@@ -30543,7 +30539,7 @@
         <v>43</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AF244" t="s" s="2">
         <v>41</v>
@@ -30572,7 +30568,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -30681,7 +30677,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -30792,7 +30788,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -30905,7 +30901,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
@@ -30931,14 +30927,14 @@
         <v>180</v>
       </c>
       <c r="K248" t="s" s="2">
+        <v>896</v>
+      </c>
+      <c r="L248" t="s" s="2">
         <v>897</v>
-      </c>
-      <c r="L248" t="s" s="2">
-        <v>898</v>
       </c>
       <c r="M248" s="2"/>
       <c r="N248" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="O248" t="s" s="2">
         <v>43</v>
@@ -30967,7 +30963,7 @@
       </c>
       <c r="X248" s="2"/>
       <c r="Y248" t="s" s="2">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="Z248" t="s" s="2">
         <v>43</v>
@@ -30985,7 +30981,7 @@
         <v>43</v>
       </c>
       <c r="AE248" t="s" s="2">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AF248" t="s" s="2">
         <v>41</v>
@@ -31014,7 +31010,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -31037,19 +31033,19 @@
         <v>43</v>
       </c>
       <c r="J249" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="K249" t="s" s="2">
+        <v>901</v>
+      </c>
+      <c r="L249" t="s" s="2">
         <v>902</v>
       </c>
-      <c r="L249" t="s" s="2">
+      <c r="M249" t="s" s="2">
         <v>903</v>
       </c>
-      <c r="M249" t="s" s="2">
+      <c r="N249" t="s" s="2">
         <v>904</v>
-      </c>
-      <c r="N249" t="s" s="2">
-        <v>905</v>
       </c>
       <c r="O249" t="s" s="2">
         <v>43</v>
@@ -31098,7 +31094,7 @@
         <v>43</v>
       </c>
       <c r="AE249" t="s" s="2">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="AF249" t="s" s="2">
         <v>41</v>
@@ -31127,7 +31123,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -31153,14 +31149,14 @@
         <v>180</v>
       </c>
       <c r="K250" t="s" s="2">
+        <v>906</v>
+      </c>
+      <c r="L250" t="s" s="2">
         <v>907</v>
-      </c>
-      <c r="L250" t="s" s="2">
-        <v>908</v>
       </c>
       <c r="M250" s="2"/>
       <c r="N250" t="s" s="2">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="O250" t="s" s="2">
         <v>43</v>
@@ -31189,7 +31185,7 @@
       </c>
       <c r="X250" s="2"/>
       <c r="Y250" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="Z250" t="s" s="2">
         <v>43</v>
@@ -31207,7 +31203,7 @@
         <v>43</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>41</v>
@@ -31236,7 +31232,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -31259,17 +31255,17 @@
         <v>43</v>
       </c>
       <c r="J251" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="K251" t="s" s="2">
+        <v>911</v>
+      </c>
+      <c r="L251" t="s" s="2">
         <v>912</v>
-      </c>
-      <c r="L251" t="s" s="2">
-        <v>913</v>
       </c>
       <c r="M251" s="2"/>
       <c r="N251" t="s" s="2">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="O251" t="s" s="2">
         <v>43</v>
@@ -31318,7 +31314,7 @@
         <v>43</v>
       </c>
       <c r="AE251" t="s" s="2">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="AF251" t="s" s="2">
         <v>41</v>
@@ -31347,7 +31343,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -31370,17 +31366,17 @@
         <v>43</v>
       </c>
       <c r="J252" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="K252" t="s" s="2">
+        <v>915</v>
+      </c>
+      <c r="L252" t="s" s="2">
         <v>916</v>
-      </c>
-      <c r="L252" t="s" s="2">
-        <v>917</v>
       </c>
       <c r="M252" s="2"/>
       <c r="N252" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>43</v>
@@ -31429,7 +31425,7 @@
         <v>43</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="AF252" t="s" s="2">
         <v>41</v>
@@ -31458,7 +31454,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -31484,16 +31480,16 @@
         <v>159</v>
       </c>
       <c r="K253" t="s" s="2">
+        <v>919</v>
+      </c>
+      <c r="L253" t="s" s="2">
         <v>920</v>
       </c>
-      <c r="L253" t="s" s="2">
+      <c r="M253" t="s" s="2">
         <v>921</v>
       </c>
-      <c r="M253" t="s" s="2">
+      <c r="N253" t="s" s="2">
         <v>922</v>
-      </c>
-      <c r="N253" t="s" s="2">
-        <v>923</v>
       </c>
       <c r="O253" t="s" s="2">
         <v>43</v>
@@ -31542,7 +31538,7 @@
         <v>43</v>
       </c>
       <c r="AE253" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="AF253" t="s" s="2">
         <v>41</v>
@@ -31571,7 +31567,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -31597,16 +31593,16 @@
         <v>180</v>
       </c>
       <c r="K254" t="s" s="2">
+        <v>924</v>
+      </c>
+      <c r="L254" t="s" s="2">
         <v>925</v>
       </c>
-      <c r="L254" t="s" s="2">
+      <c r="M254" t="s" s="2">
         <v>926</v>
       </c>
-      <c r="M254" t="s" s="2">
+      <c r="N254" t="s" s="2">
         <v>927</v>
-      </c>
-      <c r="N254" t="s" s="2">
-        <v>928</v>
       </c>
       <c r="O254" t="s" s="2">
         <v>43</v>
@@ -31634,11 +31630,11 @@
         <v>116</v>
       </c>
       <c r="X254" t="s" s="2">
+        <v>928</v>
+      </c>
+      <c r="Y254" t="s" s="2">
         <v>929</v>
       </c>
-      <c r="Y254" t="s" s="2">
-        <v>930</v>
-      </c>
       <c r="Z254" t="s" s="2">
         <v>43</v>
       </c>
@@ -31655,7 +31651,7 @@
         <v>43</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>41</v>
@@ -31684,7 +31680,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -31707,19 +31703,19 @@
         <v>43</v>
       </c>
       <c r="J255" t="s" s="2">
+        <v>931</v>
+      </c>
+      <c r="K255" t="s" s="2">
         <v>932</v>
       </c>
-      <c r="K255" t="s" s="2">
+      <c r="L255" t="s" s="2">
         <v>933</v>
       </c>
-      <c r="L255" t="s" s="2">
+      <c r="M255" t="s" s="2">
         <v>934</v>
       </c>
-      <c r="M255" t="s" s="2">
+      <c r="N255" t="s" s="2">
         <v>935</v>
-      </c>
-      <c r="N255" t="s" s="2">
-        <v>936</v>
       </c>
       <c r="O255" t="s" s="2">
         <v>43</v>
@@ -31768,7 +31764,7 @@
         <v>43</v>
       </c>
       <c r="AE255" t="s" s="2">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="AF255" t="s" s="2">
         <v>41</v>
@@ -31797,7 +31793,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -31823,14 +31819,14 @@
         <v>316</v>
       </c>
       <c r="K256" t="s" s="2">
+        <v>937</v>
+      </c>
+      <c r="L256" t="s" s="2">
         <v>938</v>
-      </c>
-      <c r="L256" t="s" s="2">
-        <v>939</v>
       </c>
       <c r="M256" s="2"/>
       <c r="N256" t="s" s="2">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O256" t="s" s="2">
         <v>43</v>
@@ -31879,7 +31875,7 @@
         <v>43</v>
       </c>
       <c r="AE256" t="s" s="2">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="AF256" t="s" s="2">
         <v>41</v>
@@ -31908,7 +31904,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -32017,7 +32013,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -32128,7 +32124,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -32241,7 +32237,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -32267,14 +32263,14 @@
         <v>425</v>
       </c>
       <c r="K260" t="s" s="2">
+        <v>944</v>
+      </c>
+      <c r="L260" t="s" s="2">
         <v>945</v>
-      </c>
-      <c r="L260" t="s" s="2">
-        <v>946</v>
       </c>
       <c r="M260" s="2"/>
       <c r="N260" t="s" s="2">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="O260" t="s" s="2">
         <v>43</v>
@@ -32323,7 +32319,7 @@
         <v>43</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>41</v>
@@ -32352,7 +32348,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -32378,14 +32374,14 @@
         <v>126</v>
       </c>
       <c r="K261" t="s" s="2">
+        <v>948</v>
+      </c>
+      <c r="L261" t="s" s="2">
         <v>949</v>
-      </c>
-      <c r="L261" t="s" s="2">
-        <v>950</v>
       </c>
       <c r="M261" s="2"/>
       <c r="N261" t="s" s="2">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="O261" t="s" s="2">
         <v>43</v>
@@ -32413,11 +32409,11 @@
         <v>174</v>
       </c>
       <c r="X261" t="s" s="2">
+        <v>951</v>
+      </c>
+      <c r="Y261" t="s" s="2">
         <v>952</v>
       </c>
-      <c r="Y261" t="s" s="2">
-        <v>953</v>
-      </c>
       <c r="Z261" t="s" s="2">
         <v>43</v>
       </c>
@@ -32434,7 +32430,7 @@
         <v>43</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>41</v>
@@ -32463,7 +32459,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -32489,14 +32485,14 @@
         <v>52</v>
       </c>
       <c r="K262" t="s" s="2">
+        <v>954</v>
+      </c>
+      <c r="L262" t="s" s="2">
         <v>955</v>
-      </c>
-      <c r="L262" t="s" s="2">
-        <v>956</v>
       </c>
       <c r="M262" s="2"/>
       <c r="N262" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="O262" t="s" s="2">
         <v>43</v>
@@ -32545,7 +32541,7 @@
         <v>43</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>41</v>
@@ -32574,7 +32570,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -32600,16 +32596,16 @@
         <v>180</v>
       </c>
       <c r="K263" t="s" s="2">
+        <v>958</v>
+      </c>
+      <c r="L263" t="s" s="2">
         <v>959</v>
       </c>
-      <c r="L263" t="s" s="2">
+      <c r="M263" t="s" s="2">
         <v>960</v>
       </c>
-      <c r="M263" t="s" s="2">
+      <c r="N263" t="s" s="2">
         <v>961</v>
-      </c>
-      <c r="N263" t="s" s="2">
-        <v>962</v>
       </c>
       <c r="O263" t="s" s="2">
         <v>43</v>
@@ -32658,7 +32654,7 @@
         <v>43</v>
       </c>
       <c r="AE263" t="s" s="2">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="AF263" t="s" s="2">
         <v>41</v>
@@ -32687,7 +32683,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -32713,16 +32709,16 @@
         <v>207</v>
       </c>
       <c r="K264" t="s" s="2">
+        <v>963</v>
+      </c>
+      <c r="L264" t="s" s="2">
         <v>964</v>
       </c>
-      <c r="L264" t="s" s="2">
+      <c r="M264" t="s" s="2">
         <v>965</v>
       </c>
-      <c r="M264" t="s" s="2">
+      <c r="N264" t="s" s="2">
         <v>966</v>
-      </c>
-      <c r="N264" t="s" s="2">
-        <v>967</v>
       </c>
       <c r="O264" t="s" s="2">
         <v>43</v>
@@ -32771,7 +32767,7 @@
         <v>43</v>
       </c>
       <c r="AE264" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="AF264" t="s" s="2">
         <v>41</v>
@@ -32800,7 +32796,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -32826,10 +32822,10 @@
         <v>316</v>
       </c>
       <c r="K265" t="s" s="2">
+        <v>968</v>
+      </c>
+      <c r="L265" t="s" s="2">
         <v>969</v>
-      </c>
-      <c r="L265" t="s" s="2">
-        <v>970</v>
       </c>
       <c r="M265" s="2"/>
       <c r="N265" s="2"/>
@@ -32880,7 +32876,7 @@
         <v>43</v>
       </c>
       <c r="AE265" t="s" s="2">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="AF265" t="s" s="2">
         <v>41</v>
@@ -32909,7 +32905,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -33018,7 +33014,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -33129,7 +33125,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -33242,7 +33238,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -33268,16 +33264,16 @@
         <v>180</v>
       </c>
       <c r="K269" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="L269" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="L269" t="s" s="2">
+      <c r="M269" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="M269" t="s" s="2">
-        <v>651</v>
-      </c>
       <c r="N269" t="s" s="2">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>43</v>
@@ -33305,11 +33301,11 @@
         <v>116</v>
       </c>
       <c r="X269" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="Y269" t="s" s="2">
         <v>653</v>
       </c>
-      <c r="Y269" t="s" s="2">
-        <v>654</v>
-      </c>
       <c r="Z269" t="s" s="2">
         <v>43</v>
       </c>
@@ -33326,7 +33322,7 @@
         <v>43</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>50</v>
@@ -33355,7 +33351,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -33381,14 +33377,14 @@
         <v>435</v>
       </c>
       <c r="K270" t="s" s="2">
+        <v>976</v>
+      </c>
+      <c r="L270" t="s" s="2">
         <v>977</v>
-      </c>
-      <c r="L270" t="s" s="2">
-        <v>978</v>
       </c>
       <c r="M270" s="2"/>
       <c r="N270" t="s" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="O270" t="s" s="2">
         <v>43</v>
@@ -33437,7 +33433,7 @@
         <v>43</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>41</v>
@@ -33466,7 +33462,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -33492,16 +33488,16 @@
         <v>52</v>
       </c>
       <c r="K271" t="s" s="2">
+        <v>980</v>
+      </c>
+      <c r="L271" t="s" s="2">
         <v>981</v>
       </c>
-      <c r="L271" t="s" s="2">
+      <c r="M271" t="s" s="2">
         <v>982</v>
       </c>
-      <c r="M271" t="s" s="2">
+      <c r="N271" t="s" s="2">
         <v>983</v>
-      </c>
-      <c r="N271" t="s" s="2">
-        <v>984</v>
       </c>
       <c r="O271" t="s" s="2">
         <v>43</v>
@@ -33550,7 +33546,7 @@
         <v>43</v>
       </c>
       <c r="AE271" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="AF271" t="s" s="2">
         <v>41</v>
@@ -33579,7 +33575,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -33605,16 +33601,16 @@
         <v>52</v>
       </c>
       <c r="K272" t="s" s="2">
+        <v>985</v>
+      </c>
+      <c r="L272" t="s" s="2">
         <v>986</v>
       </c>
-      <c r="L272" t="s" s="2">
+      <c r="M272" t="s" s="2">
         <v>987</v>
       </c>
-      <c r="M272" t="s" s="2">
+      <c r="N272" t="s" s="2">
         <v>988</v>
-      </c>
-      <c r="N272" t="s" s="2">
-        <v>989</v>
       </c>
       <c r="O272" t="s" s="2">
         <v>43</v>
@@ -33663,7 +33659,7 @@
         <v>43</v>
       </c>
       <c r="AE272" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="AF272" t="s" s="2">
         <v>41</v>
@@ -33692,7 +33688,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -33718,14 +33714,14 @@
         <v>180</v>
       </c>
       <c r="K273" t="s" s="2">
+        <v>990</v>
+      </c>
+      <c r="L273" t="s" s="2">
         <v>991</v>
-      </c>
-      <c r="L273" t="s" s="2">
-        <v>992</v>
       </c>
       <c r="M273" s="2"/>
       <c r="N273" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="O273" t="s" s="2">
         <v>43</v>
@@ -33753,11 +33749,11 @@
         <v>116</v>
       </c>
       <c r="X273" t="s" s="2">
+        <v>993</v>
+      </c>
+      <c r="Y273" t="s" s="2">
         <v>994</v>
       </c>
-      <c r="Y273" t="s" s="2">
-        <v>995</v>
-      </c>
       <c r="Z273" t="s" s="2">
         <v>43</v>
       </c>
@@ -33774,7 +33770,7 @@
         <v>43</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>41</v>
@@ -33803,7 +33799,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -33829,14 +33825,14 @@
         <v>180</v>
       </c>
       <c r="K274" t="s" s="2">
+        <v>996</v>
+      </c>
+      <c r="L274" t="s" s="2">
         <v>997</v>
-      </c>
-      <c r="L274" t="s" s="2">
-        <v>998</v>
       </c>
       <c r="M274" s="2"/>
       <c r="N274" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="O274" t="s" s="2">
         <v>43</v>
@@ -33864,11 +33860,11 @@
         <v>116</v>
       </c>
       <c r="X274" t="s" s="2">
+        <v>999</v>
+      </c>
+      <c r="Y274" t="s" s="2">
         <v>1000</v>
       </c>
-      <c r="Y274" t="s" s="2">
-        <v>1001</v>
-      </c>
       <c r="Z274" t="s" s="2">
         <v>43</v>
       </c>
@@ -33885,7 +33881,7 @@
         <v>43</v>
       </c>
       <c r="AE274" t="s" s="2">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AF274" t="s" s="2">
         <v>41</v>
@@ -33914,7 +33910,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -33940,14 +33936,14 @@
         <v>180</v>
       </c>
       <c r="K275" t="s" s="2">
+        <v>1002</v>
+      </c>
+      <c r="L275" t="s" s="2">
         <v>1003</v>
-      </c>
-      <c r="L275" t="s" s="2">
-        <v>1004</v>
       </c>
       <c r="M275" s="2"/>
       <c r="N275" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="O275" t="s" s="2">
         <v>43</v>
@@ -33975,11 +33971,11 @@
         <v>116</v>
       </c>
       <c r="X275" t="s" s="2">
+        <v>1004</v>
+      </c>
+      <c r="Y275" t="s" s="2">
         <v>1005</v>
       </c>
-      <c r="Y275" t="s" s="2">
-        <v>1006</v>
-      </c>
       <c r="Z275" t="s" s="2">
         <v>43</v>
       </c>
@@ -33996,7 +33992,7 @@
         <v>43</v>
       </c>
       <c r="AE275" t="s" s="2">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="AF275" t="s" s="2">
         <v>41</v>
@@ -34025,7 +34021,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -34051,10 +34047,10 @@
         <v>316</v>
       </c>
       <c r="K276" t="s" s="2">
+        <v>1007</v>
+      </c>
+      <c r="L276" t="s" s="2">
         <v>1008</v>
-      </c>
-      <c r="L276" t="s" s="2">
-        <v>1009</v>
       </c>
       <c r="M276" s="2"/>
       <c r="N276" s="2"/>
@@ -34105,7 +34101,7 @@
         <v>43</v>
       </c>
       <c r="AE276" t="s" s="2">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AF276" t="s" s="2">
         <v>41</v>
@@ -34134,7 +34130,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -34243,7 +34239,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -34354,7 +34350,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -34467,7 +34463,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -34493,16 +34489,16 @@
         <v>180</v>
       </c>
       <c r="K280" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L280" t="s" s="2">
+        <v>1013</v>
+      </c>
+      <c r="M280" t="s" s="2">
         <v>1014</v>
       </c>
-      <c r="M280" t="s" s="2">
+      <c r="N280" t="s" s="2">
         <v>1015</v>
-      </c>
-      <c r="N280" t="s" s="2">
-        <v>1016</v>
       </c>
       <c r="O280" t="s" s="2">
         <v>43</v>
@@ -34530,11 +34526,11 @@
         <v>116</v>
       </c>
       <c r="X280" t="s" s="2">
+        <v>1016</v>
+      </c>
+      <c r="Y280" t="s" s="2">
         <v>1017</v>
       </c>
-      <c r="Y280" t="s" s="2">
-        <v>1018</v>
-      </c>
       <c r="Z280" t="s" s="2">
         <v>43</v>
       </c>
@@ -34551,7 +34547,7 @@
         <v>43</v>
       </c>
       <c r="AE280" t="s" s="2">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AF280" t="s" s="2">
         <v>50</v>
@@ -34580,7 +34576,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -34603,17 +34599,17 @@
         <v>43</v>
       </c>
       <c r="J281" t="s" s="2">
+        <v>1019</v>
+      </c>
+      <c r="K281" t="s" s="2">
         <v>1020</v>
       </c>
-      <c r="K281" t="s" s="2">
+      <c r="L281" t="s" s="2">
         <v>1021</v>
-      </c>
-      <c r="L281" t="s" s="2">
-        <v>1022</v>
       </c>
       <c r="M281" s="2"/>
       <c r="N281" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O281" t="s" s="2">
         <v>43</v>
@@ -34662,7 +34658,7 @@
         <v>43</v>
       </c>
       <c r="AE281" t="s" s="2">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AF281" t="s" s="2">
         <v>41</v>
@@ -34691,7 +34687,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -34714,17 +34710,17 @@
         <v>43</v>
       </c>
       <c r="J282" t="s" s="2">
+        <v>1024</v>
+      </c>
+      <c r="K282" t="s" s="2">
         <v>1025</v>
       </c>
-      <c r="K282" t="s" s="2">
+      <c r="L282" t="s" s="2">
         <v>1026</v>
-      </c>
-      <c r="L282" t="s" s="2">
-        <v>1027</v>
       </c>
       <c r="M282" s="2"/>
       <c r="N282" t="s" s="2">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="O282" t="s" s="2">
         <v>43</v>
@@ -34773,7 +34769,7 @@
         <v>43</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit.xlsx
@@ -15451,7 +15451,7 @@
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F109" t="s" s="2">
         <v>50</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit.xlsx
@@ -712,12 +712,14 @@
     <t>Claim Number</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/IdentifierTypeCS"/&gt;
-    &lt;code value="cn"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
+    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
+  &lt;type&gt;
+    &lt;coding&gt;
+      &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/IdentifierTypeCS"/&gt;
+      &lt;code value="cn"/&gt;
+    &lt;/coding&gt;
+  &lt;/type&gt;
+&lt;/valueIdentifier&gt;</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.status</t>
@@ -6445,7 +6447,7 @@
         <v>43</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>43</v>
+        <v>223</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>43</v>
@@ -6891,7 +6893,7 @@
         <v>43</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>223</v>
+        <v>43</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>43</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit.xlsx
@@ -764,7 +764,7 @@
     <t>Claim type determine the general sets of business rules applied for information requirements and adjudication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/claim-type</t>
+    <t>http://terminology.hl7.org/CodeSystem/claim-type</t>
   </si>
   <si>
     <t>Event.code</t>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$290</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$291</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10219" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10252" uniqueCount="1044">
   <si>
     <t>Path</t>
   </si>
@@ -2713,6 +2713,23 @@
   </si>
   <si>
     <t>ExplanationOfBenefit.adjudication.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>adjudication-type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/carin-bb/StructureDefinition/AdjudicationType}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.adjudication.modifierExtension</t>
@@ -3347,7 +3364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM290"/>
+  <dimension ref="A1:AM291"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -30048,11 +30065,11 @@
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F240" t="s" s="2">
         <v>42</v>
@@ -30070,14 +30087,12 @@
         <v>70</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>71</v>
+        <v>878</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M240" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>879</v>
+      </c>
+      <c r="M240" s="2"/>
       <c r="N240" s="2"/>
       <c r="O240" t="s" s="2">
         <v>43</v>
@@ -30114,16 +30129,14 @@
         <v>43</v>
       </c>
       <c r="AA240" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB240" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AB240" s="2"/>
       <c r="AC240" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD240" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AE240" t="s" s="2">
         <v>77</v>
@@ -30150,48 +30163,46 @@
         <v>43</v>
       </c>
       <c r="AM240" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="241" hidden="true">
+    <row r="241">
       <c r="A241" t="s" s="2">
-        <v>878</v>
-      </c>
-      <c r="B241" s="2"/>
+        <v>877</v>
+      </c>
+      <c r="B241" t="s" s="2">
+        <v>880</v>
+      </c>
       <c r="C241" t="s" s="2">
-        <v>324</v>
+        <v>43</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F241" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G241" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H241" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I241" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J241" t="s" s="2">
-        <v>70</v>
+        <v>881</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>325</v>
+        <v>878</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M241" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N241" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>879</v>
+      </c>
+      <c r="M241" s="2"/>
+      <c r="N241" s="2"/>
       <c r="O241" t="s" s="2">
         <v>43</v>
       </c>
@@ -30239,7 +30250,7 @@
         <v>43</v>
       </c>
       <c r="AE241" t="s" s="2">
-        <v>327</v>
+        <v>77</v>
       </c>
       <c r="AF241" t="s" s="2">
         <v>41</v>
@@ -30248,7 +30259,7 @@
         <v>42</v>
       </c>
       <c r="AH241" t="s" s="2">
-        <v>43</v>
+        <v>882</v>
       </c>
       <c r="AI241" t="s" s="2">
         <v>78</v>
@@ -30263,47 +30274,47 @@
         <v>43</v>
       </c>
       <c r="AM241" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
-        <v>43</v>
+        <v>324</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F242" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G242" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H242" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I242" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J242" t="s" s="2">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>742</v>
+        <v>325</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>743</v>
+        <v>326</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>744</v>
+        <v>73</v>
       </c>
       <c r="N242" t="s" s="2">
-        <v>745</v>
+        <v>156</v>
       </c>
       <c r="O242" t="s" s="2">
         <v>43</v>
@@ -30328,11 +30339,13 @@
         <v>43</v>
       </c>
       <c r="W242" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X242" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X242" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y242" t="s" s="2">
-        <v>746</v>
+        <v>43</v>
       </c>
       <c r="Z242" t="s" s="2">
         <v>43</v>
@@ -30350,19 +30363,19 @@
         <v>43</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>741</v>
+        <v>327</v>
       </c>
       <c r="AF242" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG242" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH242" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI242" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ242" t="s" s="2">
         <v>43</v>
@@ -30374,12 +30387,12 @@
         <v>43</v>
       </c>
       <c r="AM242" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -30387,7 +30400,7 @@
       </c>
       <c r="D243" s="2"/>
       <c r="E243" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F243" t="s" s="2">
         <v>50</v>
@@ -30405,16 +30418,16 @@
         <v>180</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="N243" t="s" s="2">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="O243" t="s" s="2">
         <v>43</v>
@@ -30439,13 +30452,11 @@
         <v>43</v>
       </c>
       <c r="W243" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X243" t="s" s="2">
-        <v>752</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X243" s="2"/>
       <c r="Y243" t="s" s="2">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="Z243" t="s" s="2">
         <v>43</v>
@@ -30463,10 +30474,10 @@
         <v>43</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="AF243" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG243" t="s" s="2">
         <v>50</v>
@@ -30492,7 +30503,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -30515,19 +30526,19 @@
         <v>43</v>
       </c>
       <c r="J244" t="s" s="2">
-        <v>697</v>
+        <v>180</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="N244" t="s" s="2">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="O244" t="s" s="2">
         <v>43</v>
@@ -30552,13 +30563,13 @@
         <v>43</v>
       </c>
       <c r="W244" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X244" t="s" s="2">
-        <v>43</v>
+        <v>752</v>
       </c>
       <c r="Y244" t="s" s="2">
-        <v>43</v>
+        <v>753</v>
       </c>
       <c r="Z244" t="s" s="2">
         <v>43</v>
@@ -30576,7 +30587,7 @@
         <v>43</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="AF244" t="s" s="2">
         <v>41</v>
@@ -30605,7 +30616,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -30628,19 +30639,19 @@
         <v>43</v>
       </c>
       <c r="J245" t="s" s="2">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="O245" t="s" s="2">
         <v>43</v>
@@ -30689,7 +30700,7 @@
         <v>43</v>
       </c>
       <c r="AE245" t="s" s="2">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="AF245" t="s" s="2">
         <v>41</v>
@@ -30718,7 +30729,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -30729,7 +30740,7 @@
         <v>41</v>
       </c>
       <c r="F246" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G246" t="s" s="2">
         <v>43</v>
@@ -30738,22 +30749,22 @@
         <v>43</v>
       </c>
       <c r="I246" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J246" t="s" s="2">
-        <v>316</v>
+        <v>702</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>884</v>
+        <v>760</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>885</v>
+        <v>761</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>886</v>
+        <v>762</v>
       </c>
       <c r="N246" t="s" s="2">
-        <v>887</v>
+        <v>763</v>
       </c>
       <c r="O246" t="s" s="2">
         <v>43</v>
@@ -30802,13 +30813,13 @@
         <v>43</v>
       </c>
       <c r="AE246" t="s" s="2">
-        <v>883</v>
+        <v>759</v>
       </c>
       <c r="AF246" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG246" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH246" t="s" s="2">
         <v>43</v>
@@ -30842,7 +30853,7 @@
         <v>41</v>
       </c>
       <c r="F247" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G247" t="s" s="2">
         <v>43</v>
@@ -30851,19 +30862,23 @@
         <v>43</v>
       </c>
       <c r="I247" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J247" t="s" s="2">
-        <v>52</v>
+        <v>316</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>64</v>
+        <v>889</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M247" s="2"/>
-      <c r="N247" s="2"/>
+        <v>890</v>
+      </c>
+      <c r="M247" t="s" s="2">
+        <v>891</v>
+      </c>
+      <c r="N247" t="s" s="2">
+        <v>892</v>
+      </c>
       <c r="O247" t="s" s="2">
         <v>43</v>
       </c>
@@ -30911,19 +30926,19 @@
         <v>43</v>
       </c>
       <c r="AE247" t="s" s="2">
-        <v>66</v>
+        <v>888</v>
       </c>
       <c r="AF247" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG247" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH247" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI247" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ247" t="s" s="2">
         <v>43</v>
@@ -30935,23 +30950,23 @@
         <v>43</v>
       </c>
       <c r="AM247" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F248" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G248" t="s" s="2">
         <v>43</v>
@@ -30963,17 +30978,15 @@
         <v>43</v>
       </c>
       <c r="J248" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K248" t="s" s="2">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M248" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M248" s="2"/>
       <c r="N248" s="2"/>
       <c r="O248" t="s" s="2">
         <v>43</v>
@@ -31022,19 +31035,19 @@
         <v>43</v>
       </c>
       <c r="AE248" t="s" s="2">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="AF248" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG248" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH248" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI248" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AJ248" t="s" s="2">
         <v>43</v>
@@ -31051,11 +31064,11 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
-        <v>324</v>
+        <v>69</v>
       </c>
       <c r="D249" s="2"/>
       <c r="E249" t="s" s="2">
@@ -31068,26 +31081,24 @@
         <v>43</v>
       </c>
       <c r="H249" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I249" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J249" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K249" t="s" s="2">
-        <v>325</v>
+        <v>71</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>326</v>
+        <v>72</v>
       </c>
       <c r="M249" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N249" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="N249" s="2"/>
       <c r="O249" t="s" s="2">
         <v>43</v>
       </c>
@@ -31135,7 +31146,7 @@
         <v>43</v>
       </c>
       <c r="AE249" t="s" s="2">
-        <v>327</v>
+        <v>77</v>
       </c>
       <c r="AF249" t="s" s="2">
         <v>41</v>
@@ -31159,47 +31170,47 @@
         <v>43</v>
       </c>
       <c r="AM249" t="s" s="2">
-        <v>149</v>
+        <v>67</v>
       </c>
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
-        <v>43</v>
+        <v>324</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F250" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G250" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H250" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I250" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J250" t="s" s="2">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>742</v>
+        <v>325</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>892</v>
+        <v>326</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>744</v>
+        <v>73</v>
       </c>
       <c r="N250" t="s" s="2">
-        <v>893</v>
+        <v>156</v>
       </c>
       <c r="O250" t="s" s="2">
         <v>43</v>
@@ -31224,11 +31235,13 @@
         <v>43</v>
       </c>
       <c r="W250" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X250" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X250" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y250" t="s" s="2">
-        <v>894</v>
+        <v>43</v>
       </c>
       <c r="Z250" t="s" s="2">
         <v>43</v>
@@ -31246,19 +31259,19 @@
         <v>43</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>891</v>
+        <v>327</v>
       </c>
       <c r="AF250" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG250" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH250" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI250" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ250" t="s" s="2">
         <v>43</v>
@@ -31270,12 +31283,12 @@
         <v>43</v>
       </c>
       <c r="AM250" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -31298,15 +31311,17 @@
         <v>51</v>
       </c>
       <c r="J251" t="s" s="2">
-        <v>697</v>
+        <v>180</v>
       </c>
       <c r="K251" t="s" s="2">
-        <v>896</v>
+        <v>742</v>
       </c>
       <c r="L251" t="s" s="2">
         <v>897</v>
       </c>
-      <c r="M251" s="2"/>
+      <c r="M251" t="s" s="2">
+        <v>744</v>
+      </c>
       <c r="N251" t="s" s="2">
         <v>898</v>
       </c>
@@ -31333,13 +31348,11 @@
         <v>43</v>
       </c>
       <c r="W251" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X251" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="X251" s="2"/>
       <c r="Y251" t="s" s="2">
-        <v>43</v>
+        <v>899</v>
       </c>
       <c r="Z251" t="s" s="2">
         <v>43</v>
@@ -31357,7 +31370,7 @@
         <v>43</v>
       </c>
       <c r="AE251" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="AF251" t="s" s="2">
         <v>50</v>
@@ -31384,9 +31397,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -31394,32 +31407,32 @@
       </c>
       <c r="D252" s="2"/>
       <c r="E252" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F252" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G252" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H252" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I252" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H252" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I252" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="J252" t="s" s="2">
-        <v>316</v>
+        <v>697</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="M252" s="2"/>
       <c r="N252" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>43</v>
@@ -31468,10 +31481,10 @@
         <v>43</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="AF252" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG252" t="s" s="2">
         <v>50</v>
@@ -31495,9 +31508,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="253" hidden="true">
+    <row r="253">
       <c r="A253" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -31511,7 +31524,7 @@
         <v>50</v>
       </c>
       <c r="G253" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H253" t="s" s="2">
         <v>43</v>
@@ -31520,16 +31533,18 @@
         <v>43</v>
       </c>
       <c r="J253" t="s" s="2">
-        <v>52</v>
+        <v>316</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>64</v>
+        <v>905</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>65</v>
+        <v>906</v>
       </c>
       <c r="M253" s="2"/>
-      <c r="N253" s="2"/>
+      <c r="N253" t="s" s="2">
+        <v>907</v>
+      </c>
       <c r="O253" t="s" s="2">
         <v>43</v>
       </c>
@@ -31577,7 +31592,7 @@
         <v>43</v>
       </c>
       <c r="AE253" t="s" s="2">
-        <v>66</v>
+        <v>904</v>
       </c>
       <c r="AF253" t="s" s="2">
         <v>41</v>
@@ -31589,7 +31604,7 @@
         <v>43</v>
       </c>
       <c r="AI253" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ253" t="s" s="2">
         <v>43</v>
@@ -31601,23 +31616,23 @@
         <v>43</v>
       </c>
       <c r="AM253" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F254" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G254" t="s" s="2">
         <v>43</v>
@@ -31629,17 +31644,15 @@
         <v>43</v>
       </c>
       <c r="J254" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M254" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M254" s="2"/>
       <c r="N254" s="2"/>
       <c r="O254" t="s" s="2">
         <v>43</v>
@@ -31688,19 +31701,19 @@
         <v>43</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG254" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH254" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI254" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AJ254" t="s" s="2">
         <v>43</v>
@@ -31717,11 +31730,11 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
-        <v>324</v>
+        <v>69</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" t="s" s="2">
@@ -31734,26 +31747,24 @@
         <v>43</v>
       </c>
       <c r="H255" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I255" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J255" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>325</v>
+        <v>71</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>326</v>
+        <v>72</v>
       </c>
       <c r="M255" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N255" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="N255" s="2"/>
       <c r="O255" t="s" s="2">
         <v>43</v>
       </c>
@@ -31801,7 +31812,7 @@
         <v>43</v>
       </c>
       <c r="AE255" t="s" s="2">
-        <v>327</v>
+        <v>77</v>
       </c>
       <c r="AF255" t="s" s="2">
         <v>41</v>
@@ -31825,45 +31836,47 @@
         <v>43</v>
       </c>
       <c r="AM255" t="s" s="2">
-        <v>149</v>
+        <v>67</v>
       </c>
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
-        <v>43</v>
+        <v>324</v>
       </c>
       <c r="D256" s="2"/>
       <c r="E256" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F256" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G256" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H256" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I256" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J256" t="s" s="2">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K256" t="s" s="2">
-        <v>907</v>
+        <v>325</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>908</v>
-      </c>
-      <c r="M256" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="M256" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N256" t="s" s="2">
-        <v>909</v>
+        <v>156</v>
       </c>
       <c r="O256" t="s" s="2">
         <v>43</v>
@@ -31888,11 +31901,13 @@
         <v>43</v>
       </c>
       <c r="W256" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X256" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X256" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y256" t="s" s="2">
-        <v>910</v>
+        <v>43</v>
       </c>
       <c r="Z256" t="s" s="2">
         <v>43</v>
@@ -31910,19 +31925,19 @@
         <v>43</v>
       </c>
       <c r="AE256" t="s" s="2">
-        <v>906</v>
+        <v>327</v>
       </c>
       <c r="AF256" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG256" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH256" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI256" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ256" t="s" s="2">
         <v>43</v>
@@ -31934,7 +31949,7 @@
         <v>43</v>
       </c>
       <c r="AM256" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="257" hidden="true">
@@ -31962,7 +31977,7 @@
         <v>43</v>
       </c>
       <c r="J257" t="s" s="2">
-        <v>697</v>
+        <v>180</v>
       </c>
       <c r="K257" t="s" s="2">
         <v>912</v>
@@ -31970,11 +31985,9 @@
       <c r="L257" t="s" s="2">
         <v>913</v>
       </c>
-      <c r="M257" t="s" s="2">
+      <c r="M257" s="2"/>
+      <c r="N257" t="s" s="2">
         <v>914</v>
-      </c>
-      <c r="N257" t="s" s="2">
-        <v>915</v>
       </c>
       <c r="O257" t="s" s="2">
         <v>43</v>
@@ -31999,13 +32012,11 @@
         <v>43</v>
       </c>
       <c r="W257" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X257" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X257" s="2"/>
       <c r="Y257" t="s" s="2">
-        <v>43</v>
+        <v>915</v>
       </c>
       <c r="Z257" t="s" s="2">
         <v>43</v>
@@ -32075,7 +32086,7 @@
         <v>43</v>
       </c>
       <c r="J258" t="s" s="2">
-        <v>180</v>
+        <v>697</v>
       </c>
       <c r="K258" t="s" s="2">
         <v>917</v>
@@ -32083,9 +32094,11 @@
       <c r="L258" t="s" s="2">
         <v>918</v>
       </c>
-      <c r="M258" s="2"/>
+      <c r="M258" t="s" s="2">
+        <v>919</v>
+      </c>
       <c r="N258" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="O258" t="s" s="2">
         <v>43</v>
@@ -32110,11 +32123,13 @@
         <v>43</v>
       </c>
       <c r="W258" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X258" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X258" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y258" t="s" s="2">
-        <v>920</v>
+        <v>43</v>
       </c>
       <c r="Z258" t="s" s="2">
         <v>43</v>
@@ -32184,7 +32199,7 @@
         <v>43</v>
       </c>
       <c r="J259" t="s" s="2">
-        <v>602</v>
+        <v>180</v>
       </c>
       <c r="K259" t="s" s="2">
         <v>922</v>
@@ -32219,13 +32234,11 @@
         <v>43</v>
       </c>
       <c r="W259" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X259" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="X259" s="2"/>
       <c r="Y259" t="s" s="2">
-        <v>43</v>
+        <v>925</v>
       </c>
       <c r="Z259" t="s" s="2">
         <v>43</v>
@@ -32272,7 +32285,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -32295,17 +32308,17 @@
         <v>43</v>
       </c>
       <c r="J260" t="s" s="2">
-        <v>697</v>
+        <v>602</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="M260" s="2"/>
       <c r="N260" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="O260" t="s" s="2">
         <v>43</v>
@@ -32354,7 +32367,7 @@
         <v>43</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>41</v>
@@ -32383,7 +32396,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -32406,17 +32419,15 @@
         <v>43</v>
       </c>
       <c r="J261" t="s" s="2">
-        <v>159</v>
+        <v>697</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>931</v>
-      </c>
-      <c r="M261" t="s" s="2">
         <v>932</v>
       </c>
+      <c r="M261" s="2"/>
       <c r="N261" t="s" s="2">
         <v>933</v>
       </c>
@@ -32467,7 +32478,7 @@
         <v>43</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>41</v>
@@ -32519,7 +32530,7 @@
         <v>43</v>
       </c>
       <c r="J262" t="s" s="2">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="K262" t="s" s="2">
         <v>935</v>
@@ -32556,13 +32567,13 @@
         <v>43</v>
       </c>
       <c r="W262" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X262" t="s" s="2">
-        <v>939</v>
+        <v>43</v>
       </c>
       <c r="Y262" t="s" s="2">
-        <v>940</v>
+        <v>43</v>
       </c>
       <c r="Z262" t="s" s="2">
         <v>43</v>
@@ -32609,7 +32620,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -32632,19 +32643,19 @@
         <v>43</v>
       </c>
       <c r="J263" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K263" t="s" s="2">
+        <v>940</v>
+      </c>
+      <c r="L263" t="s" s="2">
+        <v>941</v>
+      </c>
+      <c r="M263" t="s" s="2">
         <v>942</v>
       </c>
-      <c r="K263" t="s" s="2">
+      <c r="N263" t="s" s="2">
         <v>943</v>
-      </c>
-      <c r="L263" t="s" s="2">
-        <v>944</v>
-      </c>
-      <c r="M263" t="s" s="2">
-        <v>945</v>
-      </c>
-      <c r="N263" t="s" s="2">
-        <v>946</v>
       </c>
       <c r="O263" t="s" s="2">
         <v>43</v>
@@ -32669,13 +32680,13 @@
         <v>43</v>
       </c>
       <c r="W263" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X263" t="s" s="2">
-        <v>43</v>
+        <v>944</v>
       </c>
       <c r="Y263" t="s" s="2">
-        <v>43</v>
+        <v>945</v>
       </c>
       <c r="Z263" t="s" s="2">
         <v>43</v>
@@ -32693,7 +32704,7 @@
         <v>43</v>
       </c>
       <c r="AE263" t="s" s="2">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="AF263" t="s" s="2">
         <v>41</v>
@@ -32722,7 +32733,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -32733,7 +32744,7 @@
         <v>41</v>
       </c>
       <c r="F264" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G264" t="s" s="2">
         <v>43</v>
@@ -32745,7 +32756,7 @@
         <v>43</v>
       </c>
       <c r="J264" t="s" s="2">
-        <v>316</v>
+        <v>947</v>
       </c>
       <c r="K264" t="s" s="2">
         <v>948</v>
@@ -32753,9 +32764,11 @@
       <c r="L264" t="s" s="2">
         <v>949</v>
       </c>
-      <c r="M264" s="2"/>
+      <c r="M264" t="s" s="2">
+        <v>950</v>
+      </c>
       <c r="N264" t="s" s="2">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="O264" t="s" s="2">
         <v>43</v>
@@ -32804,13 +32817,13 @@
         <v>43</v>
       </c>
       <c r="AE264" t="s" s="2">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="AF264" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG264" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH264" t="s" s="2">
         <v>43</v>
@@ -32833,7 +32846,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -32844,7 +32857,7 @@
         <v>41</v>
       </c>
       <c r="F265" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G265" t="s" s="2">
         <v>43</v>
@@ -32856,16 +32869,18 @@
         <v>43</v>
       </c>
       <c r="J265" t="s" s="2">
-        <v>52</v>
+        <v>316</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>64</v>
+        <v>953</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>65</v>
+        <v>954</v>
       </c>
       <c r="M265" s="2"/>
-      <c r="N265" s="2"/>
+      <c r="N265" t="s" s="2">
+        <v>955</v>
+      </c>
       <c r="O265" t="s" s="2">
         <v>43</v>
       </c>
@@ -32913,19 +32928,19 @@
         <v>43</v>
       </c>
       <c r="AE265" t="s" s="2">
-        <v>66</v>
+        <v>952</v>
       </c>
       <c r="AF265" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG265" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH265" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI265" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ265" t="s" s="2">
         <v>43</v>
@@ -32937,23 +32952,23 @@
         <v>43</v>
       </c>
       <c r="AM265" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F266" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G266" t="s" s="2">
         <v>43</v>
@@ -32965,17 +32980,15 @@
         <v>43</v>
       </c>
       <c r="J266" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M266" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M266" s="2"/>
       <c r="N266" s="2"/>
       <c r="O266" t="s" s="2">
         <v>43</v>
@@ -33024,19 +33037,19 @@
         <v>43</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG266" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH266" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI266" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AJ266" t="s" s="2">
         <v>43</v>
@@ -33053,11 +33066,11 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
-        <v>324</v>
+        <v>69</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" t="s" s="2">
@@ -33070,26 +33083,24 @@
         <v>43</v>
       </c>
       <c r="H267" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I267" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J267" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K267" t="s" s="2">
-        <v>325</v>
+        <v>71</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>326</v>
+        <v>72</v>
       </c>
       <c r="M267" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N267" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="N267" s="2"/>
       <c r="O267" t="s" s="2">
         <v>43</v>
       </c>
@@ -33137,7 +33148,7 @@
         <v>43</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>327</v>
+        <v>77</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>41</v>
@@ -33161,45 +33172,47 @@
         <v>43</v>
       </c>
       <c r="AM267" t="s" s="2">
-        <v>149</v>
+        <v>67</v>
       </c>
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
-        <v>43</v>
+        <v>324</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F268" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G268" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H268" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I268" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J268" t="s" s="2">
-        <v>425</v>
+        <v>70</v>
       </c>
       <c r="K268" t="s" s="2">
-        <v>955</v>
+        <v>325</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>956</v>
-      </c>
-      <c r="M268" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="M268" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N268" t="s" s="2">
-        <v>957</v>
+        <v>156</v>
       </c>
       <c r="O268" t="s" s="2">
         <v>43</v>
@@ -33248,19 +33261,19 @@
         <v>43</v>
       </c>
       <c r="AE268" t="s" s="2">
-        <v>954</v>
+        <v>327</v>
       </c>
       <c r="AF268" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG268" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH268" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI268" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ268" t="s" s="2">
         <v>43</v>
@@ -33272,12 +33285,12 @@
         <v>43</v>
       </c>
       <c r="AM268" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -33300,17 +33313,17 @@
         <v>43</v>
       </c>
       <c r="J269" t="s" s="2">
-        <v>126</v>
+        <v>425</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="M269" s="2"/>
       <c r="N269" t="s" s="2">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>43</v>
@@ -33335,13 +33348,13 @@
         <v>43</v>
       </c>
       <c r="W269" t="s" s="2">
-        <v>174</v>
+        <v>43</v>
       </c>
       <c r="X269" t="s" s="2">
-        <v>962</v>
+        <v>43</v>
       </c>
       <c r="Y269" t="s" s="2">
-        <v>963</v>
+        <v>43</v>
       </c>
       <c r="Z269" t="s" s="2">
         <v>43</v>
@@ -33359,7 +33372,7 @@
         <v>43</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>41</v>
@@ -33388,7 +33401,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -33411,17 +33424,17 @@
         <v>43</v>
       </c>
       <c r="J270" t="s" s="2">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="K270" t="s" s="2">
+        <v>964</v>
+      </c>
+      <c r="L270" t="s" s="2">
         <v>965</v>
-      </c>
-      <c r="L270" t="s" s="2">
-        <v>966</v>
       </c>
       <c r="M270" s="2"/>
       <c r="N270" t="s" s="2">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="O270" t="s" s="2">
         <v>43</v>
@@ -33446,13 +33459,13 @@
         <v>43</v>
       </c>
       <c r="W270" t="s" s="2">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="X270" t="s" s="2">
-        <v>43</v>
+        <v>967</v>
       </c>
       <c r="Y270" t="s" s="2">
-        <v>43</v>
+        <v>968</v>
       </c>
       <c r="Z270" t="s" s="2">
         <v>43</v>
@@ -33470,7 +33483,7 @@
         <v>43</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>41</v>
@@ -33499,7 +33512,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -33522,17 +33535,15 @@
         <v>43</v>
       </c>
       <c r="J271" t="s" s="2">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>970</v>
-      </c>
-      <c r="M271" t="s" s="2">
         <v>971</v>
       </c>
+      <c r="M271" s="2"/>
       <c r="N271" t="s" s="2">
         <v>972</v>
       </c>
@@ -33559,13 +33570,13 @@
         <v>43</v>
       </c>
       <c r="W271" t="s" s="2">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="X271" t="s" s="2">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="Y271" t="s" s="2">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="Z271" t="s" s="2">
         <v>43</v>
@@ -33583,7 +33594,7 @@
         <v>43</v>
       </c>
       <c r="AE271" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="AF271" t="s" s="2">
         <v>41</v>
@@ -33635,7 +33646,7 @@
         <v>43</v>
       </c>
       <c r="J272" t="s" s="2">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="K272" t="s" s="2">
         <v>974</v>
@@ -33672,13 +33683,13 @@
         <v>43</v>
       </c>
       <c r="W272" t="s" s="2">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="X272" t="s" s="2">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="Y272" t="s" s="2">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="Z272" t="s" s="2">
         <v>43</v>
@@ -33736,7 +33747,7 @@
         <v>41</v>
       </c>
       <c r="F273" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G273" t="s" s="2">
         <v>43</v>
@@ -33748,7 +33759,7 @@
         <v>43</v>
       </c>
       <c r="J273" t="s" s="2">
-        <v>316</v>
+        <v>207</v>
       </c>
       <c r="K273" t="s" s="2">
         <v>979</v>
@@ -33756,8 +33767,12 @@
       <c r="L273" t="s" s="2">
         <v>980</v>
       </c>
-      <c r="M273" s="2"/>
-      <c r="N273" s="2"/>
+      <c r="M273" t="s" s="2">
+        <v>981</v>
+      </c>
+      <c r="N273" t="s" s="2">
+        <v>982</v>
+      </c>
       <c r="O273" t="s" s="2">
         <v>43</v>
       </c>
@@ -33811,7 +33826,7 @@
         <v>41</v>
       </c>
       <c r="AG273" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH273" t="s" s="2">
         <v>43</v>
@@ -33834,7 +33849,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -33845,7 +33860,7 @@
         <v>41</v>
       </c>
       <c r="F274" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G274" t="s" s="2">
         <v>43</v>
@@ -33857,13 +33872,13 @@
         <v>43</v>
       </c>
       <c r="J274" t="s" s="2">
-        <v>52</v>
+        <v>316</v>
       </c>
       <c r="K274" t="s" s="2">
-        <v>64</v>
+        <v>984</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>65</v>
+        <v>985</v>
       </c>
       <c r="M274" s="2"/>
       <c r="N274" s="2"/>
@@ -33914,19 +33929,19 @@
         <v>43</v>
       </c>
       <c r="AE274" t="s" s="2">
-        <v>66</v>
+        <v>983</v>
       </c>
       <c r="AF274" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG274" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH274" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI274" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ274" t="s" s="2">
         <v>43</v>
@@ -33938,23 +33953,23 @@
         <v>43</v>
       </c>
       <c r="AM274" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>982</v>
+        <v>986</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F275" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G275" t="s" s="2">
         <v>43</v>
@@ -33966,17 +33981,15 @@
         <v>43</v>
       </c>
       <c r="J275" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K275" t="s" s="2">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M275" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M275" s="2"/>
       <c r="N275" s="2"/>
       <c r="O275" t="s" s="2">
         <v>43</v>
@@ -34025,19 +34038,19 @@
         <v>43</v>
       </c>
       <c r="AE275" t="s" s="2">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="AF275" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG275" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH275" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI275" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AJ275" t="s" s="2">
         <v>43</v>
@@ -34054,11 +34067,11 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
-        <v>324</v>
+        <v>69</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" t="s" s="2">
@@ -34071,26 +34084,24 @@
         <v>43</v>
       </c>
       <c r="H276" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I276" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J276" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K276" t="s" s="2">
-        <v>325</v>
+        <v>71</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>326</v>
+        <v>72</v>
       </c>
       <c r="M276" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N276" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="N276" s="2"/>
       <c r="O276" t="s" s="2">
         <v>43</v>
       </c>
@@ -34138,7 +34149,7 @@
         <v>43</v>
       </c>
       <c r="AE276" t="s" s="2">
-        <v>327</v>
+        <v>77</v>
       </c>
       <c r="AF276" t="s" s="2">
         <v>41</v>
@@ -34162,47 +34173,47 @@
         <v>43</v>
       </c>
       <c r="AM276" t="s" s="2">
-        <v>149</v>
+        <v>67</v>
       </c>
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
-        <v>43</v>
+        <v>324</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F277" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G277" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H277" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I277" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J277" t="s" s="2">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K277" t="s" s="2">
-        <v>652</v>
+        <v>325</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>653</v>
+        <v>326</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>654</v>
+        <v>73</v>
       </c>
       <c r="N277" t="s" s="2">
-        <v>985</v>
+        <v>156</v>
       </c>
       <c r="O277" t="s" s="2">
         <v>43</v>
@@ -34227,13 +34238,13 @@
         <v>43</v>
       </c>
       <c r="W277" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X277" t="s" s="2">
-        <v>656</v>
+        <v>43</v>
       </c>
       <c r="Y277" t="s" s="2">
-        <v>657</v>
+        <v>43</v>
       </c>
       <c r="Z277" t="s" s="2">
         <v>43</v>
@@ -34251,19 +34262,19 @@
         <v>43</v>
       </c>
       <c r="AE277" t="s" s="2">
-        <v>984</v>
+        <v>327</v>
       </c>
       <c r="AF277" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG277" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH277" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI277" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ277" t="s" s="2">
         <v>43</v>
@@ -34275,12 +34286,12 @@
         <v>43</v>
       </c>
       <c r="AM277" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -34288,7 +34299,7 @@
       </c>
       <c r="D278" s="2"/>
       <c r="E278" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F278" t="s" s="2">
         <v>50</v>
@@ -34303,17 +34314,19 @@
         <v>43</v>
       </c>
       <c r="J278" t="s" s="2">
-        <v>435</v>
+        <v>180</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>987</v>
+        <v>652</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>988</v>
-      </c>
-      <c r="M278" s="2"/>
+        <v>653</v>
+      </c>
+      <c r="M278" t="s" s="2">
+        <v>654</v>
+      </c>
       <c r="N278" t="s" s="2">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="O278" t="s" s="2">
         <v>43</v>
@@ -34338,13 +34351,13 @@
         <v>43</v>
       </c>
       <c r="W278" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X278" t="s" s="2">
-        <v>43</v>
+        <v>656</v>
       </c>
       <c r="Y278" t="s" s="2">
-        <v>43</v>
+        <v>657</v>
       </c>
       <c r="Z278" t="s" s="2">
         <v>43</v>
@@ -34362,10 +34375,10 @@
         <v>43</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="AF278" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG278" t="s" s="2">
         <v>50</v>
@@ -34391,7 +34404,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -34414,17 +34427,15 @@
         <v>43</v>
       </c>
       <c r="J279" t="s" s="2">
-        <v>52</v>
+        <v>435</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>992</v>
-      </c>
-      <c r="M279" t="s" s="2">
         <v>993</v>
       </c>
+      <c r="M279" s="2"/>
       <c r="N279" t="s" s="2">
         <v>994</v>
       </c>
@@ -34475,7 +34486,7 @@
         <v>43</v>
       </c>
       <c r="AE279" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="AF279" t="s" s="2">
         <v>41</v>
@@ -34640,7 +34651,7 @@
         <v>43</v>
       </c>
       <c r="J281" t="s" s="2">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="K281" t="s" s="2">
         <v>1001</v>
@@ -34648,9 +34659,11 @@
       <c r="L281" t="s" s="2">
         <v>1002</v>
       </c>
-      <c r="M281" s="2"/>
+      <c r="M281" t="s" s="2">
+        <v>1003</v>
+      </c>
       <c r="N281" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="O281" t="s" s="2">
         <v>43</v>
@@ -34675,13 +34688,13 @@
         <v>43</v>
       </c>
       <c r="W281" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X281" t="s" s="2">
-        <v>1004</v>
+        <v>43</v>
       </c>
       <c r="Y281" t="s" s="2">
-        <v>1005</v>
+        <v>43</v>
       </c>
       <c r="Z281" t="s" s="2">
         <v>43</v>
@@ -34728,7 +34741,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -34754,14 +34767,14 @@
         <v>180</v>
       </c>
       <c r="K282" t="s" s="2">
+        <v>1006</v>
+      </c>
+      <c r="L282" t="s" s="2">
         <v>1007</v>
-      </c>
-      <c r="L282" t="s" s="2">
-        <v>1008</v>
       </c>
       <c r="M282" s="2"/>
       <c r="N282" t="s" s="2">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="O282" t="s" s="2">
         <v>43</v>
@@ -34789,11 +34802,11 @@
         <v>116</v>
       </c>
       <c r="X282" t="s" s="2">
+        <v>1009</v>
+      </c>
+      <c r="Y282" t="s" s="2">
         <v>1010</v>
       </c>
-      <c r="Y282" t="s" s="2">
-        <v>1011</v>
-      </c>
       <c r="Z282" t="s" s="2">
         <v>43</v>
       </c>
@@ -34810,7 +34823,7 @@
         <v>43</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>41</v>
@@ -34839,7 +34852,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -34865,14 +34878,14 @@
         <v>180</v>
       </c>
       <c r="K283" t="s" s="2">
+        <v>1012</v>
+      </c>
+      <c r="L283" t="s" s="2">
         <v>1013</v>
-      </c>
-      <c r="L283" t="s" s="2">
-        <v>1014</v>
       </c>
       <c r="M283" s="2"/>
       <c r="N283" t="s" s="2">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="O283" t="s" s="2">
         <v>43</v>
@@ -34921,7 +34934,7 @@
         <v>43</v>
       </c>
       <c r="AE283" t="s" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AF283" t="s" s="2">
         <v>41</v>
@@ -34961,7 +34974,7 @@
         <v>41</v>
       </c>
       <c r="F284" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G284" t="s" s="2">
         <v>43</v>
@@ -34973,7 +34986,7 @@
         <v>43</v>
       </c>
       <c r="J284" t="s" s="2">
-        <v>316</v>
+        <v>180</v>
       </c>
       <c r="K284" t="s" s="2">
         <v>1018</v>
@@ -34982,7 +34995,9 @@
         <v>1019</v>
       </c>
       <c r="M284" s="2"/>
-      <c r="N284" s="2"/>
+      <c r="N284" t="s" s="2">
+        <v>1014</v>
+      </c>
       <c r="O284" t="s" s="2">
         <v>43</v>
       </c>
@@ -35006,13 +35021,13 @@
         <v>43</v>
       </c>
       <c r="W284" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X284" t="s" s="2">
-        <v>43</v>
+        <v>1020</v>
       </c>
       <c r="Y284" t="s" s="2">
-        <v>43</v>
+        <v>1021</v>
       </c>
       <c r="Z284" t="s" s="2">
         <v>43</v>
@@ -35036,7 +35051,7 @@
         <v>41</v>
       </c>
       <c r="AG284" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH284" t="s" s="2">
         <v>43</v>
@@ -35059,7 +35074,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -35070,7 +35085,7 @@
         <v>41</v>
       </c>
       <c r="F285" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G285" t="s" s="2">
         <v>43</v>
@@ -35082,13 +35097,13 @@
         <v>43</v>
       </c>
       <c r="J285" t="s" s="2">
-        <v>52</v>
+        <v>316</v>
       </c>
       <c r="K285" t="s" s="2">
-        <v>64</v>
+        <v>1023</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>65</v>
+        <v>1024</v>
       </c>
       <c r="M285" s="2"/>
       <c r="N285" s="2"/>
@@ -35139,19 +35154,19 @@
         <v>43</v>
       </c>
       <c r="AE285" t="s" s="2">
-        <v>66</v>
+        <v>1022</v>
       </c>
       <c r="AF285" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG285" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH285" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI285" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ285" t="s" s="2">
         <v>43</v>
@@ -35163,23 +35178,23 @@
         <v>43</v>
       </c>
       <c r="AM285" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F286" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G286" t="s" s="2">
         <v>43</v>
@@ -35191,17 +35206,15 @@
         <v>43</v>
       </c>
       <c r="J286" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K286" t="s" s="2">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M286" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M286" s="2"/>
       <c r="N286" s="2"/>
       <c r="O286" t="s" s="2">
         <v>43</v>
@@ -35250,19 +35263,19 @@
         <v>43</v>
       </c>
       <c r="AE286" t="s" s="2">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="AF286" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG286" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH286" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI286" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AJ286" t="s" s="2">
         <v>43</v>
@@ -35279,11 +35292,11 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
-        <v>324</v>
+        <v>69</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" t="s" s="2">
@@ -35296,26 +35309,24 @@
         <v>43</v>
       </c>
       <c r="H287" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I287" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J287" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>325</v>
+        <v>71</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>326</v>
+        <v>72</v>
       </c>
       <c r="M287" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N287" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="N287" s="2"/>
       <c r="O287" t="s" s="2">
         <v>43</v>
       </c>
@@ -35363,7 +35374,7 @@
         <v>43</v>
       </c>
       <c r="AE287" t="s" s="2">
-        <v>327</v>
+        <v>77</v>
       </c>
       <c r="AF287" t="s" s="2">
         <v>41</v>
@@ -35387,47 +35398,47 @@
         <v>43</v>
       </c>
       <c r="AM287" t="s" s="2">
-        <v>149</v>
+        <v>67</v>
       </c>
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
-        <v>43</v>
+        <v>324</v>
       </c>
       <c r="D288" s="2"/>
       <c r="E288" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F288" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G288" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H288" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I288" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J288" t="s" s="2">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>652</v>
+        <v>325</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>1024</v>
+        <v>326</v>
       </c>
       <c r="M288" t="s" s="2">
-        <v>1025</v>
+        <v>73</v>
       </c>
       <c r="N288" t="s" s="2">
-        <v>1026</v>
+        <v>156</v>
       </c>
       <c r="O288" t="s" s="2">
         <v>43</v>
@@ -35452,13 +35463,13 @@
         <v>43</v>
       </c>
       <c r="W288" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X288" t="s" s="2">
-        <v>1027</v>
+        <v>43</v>
       </c>
       <c r="Y288" t="s" s="2">
-        <v>1028</v>
+        <v>43</v>
       </c>
       <c r="Z288" t="s" s="2">
         <v>43</v>
@@ -35476,19 +35487,19 @@
         <v>43</v>
       </c>
       <c r="AE288" t="s" s="2">
-        <v>1023</v>
+        <v>327</v>
       </c>
       <c r="AF288" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG288" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH288" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI288" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ288" t="s" s="2">
         <v>43</v>
@@ -35500,12 +35511,12 @@
         <v>43</v>
       </c>
       <c r="AM288" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -35513,7 +35524,7 @@
       </c>
       <c r="D289" s="2"/>
       <c r="E289" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F289" t="s" s="2">
         <v>50</v>
@@ -35528,17 +35539,19 @@
         <v>43</v>
       </c>
       <c r="J289" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K289" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="L289" t="s" s="2">
+        <v>1029</v>
+      </c>
+      <c r="M289" t="s" s="2">
         <v>1030</v>
       </c>
-      <c r="K289" t="s" s="2">
+      <c r="N289" t="s" s="2">
         <v>1031</v>
-      </c>
-      <c r="L289" t="s" s="2">
-        <v>1032</v>
-      </c>
-      <c r="M289" s="2"/>
-      <c r="N289" t="s" s="2">
-        <v>1033</v>
       </c>
       <c r="O289" t="s" s="2">
         <v>43</v>
@@ -35563,13 +35576,13 @@
         <v>43</v>
       </c>
       <c r="W289" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X289" t="s" s="2">
-        <v>43</v>
+        <v>1032</v>
       </c>
       <c r="Y289" t="s" s="2">
-        <v>43</v>
+        <v>1033</v>
       </c>
       <c r="Z289" t="s" s="2">
         <v>43</v>
@@ -35587,10 +35600,10 @@
         <v>43</v>
       </c>
       <c r="AE289" t="s" s="2">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AF289" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG289" t="s" s="2">
         <v>50</v>
@@ -35725,8 +35738,119 @@
         <v>43</v>
       </c>
     </row>
+    <row r="291" hidden="true">
+      <c r="A291" t="s" s="2">
+        <v>1039</v>
+      </c>
+      <c r="B291" s="2"/>
+      <c r="C291" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D291" s="2"/>
+      <c r="E291" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F291" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G291" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H291" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I291" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J291" t="s" s="2">
+        <v>1040</v>
+      </c>
+      <c r="K291" t="s" s="2">
+        <v>1041</v>
+      </c>
+      <c r="L291" t="s" s="2">
+        <v>1042</v>
+      </c>
+      <c r="M291" s="2"/>
+      <c r="N291" t="s" s="2">
+        <v>1043</v>
+      </c>
+      <c r="O291" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P291" s="2"/>
+      <c r="Q291" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R291" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S291" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T291" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U291" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V291" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W291" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X291" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y291" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z291" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA291" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB291" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC291" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD291" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE291" t="s" s="2">
+        <v>1039</v>
+      </c>
+      <c r="AF291" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG291" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH291" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI291" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ291" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK291" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL291" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM291" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AM290">
+  <autoFilter ref="A1:AM291">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -35736,7 +35860,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI289">
+  <conditionalFormatting sqref="A2:AI290">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit.xlsx
@@ -764,7 +764,7 @@
     <t>Claim type determine the general sets of business rules applied for information requirements and adjudication.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/CodeSystem/claim-type</t>
+    <t>http://hl7.org/fhir/ValueSet/claim-type</t>
   </si>
   <si>
     <t>Event.code</t>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10252" uniqueCount="1044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10252" uniqueCount="1045">
   <si>
     <t>Path</t>
   </si>
@@ -1364,6 +1364,11 @@
   </si>
   <si>
     <t>Often a regulatory requirement to specify the responsible provider.</t>
+  </si>
+  <si>
+    <t>&lt;valueReference xmlns="http://hl7.org/fhir"&gt;
+  &lt;reference value="  CarinBBPractitioner"/&gt;
+&lt;/valueReference&gt;</t>
   </si>
   <si>
     <t>FiveWs.actor</t>
@@ -12048,7 +12053,7 @@
         <v>43</v>
       </c>
       <c r="R78" t="s" s="2">
-        <v>43</v>
+        <v>433</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>43</v>
@@ -12105,7 +12110,7 @@
         <v>43</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>43</v>
@@ -12116,7 +12121,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -12139,19 +12144,19 @@
         <v>43</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>43</v>
@@ -12200,7 +12205,7 @@
         <v>43</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -12229,7 +12234,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -12255,16 +12260,16 @@
         <v>180</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>43</v>
@@ -12292,10 +12297,10 @@
         <v>116</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>43</v>
@@ -12313,7 +12318,7 @@
         <v>43</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -12342,7 +12347,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -12368,14 +12373,14 @@
         <v>180</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>43</v>
@@ -12403,10 +12408,10 @@
         <v>116</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>43</v>
@@ -12424,7 +12429,7 @@
         <v>43</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -12453,7 +12458,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12479,16 +12484,16 @@
         <v>316</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>43</v>
@@ -12537,7 +12542,7 @@
         <v>43</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -12566,7 +12571,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12675,7 +12680,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12786,7 +12791,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12899,7 +12904,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12925,14 +12930,14 @@
         <v>425</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>43</v>
@@ -12981,7 +12986,7 @@
         <v>43</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>50</v>
@@ -13010,7 +13015,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -13036,16 +13041,16 @@
         <v>180</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>43</v>
@@ -13074,7 +13079,7 @@
       </c>
       <c r="X87" s="2"/>
       <c r="Y87" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>43</v>
@@ -13092,7 +13097,7 @@
         <v>43</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>50</v>
@@ -13121,7 +13126,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -13147,16 +13152,16 @@
         <v>180</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>244</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>43</v>
@@ -13184,10 +13189,10 @@
         <v>116</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>43</v>
@@ -13205,7 +13210,7 @@
         <v>43</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>41</v>
@@ -13234,7 +13239,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -13257,13 +13262,13 @@
         <v>43</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -13314,7 +13319,7 @@
         <v>43</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
@@ -13343,7 +13348,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -13366,19 +13371,19 @@
         <v>43</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>43</v>
@@ -13427,7 +13432,7 @@
         <v>43</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
@@ -13456,7 +13461,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13482,16 +13487,16 @@
         <v>104</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>43</v>
@@ -13519,10 +13524,10 @@
         <v>116</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>43</v>
@@ -13540,7 +13545,7 @@
         <v>43</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
@@ -13569,7 +13574,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13595,14 +13600,14 @@
         <v>316</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>43</v>
@@ -13651,7 +13656,7 @@
         <v>43</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>41</v>
@@ -13680,7 +13685,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13789,7 +13794,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13900,7 +13905,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -14013,7 +14018,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -14039,16 +14044,16 @@
         <v>425</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>43</v>
@@ -14097,7 +14102,7 @@
         <v>43</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>50</v>
@@ -14126,7 +14131,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -14152,14 +14157,14 @@
         <v>180</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>43</v>
@@ -14187,10 +14192,10 @@
         <v>116</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>43</v>
@@ -14208,7 +14213,7 @@
         <v>43</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>50</v>
@@ -14237,7 +14242,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -14263,16 +14268,16 @@
         <v>180</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>43</v>
@@ -14300,10 +14305,10 @@
         <v>116</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>43</v>
@@ -14321,7 +14326,7 @@
         <v>43</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>41</v>
@@ -14350,7 +14355,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14376,14 +14381,14 @@
         <v>180</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>43</v>
@@ -14411,10 +14416,10 @@
         <v>116</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Z99" t="s" s="2">
         <v>43</v>
@@ -14432,7 +14437,7 @@
         <v>43</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>41</v>
@@ -14461,7 +14466,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14487,16 +14492,16 @@
         <v>180</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>43</v>
@@ -14524,10 +14529,10 @@
         <v>116</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>43</v>
@@ -14545,7 +14550,7 @@
         <v>43</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>41</v>
@@ -14574,7 +14579,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14600,14 +14605,14 @@
         <v>316</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>43</v>
@@ -14656,7 +14661,7 @@
         <v>43</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>41</v>
@@ -14685,7 +14690,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14794,7 +14799,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14905,7 +14910,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -15018,7 +15023,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -15044,14 +15049,14 @@
         <v>425</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>43</v>
@@ -15100,7 +15105,7 @@
         <v>43</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>50</v>
@@ -15129,7 +15134,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -15155,14 +15160,14 @@
         <v>180</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>43</v>
@@ -15190,10 +15195,10 @@
         <v>116</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>43</v>
@@ -15211,7 +15216,7 @@
         <v>43</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>41</v>
@@ -15240,7 +15245,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -15266,14 +15271,14 @@
         <v>269</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>43</v>
@@ -15322,7 +15327,7 @@
         <v>43</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>41</v>
@@ -15351,7 +15356,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15377,14 +15382,14 @@
         <v>180</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>43</v>
@@ -15412,26 +15417,26 @@
         <v>116</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA108" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AB108" s="2"/>
       <c r="AC108" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>50</v>
@@ -15460,10 +15465,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C109" t="s" s="2">
         <v>43</v>
@@ -15488,14 +15493,14 @@
         <v>180</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>43</v>
@@ -15524,7 +15529,7 @@
       </c>
       <c r="X109" s="2"/>
       <c r="Y109" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>43</v>
@@ -15542,7 +15547,7 @@
         <v>43</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>50</v>
@@ -15571,7 +15576,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15594,17 +15599,17 @@
         <v>43</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>43</v>
@@ -15653,7 +15658,7 @@
         <v>43</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>41</v>
@@ -15682,7 +15687,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15708,14 +15713,14 @@
         <v>425</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>43</v>
@@ -15764,7 +15769,7 @@
         <v>43</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>41</v>
@@ -15793,7 +15798,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15819,16 +15824,16 @@
         <v>316</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>43</v>
@@ -15877,7 +15882,7 @@
         <v>43</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>50</v>
@@ -15898,7 +15903,7 @@
         <v>43</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>43</v>
@@ -15906,7 +15911,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -16015,7 +16020,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -16126,7 +16131,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -16239,7 +16244,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -16262,19 +16267,19 @@
         <v>51</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>43</v>
@@ -16323,7 +16328,7 @@
         <v>43</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>50</v>
@@ -16352,7 +16357,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16375,17 +16380,17 @@
         <v>51</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>43</v>
@@ -16434,7 +16439,7 @@
         <v>43</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>50</v>
@@ -16463,7 +16468,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16489,16 +16494,16 @@
         <v>52</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>43</v>
@@ -16547,7 +16552,7 @@
         <v>43</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>41</v>
@@ -16576,7 +16581,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16602,14 +16607,14 @@
         <v>316</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>43</v>
@@ -16658,7 +16663,7 @@
         <v>43</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>41</v>
@@ -16687,7 +16692,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16796,7 +16801,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16907,7 +16912,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -17020,7 +17025,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -17043,19 +17048,19 @@
         <v>43</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>43</v>
@@ -17104,7 +17109,7 @@
         <v>43</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>41</v>
@@ -17133,7 +17138,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -17159,14 +17164,14 @@
         <v>180</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>43</v>
@@ -17194,10 +17199,10 @@
         <v>108</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>43</v>
@@ -17215,7 +17220,7 @@
         <v>43</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>41</v>
@@ -17244,7 +17249,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -17267,17 +17272,17 @@
         <v>43</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>43</v>
@@ -17326,7 +17331,7 @@
         <v>43</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>41</v>
@@ -17355,7 +17360,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17381,14 +17386,14 @@
         <v>316</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>43</v>
@@ -17437,7 +17442,7 @@
         <v>43</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>41</v>
@@ -17466,7 +17471,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -17575,7 +17580,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17686,7 +17691,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17799,7 +17804,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17825,14 +17830,14 @@
         <v>425</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>43</v>
@@ -17881,7 +17886,7 @@
         <v>43</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>50</v>
@@ -17910,7 +17915,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17936,14 +17941,14 @@
         <v>425</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>43</v>
@@ -17992,7 +17997,7 @@
         <v>43</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>41</v>
@@ -18021,7 +18026,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -18047,14 +18052,14 @@
         <v>425</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>43</v>
@@ -18103,7 +18108,7 @@
         <v>43</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>41</v>
@@ -18132,7 +18137,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -18158,14 +18163,14 @@
         <v>425</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>43</v>
@@ -18214,7 +18219,7 @@
         <v>43</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>41</v>
@@ -18243,7 +18248,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -18269,14 +18274,14 @@
         <v>425</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>43</v>
@@ -18325,7 +18330,7 @@
         <v>43</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>41</v>
@@ -18354,7 +18359,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -18380,14 +18385,14 @@
         <v>180</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>43</v>
@@ -18415,10 +18420,10 @@
         <v>116</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="Z135" t="s" s="2">
         <v>43</v>
@@ -18436,7 +18441,7 @@
         <v>43</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>41</v>
@@ -18465,7 +18470,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18491,16 +18496,16 @@
         <v>180</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>43</v>
@@ -18528,10 +18533,10 @@
         <v>116</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>43</v>
@@ -18549,7 +18554,7 @@
         <v>43</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>41</v>
@@ -18578,11 +18583,11 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -18604,16 +18609,16 @@
         <v>180</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>43</v>
@@ -18641,10 +18646,10 @@
         <v>116</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="Z137" t="s" s="2">
         <v>43</v>
@@ -18662,7 +18667,7 @@
         <v>43</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>50</v>
@@ -18691,7 +18696,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -18717,16 +18722,16 @@
         <v>180</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>43</v>
@@ -18754,10 +18759,10 @@
         <v>116</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="Z138" t="s" s="2">
         <v>43</v>
@@ -18775,7 +18780,7 @@
         <v>43</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>41</v>
@@ -18804,7 +18809,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -18830,16 +18835,16 @@
         <v>180</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>43</v>
@@ -18867,10 +18872,10 @@
         <v>116</v>
       </c>
       <c r="X139" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="Z139" t="s" s="2">
         <v>43</v>
@@ -18888,7 +18893,7 @@
         <v>43</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>41</v>
@@ -18917,7 +18922,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18940,17 +18945,17 @@
         <v>43</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>43</v>
@@ -18999,7 +19004,7 @@
         <v>43</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>41</v>
@@ -19028,7 +19033,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -19051,17 +19056,17 @@
         <v>43</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>43</v>
@@ -19089,10 +19094,10 @@
         <v>116</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="Z141" t="s" s="2">
         <v>43</v>
@@ -19110,7 +19115,7 @@
         <v>43</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>41</v>
@@ -19139,7 +19144,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -19162,17 +19167,17 @@
         <v>43</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>43</v>
@@ -19221,7 +19226,7 @@
         <v>43</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>41</v>
@@ -19250,7 +19255,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -19273,17 +19278,17 @@
         <v>43</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>43</v>
@@ -19332,7 +19337,7 @@
         <v>43</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>41</v>
@@ -19361,7 +19366,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -19384,19 +19389,19 @@
         <v>43</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>43</v>
@@ -19445,7 +19450,7 @@
         <v>43</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>41</v>
@@ -19474,7 +19479,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19497,19 +19502,19 @@
         <v>43</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>43</v>
@@ -19558,7 +19563,7 @@
         <v>43</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>41</v>
@@ -19587,7 +19592,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19610,17 +19615,17 @@
         <v>43</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>43</v>
@@ -19669,7 +19674,7 @@
         <v>43</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>41</v>
@@ -19698,7 +19703,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19724,16 +19729,16 @@
         <v>180</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>43</v>
@@ -19761,10 +19766,10 @@
         <v>116</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="Z147" t="s" s="2">
         <v>43</v>
@@ -19782,7 +19787,7 @@
         <v>43</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>41</v>
@@ -19811,7 +19816,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19837,14 +19842,14 @@
         <v>180</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>43</v>
@@ -19872,10 +19877,10 @@
         <v>116</v>
       </c>
       <c r="X148" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="Y148" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="Z148" t="s" s="2">
         <v>43</v>
@@ -19893,7 +19898,7 @@
         <v>43</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>41</v>
@@ -19922,7 +19927,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19945,17 +19950,17 @@
         <v>43</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="M149" s="2"/>
       <c r="N149" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>43</v>
@@ -20004,7 +20009,7 @@
         <v>43</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>41</v>
@@ -20033,7 +20038,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -20059,14 +20064,14 @@
         <v>425</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>43</v>
@@ -20115,7 +20120,7 @@
         <v>43</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>41</v>
@@ -20144,7 +20149,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -20170,14 +20175,14 @@
         <v>316</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>43</v>
@@ -20226,7 +20231,7 @@
         <v>43</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>41</v>
@@ -20255,7 +20260,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -20364,7 +20369,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20475,7 +20480,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20588,7 +20593,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20614,16 +20619,16 @@
         <v>180</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>43</v>
@@ -20652,7 +20657,7 @@
       </c>
       <c r="X155" s="2"/>
       <c r="Y155" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="Z155" t="s" s="2">
         <v>43</v>
@@ -20670,7 +20675,7 @@
         <v>43</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>50</v>
@@ -20699,7 +20704,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20725,16 +20730,16 @@
         <v>180</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>43</v>
@@ -20762,10 +20767,10 @@
         <v>116</v>
       </c>
       <c r="X156" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="Y156" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="Z156" t="s" s="2">
         <v>43</v>
@@ -20783,7 +20788,7 @@
         <v>43</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>41</v>
@@ -20812,7 +20817,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20835,19 +20840,19 @@
         <v>43</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>43</v>
@@ -20896,7 +20901,7 @@
         <v>43</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>41</v>
@@ -20925,7 +20930,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20948,19 +20953,19 @@
         <v>43</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>43</v>
@@ -21009,7 +21014,7 @@
         <v>43</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>41</v>
@@ -21038,7 +21043,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -21064,10 +21069,10 @@
         <v>316</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -21118,7 +21123,7 @@
         <v>43</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>41</v>
@@ -21147,7 +21152,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -21256,7 +21261,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -21367,7 +21372,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21480,7 +21485,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21506,14 +21511,14 @@
         <v>425</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="M163" s="2"/>
       <c r="N163" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>43</v>
@@ -21562,7 +21567,7 @@
         <v>43</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>50</v>
@@ -21591,7 +21596,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21617,14 +21622,14 @@
         <v>180</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>43</v>
@@ -21652,10 +21657,10 @@
         <v>116</v>
       </c>
       <c r="X164" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="Z164" t="s" s="2">
         <v>43</v>
@@ -21673,7 +21678,7 @@
         <v>43</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>41</v>
@@ -21702,7 +21707,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21728,16 +21733,16 @@
         <v>180</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>43</v>
@@ -21765,10 +21770,10 @@
         <v>116</v>
       </c>
       <c r="X165" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="Z165" t="s" s="2">
         <v>43</v>
@@ -21786,7 +21791,7 @@
         <v>43</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>41</v>
@@ -21815,11 +21820,11 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
@@ -21841,16 +21846,16 @@
         <v>180</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>43</v>
@@ -21878,10 +21883,10 @@
         <v>116</v>
       </c>
       <c r="X166" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>43</v>
@@ -21899,7 +21904,7 @@
         <v>43</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>50</v>
@@ -21928,7 +21933,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21954,16 +21959,16 @@
         <v>180</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>43</v>
@@ -21991,10 +21996,10 @@
         <v>116</v>
       </c>
       <c r="X167" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="Z167" t="s" s="2">
         <v>43</v>
@@ -22012,7 +22017,7 @@
         <v>43</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>41</v>
@@ -22041,7 +22046,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -22067,16 +22072,16 @@
         <v>180</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>43</v>
@@ -22104,10 +22109,10 @@
         <v>116</v>
       </c>
       <c r="X168" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="Z168" t="s" s="2">
         <v>43</v>
@@ -22125,7 +22130,7 @@
         <v>43</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>41</v>
@@ -22154,7 +22159,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -22177,17 +22182,17 @@
         <v>43</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>43</v>
@@ -22236,7 +22241,7 @@
         <v>43</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>41</v>
@@ -22265,7 +22270,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -22288,17 +22293,17 @@
         <v>43</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>43</v>
@@ -22347,7 +22352,7 @@
         <v>43</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>41</v>
@@ -22376,7 +22381,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -22399,19 +22404,19 @@
         <v>43</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>43</v>
@@ -22460,7 +22465,7 @@
         <v>43</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>41</v>
@@ -22489,7 +22494,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22512,19 +22517,19 @@
         <v>43</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>43</v>
@@ -22573,7 +22578,7 @@
         <v>43</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>41</v>
@@ -22602,7 +22607,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -22625,17 +22630,17 @@
         <v>43</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>43</v>
@@ -22684,7 +22689,7 @@
         <v>43</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>41</v>
@@ -22713,7 +22718,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22739,14 +22744,14 @@
         <v>425</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="M174" s="2"/>
       <c r="N174" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>43</v>
@@ -22795,7 +22800,7 @@
         <v>43</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>41</v>
@@ -22824,7 +22829,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22850,10 +22855,10 @@
         <v>43</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M175" s="2"/>
       <c r="N175" s="2"/>
@@ -22904,7 +22909,7 @@
         <v>43</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>41</v>
@@ -22933,7 +22938,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -22959,10 +22964,10 @@
         <v>316</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
@@ -23013,7 +23018,7 @@
         <v>43</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>41</v>
@@ -23042,7 +23047,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -23151,7 +23156,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23262,7 +23267,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -23375,7 +23380,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23401,14 +23406,14 @@
         <v>425</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="M180" s="2"/>
       <c r="N180" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>43</v>
@@ -23457,7 +23462,7 @@
         <v>43</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>50</v>
@@ -23486,7 +23491,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -23512,14 +23517,14 @@
         <v>180</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M181" s="2"/>
       <c r="N181" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="O181" t="s" s="2">
         <v>43</v>
@@ -23547,10 +23552,10 @@
         <v>116</v>
       </c>
       <c r="X181" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="Y181" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="Z181" t="s" s="2">
         <v>43</v>
@@ -23568,7 +23573,7 @@
         <v>43</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>41</v>
@@ -23597,7 +23602,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23623,16 +23628,16 @@
         <v>180</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="O182" t="s" s="2">
         <v>43</v>
@@ -23660,10 +23665,10 @@
         <v>116</v>
       </c>
       <c r="X182" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="Y182" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="Z182" t="s" s="2">
         <v>43</v>
@@ -23681,7 +23686,7 @@
         <v>43</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>41</v>
@@ -23710,11 +23715,11 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -23736,16 +23741,16 @@
         <v>180</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="O183" t="s" s="2">
         <v>43</v>
@@ -23773,10 +23778,10 @@
         <v>116</v>
       </c>
       <c r="X183" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="Y183" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="Z183" t="s" s="2">
         <v>43</v>
@@ -23794,7 +23799,7 @@
         <v>43</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>50</v>
@@ -23823,7 +23828,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23849,16 +23854,16 @@
         <v>180</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>43</v>
@@ -23886,10 +23891,10 @@
         <v>116</v>
       </c>
       <c r="X184" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="Y184" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="Z184" t="s" s="2">
         <v>43</v>
@@ -23907,7 +23912,7 @@
         <v>43</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>41</v>
@@ -23936,7 +23941,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -23962,16 +23967,16 @@
         <v>180</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>43</v>
@@ -23999,10 +24004,10 @@
         <v>116</v>
       </c>
       <c r="X185" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="Y185" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="Z185" t="s" s="2">
         <v>43</v>
@@ -24020,7 +24025,7 @@
         <v>43</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>41</v>
@@ -24049,7 +24054,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -24072,17 +24077,17 @@
         <v>43</v>
       </c>
       <c r="J186" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="M186" s="2"/>
       <c r="N186" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="O186" t="s" s="2">
         <v>43</v>
@@ -24131,7 +24136,7 @@
         <v>43</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>41</v>
@@ -24160,7 +24165,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -24183,17 +24188,17 @@
         <v>43</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="M187" s="2"/>
       <c r="N187" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>43</v>
@@ -24242,7 +24247,7 @@
         <v>43</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>41</v>
@@ -24271,7 +24276,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -24294,19 +24299,19 @@
         <v>43</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>43</v>
@@ -24355,7 +24360,7 @@
         <v>43</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>41</v>
@@ -24384,7 +24389,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -24407,19 +24412,19 @@
         <v>43</v>
       </c>
       <c r="J189" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="N189" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>43</v>
@@ -24468,7 +24473,7 @@
         <v>43</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>41</v>
@@ -24497,7 +24502,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -24520,17 +24525,17 @@
         <v>43</v>
       </c>
       <c r="J190" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M190" s="2"/>
       <c r="N190" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>43</v>
@@ -24579,7 +24584,7 @@
         <v>43</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>41</v>
@@ -24608,7 +24613,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -24634,14 +24639,14 @@
         <v>425</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="M191" s="2"/>
       <c r="N191" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>43</v>
@@ -24690,7 +24695,7 @@
         <v>43</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>41</v>
@@ -24719,7 +24724,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24745,10 +24750,10 @@
         <v>43</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M192" s="2"/>
       <c r="N192" s="2"/>
@@ -24799,7 +24804,7 @@
         <v>43</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>41</v>
@@ -24828,7 +24833,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -24854,14 +24859,14 @@
         <v>316</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="O193" t="s" s="2">
         <v>43</v>
@@ -24910,7 +24915,7 @@
         <v>43</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>41</v>
@@ -24939,7 +24944,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -25048,7 +25053,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -25159,7 +25164,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -25272,7 +25277,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -25298,14 +25303,14 @@
         <v>425</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>43</v>
@@ -25354,7 +25359,7 @@
         <v>43</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>41</v>
@@ -25383,7 +25388,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25409,14 +25414,14 @@
         <v>425</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="M198" s="2"/>
       <c r="N198" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="O198" t="s" s="2">
         <v>43</v>
@@ -25465,7 +25470,7 @@
         <v>43</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>41</v>
@@ -25494,7 +25499,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25520,14 +25525,14 @@
         <v>425</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="M199" s="2"/>
       <c r="N199" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="O199" t="s" s="2">
         <v>43</v>
@@ -25576,7 +25581,7 @@
         <v>43</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>41</v>
@@ -25605,7 +25610,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -25631,14 +25636,14 @@
         <v>289</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="M200" s="2"/>
       <c r="N200" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>43</v>
@@ -25687,7 +25692,7 @@
         <v>43</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>41</v>
@@ -25716,11 +25721,11 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" t="s" s="2">
@@ -25742,16 +25747,16 @@
         <v>180</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="O201" t="s" s="2">
         <v>43</v>
@@ -25779,10 +25784,10 @@
         <v>116</v>
       </c>
       <c r="X201" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="Y201" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="Z201" t="s" s="2">
         <v>43</v>
@@ -25800,7 +25805,7 @@
         <v>43</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>50</v>
@@ -25829,7 +25834,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -25855,16 +25860,16 @@
         <v>180</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="O202" t="s" s="2">
         <v>43</v>
@@ -25892,10 +25897,10 @@
         <v>116</v>
       </c>
       <c r="X202" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="Y202" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="Z202" t="s" s="2">
         <v>43</v>
@@ -25913,7 +25918,7 @@
         <v>43</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>41</v>
@@ -25942,7 +25947,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -25968,16 +25973,16 @@
         <v>180</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="O203" t="s" s="2">
         <v>43</v>
@@ -26005,10 +26010,10 @@
         <v>116</v>
       </c>
       <c r="X203" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="Y203" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="Z203" t="s" s="2">
         <v>43</v>
@@ -26026,7 +26031,7 @@
         <v>43</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>41</v>
@@ -26055,7 +26060,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -26078,17 +26083,17 @@
         <v>43</v>
       </c>
       <c r="J204" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>43</v>
@@ -26137,7 +26142,7 @@
         <v>43</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>41</v>
@@ -26166,7 +26171,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -26189,17 +26194,17 @@
         <v>43</v>
       </c>
       <c r="J205" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="M205" s="2"/>
       <c r="N205" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="O205" t="s" s="2">
         <v>43</v>
@@ -26227,10 +26232,10 @@
         <v>116</v>
       </c>
       <c r="X205" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="Y205" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="Z205" t="s" s="2">
         <v>43</v>
@@ -26248,7 +26253,7 @@
         <v>43</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>41</v>
@@ -26277,7 +26282,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26300,17 +26305,17 @@
         <v>43</v>
       </c>
       <c r="J206" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="M206" s="2"/>
       <c r="N206" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="O206" t="s" s="2">
         <v>43</v>
@@ -26359,7 +26364,7 @@
         <v>43</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>41</v>
@@ -26388,7 +26393,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -26411,17 +26416,17 @@
         <v>43</v>
       </c>
       <c r="J207" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="M207" s="2"/>
       <c r="N207" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="O207" t="s" s="2">
         <v>43</v>
@@ -26470,7 +26475,7 @@
         <v>43</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="AF207" t="s" s="2">
         <v>41</v>
@@ -26499,7 +26504,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -26522,19 +26527,19 @@
         <v>43</v>
       </c>
       <c r="J208" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="O208" t="s" s="2">
         <v>43</v>
@@ -26583,7 +26588,7 @@
         <v>43</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>41</v>
@@ -26612,7 +26617,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -26635,19 +26640,19 @@
         <v>43</v>
       </c>
       <c r="J209" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="O209" t="s" s="2">
         <v>43</v>
@@ -26696,7 +26701,7 @@
         <v>43</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>41</v>
@@ -26725,7 +26730,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -26751,16 +26756,16 @@
         <v>180</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>43</v>
@@ -26788,10 +26793,10 @@
         <v>116</v>
       </c>
       <c r="X210" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Y210" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="Z210" t="s" s="2">
         <v>43</v>
@@ -26809,7 +26814,7 @@
         <v>43</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>41</v>
@@ -26838,7 +26843,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -26864,14 +26869,14 @@
         <v>180</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="M211" s="2"/>
       <c r="N211" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="O211" t="s" s="2">
         <v>43</v>
@@ -26899,10 +26904,10 @@
         <v>116</v>
       </c>
       <c r="X211" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="Y211" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="Z211" t="s" s="2">
         <v>43</v>
@@ -26920,7 +26925,7 @@
         <v>43</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>41</v>
@@ -26949,7 +26954,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -26975,14 +26980,14 @@
         <v>425</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="M212" s="2"/>
       <c r="N212" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="O212" t="s" s="2">
         <v>43</v>
@@ -27031,7 +27036,7 @@
         <v>43</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>41</v>
@@ -27060,7 +27065,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -27086,10 +27091,10 @@
         <v>43</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M213" s="2"/>
       <c r="N213" s="2"/>
@@ -27140,7 +27145,7 @@
         <v>43</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="AF213" t="s" s="2">
         <v>41</v>
@@ -27169,7 +27174,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -27195,10 +27200,10 @@
         <v>316</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="M214" s="2"/>
       <c r="N214" s="2"/>
@@ -27249,7 +27254,7 @@
         <v>43</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>41</v>
@@ -27278,7 +27283,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -27387,7 +27392,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -27498,7 +27503,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -27611,11 +27616,11 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" t="s" s="2">
@@ -27637,16 +27642,16 @@
         <v>180</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="O218" t="s" s="2">
         <v>43</v>
@@ -27674,10 +27679,10 @@
         <v>116</v>
       </c>
       <c r="X218" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="Y218" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="Z218" t="s" s="2">
         <v>43</v>
@@ -27695,7 +27700,7 @@
         <v>43</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="AF218" t="s" s="2">
         <v>50</v>
@@ -27724,7 +27729,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -27750,16 +27755,16 @@
         <v>180</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="O219" t="s" s="2">
         <v>43</v>
@@ -27787,10 +27792,10 @@
         <v>116</v>
       </c>
       <c r="X219" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="Y219" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="Z219" t="s" s="2">
         <v>43</v>
@@ -27808,7 +27813,7 @@
         <v>43</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>41</v>
@@ -27837,7 +27842,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -27860,17 +27865,17 @@
         <v>43</v>
       </c>
       <c r="J220" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="M220" s="2"/>
       <c r="N220" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="O220" t="s" s="2">
         <v>43</v>
@@ -27919,7 +27924,7 @@
         <v>43</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="AF220" t="s" s="2">
         <v>41</v>
@@ -27948,7 +27953,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -27971,17 +27976,17 @@
         <v>43</v>
       </c>
       <c r="J221" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="M221" s="2"/>
       <c r="N221" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="O221" t="s" s="2">
         <v>43</v>
@@ -28030,7 +28035,7 @@
         <v>43</v>
       </c>
       <c r="AE221" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="AF221" t="s" s="2">
         <v>41</v>
@@ -28059,7 +28064,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -28082,19 +28087,19 @@
         <v>43</v>
       </c>
       <c r="J222" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="O222" t="s" s="2">
         <v>43</v>
@@ -28143,7 +28148,7 @@
         <v>43</v>
       </c>
       <c r="AE222" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AF222" t="s" s="2">
         <v>41</v>
@@ -28172,7 +28177,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -28195,19 +28200,19 @@
         <v>43</v>
       </c>
       <c r="J223" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="O223" t="s" s="2">
         <v>43</v>
@@ -28256,7 +28261,7 @@
         <v>43</v>
       </c>
       <c r="AE223" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="AF223" t="s" s="2">
         <v>41</v>
@@ -28285,7 +28290,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -28311,14 +28316,14 @@
         <v>425</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="M224" s="2"/>
       <c r="N224" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="O224" t="s" s="2">
         <v>43</v>
@@ -28367,7 +28372,7 @@
         <v>43</v>
       </c>
       <c r="AE224" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="AF224" t="s" s="2">
         <v>41</v>
@@ -28396,7 +28401,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -28422,10 +28427,10 @@
         <v>43</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M225" s="2"/>
       <c r="N225" s="2"/>
@@ -28476,7 +28481,7 @@
         <v>43</v>
       </c>
       <c r="AE225" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="AF225" t="s" s="2">
         <v>41</v>
@@ -28505,7 +28510,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -28531,10 +28536,10 @@
         <v>316</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="M226" s="2"/>
       <c r="N226" s="2"/>
@@ -28585,7 +28590,7 @@
         <v>43</v>
       </c>
       <c r="AE226" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="AF226" t="s" s="2">
         <v>41</v>
@@ -28614,7 +28619,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -28723,7 +28728,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -28834,7 +28839,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -28947,11 +28952,11 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" t="s" s="2">
@@ -28973,16 +28978,16 @@
         <v>180</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="N230" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="O230" t="s" s="2">
         <v>43</v>
@@ -29010,10 +29015,10 @@
         <v>116</v>
       </c>
       <c r="X230" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="Y230" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="Z230" t="s" s="2">
         <v>43</v>
@@ -29031,7 +29036,7 @@
         <v>43</v>
       </c>
       <c r="AE230" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="AF230" t="s" s="2">
         <v>50</v>
@@ -29060,7 +29065,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -29086,16 +29091,16 @@
         <v>180</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="O231" t="s" s="2">
         <v>43</v>
@@ -29123,10 +29128,10 @@
         <v>116</v>
       </c>
       <c r="X231" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="Y231" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="Z231" t="s" s="2">
         <v>43</v>
@@ -29144,7 +29149,7 @@
         <v>43</v>
       </c>
       <c r="AE231" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="AF231" t="s" s="2">
         <v>41</v>
@@ -29173,7 +29178,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -29196,17 +29201,17 @@
         <v>43</v>
       </c>
       <c r="J232" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="K232" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="M232" s="2"/>
       <c r="N232" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="O232" t="s" s="2">
         <v>43</v>
@@ -29255,7 +29260,7 @@
         <v>43</v>
       </c>
       <c r="AE232" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="AF232" t="s" s="2">
         <v>41</v>
@@ -29284,7 +29289,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -29307,17 +29312,17 @@
         <v>43</v>
       </c>
       <c r="J233" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="M233" s="2"/>
       <c r="N233" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="O233" t="s" s="2">
         <v>43</v>
@@ -29366,7 +29371,7 @@
         <v>43</v>
       </c>
       <c r="AE233" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="AF233" t="s" s="2">
         <v>41</v>
@@ -29395,7 +29400,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -29418,19 +29423,19 @@
         <v>43</v>
       </c>
       <c r="J234" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="O234" t="s" s="2">
         <v>43</v>
@@ -29479,7 +29484,7 @@
         <v>43</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="AF234" t="s" s="2">
         <v>41</v>
@@ -29508,7 +29513,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -29531,19 +29536,19 @@
         <v>43</v>
       </c>
       <c r="J235" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="O235" t="s" s="2">
         <v>43</v>
@@ -29592,7 +29597,7 @@
         <v>43</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>41</v>
@@ -29621,7 +29626,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -29647,14 +29652,14 @@
         <v>425</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="M236" s="2"/>
       <c r="N236" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="O236" t="s" s="2">
         <v>43</v>
@@ -29703,7 +29708,7 @@
         <v>43</v>
       </c>
       <c r="AE236" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="AF236" t="s" s="2">
         <v>41</v>
@@ -29732,7 +29737,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -29758,10 +29763,10 @@
         <v>43</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M237" s="2"/>
       <c r="N237" s="2"/>
@@ -29812,7 +29817,7 @@
         <v>43</v>
       </c>
       <c r="AE237" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="AF237" t="s" s="2">
         <v>41</v>
@@ -29841,7 +29846,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -29867,14 +29872,14 @@
         <v>316</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="M238" s="2"/>
       <c r="N238" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="O238" t="s" s="2">
         <v>43</v>
@@ -29923,7 +29928,7 @@
         <v>43</v>
       </c>
       <c r="AE238" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="AF238" t="s" s="2">
         <v>41</v>
@@ -29952,7 +29957,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -30061,7 +30066,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -30087,10 +30092,10 @@
         <v>70</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="M240" s="2"/>
       <c r="N240" s="2"/>
@@ -30168,10 +30173,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C241" t="s" s="2">
         <v>43</v>
@@ -30193,13 +30198,13 @@
         <v>43</v>
       </c>
       <c r="J241" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="M241" s="2"/>
       <c r="N241" s="2"/>
@@ -30259,7 +30264,7 @@
         <v>42</v>
       </c>
       <c r="AH241" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="AI241" t="s" s="2">
         <v>78</v>
@@ -30279,7 +30284,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -30392,7 +30397,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -30418,16 +30423,16 @@
         <v>180</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="N243" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="O243" t="s" s="2">
         <v>43</v>
@@ -30456,7 +30461,7 @@
       </c>
       <c r="X243" s="2"/>
       <c r="Y243" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="Z243" t="s" s="2">
         <v>43</v>
@@ -30474,7 +30479,7 @@
         <v>43</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>50</v>
@@ -30503,7 +30508,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -30529,16 +30534,16 @@
         <v>180</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="N244" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="O244" t="s" s="2">
         <v>43</v>
@@ -30566,10 +30571,10 @@
         <v>116</v>
       </c>
       <c r="X244" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="Y244" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="Z244" t="s" s="2">
         <v>43</v>
@@ -30587,7 +30592,7 @@
         <v>43</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AF244" t="s" s="2">
         <v>41</v>
@@ -30616,7 +30621,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -30639,19 +30644,19 @@
         <v>43</v>
       </c>
       <c r="J245" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O245" t="s" s="2">
         <v>43</v>
@@ -30700,7 +30705,7 @@
         <v>43</v>
       </c>
       <c r="AE245" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AF245" t="s" s="2">
         <v>41</v>
@@ -30729,7 +30734,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -30752,19 +30757,19 @@
         <v>43</v>
       </c>
       <c r="J246" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="N246" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="O246" t="s" s="2">
         <v>43</v>
@@ -30813,7 +30818,7 @@
         <v>43</v>
       </c>
       <c r="AE246" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="AF246" t="s" s="2">
         <v>41</v>
@@ -30842,7 +30847,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -30868,16 +30873,16 @@
         <v>316</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="N247" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="O247" t="s" s="2">
         <v>43</v>
@@ -30926,7 +30931,7 @@
         <v>43</v>
       </c>
       <c r="AE247" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="AF247" t="s" s="2">
         <v>41</v>
@@ -30955,7 +30960,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
@@ -31064,7 +31069,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -31175,7 +31180,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -31288,7 +31293,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -31314,16 +31319,16 @@
         <v>180</v>
       </c>
       <c r="K251" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="N251" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="O251" t="s" s="2">
         <v>43</v>
@@ -31352,7 +31357,7 @@
       </c>
       <c r="X251" s="2"/>
       <c r="Y251" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="Z251" t="s" s="2">
         <v>43</v>
@@ -31370,7 +31375,7 @@
         <v>43</v>
       </c>
       <c r="AE251" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="AF251" t="s" s="2">
         <v>50</v>
@@ -31399,7 +31404,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -31422,17 +31427,17 @@
         <v>51</v>
       </c>
       <c r="J252" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="M252" s="2"/>
       <c r="N252" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>43</v>
@@ -31481,7 +31486,7 @@
         <v>43</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="AF252" t="s" s="2">
         <v>50</v>
@@ -31510,7 +31515,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -31536,14 +31541,14 @@
         <v>316</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="M253" s="2"/>
       <c r="N253" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="O253" t="s" s="2">
         <v>43</v>
@@ -31592,7 +31597,7 @@
         <v>43</v>
       </c>
       <c r="AE253" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="AF253" t="s" s="2">
         <v>41</v>
@@ -31621,7 +31626,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -31730,7 +31735,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -31841,7 +31846,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -31954,7 +31959,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -31980,14 +31985,14 @@
         <v>180</v>
       </c>
       <c r="K257" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="M257" s="2"/>
       <c r="N257" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="O257" t="s" s="2">
         <v>43</v>
@@ -32016,7 +32021,7 @@
       </c>
       <c r="X257" s="2"/>
       <c r="Y257" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="Z257" t="s" s="2">
         <v>43</v>
@@ -32034,7 +32039,7 @@
         <v>43</v>
       </c>
       <c r="AE257" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="AF257" t="s" s="2">
         <v>41</v>
@@ -32063,7 +32068,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -32086,19 +32091,19 @@
         <v>43</v>
       </c>
       <c r="J258" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="K258" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="M258" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="N258" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="O258" t="s" s="2">
         <v>43</v>
@@ -32147,7 +32152,7 @@
         <v>43</v>
       </c>
       <c r="AE258" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="AF258" t="s" s="2">
         <v>41</v>
@@ -32176,7 +32181,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -32202,14 +32207,14 @@
         <v>180</v>
       </c>
       <c r="K259" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="M259" s="2"/>
       <c r="N259" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="O259" t="s" s="2">
         <v>43</v>
@@ -32238,7 +32243,7 @@
       </c>
       <c r="X259" s="2"/>
       <c r="Y259" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="Z259" t="s" s="2">
         <v>43</v>
@@ -32256,7 +32261,7 @@
         <v>43</v>
       </c>
       <c r="AE259" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="AF259" t="s" s="2">
         <v>41</v>
@@ -32285,7 +32290,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -32308,17 +32313,17 @@
         <v>43</v>
       </c>
       <c r="J260" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="M260" s="2"/>
       <c r="N260" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="O260" t="s" s="2">
         <v>43</v>
@@ -32367,7 +32372,7 @@
         <v>43</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>41</v>
@@ -32396,7 +32401,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -32419,17 +32424,17 @@
         <v>43</v>
       </c>
       <c r="J261" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="M261" s="2"/>
       <c r="N261" t="s" s="2">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="O261" t="s" s="2">
         <v>43</v>
@@ -32478,7 +32483,7 @@
         <v>43</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>41</v>
@@ -32507,7 +32512,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -32533,16 +32538,16 @@
         <v>159</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="M262" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="N262" t="s" s="2">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="O262" t="s" s="2">
         <v>43</v>
@@ -32591,7 +32596,7 @@
         <v>43</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>41</v>
@@ -32620,7 +32625,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -32646,16 +32651,16 @@
         <v>180</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="N263" t="s" s="2">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="O263" t="s" s="2">
         <v>43</v>
@@ -32683,10 +32688,10 @@
         <v>116</v>
       </c>
       <c r="X263" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="Y263" t="s" s="2">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="Z263" t="s" s="2">
         <v>43</v>
@@ -32704,7 +32709,7 @@
         <v>43</v>
       </c>
       <c r="AE263" t="s" s="2">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="AF263" t="s" s="2">
         <v>41</v>
@@ -32733,7 +32738,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -32756,19 +32761,19 @@
         <v>43</v>
       </c>
       <c r="J264" t="s" s="2">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="K264" t="s" s="2">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="M264" t="s" s="2">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="N264" t="s" s="2">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="O264" t="s" s="2">
         <v>43</v>
@@ -32817,7 +32822,7 @@
         <v>43</v>
       </c>
       <c r="AE264" t="s" s="2">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="AF264" t="s" s="2">
         <v>41</v>
@@ -32846,7 +32851,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -32872,14 +32877,14 @@
         <v>316</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="M265" s="2"/>
       <c r="N265" t="s" s="2">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="O265" t="s" s="2">
         <v>43</v>
@@ -32928,7 +32933,7 @@
         <v>43</v>
       </c>
       <c r="AE265" t="s" s="2">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="AF265" t="s" s="2">
         <v>41</v>
@@ -32957,7 +32962,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -33066,7 +33071,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -33177,7 +33182,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -33290,7 +33295,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -33316,14 +33321,14 @@
         <v>425</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="M269" s="2"/>
       <c r="N269" t="s" s="2">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>43</v>
@@ -33372,7 +33377,7 @@
         <v>43</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>41</v>
@@ -33401,7 +33406,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -33427,14 +33432,14 @@
         <v>126</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="M270" s="2"/>
       <c r="N270" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="O270" t="s" s="2">
         <v>43</v>
@@ -33462,10 +33467,10 @@
         <v>174</v>
       </c>
       <c r="X270" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="Y270" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="Z270" t="s" s="2">
         <v>43</v>
@@ -33483,7 +33488,7 @@
         <v>43</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>41</v>
@@ -33512,7 +33517,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -33538,14 +33543,14 @@
         <v>52</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="M271" s="2"/>
       <c r="N271" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="O271" t="s" s="2">
         <v>43</v>
@@ -33594,7 +33599,7 @@
         <v>43</v>
       </c>
       <c r="AE271" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="AF271" t="s" s="2">
         <v>41</v>
@@ -33623,7 +33628,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -33649,16 +33654,16 @@
         <v>180</v>
       </c>
       <c r="K272" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="M272" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="N272" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="O272" t="s" s="2">
         <v>43</v>
@@ -33707,7 +33712,7 @@
         <v>43</v>
       </c>
       <c r="AE272" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="AF272" t="s" s="2">
         <v>41</v>
@@ -33736,7 +33741,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -33762,16 +33767,16 @@
         <v>207</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="M273" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="N273" t="s" s="2">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="O273" t="s" s="2">
         <v>43</v>
@@ -33820,7 +33825,7 @@
         <v>43</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>41</v>
@@ -33849,7 +33854,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -33875,10 +33880,10 @@
         <v>316</v>
       </c>
       <c r="K274" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="M274" s="2"/>
       <c r="N274" s="2"/>
@@ -33929,7 +33934,7 @@
         <v>43</v>
       </c>
       <c r="AE274" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="AF274" t="s" s="2">
         <v>41</v>
@@ -33958,7 +33963,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -34067,7 +34072,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -34178,7 +34183,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -34291,7 +34296,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -34317,16 +34322,16 @@
         <v>180</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="O278" t="s" s="2">
         <v>43</v>
@@ -34354,10 +34359,10 @@
         <v>116</v>
       </c>
       <c r="X278" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="Y278" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="Z278" t="s" s="2">
         <v>43</v>
@@ -34375,7 +34380,7 @@
         <v>43</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>50</v>
@@ -34404,7 +34409,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -34427,17 +34432,17 @@
         <v>43</v>
       </c>
       <c r="J279" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="M279" s="2"/>
       <c r="N279" t="s" s="2">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="O279" t="s" s="2">
         <v>43</v>
@@ -34486,7 +34491,7 @@
         <v>43</v>
       </c>
       <c r="AE279" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="AF279" t="s" s="2">
         <v>41</v>
@@ -34515,7 +34520,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -34541,16 +34546,16 @@
         <v>52</v>
       </c>
       <c r="K280" t="s" s="2">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="M280" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="N280" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="O280" t="s" s="2">
         <v>43</v>
@@ -34599,7 +34604,7 @@
         <v>43</v>
       </c>
       <c r="AE280" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="AF280" t="s" s="2">
         <v>41</v>
@@ -34628,7 +34633,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -34654,16 +34659,16 @@
         <v>52</v>
       </c>
       <c r="K281" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="N281" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="O281" t="s" s="2">
         <v>43</v>
@@ -34712,7 +34717,7 @@
         <v>43</v>
       </c>
       <c r="AE281" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="AF281" t="s" s="2">
         <v>41</v>
@@ -34741,7 +34746,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -34767,14 +34772,14 @@
         <v>180</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="M282" s="2"/>
       <c r="N282" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="O282" t="s" s="2">
         <v>43</v>
@@ -34802,10 +34807,10 @@
         <v>116</v>
       </c>
       <c r="X282" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="Y282" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="Z282" t="s" s="2">
         <v>43</v>
@@ -34823,7 +34828,7 @@
         <v>43</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>41</v>
@@ -34852,7 +34857,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -34878,14 +34883,14 @@
         <v>180</v>
       </c>
       <c r="K283" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="M283" s="2"/>
       <c r="N283" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="O283" t="s" s="2">
         <v>43</v>
@@ -34913,10 +34918,10 @@
         <v>116</v>
       </c>
       <c r="X283" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="Y283" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="Z283" t="s" s="2">
         <v>43</v>
@@ -34934,7 +34939,7 @@
         <v>43</v>
       </c>
       <c r="AE283" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="AF283" t="s" s="2">
         <v>41</v>
@@ -34963,7 +34968,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -34989,14 +34994,14 @@
         <v>180</v>
       </c>
       <c r="K284" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="M284" s="2"/>
       <c r="N284" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="O284" t="s" s="2">
         <v>43</v>
@@ -35024,10 +35029,10 @@
         <v>116</v>
       </c>
       <c r="X284" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="Y284" t="s" s="2">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="Z284" t="s" s="2">
         <v>43</v>
@@ -35045,7 +35050,7 @@
         <v>43</v>
       </c>
       <c r="AE284" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="AF284" t="s" s="2">
         <v>41</v>
@@ -35074,7 +35079,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -35100,10 +35105,10 @@
         <v>316</v>
       </c>
       <c r="K285" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="M285" s="2"/>
       <c r="N285" s="2"/>
@@ -35154,7 +35159,7 @@
         <v>43</v>
       </c>
       <c r="AE285" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="AF285" t="s" s="2">
         <v>41</v>
@@ -35183,7 +35188,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -35292,7 +35297,7 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -35403,7 +35408,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -35516,7 +35521,7 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -35542,16 +35547,16 @@
         <v>180</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="N289" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="O289" t="s" s="2">
         <v>43</v>
@@ -35579,10 +35584,10 @@
         <v>116</v>
       </c>
       <c r="X289" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Y289" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="Z289" t="s" s="2">
         <v>43</v>
@@ -35600,7 +35605,7 @@
         <v>43</v>
       </c>
       <c r="AE289" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="AF289" t="s" s="2">
         <v>50</v>
@@ -35629,7 +35634,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -35652,17 +35657,17 @@
         <v>43</v>
       </c>
       <c r="J290" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="M290" s="2"/>
       <c r="N290" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="O290" t="s" s="2">
         <v>43</v>
@@ -35711,7 +35716,7 @@
         <v>43</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="AF290" t="s" s="2">
         <v>41</v>
@@ -35740,7 +35745,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -35763,17 +35768,17 @@
         <v>43</v>
       </c>
       <c r="J291" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="K291" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="M291" s="2"/>
       <c r="N291" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="O291" t="s" s="2">
         <v>43</v>
@@ -35822,7 +35827,7 @@
         <v>43</v>
       </c>
       <c r="AE291" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="AF291" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10252" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10253" uniqueCount="1046">
   <si>
     <t>Path</t>
   </si>
@@ -2863,7 +2863,10 @@
     <t>Needed to clarify the monetary adjustment.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AdjudicationDenialReasonVS</t>
+    <t>Payment Adjustment reason codes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/payment-adjustment-reason</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.payment.date</t>
@@ -32239,11 +32242,13 @@
         <v>43</v>
       </c>
       <c r="W259" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X259" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="X259" t="s" s="2">
+        <v>926</v>
+      </c>
       <c r="Y259" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="Z259" t="s" s="2">
         <v>43</v>
@@ -32290,7 +32295,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -32316,14 +32321,14 @@
         <v>603</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="M260" s="2"/>
       <c r="N260" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="O260" t="s" s="2">
         <v>43</v>
@@ -32372,7 +32377,7 @@
         <v>43</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>41</v>
@@ -32401,7 +32406,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -32427,14 +32432,14 @@
         <v>698</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="M261" s="2"/>
       <c r="N261" t="s" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="O261" t="s" s="2">
         <v>43</v>
@@ -32483,7 +32488,7 @@
         <v>43</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>41</v>
@@ -32512,7 +32517,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -32538,16 +32543,16 @@
         <v>159</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="M262" t="s" s="2">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="N262" t="s" s="2">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="O262" t="s" s="2">
         <v>43</v>
@@ -32596,7 +32601,7 @@
         <v>43</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>41</v>
@@ -32625,7 +32630,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -32651,16 +32656,16 @@
         <v>180</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="N263" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="O263" t="s" s="2">
         <v>43</v>
@@ -32688,10 +32693,10 @@
         <v>116</v>
       </c>
       <c r="X263" t="s" s="2">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="Y263" t="s" s="2">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="Z263" t="s" s="2">
         <v>43</v>
@@ -32709,7 +32714,7 @@
         <v>43</v>
       </c>
       <c r="AE263" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="AF263" t="s" s="2">
         <v>41</v>
@@ -32738,7 +32743,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -32761,19 +32766,19 @@
         <v>43</v>
       </c>
       <c r="J264" t="s" s="2">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="K264" t="s" s="2">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="M264" t="s" s="2">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="N264" t="s" s="2">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="O264" t="s" s="2">
         <v>43</v>
@@ -32822,7 +32827,7 @@
         <v>43</v>
       </c>
       <c r="AE264" t="s" s="2">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="AF264" t="s" s="2">
         <v>41</v>
@@ -32851,7 +32856,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -32877,14 +32882,14 @@
         <v>316</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="M265" s="2"/>
       <c r="N265" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="O265" t="s" s="2">
         <v>43</v>
@@ -32933,7 +32938,7 @@
         <v>43</v>
       </c>
       <c r="AE265" t="s" s="2">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="AF265" t="s" s="2">
         <v>41</v>
@@ -32962,7 +32967,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -33071,7 +33076,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -33182,7 +33187,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -33295,7 +33300,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -33321,14 +33326,14 @@
         <v>425</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="M269" s="2"/>
       <c r="N269" t="s" s="2">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>43</v>
@@ -33377,7 +33382,7 @@
         <v>43</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>41</v>
@@ -33406,7 +33411,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -33432,14 +33437,14 @@
         <v>126</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="M270" s="2"/>
       <c r="N270" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="O270" t="s" s="2">
         <v>43</v>
@@ -33467,10 +33472,10 @@
         <v>174</v>
       </c>
       <c r="X270" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="Y270" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="Z270" t="s" s="2">
         <v>43</v>
@@ -33488,7 +33493,7 @@
         <v>43</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>41</v>
@@ -33517,7 +33522,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -33543,14 +33548,14 @@
         <v>52</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="M271" s="2"/>
       <c r="N271" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="O271" t="s" s="2">
         <v>43</v>
@@ -33599,7 +33604,7 @@
         <v>43</v>
       </c>
       <c r="AE271" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="AF271" t="s" s="2">
         <v>41</v>
@@ -33628,7 +33633,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -33654,16 +33659,16 @@
         <v>180</v>
       </c>
       <c r="K272" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="M272" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="N272" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="O272" t="s" s="2">
         <v>43</v>
@@ -33712,7 +33717,7 @@
         <v>43</v>
       </c>
       <c r="AE272" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="AF272" t="s" s="2">
         <v>41</v>
@@ -33741,7 +33746,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -33767,16 +33772,16 @@
         <v>207</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="M273" t="s" s="2">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="N273" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="O273" t="s" s="2">
         <v>43</v>
@@ -33825,7 +33830,7 @@
         <v>43</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>41</v>
@@ -33854,7 +33859,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -33880,10 +33885,10 @@
         <v>316</v>
       </c>
       <c r="K274" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="M274" s="2"/>
       <c r="N274" s="2"/>
@@ -33934,7 +33939,7 @@
         <v>43</v>
       </c>
       <c r="AE274" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="AF274" t="s" s="2">
         <v>41</v>
@@ -33963,7 +33968,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -34072,7 +34077,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -34183,7 +34188,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -34296,7 +34301,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -34331,7 +34336,7 @@
         <v>655</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="O278" t="s" s="2">
         <v>43</v>
@@ -34380,7 +34385,7 @@
         <v>43</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>50</v>
@@ -34409,7 +34414,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -34435,14 +34440,14 @@
         <v>436</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="M279" s="2"/>
       <c r="N279" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="O279" t="s" s="2">
         <v>43</v>
@@ -34491,7 +34496,7 @@
         <v>43</v>
       </c>
       <c r="AE279" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="AF279" t="s" s="2">
         <v>41</v>
@@ -34520,7 +34525,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -34546,16 +34551,16 @@
         <v>52</v>
       </c>
       <c r="K280" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="M280" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="N280" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="O280" t="s" s="2">
         <v>43</v>
@@ -34604,7 +34609,7 @@
         <v>43</v>
       </c>
       <c r="AE280" t="s" s="2">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="AF280" t="s" s="2">
         <v>41</v>
@@ -34633,7 +34638,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -34659,16 +34664,16 @@
         <v>52</v>
       </c>
       <c r="K281" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="N281" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="O281" t="s" s="2">
         <v>43</v>
@@ -34717,7 +34722,7 @@
         <v>43</v>
       </c>
       <c r="AE281" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="AF281" t="s" s="2">
         <v>41</v>
@@ -34746,7 +34751,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -34772,14 +34777,14 @@
         <v>180</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="M282" s="2"/>
       <c r="N282" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="O282" t="s" s="2">
         <v>43</v>
@@ -34807,10 +34812,10 @@
         <v>116</v>
       </c>
       <c r="X282" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="Y282" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="Z282" t="s" s="2">
         <v>43</v>
@@ -34828,7 +34833,7 @@
         <v>43</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>41</v>
@@ -34857,7 +34862,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -34883,14 +34888,14 @@
         <v>180</v>
       </c>
       <c r="K283" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="M283" s="2"/>
       <c r="N283" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="O283" t="s" s="2">
         <v>43</v>
@@ -34918,10 +34923,10 @@
         <v>116</v>
       </c>
       <c r="X283" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="Y283" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="Z283" t="s" s="2">
         <v>43</v>
@@ -34939,7 +34944,7 @@
         <v>43</v>
       </c>
       <c r="AE283" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="AF283" t="s" s="2">
         <v>41</v>
@@ -34968,7 +34973,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -34994,14 +34999,14 @@
         <v>180</v>
       </c>
       <c r="K284" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="M284" s="2"/>
       <c r="N284" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="O284" t="s" s="2">
         <v>43</v>
@@ -35029,10 +35034,10 @@
         <v>116</v>
       </c>
       <c r="X284" t="s" s="2">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="Y284" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="Z284" t="s" s="2">
         <v>43</v>
@@ -35050,7 +35055,7 @@
         <v>43</v>
       </c>
       <c r="AE284" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="AF284" t="s" s="2">
         <v>41</v>
@@ -35079,7 +35084,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -35105,10 +35110,10 @@
         <v>316</v>
       </c>
       <c r="K285" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="M285" s="2"/>
       <c r="N285" s="2"/>
@@ -35159,7 +35164,7 @@
         <v>43</v>
       </c>
       <c r="AE285" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="AF285" t="s" s="2">
         <v>41</v>
@@ -35188,7 +35193,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -35297,7 +35302,7 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -35408,7 +35413,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -35521,7 +35526,7 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -35550,13 +35555,13 @@
         <v>653</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="N289" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="O289" t="s" s="2">
         <v>43</v>
@@ -35584,10 +35589,10 @@
         <v>116</v>
       </c>
       <c r="X289" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="Y289" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="Z289" t="s" s="2">
         <v>43</v>
@@ -35605,7 +35610,7 @@
         <v>43</v>
       </c>
       <c r="AE289" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="AF289" t="s" s="2">
         <v>50</v>
@@ -35634,7 +35639,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -35657,17 +35662,17 @@
         <v>43</v>
       </c>
       <c r="J290" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="M290" s="2"/>
       <c r="N290" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="O290" t="s" s="2">
         <v>43</v>
@@ -35716,7 +35721,7 @@
         <v>43</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="AF290" t="s" s="2">
         <v>41</v>
@@ -35745,7 +35750,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -35768,17 +35773,17 @@
         <v>43</v>
       </c>
       <c r="J291" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="K291" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="M291" s="2"/>
       <c r="N291" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="O291" t="s" s="2">
         <v>43</v>
@@ -35827,7 +35832,7 @@
         <v>43</v>
       </c>
       <c r="AE291" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="AF291" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit.xlsx
@@ -1163,7 +1163,7 @@
     <t>Need to know who should receive payment with the most common situations being the Provider (assignment of benefits) or the Subscriber.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimPayeeTypeCodeVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimPayeeTypeCode</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.payee.party</t>
@@ -1483,7 +1483,7 @@
     <t>Required to group or associate information items with common characteristics. For example: admission information or prior treatments.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimInformationCategoryVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimInformationCategory</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.supportingInfo.code</t>
@@ -1756,7 +1756,7 @@
     <t>procedureCodeableConcept</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ICD10PCSVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ICD10PCS</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.procedure.udi</t>
@@ -2324,7 +2324,7 @@
     <t>Needed to enable understanding of the context of the other information in the adjudication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimAdjudicationCategoryVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimAdjudicationCategory</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.item.adjudication.reason</t>
@@ -2785,7 +2785,7 @@
     <t>Needed to convey the type of total provided.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerAdjudicationAmountCategoryVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerAdjudicationAmountCategory</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.total.amount</t>
@@ -2833,7 +2833,7 @@
     <t>To advise the requestor when the insurer believes all payments to have been completed.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimPaymentStatusCodeVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimPaymentStatusCode</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.payment.adjustment</t>
@@ -3405,7 +3405,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="124.64453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.7265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.30859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit.xlsx
@@ -1163,13 +1163,13 @@
     <t>Need to know who should receive payment with the most common situations being the Provider (assignment of benefits) or the Subscriber.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimPayeeTypeCode</t>
+    <t>http://hl7.org/fhir/ValueSet/payeetype</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.payee.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/carin-bb/StructureDefinition/CARIN-BB-PractitionerRole|http://hl7.org/fhir/us/carin-bb/StructureDefinition/CARIN-BB-Patient)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/carin-bb/StructureDefinition/CARIN-BB-Organization|http://hl7.org/fhir/us/carin-bb/StructureDefinition/CARIN-BB-Patient)
 </t>
   </si>
   <si>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10221" uniqueCount="1048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10221" uniqueCount="1047">
   <si>
     <t>Path</t>
   </si>
@@ -2791,9 +2791,6 @@
   </si>
   <si>
     <t>Needed to convey the type of total provided.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerAdjudicationAmountCategory</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.total.amount</t>
@@ -3413,7 +3410,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="124.64453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="69.30859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.1171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -31259,11 +31256,11 @@
         <v>43</v>
       </c>
       <c r="W250" t="s" s="2">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="X250" s="2"/>
       <c r="Y250" t="s" s="2">
-        <v>902</v>
+        <v>748</v>
       </c>
       <c r="Z250" t="s" s="2">
         <v>43</v>
@@ -31310,7 +31307,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -31336,14 +31333,14 @@
         <v>699</v>
       </c>
       <c r="K251" t="s" s="2">
+        <v>903</v>
+      </c>
+      <c r="L251" t="s" s="2">
         <v>904</v>
-      </c>
-      <c r="L251" t="s" s="2">
-        <v>905</v>
       </c>
       <c r="M251" s="2"/>
       <c r="N251" t="s" s="2">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="O251" t="s" s="2">
         <v>43</v>
@@ -31392,7 +31389,7 @@
         <v>43</v>
       </c>
       <c r="AE251" t="s" s="2">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AF251" t="s" s="2">
         <v>50</v>
@@ -31421,7 +31418,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -31447,14 +31444,14 @@
         <v>316</v>
       </c>
       <c r="K252" t="s" s="2">
+        <v>907</v>
+      </c>
+      <c r="L252" t="s" s="2">
         <v>908</v>
-      </c>
-      <c r="L252" t="s" s="2">
-        <v>909</v>
       </c>
       <c r="M252" s="2"/>
       <c r="N252" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>43</v>
@@ -31503,7 +31500,7 @@
         <v>43</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="AF252" t="s" s="2">
         <v>41</v>
@@ -31532,7 +31529,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -31641,7 +31638,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -31752,7 +31749,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -31865,7 +31862,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -31891,14 +31888,14 @@
         <v>180</v>
       </c>
       <c r="K256" t="s" s="2">
+        <v>914</v>
+      </c>
+      <c r="L256" t="s" s="2">
         <v>915</v>
-      </c>
-      <c r="L256" t="s" s="2">
-        <v>916</v>
       </c>
       <c r="M256" s="2"/>
       <c r="N256" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="O256" t="s" s="2">
         <v>43</v>
@@ -31927,7 +31924,7 @@
       </c>
       <c r="X256" s="2"/>
       <c r="Y256" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="Z256" t="s" s="2">
         <v>43</v>
@@ -31945,7 +31942,7 @@
         <v>43</v>
       </c>
       <c r="AE256" t="s" s="2">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="AF256" t="s" s="2">
         <v>41</v>
@@ -31974,7 +31971,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -32000,16 +31997,16 @@
         <v>699</v>
       </c>
       <c r="K257" t="s" s="2">
+        <v>919</v>
+      </c>
+      <c r="L257" t="s" s="2">
         <v>920</v>
       </c>
-      <c r="L257" t="s" s="2">
+      <c r="M257" t="s" s="2">
         <v>921</v>
       </c>
-      <c r="M257" t="s" s="2">
+      <c r="N257" t="s" s="2">
         <v>922</v>
-      </c>
-      <c r="N257" t="s" s="2">
-        <v>923</v>
       </c>
       <c r="O257" t="s" s="2">
         <v>43</v>
@@ -32058,7 +32055,7 @@
         <v>43</v>
       </c>
       <c r="AE257" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="AF257" t="s" s="2">
         <v>41</v>
@@ -32087,7 +32084,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -32113,14 +32110,14 @@
         <v>180</v>
       </c>
       <c r="K258" t="s" s="2">
+        <v>924</v>
+      </c>
+      <c r="L258" t="s" s="2">
         <v>925</v>
-      </c>
-      <c r="L258" t="s" s="2">
-        <v>926</v>
       </c>
       <c r="M258" s="2"/>
       <c r="N258" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="O258" t="s" s="2">
         <v>43</v>
@@ -32148,11 +32145,11 @@
         <v>116</v>
       </c>
       <c r="X258" t="s" s="2">
+        <v>927</v>
+      </c>
+      <c r="Y258" t="s" s="2">
         <v>928</v>
       </c>
-      <c r="Y258" t="s" s="2">
-        <v>929</v>
-      </c>
       <c r="Z258" t="s" s="2">
         <v>43</v>
       </c>
@@ -32169,7 +32166,7 @@
         <v>43</v>
       </c>
       <c r="AE258" t="s" s="2">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="AF258" t="s" s="2">
         <v>41</v>
@@ -32198,7 +32195,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -32224,14 +32221,14 @@
         <v>604</v>
       </c>
       <c r="K259" t="s" s="2">
+        <v>930</v>
+      </c>
+      <c r="L259" t="s" s="2">
         <v>931</v>
-      </c>
-      <c r="L259" t="s" s="2">
-        <v>932</v>
       </c>
       <c r="M259" s="2"/>
       <c r="N259" t="s" s="2">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="O259" t="s" s="2">
         <v>43</v>
@@ -32280,7 +32277,7 @@
         <v>43</v>
       </c>
       <c r="AE259" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="AF259" t="s" s="2">
         <v>41</v>
@@ -32309,7 +32306,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -32335,14 +32332,14 @@
         <v>699</v>
       </c>
       <c r="K260" t="s" s="2">
+        <v>934</v>
+      </c>
+      <c r="L260" t="s" s="2">
         <v>935</v>
-      </c>
-      <c r="L260" t="s" s="2">
-        <v>936</v>
       </c>
       <c r="M260" s="2"/>
       <c r="N260" t="s" s="2">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="O260" t="s" s="2">
         <v>43</v>
@@ -32391,7 +32388,7 @@
         <v>43</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>41</v>
@@ -32420,7 +32417,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -32446,16 +32443,16 @@
         <v>159</v>
       </c>
       <c r="K261" t="s" s="2">
+        <v>938</v>
+      </c>
+      <c r="L261" t="s" s="2">
         <v>939</v>
       </c>
-      <c r="L261" t="s" s="2">
+      <c r="M261" t="s" s="2">
         <v>940</v>
       </c>
-      <c r="M261" t="s" s="2">
+      <c r="N261" t="s" s="2">
         <v>941</v>
-      </c>
-      <c r="N261" t="s" s="2">
-        <v>942</v>
       </c>
       <c r="O261" t="s" s="2">
         <v>43</v>
@@ -32504,7 +32501,7 @@
         <v>43</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>41</v>
@@ -32533,7 +32530,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -32559,16 +32556,16 @@
         <v>180</v>
       </c>
       <c r="K262" t="s" s="2">
+        <v>943</v>
+      </c>
+      <c r="L262" t="s" s="2">
         <v>944</v>
       </c>
-      <c r="L262" t="s" s="2">
+      <c r="M262" t="s" s="2">
         <v>945</v>
       </c>
-      <c r="M262" t="s" s="2">
+      <c r="N262" t="s" s="2">
         <v>946</v>
-      </c>
-      <c r="N262" t="s" s="2">
-        <v>947</v>
       </c>
       <c r="O262" t="s" s="2">
         <v>43</v>
@@ -32596,11 +32593,11 @@
         <v>116</v>
       </c>
       <c r="X262" t="s" s="2">
+        <v>947</v>
+      </c>
+      <c r="Y262" t="s" s="2">
         <v>948</v>
       </c>
-      <c r="Y262" t="s" s="2">
-        <v>949</v>
-      </c>
       <c r="Z262" t="s" s="2">
         <v>43</v>
       </c>
@@ -32617,7 +32614,7 @@
         <v>43</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>41</v>
@@ -32646,7 +32643,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -32669,19 +32666,19 @@
         <v>43</v>
       </c>
       <c r="J263" t="s" s="2">
+        <v>950</v>
+      </c>
+      <c r="K263" t="s" s="2">
         <v>951</v>
       </c>
-      <c r="K263" t="s" s="2">
+      <c r="L263" t="s" s="2">
         <v>952</v>
       </c>
-      <c r="L263" t="s" s="2">
+      <c r="M263" t="s" s="2">
         <v>953</v>
       </c>
-      <c r="M263" t="s" s="2">
+      <c r="N263" t="s" s="2">
         <v>954</v>
-      </c>
-      <c r="N263" t="s" s="2">
-        <v>955</v>
       </c>
       <c r="O263" t="s" s="2">
         <v>43</v>
@@ -32730,7 +32727,7 @@
         <v>43</v>
       </c>
       <c r="AE263" t="s" s="2">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="AF263" t="s" s="2">
         <v>41</v>
@@ -32759,7 +32756,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -32785,14 +32782,14 @@
         <v>316</v>
       </c>
       <c r="K264" t="s" s="2">
+        <v>956</v>
+      </c>
+      <c r="L264" t="s" s="2">
         <v>957</v>
-      </c>
-      <c r="L264" t="s" s="2">
-        <v>958</v>
       </c>
       <c r="M264" s="2"/>
       <c r="N264" t="s" s="2">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="O264" t="s" s="2">
         <v>43</v>
@@ -32841,7 +32838,7 @@
         <v>43</v>
       </c>
       <c r="AE264" t="s" s="2">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AF264" t="s" s="2">
         <v>41</v>
@@ -32870,7 +32867,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -32979,7 +32976,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -33090,7 +33087,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -33203,7 +33200,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -33229,14 +33226,14 @@
         <v>426</v>
       </c>
       <c r="K268" t="s" s="2">
+        <v>963</v>
+      </c>
+      <c r="L268" t="s" s="2">
         <v>964</v>
-      </c>
-      <c r="L268" t="s" s="2">
-        <v>965</v>
       </c>
       <c r="M268" s="2"/>
       <c r="N268" t="s" s="2">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="O268" t="s" s="2">
         <v>43</v>
@@ -33285,7 +33282,7 @@
         <v>43</v>
       </c>
       <c r="AE268" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="AF268" t="s" s="2">
         <v>41</v>
@@ -33314,7 +33311,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -33340,14 +33337,14 @@
         <v>126</v>
       </c>
       <c r="K269" t="s" s="2">
+        <v>967</v>
+      </c>
+      <c r="L269" t="s" s="2">
         <v>968</v>
-      </c>
-      <c r="L269" t="s" s="2">
-        <v>969</v>
       </c>
       <c r="M269" s="2"/>
       <c r="N269" t="s" s="2">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>43</v>
@@ -33375,11 +33372,11 @@
         <v>174</v>
       </c>
       <c r="X269" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="Y269" t="s" s="2">
         <v>971</v>
       </c>
-      <c r="Y269" t="s" s="2">
-        <v>972</v>
-      </c>
       <c r="Z269" t="s" s="2">
         <v>43</v>
       </c>
@@ -33396,7 +33393,7 @@
         <v>43</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>41</v>
@@ -33425,7 +33422,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -33451,14 +33448,14 @@
         <v>52</v>
       </c>
       <c r="K270" t="s" s="2">
+        <v>973</v>
+      </c>
+      <c r="L270" t="s" s="2">
         <v>974</v>
-      </c>
-      <c r="L270" t="s" s="2">
-        <v>975</v>
       </c>
       <c r="M270" s="2"/>
       <c r="N270" t="s" s="2">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="O270" t="s" s="2">
         <v>43</v>
@@ -33507,7 +33504,7 @@
         <v>43</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>41</v>
@@ -33536,7 +33533,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -33562,16 +33559,16 @@
         <v>180</v>
       </c>
       <c r="K271" t="s" s="2">
+        <v>977</v>
+      </c>
+      <c r="L271" t="s" s="2">
         <v>978</v>
       </c>
-      <c r="L271" t="s" s="2">
+      <c r="M271" t="s" s="2">
         <v>979</v>
       </c>
-      <c r="M271" t="s" s="2">
+      <c r="N271" t="s" s="2">
         <v>980</v>
-      </c>
-      <c r="N271" t="s" s="2">
-        <v>981</v>
       </c>
       <c r="O271" t="s" s="2">
         <v>43</v>
@@ -33620,7 +33617,7 @@
         <v>43</v>
       </c>
       <c r="AE271" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="AF271" t="s" s="2">
         <v>41</v>
@@ -33649,7 +33646,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -33675,16 +33672,16 @@
         <v>207</v>
       </c>
       <c r="K272" t="s" s="2">
+        <v>982</v>
+      </c>
+      <c r="L272" t="s" s="2">
         <v>983</v>
       </c>
-      <c r="L272" t="s" s="2">
+      <c r="M272" t="s" s="2">
         <v>984</v>
       </c>
-      <c r="M272" t="s" s="2">
+      <c r="N272" t="s" s="2">
         <v>985</v>
-      </c>
-      <c r="N272" t="s" s="2">
-        <v>986</v>
       </c>
       <c r="O272" t="s" s="2">
         <v>43</v>
@@ -33733,7 +33730,7 @@
         <v>43</v>
       </c>
       <c r="AE272" t="s" s="2">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="AF272" t="s" s="2">
         <v>41</v>
@@ -33762,7 +33759,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -33788,10 +33785,10 @@
         <v>316</v>
       </c>
       <c r="K273" t="s" s="2">
+        <v>987</v>
+      </c>
+      <c r="L273" t="s" s="2">
         <v>988</v>
-      </c>
-      <c r="L273" t="s" s="2">
-        <v>989</v>
       </c>
       <c r="M273" s="2"/>
       <c r="N273" s="2"/>
@@ -33842,7 +33839,7 @@
         <v>43</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>41</v>
@@ -33871,7 +33868,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -33980,7 +33977,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -34091,7 +34088,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -34204,7 +34201,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -34239,7 +34236,7 @@
         <v>656</v>
       </c>
       <c r="N277" t="s" s="2">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="O277" t="s" s="2">
         <v>43</v>
@@ -34288,7 +34285,7 @@
         <v>43</v>
       </c>
       <c r="AE277" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AF277" t="s" s="2">
         <v>50</v>
@@ -34317,7 +34314,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -34343,14 +34340,14 @@
         <v>437</v>
       </c>
       <c r="K278" t="s" s="2">
+        <v>995</v>
+      </c>
+      <c r="L278" t="s" s="2">
         <v>996</v>
-      </c>
-      <c r="L278" t="s" s="2">
-        <v>997</v>
       </c>
       <c r="M278" s="2"/>
       <c r="N278" t="s" s="2">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="O278" t="s" s="2">
         <v>43</v>
@@ -34399,7 +34396,7 @@
         <v>43</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>41</v>
@@ -34428,7 +34425,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -34454,16 +34451,16 @@
         <v>52</v>
       </c>
       <c r="K279" t="s" s="2">
+        <v>999</v>
+      </c>
+      <c r="L279" t="s" s="2">
         <v>1000</v>
       </c>
-      <c r="L279" t="s" s="2">
+      <c r="M279" t="s" s="2">
         <v>1001</v>
       </c>
-      <c r="M279" t="s" s="2">
+      <c r="N279" t="s" s="2">
         <v>1002</v>
-      </c>
-      <c r="N279" t="s" s="2">
-        <v>1003</v>
       </c>
       <c r="O279" t="s" s="2">
         <v>43</v>
@@ -34512,7 +34509,7 @@
         <v>43</v>
       </c>
       <c r="AE279" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="AF279" t="s" s="2">
         <v>41</v>
@@ -34541,7 +34538,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -34567,16 +34564,16 @@
         <v>52</v>
       </c>
       <c r="K280" t="s" s="2">
+        <v>1004</v>
+      </c>
+      <c r="L280" t="s" s="2">
         <v>1005</v>
       </c>
-      <c r="L280" t="s" s="2">
+      <c r="M280" t="s" s="2">
         <v>1006</v>
       </c>
-      <c r="M280" t="s" s="2">
+      <c r="N280" t="s" s="2">
         <v>1007</v>
-      </c>
-      <c r="N280" t="s" s="2">
-        <v>1008</v>
       </c>
       <c r="O280" t="s" s="2">
         <v>43</v>
@@ -34625,7 +34622,7 @@
         <v>43</v>
       </c>
       <c r="AE280" t="s" s="2">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="AF280" t="s" s="2">
         <v>41</v>
@@ -34654,7 +34651,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -34680,14 +34677,14 @@
         <v>180</v>
       </c>
       <c r="K281" t="s" s="2">
+        <v>1009</v>
+      </c>
+      <c r="L281" t="s" s="2">
         <v>1010</v>
-      </c>
-      <c r="L281" t="s" s="2">
-        <v>1011</v>
       </c>
       <c r="M281" s="2"/>
       <c r="N281" t="s" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="O281" t="s" s="2">
         <v>43</v>
@@ -34715,11 +34712,11 @@
         <v>116</v>
       </c>
       <c r="X281" t="s" s="2">
+        <v>1012</v>
+      </c>
+      <c r="Y281" t="s" s="2">
         <v>1013</v>
       </c>
-      <c r="Y281" t="s" s="2">
-        <v>1014</v>
-      </c>
       <c r="Z281" t="s" s="2">
         <v>43</v>
       </c>
@@ -34736,7 +34733,7 @@
         <v>43</v>
       </c>
       <c r="AE281" t="s" s="2">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AF281" t="s" s="2">
         <v>41</v>
@@ -34765,7 +34762,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -34791,14 +34788,14 @@
         <v>180</v>
       </c>
       <c r="K282" t="s" s="2">
+        <v>1015</v>
+      </c>
+      <c r="L282" t="s" s="2">
         <v>1016</v>
-      </c>
-      <c r="L282" t="s" s="2">
-        <v>1017</v>
       </c>
       <c r="M282" s="2"/>
       <c r="N282" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O282" t="s" s="2">
         <v>43</v>
@@ -34826,11 +34823,11 @@
         <v>116</v>
       </c>
       <c r="X282" t="s" s="2">
+        <v>1018</v>
+      </c>
+      <c r="Y282" t="s" s="2">
         <v>1019</v>
       </c>
-      <c r="Y282" t="s" s="2">
-        <v>1020</v>
-      </c>
       <c r="Z282" t="s" s="2">
         <v>43</v>
       </c>
@@ -34847,7 +34844,7 @@
         <v>43</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>41</v>
@@ -34876,7 +34873,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -34902,14 +34899,14 @@
         <v>180</v>
       </c>
       <c r="K283" t="s" s="2">
+        <v>1021</v>
+      </c>
+      <c r="L283" t="s" s="2">
         <v>1022</v>
-      </c>
-      <c r="L283" t="s" s="2">
-        <v>1023</v>
       </c>
       <c r="M283" s="2"/>
       <c r="N283" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O283" t="s" s="2">
         <v>43</v>
@@ -34937,11 +34934,11 @@
         <v>116</v>
       </c>
       <c r="X283" t="s" s="2">
+        <v>1023</v>
+      </c>
+      <c r="Y283" t="s" s="2">
         <v>1024</v>
       </c>
-      <c r="Y283" t="s" s="2">
-        <v>1025</v>
-      </c>
       <c r="Z283" t="s" s="2">
         <v>43</v>
       </c>
@@ -34958,7 +34955,7 @@
         <v>43</v>
       </c>
       <c r="AE283" t="s" s="2">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AF283" t="s" s="2">
         <v>41</v>
@@ -34987,7 +34984,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -35013,10 +35010,10 @@
         <v>316</v>
       </c>
       <c r="K284" t="s" s="2">
+        <v>1026</v>
+      </c>
+      <c r="L284" t="s" s="2">
         <v>1027</v>
-      </c>
-      <c r="L284" t="s" s="2">
-        <v>1028</v>
       </c>
       <c r="M284" s="2"/>
       <c r="N284" s="2"/>
@@ -35067,7 +35064,7 @@
         <v>43</v>
       </c>
       <c r="AE284" t="s" s="2">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AF284" t="s" s="2">
         <v>41</v>
@@ -35096,7 +35093,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -35205,7 +35202,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -35316,7 +35313,7 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -35429,7 +35426,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -35458,13 +35455,13 @@
         <v>654</v>
       </c>
       <c r="L288" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="M288" t="s" s="2">
         <v>1033</v>
       </c>
-      <c r="M288" t="s" s="2">
+      <c r="N288" t="s" s="2">
         <v>1034</v>
-      </c>
-      <c r="N288" t="s" s="2">
-        <v>1035</v>
       </c>
       <c r="O288" t="s" s="2">
         <v>43</v>
@@ -35492,11 +35489,11 @@
         <v>116</v>
       </c>
       <c r="X288" t="s" s="2">
+        <v>1035</v>
+      </c>
+      <c r="Y288" t="s" s="2">
         <v>1036</v>
       </c>
-      <c r="Y288" t="s" s="2">
-        <v>1037</v>
-      </c>
       <c r="Z288" t="s" s="2">
         <v>43</v>
       </c>
@@ -35513,7 +35510,7 @@
         <v>43</v>
       </c>
       <c r="AE288" t="s" s="2">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="AF288" t="s" s="2">
         <v>50</v>
@@ -35542,7 +35539,7 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -35565,17 +35562,17 @@
         <v>43</v>
       </c>
       <c r="J289" t="s" s="2">
+        <v>1038</v>
+      </c>
+      <c r="K289" t="s" s="2">
         <v>1039</v>
       </c>
-      <c r="K289" t="s" s="2">
+      <c r="L289" t="s" s="2">
         <v>1040</v>
-      </c>
-      <c r="L289" t="s" s="2">
-        <v>1041</v>
       </c>
       <c r="M289" s="2"/>
       <c r="N289" t="s" s="2">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="O289" t="s" s="2">
         <v>43</v>
@@ -35624,7 +35621,7 @@
         <v>43</v>
       </c>
       <c r="AE289" t="s" s="2">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="AF289" t="s" s="2">
         <v>41</v>
@@ -35653,7 +35650,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -35676,17 +35673,17 @@
         <v>43</v>
       </c>
       <c r="J290" t="s" s="2">
+        <v>1043</v>
+      </c>
+      <c r="K290" t="s" s="2">
         <v>1044</v>
       </c>
-      <c r="K290" t="s" s="2">
+      <c r="L290" t="s" s="2">
         <v>1045</v>
-      </c>
-      <c r="L290" t="s" s="2">
-        <v>1046</v>
       </c>
       <c r="M290" s="2"/>
       <c r="N290" t="s" s="2">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="O290" t="s" s="2">
         <v>43</v>
@@ -35735,7 +35732,7 @@
         <v>43</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AF290" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$290</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$289</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10221" uniqueCount="1047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10188" uniqueCount="1042">
   <si>
     <t>Path</t>
   </si>
@@ -2726,23 +2726,6 @@
   </si>
   <si>
     <t>ExplanationOfBenefit.adjudication.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>adjudication-type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/carin-bb/StructureDefinition/AdjudicationType}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.adjudication.modifierExtension</t>
@@ -3377,7 +3360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM290"/>
+  <dimension ref="A1:AM289"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3387,7 +3370,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="60.921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -29973,11 +29956,11 @@
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D239" s="2"/>
       <c r="E239" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F239" t="s" s="2">
         <v>42</v>
@@ -29995,12 +29978,14 @@
         <v>70</v>
       </c>
       <c r="K239" t="s" s="2">
-        <v>881</v>
+        <v>71</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>882</v>
-      </c>
-      <c r="M239" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M239" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N239" s="2"/>
       <c r="O239" t="s" s="2">
         <v>43</v>
@@ -30037,14 +30022,16 @@
         <v>43</v>
       </c>
       <c r="AA239" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB239" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AB239" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AC239" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD239" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AE239" t="s" s="2">
         <v>77</v>
@@ -30071,46 +30058,48 @@
         <v>43</v>
       </c>
       <c r="AM239" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>880</v>
-      </c>
-      <c r="B240" t="s" s="2">
-        <v>883</v>
-      </c>
+        <v>881</v>
+      </c>
+      <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
-        <v>43</v>
+        <v>324</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F240" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G240" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H240" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H240" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="I240" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J240" t="s" s="2">
-        <v>884</v>
+        <v>70</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>881</v>
+        <v>325</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>882</v>
-      </c>
-      <c r="M240" s="2"/>
-      <c r="N240" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="M240" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N240" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O240" t="s" s="2">
         <v>43</v>
       </c>
@@ -30158,7 +30147,7 @@
         <v>43</v>
       </c>
       <c r="AE240" t="s" s="2">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="AF240" t="s" s="2">
         <v>41</v>
@@ -30167,7 +30156,7 @@
         <v>42</v>
       </c>
       <c r="AH240" t="s" s="2">
-        <v>885</v>
+        <v>43</v>
       </c>
       <c r="AI240" t="s" s="2">
         <v>78</v>
@@ -30182,47 +30171,47 @@
         <v>43</v>
       </c>
       <c r="AM240" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
-        <v>324</v>
+        <v>43</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F241" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G241" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H241" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I241" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J241" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>325</v>
+        <v>744</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>326</v>
+        <v>745</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>73</v>
+        <v>746</v>
       </c>
       <c r="N241" t="s" s="2">
-        <v>156</v>
+        <v>747</v>
       </c>
       <c r="O241" t="s" s="2">
         <v>43</v>
@@ -30247,13 +30236,11 @@
         <v>43</v>
       </c>
       <c r="W241" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X241" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X241" s="2"/>
       <c r="Y241" t="s" s="2">
-        <v>43</v>
+        <v>748</v>
       </c>
       <c r="Z241" t="s" s="2">
         <v>43</v>
@@ -30271,19 +30258,19 @@
         <v>43</v>
       </c>
       <c r="AE241" t="s" s="2">
-        <v>327</v>
+        <v>743</v>
       </c>
       <c r="AF241" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG241" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH241" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI241" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ241" t="s" s="2">
         <v>43</v>
@@ -30295,12 +30282,12 @@
         <v>43</v>
       </c>
       <c r="AM241" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -30308,7 +30295,7 @@
       </c>
       <c r="D242" s="2"/>
       <c r="E242" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F242" t="s" s="2">
         <v>50</v>
@@ -30326,16 +30313,16 @@
         <v>180</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="N242" t="s" s="2">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="O242" t="s" s="2">
         <v>43</v>
@@ -30360,11 +30347,13 @@
         <v>43</v>
       </c>
       <c r="W242" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X242" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="X242" t="s" s="2">
+        <v>754</v>
+      </c>
       <c r="Y242" t="s" s="2">
-        <v>748</v>
+        <v>755</v>
       </c>
       <c r="Z242" t="s" s="2">
         <v>43</v>
@@ -30382,10 +30371,10 @@
         <v>43</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="AF242" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG242" t="s" s="2">
         <v>50</v>
@@ -30411,7 +30400,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -30434,19 +30423,19 @@
         <v>43</v>
       </c>
       <c r="J243" t="s" s="2">
-        <v>180</v>
+        <v>699</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="N243" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="O243" t="s" s="2">
         <v>43</v>
@@ -30471,13 +30460,13 @@
         <v>43</v>
       </c>
       <c r="W243" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X243" t="s" s="2">
-        <v>754</v>
+        <v>43</v>
       </c>
       <c r="Y243" t="s" s="2">
-        <v>755</v>
+        <v>43</v>
       </c>
       <c r="Z243" t="s" s="2">
         <v>43</v>
@@ -30495,7 +30484,7 @@
         <v>43</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>749</v>
+        <v>756</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>41</v>
@@ -30524,7 +30513,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -30547,19 +30536,19 @@
         <v>43</v>
       </c>
       <c r="J244" t="s" s="2">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="N244" t="s" s="2">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="O244" t="s" s="2">
         <v>43</v>
@@ -30608,7 +30597,7 @@
         <v>43</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="AF244" t="s" s="2">
         <v>41</v>
@@ -30637,7 +30626,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -30648,7 +30637,7 @@
         <v>41</v>
       </c>
       <c r="F245" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G245" t="s" s="2">
         <v>43</v>
@@ -30657,22 +30646,22 @@
         <v>43</v>
       </c>
       <c r="I245" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J245" t="s" s="2">
-        <v>704</v>
+        <v>316</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>762</v>
+        <v>887</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>763</v>
+        <v>888</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>764</v>
+        <v>889</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>765</v>
+        <v>890</v>
       </c>
       <c r="O245" t="s" s="2">
         <v>43</v>
@@ -30721,13 +30710,13 @@
         <v>43</v>
       </c>
       <c r="AE245" t="s" s="2">
-        <v>761</v>
+        <v>886</v>
       </c>
       <c r="AF245" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG245" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH245" t="s" s="2">
         <v>43</v>
@@ -30761,7 +30750,7 @@
         <v>41</v>
       </c>
       <c r="F246" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G246" t="s" s="2">
         <v>43</v>
@@ -30770,23 +30759,19 @@
         <v>43</v>
       </c>
       <c r="I246" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J246" t="s" s="2">
-        <v>316</v>
+        <v>52</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>892</v>
+        <v>64</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>893</v>
-      </c>
-      <c r="M246" t="s" s="2">
-        <v>894</v>
-      </c>
-      <c r="N246" t="s" s="2">
-        <v>895</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M246" s="2"/>
+      <c r="N246" s="2"/>
       <c r="O246" t="s" s="2">
         <v>43</v>
       </c>
@@ -30834,19 +30819,19 @@
         <v>43</v>
       </c>
       <c r="AE246" t="s" s="2">
-        <v>891</v>
+        <v>66</v>
       </c>
       <c r="AF246" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG246" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH246" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI246" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ246" t="s" s="2">
         <v>43</v>
@@ -30858,23 +30843,23 @@
         <v>43</v>
       </c>
       <c r="AM246" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F247" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G247" t="s" s="2">
         <v>43</v>
@@ -30886,15 +30871,17 @@
         <v>43</v>
       </c>
       <c r="J247" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M247" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M247" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N247" s="2"/>
       <c r="O247" t="s" s="2">
         <v>43</v>
@@ -30943,19 +30930,19 @@
         <v>43</v>
       </c>
       <c r="AE247" t="s" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AF247" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG247" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH247" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI247" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AJ247" t="s" s="2">
         <v>43</v>
@@ -30972,11 +30959,11 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
-        <v>69</v>
+        <v>324</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" t="s" s="2">
@@ -30989,24 +30976,26 @@
         <v>43</v>
       </c>
       <c r="H248" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I248" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J248" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K248" t="s" s="2">
-        <v>71</v>
+        <v>325</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>72</v>
+        <v>326</v>
       </c>
       <c r="M248" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N248" s="2"/>
+      <c r="N248" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O248" t="s" s="2">
         <v>43</v>
       </c>
@@ -31054,7 +31043,7 @@
         <v>43</v>
       </c>
       <c r="AE248" t="s" s="2">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="AF248" t="s" s="2">
         <v>41</v>
@@ -31078,47 +31067,47 @@
         <v>43</v>
       </c>
       <c r="AM248" t="s" s="2">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
-        <v>324</v>
+        <v>43</v>
       </c>
       <c r="D249" s="2"/>
       <c r="E249" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F249" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G249" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H249" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I249" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J249" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K249" t="s" s="2">
-        <v>325</v>
+        <v>744</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>326</v>
+        <v>895</v>
       </c>
       <c r="M249" t="s" s="2">
-        <v>73</v>
+        <v>746</v>
       </c>
       <c r="N249" t="s" s="2">
-        <v>156</v>
+        <v>896</v>
       </c>
       <c r="O249" t="s" s="2">
         <v>43</v>
@@ -31143,13 +31132,11 @@
         <v>43</v>
       </c>
       <c r="W249" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X249" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X249" s="2"/>
       <c r="Y249" t="s" s="2">
-        <v>43</v>
+        <v>748</v>
       </c>
       <c r="Z249" t="s" s="2">
         <v>43</v>
@@ -31167,19 +31154,19 @@
         <v>43</v>
       </c>
       <c r="AE249" t="s" s="2">
-        <v>327</v>
+        <v>894</v>
       </c>
       <c r="AF249" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG249" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH249" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI249" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ249" t="s" s="2">
         <v>43</v>
@@ -31191,12 +31178,12 @@
         <v>43</v>
       </c>
       <c r="AM249" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -31219,19 +31206,17 @@
         <v>51</v>
       </c>
       <c r="J250" t="s" s="2">
-        <v>180</v>
+        <v>699</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>744</v>
+        <v>898</v>
       </c>
       <c r="L250" t="s" s="2">
+        <v>899</v>
+      </c>
+      <c r="M250" s="2"/>
+      <c r="N250" t="s" s="2">
         <v>900</v>
-      </c>
-      <c r="M250" t="s" s="2">
-        <v>746</v>
-      </c>
-      <c r="N250" t="s" s="2">
-        <v>901</v>
       </c>
       <c r="O250" t="s" s="2">
         <v>43</v>
@@ -31256,11 +31241,13 @@
         <v>43</v>
       </c>
       <c r="W250" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X250" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X250" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y250" t="s" s="2">
-        <v>748</v>
+        <v>43</v>
       </c>
       <c r="Z250" t="s" s="2">
         <v>43</v>
@@ -31278,7 +31265,7 @@
         <v>43</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>50</v>
@@ -31305,9 +31292,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="251" hidden="true">
+    <row r="251">
       <c r="A251" t="s" s="2">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -31315,32 +31302,32 @@
       </c>
       <c r="D251" s="2"/>
       <c r="E251" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F251" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G251" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H251" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I251" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J251" t="s" s="2">
-        <v>699</v>
+        <v>316</v>
       </c>
       <c r="K251" t="s" s="2">
+        <v>902</v>
+      </c>
+      <c r="L251" t="s" s="2">
         <v>903</v>
-      </c>
-      <c r="L251" t="s" s="2">
-        <v>904</v>
       </c>
       <c r="M251" s="2"/>
       <c r="N251" t="s" s="2">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="O251" t="s" s="2">
         <v>43</v>
@@ -31389,10 +31376,10 @@
         <v>43</v>
       </c>
       <c r="AE251" t="s" s="2">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="AF251" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG251" t="s" s="2">
         <v>50</v>
@@ -31416,9 +31403,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -31432,7 +31419,7 @@
         <v>50</v>
       </c>
       <c r="G252" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H252" t="s" s="2">
         <v>43</v>
@@ -31441,18 +31428,16 @@
         <v>43</v>
       </c>
       <c r="J252" t="s" s="2">
-        <v>316</v>
+        <v>52</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>907</v>
+        <v>64</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>908</v>
+        <v>65</v>
       </c>
       <c r="M252" s="2"/>
-      <c r="N252" t="s" s="2">
-        <v>909</v>
-      </c>
+      <c r="N252" s="2"/>
       <c r="O252" t="s" s="2">
         <v>43</v>
       </c>
@@ -31500,7 +31485,7 @@
         <v>43</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>906</v>
+        <v>66</v>
       </c>
       <c r="AF252" t="s" s="2">
         <v>41</v>
@@ -31512,7 +31497,7 @@
         <v>43</v>
       </c>
       <c r="AI252" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ252" t="s" s="2">
         <v>43</v>
@@ -31524,23 +31509,23 @@
         <v>43</v>
       </c>
       <c r="AM252" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F253" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G253" t="s" s="2">
         <v>43</v>
@@ -31552,15 +31537,17 @@
         <v>43</v>
       </c>
       <c r="J253" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M253" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M253" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N253" s="2"/>
       <c r="O253" t="s" s="2">
         <v>43</v>
@@ -31609,19 +31596,19 @@
         <v>43</v>
       </c>
       <c r="AE253" t="s" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AF253" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG253" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH253" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI253" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AJ253" t="s" s="2">
         <v>43</v>
@@ -31638,11 +31625,11 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
-        <v>69</v>
+        <v>324</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" t="s" s="2">
@@ -31655,24 +31642,26 @@
         <v>43</v>
       </c>
       <c r="H254" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I254" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J254" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>71</v>
+        <v>325</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>72</v>
+        <v>326</v>
       </c>
       <c r="M254" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N254" s="2"/>
+      <c r="N254" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O254" t="s" s="2">
         <v>43</v>
       </c>
@@ -31720,7 +31709,7 @@
         <v>43</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>41</v>
@@ -31744,47 +31733,45 @@
         <v>43</v>
       </c>
       <c r="AM254" t="s" s="2">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
-        <v>324</v>
+        <v>43</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F255" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G255" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H255" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I255" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J255" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>325</v>
+        <v>909</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M255" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>910</v>
+      </c>
+      <c r="M255" s="2"/>
       <c r="N255" t="s" s="2">
-        <v>156</v>
+        <v>911</v>
       </c>
       <c r="O255" t="s" s="2">
         <v>43</v>
@@ -31809,13 +31796,11 @@
         <v>43</v>
       </c>
       <c r="W255" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X255" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X255" s="2"/>
       <c r="Y255" t="s" s="2">
-        <v>43</v>
+        <v>912</v>
       </c>
       <c r="Z255" t="s" s="2">
         <v>43</v>
@@ -31833,19 +31818,19 @@
         <v>43</v>
       </c>
       <c r="AE255" t="s" s="2">
-        <v>327</v>
+        <v>908</v>
       </c>
       <c r="AF255" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG255" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH255" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI255" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ255" t="s" s="2">
         <v>43</v>
@@ -31857,7 +31842,7 @@
         <v>43</v>
       </c>
       <c r="AM255" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="256" hidden="true">
@@ -31885,7 +31870,7 @@
         <v>43</v>
       </c>
       <c r="J256" t="s" s="2">
-        <v>180</v>
+        <v>699</v>
       </c>
       <c r="K256" t="s" s="2">
         <v>914</v>
@@ -31893,9 +31878,11 @@
       <c r="L256" t="s" s="2">
         <v>915</v>
       </c>
-      <c r="M256" s="2"/>
+      <c r="M256" t="s" s="2">
+        <v>916</v>
+      </c>
       <c r="N256" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="O256" t="s" s="2">
         <v>43</v>
@@ -31920,11 +31907,13 @@
         <v>43</v>
       </c>
       <c r="W256" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X256" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X256" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y256" t="s" s="2">
-        <v>917</v>
+        <v>43</v>
       </c>
       <c r="Z256" t="s" s="2">
         <v>43</v>
@@ -31994,7 +31983,7 @@
         <v>43</v>
       </c>
       <c r="J257" t="s" s="2">
-        <v>699</v>
+        <v>180</v>
       </c>
       <c r="K257" t="s" s="2">
         <v>919</v>
@@ -32002,11 +31991,9 @@
       <c r="L257" t="s" s="2">
         <v>920</v>
       </c>
-      <c r="M257" t="s" s="2">
+      <c r="M257" s="2"/>
+      <c r="N257" t="s" s="2">
         <v>921</v>
-      </c>
-      <c r="N257" t="s" s="2">
-        <v>922</v>
       </c>
       <c r="O257" t="s" s="2">
         <v>43</v>
@@ -32031,13 +32018,13 @@
         <v>43</v>
       </c>
       <c r="W257" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X257" t="s" s="2">
-        <v>43</v>
+        <v>922</v>
       </c>
       <c r="Y257" t="s" s="2">
-        <v>43</v>
+        <v>923</v>
       </c>
       <c r="Z257" t="s" s="2">
         <v>43</v>
@@ -32084,7 +32071,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -32107,17 +32094,17 @@
         <v>43</v>
       </c>
       <c r="J258" t="s" s="2">
-        <v>180</v>
+        <v>604</v>
       </c>
       <c r="K258" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="M258" s="2"/>
       <c r="N258" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="O258" t="s" s="2">
         <v>43</v>
@@ -32142,13 +32129,13 @@
         <v>43</v>
       </c>
       <c r="W258" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X258" t="s" s="2">
-        <v>927</v>
+        <v>43</v>
       </c>
       <c r="Y258" t="s" s="2">
-        <v>928</v>
+        <v>43</v>
       </c>
       <c r="Z258" t="s" s="2">
         <v>43</v>
@@ -32166,7 +32153,7 @@
         <v>43</v>
       </c>
       <c r="AE258" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="AF258" t="s" s="2">
         <v>41</v>
@@ -32195,7 +32182,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -32218,17 +32205,17 @@
         <v>43</v>
       </c>
       <c r="J259" t="s" s="2">
-        <v>604</v>
+        <v>699</v>
       </c>
       <c r="K259" t="s" s="2">
+        <v>929</v>
+      </c>
+      <c r="L259" t="s" s="2">
         <v>930</v>
-      </c>
-      <c r="L259" t="s" s="2">
-        <v>931</v>
       </c>
       <c r="M259" s="2"/>
       <c r="N259" t="s" s="2">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="O259" t="s" s="2">
         <v>43</v>
@@ -32277,7 +32264,7 @@
         <v>43</v>
       </c>
       <c r="AE259" t="s" s="2">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="AF259" t="s" s="2">
         <v>41</v>
@@ -32306,7 +32293,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -32329,15 +32316,17 @@
         <v>43</v>
       </c>
       <c r="J260" t="s" s="2">
-        <v>699</v>
+        <v>159</v>
       </c>
       <c r="K260" t="s" s="2">
+        <v>933</v>
+      </c>
+      <c r="L260" t="s" s="2">
         <v>934</v>
       </c>
-      <c r="L260" t="s" s="2">
+      <c r="M260" t="s" s="2">
         <v>935</v>
       </c>
-      <c r="M260" s="2"/>
       <c r="N260" t="s" s="2">
         <v>936</v>
       </c>
@@ -32388,7 +32377,7 @@
         <v>43</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>41</v>
@@ -32440,7 +32429,7 @@
         <v>43</v>
       </c>
       <c r="J261" t="s" s="2">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="K261" t="s" s="2">
         <v>938</v>
@@ -32477,13 +32466,13 @@
         <v>43</v>
       </c>
       <c r="W261" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X261" t="s" s="2">
-        <v>43</v>
+        <v>942</v>
       </c>
       <c r="Y261" t="s" s="2">
-        <v>43</v>
+        <v>943</v>
       </c>
       <c r="Z261" t="s" s="2">
         <v>43</v>
@@ -32530,7 +32519,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -32553,19 +32542,19 @@
         <v>43</v>
       </c>
       <c r="J262" t="s" s="2">
-        <v>180</v>
+        <v>945</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="M262" t="s" s="2">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="N262" t="s" s="2">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="O262" t="s" s="2">
         <v>43</v>
@@ -32590,13 +32579,13 @@
         <v>43</v>
       </c>
       <c r="W262" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X262" t="s" s="2">
-        <v>947</v>
+        <v>43</v>
       </c>
       <c r="Y262" t="s" s="2">
-        <v>948</v>
+        <v>43</v>
       </c>
       <c r="Z262" t="s" s="2">
         <v>43</v>
@@ -32614,7 +32603,7 @@
         <v>43</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>41</v>
@@ -32643,7 +32632,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -32654,7 +32643,7 @@
         <v>41</v>
       </c>
       <c r="F263" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G263" t="s" s="2">
         <v>43</v>
@@ -32666,7 +32655,7 @@
         <v>43</v>
       </c>
       <c r="J263" t="s" s="2">
-        <v>950</v>
+        <v>316</v>
       </c>
       <c r="K263" t="s" s="2">
         <v>951</v>
@@ -32674,11 +32663,9 @@
       <c r="L263" t="s" s="2">
         <v>952</v>
       </c>
-      <c r="M263" t="s" s="2">
+      <c r="M263" s="2"/>
+      <c r="N263" t="s" s="2">
         <v>953</v>
-      </c>
-      <c r="N263" t="s" s="2">
-        <v>954</v>
       </c>
       <c r="O263" t="s" s="2">
         <v>43</v>
@@ -32727,13 +32714,13 @@
         <v>43</v>
       </c>
       <c r="AE263" t="s" s="2">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="AF263" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG263" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH263" t="s" s="2">
         <v>43</v>
@@ -32756,7 +32743,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -32767,7 +32754,7 @@
         <v>41</v>
       </c>
       <c r="F264" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G264" t="s" s="2">
         <v>43</v>
@@ -32779,18 +32766,16 @@
         <v>43</v>
       </c>
       <c r="J264" t="s" s="2">
-        <v>316</v>
+        <v>52</v>
       </c>
       <c r="K264" t="s" s="2">
-        <v>956</v>
+        <v>64</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>957</v>
+        <v>65</v>
       </c>
       <c r="M264" s="2"/>
-      <c r="N264" t="s" s="2">
-        <v>958</v>
-      </c>
+      <c r="N264" s="2"/>
       <c r="O264" t="s" s="2">
         <v>43</v>
       </c>
@@ -32838,19 +32823,19 @@
         <v>43</v>
       </c>
       <c r="AE264" t="s" s="2">
-        <v>955</v>
+        <v>66</v>
       </c>
       <c r="AF264" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG264" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH264" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI264" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ264" t="s" s="2">
         <v>43</v>
@@ -32862,23 +32847,23 @@
         <v>43</v>
       </c>
       <c r="AM264" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F265" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G265" t="s" s="2">
         <v>43</v>
@@ -32890,15 +32875,17 @@
         <v>43</v>
       </c>
       <c r="J265" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M265" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M265" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N265" s="2"/>
       <c r="O265" t="s" s="2">
         <v>43</v>
@@ -32947,19 +32934,19 @@
         <v>43</v>
       </c>
       <c r="AE265" t="s" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AF265" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG265" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH265" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI265" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AJ265" t="s" s="2">
         <v>43</v>
@@ -32976,11 +32963,11 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
-        <v>69</v>
+        <v>324</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" t="s" s="2">
@@ -32993,24 +32980,26 @@
         <v>43</v>
       </c>
       <c r="H266" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I266" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J266" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>71</v>
+        <v>325</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>72</v>
+        <v>326</v>
       </c>
       <c r="M266" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N266" s="2"/>
+      <c r="N266" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O266" t="s" s="2">
         <v>43</v>
       </c>
@@ -33058,7 +33047,7 @@
         <v>43</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>41</v>
@@ -33082,47 +33071,45 @@
         <v>43</v>
       </c>
       <c r="AM266" t="s" s="2">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
-        <v>324</v>
+        <v>43</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F267" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G267" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H267" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I267" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J267" t="s" s="2">
-        <v>70</v>
+        <v>426</v>
       </c>
       <c r="K267" t="s" s="2">
-        <v>325</v>
+        <v>958</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M267" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>959</v>
+      </c>
+      <c r="M267" s="2"/>
       <c r="N267" t="s" s="2">
-        <v>156</v>
+        <v>960</v>
       </c>
       <c r="O267" t="s" s="2">
         <v>43</v>
@@ -33171,19 +33158,19 @@
         <v>43</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>327</v>
+        <v>957</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG267" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH267" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI267" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ267" t="s" s="2">
         <v>43</v>
@@ -33195,12 +33182,12 @@
         <v>43</v>
       </c>
       <c r="AM267" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -33223,17 +33210,17 @@
         <v>43</v>
       </c>
       <c r="J268" t="s" s="2">
-        <v>426</v>
+        <v>126</v>
       </c>
       <c r="K268" t="s" s="2">
+        <v>962</v>
+      </c>
+      <c r="L268" t="s" s="2">
         <v>963</v>
-      </c>
-      <c r="L268" t="s" s="2">
-        <v>964</v>
       </c>
       <c r="M268" s="2"/>
       <c r="N268" t="s" s="2">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="O268" t="s" s="2">
         <v>43</v>
@@ -33258,13 +33245,13 @@
         <v>43</v>
       </c>
       <c r="W268" t="s" s="2">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="X268" t="s" s="2">
-        <v>43</v>
+        <v>965</v>
       </c>
       <c r="Y268" t="s" s="2">
-        <v>43</v>
+        <v>966</v>
       </c>
       <c r="Z268" t="s" s="2">
         <v>43</v>
@@ -33282,7 +33269,7 @@
         <v>43</v>
       </c>
       <c r="AE268" t="s" s="2">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="AF268" t="s" s="2">
         <v>41</v>
@@ -33311,7 +33298,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -33334,17 +33321,17 @@
         <v>43</v>
       </c>
       <c r="J269" t="s" s="2">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="M269" s="2"/>
       <c r="N269" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>43</v>
@@ -33369,13 +33356,13 @@
         <v>43</v>
       </c>
       <c r="W269" t="s" s="2">
-        <v>174</v>
+        <v>43</v>
       </c>
       <c r="X269" t="s" s="2">
-        <v>970</v>
+        <v>43</v>
       </c>
       <c r="Y269" t="s" s="2">
-        <v>971</v>
+        <v>43</v>
       </c>
       <c r="Z269" t="s" s="2">
         <v>43</v>
@@ -33393,7 +33380,7 @@
         <v>43</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>41</v>
@@ -33422,7 +33409,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -33445,15 +33432,17 @@
         <v>43</v>
       </c>
       <c r="J270" t="s" s="2">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="K270" t="s" s="2">
+        <v>972</v>
+      </c>
+      <c r="L270" t="s" s="2">
         <v>973</v>
       </c>
-      <c r="L270" t="s" s="2">
+      <c r="M270" t="s" s="2">
         <v>974</v>
       </c>
-      <c r="M270" s="2"/>
       <c r="N270" t="s" s="2">
         <v>975</v>
       </c>
@@ -33480,13 +33469,13 @@
         <v>43</v>
       </c>
       <c r="W270" t="s" s="2">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="X270" t="s" s="2">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="Y270" t="s" s="2">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="Z270" t="s" s="2">
         <v>43</v>
@@ -33504,7 +33493,7 @@
         <v>43</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>41</v>
@@ -33556,7 +33545,7 @@
         <v>43</v>
       </c>
       <c r="J271" t="s" s="2">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="K271" t="s" s="2">
         <v>977</v>
@@ -33593,13 +33582,13 @@
         <v>43</v>
       </c>
       <c r="W271" t="s" s="2">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="X271" t="s" s="2">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="Y271" t="s" s="2">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="Z271" t="s" s="2">
         <v>43</v>
@@ -33657,7 +33646,7 @@
         <v>41</v>
       </c>
       <c r="F272" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G272" t="s" s="2">
         <v>43</v>
@@ -33669,7 +33658,7 @@
         <v>43</v>
       </c>
       <c r="J272" t="s" s="2">
-        <v>207</v>
+        <v>316</v>
       </c>
       <c r="K272" t="s" s="2">
         <v>982</v>
@@ -33677,12 +33666,8 @@
       <c r="L272" t="s" s="2">
         <v>983</v>
       </c>
-      <c r="M272" t="s" s="2">
-        <v>984</v>
-      </c>
-      <c r="N272" t="s" s="2">
-        <v>985</v>
-      </c>
+      <c r="M272" s="2"/>
+      <c r="N272" s="2"/>
       <c r="O272" t="s" s="2">
         <v>43</v>
       </c>
@@ -33736,7 +33721,7 @@
         <v>41</v>
       </c>
       <c r="AG272" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH272" t="s" s="2">
         <v>43</v>
@@ -33759,7 +33744,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -33770,7 +33755,7 @@
         <v>41</v>
       </c>
       <c r="F273" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G273" t="s" s="2">
         <v>43</v>
@@ -33782,13 +33767,13 @@
         <v>43</v>
       </c>
       <c r="J273" t="s" s="2">
-        <v>316</v>
+        <v>52</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>987</v>
+        <v>64</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>988</v>
+        <v>65</v>
       </c>
       <c r="M273" s="2"/>
       <c r="N273" s="2"/>
@@ -33839,19 +33824,19 @@
         <v>43</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>986</v>
+        <v>66</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG273" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH273" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI273" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ273" t="s" s="2">
         <v>43</v>
@@ -33863,23 +33848,23 @@
         <v>43</v>
       </c>
       <c r="AM273" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D274" s="2"/>
       <c r="E274" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F274" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G274" t="s" s="2">
         <v>43</v>
@@ -33891,15 +33876,17 @@
         <v>43</v>
       </c>
       <c r="J274" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K274" t="s" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M274" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M274" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N274" s="2"/>
       <c r="O274" t="s" s="2">
         <v>43</v>
@@ -33948,19 +33935,19 @@
         <v>43</v>
       </c>
       <c r="AE274" t="s" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AF274" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG274" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH274" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI274" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AJ274" t="s" s="2">
         <v>43</v>
@@ -33977,11 +33964,11 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
-        <v>69</v>
+        <v>324</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" t="s" s="2">
@@ -33994,24 +33981,26 @@
         <v>43</v>
       </c>
       <c r="H275" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I275" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J275" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K275" t="s" s="2">
-        <v>71</v>
+        <v>325</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>72</v>
+        <v>326</v>
       </c>
       <c r="M275" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N275" s="2"/>
+      <c r="N275" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O275" t="s" s="2">
         <v>43</v>
       </c>
@@ -34059,7 +34048,7 @@
         <v>43</v>
       </c>
       <c r="AE275" t="s" s="2">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="AF275" t="s" s="2">
         <v>41</v>
@@ -34083,47 +34072,47 @@
         <v>43</v>
       </c>
       <c r="AM275" t="s" s="2">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
-        <v>324</v>
+        <v>43</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F276" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G276" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H276" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I276" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J276" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K276" t="s" s="2">
-        <v>325</v>
+        <v>654</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>326</v>
+        <v>655</v>
       </c>
       <c r="M276" t="s" s="2">
-        <v>73</v>
+        <v>656</v>
       </c>
       <c r="N276" t="s" s="2">
-        <v>156</v>
+        <v>988</v>
       </c>
       <c r="O276" t="s" s="2">
         <v>43</v>
@@ -34148,13 +34137,13 @@
         <v>43</v>
       </c>
       <c r="W276" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X276" t="s" s="2">
-        <v>43</v>
+        <v>658</v>
       </c>
       <c r="Y276" t="s" s="2">
-        <v>43</v>
+        <v>659</v>
       </c>
       <c r="Z276" t="s" s="2">
         <v>43</v>
@@ -34172,19 +34161,19 @@
         <v>43</v>
       </c>
       <c r="AE276" t="s" s="2">
-        <v>327</v>
+        <v>987</v>
       </c>
       <c r="AF276" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG276" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH276" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI276" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ276" t="s" s="2">
         <v>43</v>
@@ -34196,12 +34185,12 @@
         <v>43</v>
       </c>
       <c r="AM276" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -34209,7 +34198,7 @@
       </c>
       <c r="D277" s="2"/>
       <c r="E277" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F277" t="s" s="2">
         <v>50</v>
@@ -34224,19 +34213,17 @@
         <v>43</v>
       </c>
       <c r="J277" t="s" s="2">
-        <v>180</v>
+        <v>437</v>
       </c>
       <c r="K277" t="s" s="2">
-        <v>654</v>
+        <v>990</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="M277" t="s" s="2">
-        <v>656</v>
-      </c>
+        <v>991</v>
+      </c>
+      <c r="M277" s="2"/>
       <c r="N277" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="O277" t="s" s="2">
         <v>43</v>
@@ -34261,13 +34248,13 @@
         <v>43</v>
       </c>
       <c r="W277" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X277" t="s" s="2">
-        <v>658</v>
+        <v>43</v>
       </c>
       <c r="Y277" t="s" s="2">
-        <v>659</v>
+        <v>43</v>
       </c>
       <c r="Z277" t="s" s="2">
         <v>43</v>
@@ -34285,10 +34272,10 @@
         <v>43</v>
       </c>
       <c r="AE277" t="s" s="2">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="AF277" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG277" t="s" s="2">
         <v>50</v>
@@ -34314,7 +34301,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -34337,15 +34324,17 @@
         <v>43</v>
       </c>
       <c r="J278" t="s" s="2">
-        <v>437</v>
+        <v>52</v>
       </c>
       <c r="K278" t="s" s="2">
+        <v>994</v>
+      </c>
+      <c r="L278" t="s" s="2">
         <v>995</v>
       </c>
-      <c r="L278" t="s" s="2">
+      <c r="M278" t="s" s="2">
         <v>996</v>
       </c>
-      <c r="M278" s="2"/>
       <c r="N278" t="s" s="2">
         <v>997</v>
       </c>
@@ -34396,7 +34385,7 @@
         <v>43</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>41</v>
@@ -34561,7 +34550,7 @@
         <v>43</v>
       </c>
       <c r="J280" t="s" s="2">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="K280" t="s" s="2">
         <v>1004</v>
@@ -34569,11 +34558,9 @@
       <c r="L280" t="s" s="2">
         <v>1005</v>
       </c>
-      <c r="M280" t="s" s="2">
+      <c r="M280" s="2"/>
+      <c r="N280" t="s" s="2">
         <v>1006</v>
-      </c>
-      <c r="N280" t="s" s="2">
-        <v>1007</v>
       </c>
       <c r="O280" t="s" s="2">
         <v>43</v>
@@ -34598,13 +34585,13 @@
         <v>43</v>
       </c>
       <c r="W280" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X280" t="s" s="2">
-        <v>43</v>
+        <v>1007</v>
       </c>
       <c r="Y280" t="s" s="2">
-        <v>43</v>
+        <v>1008</v>
       </c>
       <c r="Z280" t="s" s="2">
         <v>43</v>
@@ -34651,7 +34638,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -34677,14 +34664,14 @@
         <v>180</v>
       </c>
       <c r="K281" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="M281" s="2"/>
       <c r="N281" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="O281" t="s" s="2">
         <v>43</v>
@@ -34712,10 +34699,10 @@
         <v>116</v>
       </c>
       <c r="X281" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="Y281" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="Z281" t="s" s="2">
         <v>43</v>
@@ -34733,7 +34720,7 @@
         <v>43</v>
       </c>
       <c r="AE281" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="AF281" t="s" s="2">
         <v>41</v>
@@ -34762,7 +34749,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -34788,14 +34775,14 @@
         <v>180</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="M282" s="2"/>
       <c r="N282" t="s" s="2">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="O282" t="s" s="2">
         <v>43</v>
@@ -34844,7 +34831,7 @@
         <v>43</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>41</v>
@@ -34884,7 +34871,7 @@
         <v>41</v>
       </c>
       <c r="F283" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G283" t="s" s="2">
         <v>43</v>
@@ -34896,7 +34883,7 @@
         <v>43</v>
       </c>
       <c r="J283" t="s" s="2">
-        <v>180</v>
+        <v>316</v>
       </c>
       <c r="K283" t="s" s="2">
         <v>1021</v>
@@ -34905,9 +34892,7 @@
         <v>1022</v>
       </c>
       <c r="M283" s="2"/>
-      <c r="N283" t="s" s="2">
-        <v>1017</v>
-      </c>
+      <c r="N283" s="2"/>
       <c r="O283" t="s" s="2">
         <v>43</v>
       </c>
@@ -34931,13 +34916,13 @@
         <v>43</v>
       </c>
       <c r="W283" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X283" t="s" s="2">
-        <v>1023</v>
+        <v>43</v>
       </c>
       <c r="Y283" t="s" s="2">
-        <v>1024</v>
+        <v>43</v>
       </c>
       <c r="Z283" t="s" s="2">
         <v>43</v>
@@ -34961,7 +34946,7 @@
         <v>41</v>
       </c>
       <c r="AG283" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH283" t="s" s="2">
         <v>43</v>
@@ -34984,7 +34969,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -34995,7 +34980,7 @@
         <v>41</v>
       </c>
       <c r="F284" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G284" t="s" s="2">
         <v>43</v>
@@ -35007,13 +34992,13 @@
         <v>43</v>
       </c>
       <c r="J284" t="s" s="2">
-        <v>316</v>
+        <v>52</v>
       </c>
       <c r="K284" t="s" s="2">
-        <v>1026</v>
+        <v>64</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>1027</v>
+        <v>65</v>
       </c>
       <c r="M284" s="2"/>
       <c r="N284" s="2"/>
@@ -35064,19 +35049,19 @@
         <v>43</v>
       </c>
       <c r="AE284" t="s" s="2">
-        <v>1025</v>
+        <v>66</v>
       </c>
       <c r="AF284" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG284" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH284" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI284" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ284" t="s" s="2">
         <v>43</v>
@@ -35088,23 +35073,23 @@
         <v>43</v>
       </c>
       <c r="AM284" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F285" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G285" t="s" s="2">
         <v>43</v>
@@ -35116,15 +35101,17 @@
         <v>43</v>
       </c>
       <c r="J285" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K285" t="s" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M285" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M285" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N285" s="2"/>
       <c r="O285" t="s" s="2">
         <v>43</v>
@@ -35173,19 +35160,19 @@
         <v>43</v>
       </c>
       <c r="AE285" t="s" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AF285" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG285" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH285" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI285" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AJ285" t="s" s="2">
         <v>43</v>
@@ -35202,11 +35189,11 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
-        <v>69</v>
+        <v>324</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" t="s" s="2">
@@ -35219,24 +35206,26 @@
         <v>43</v>
       </c>
       <c r="H286" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I286" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J286" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K286" t="s" s="2">
-        <v>71</v>
+        <v>325</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>72</v>
+        <v>326</v>
       </c>
       <c r="M286" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N286" s="2"/>
+      <c r="N286" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O286" t="s" s="2">
         <v>43</v>
       </c>
@@ -35284,7 +35273,7 @@
         <v>43</v>
       </c>
       <c r="AE286" t="s" s="2">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="AF286" t="s" s="2">
         <v>41</v>
@@ -35308,47 +35297,47 @@
         <v>43</v>
       </c>
       <c r="AM286" t="s" s="2">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
-        <v>324</v>
+        <v>43</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F287" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G287" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H287" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I287" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J287" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>325</v>
+        <v>654</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>326</v>
+        <v>1027</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>73</v>
+        <v>1028</v>
       </c>
       <c r="N287" t="s" s="2">
-        <v>156</v>
+        <v>1029</v>
       </c>
       <c r="O287" t="s" s="2">
         <v>43</v>
@@ -35373,13 +35362,13 @@
         <v>43</v>
       </c>
       <c r="W287" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X287" t="s" s="2">
-        <v>43</v>
+        <v>1030</v>
       </c>
       <c r="Y287" t="s" s="2">
-        <v>43</v>
+        <v>1031</v>
       </c>
       <c r="Z287" t="s" s="2">
         <v>43</v>
@@ -35397,19 +35386,19 @@
         <v>43</v>
       </c>
       <c r="AE287" t="s" s="2">
-        <v>327</v>
+        <v>1026</v>
       </c>
       <c r="AF287" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG287" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH287" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI287" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ287" t="s" s="2">
         <v>43</v>
@@ -35421,12 +35410,12 @@
         <v>43</v>
       </c>
       <c r="AM287" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -35434,7 +35423,7 @@
       </c>
       <c r="D288" s="2"/>
       <c r="E288" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F288" t="s" s="2">
         <v>50</v>
@@ -35449,19 +35438,17 @@
         <v>43</v>
       </c>
       <c r="J288" t="s" s="2">
-        <v>180</v>
+        <v>1033</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>654</v>
+        <v>1034</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>1032</v>
-      </c>
-      <c r="M288" t="s" s="2">
-        <v>1033</v>
-      </c>
+        <v>1035</v>
+      </c>
+      <c r="M288" s="2"/>
       <c r="N288" t="s" s="2">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="O288" t="s" s="2">
         <v>43</v>
@@ -35486,13 +35473,13 @@
         <v>43</v>
       </c>
       <c r="W288" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X288" t="s" s="2">
-        <v>1035</v>
+        <v>43</v>
       </c>
       <c r="Y288" t="s" s="2">
-        <v>1036</v>
+        <v>43</v>
       </c>
       <c r="Z288" t="s" s="2">
         <v>43</v>
@@ -35510,10 +35497,10 @@
         <v>43</v>
       </c>
       <c r="AE288" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="AF288" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG288" t="s" s="2">
         <v>50</v>
@@ -35648,119 +35635,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="290" hidden="true">
-      <c r="A290" t="s" s="2">
-        <v>1042</v>
-      </c>
-      <c r="B290" s="2"/>
-      <c r="C290" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D290" s="2"/>
-      <c r="E290" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F290" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G290" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H290" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I290" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J290" t="s" s="2">
-        <v>1043</v>
-      </c>
-      <c r="K290" t="s" s="2">
-        <v>1044</v>
-      </c>
-      <c r="L290" t="s" s="2">
-        <v>1045</v>
-      </c>
-      <c r="M290" s="2"/>
-      <c r="N290" t="s" s="2">
-        <v>1046</v>
-      </c>
-      <c r="O290" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P290" s="2"/>
-      <c r="Q290" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R290" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S290" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T290" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U290" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V290" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W290" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X290" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y290" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z290" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA290" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB290" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC290" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD290" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE290" t="s" s="2">
-        <v>1042</v>
-      </c>
-      <c r="AF290" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG290" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH290" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI290" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ290" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK290" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL290" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM290" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AM290">
+  <autoFilter ref="A1:AM289">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -35770,7 +35646,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI289">
+  <conditionalFormatting sqref="A2:AI288">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9870" uniqueCount="1036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9869" uniqueCount="1035">
   <si>
     <t>Path</t>
   </si>
@@ -1398,10 +1398,7 @@
     <t>Need to specify which qualification a provider is delivering the product or service under.</t>
   </si>
   <si>
-    <t>Provider professional qualifications.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/provider-qualification</t>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-provider-specialty</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.supportingInfo</t>
@@ -11366,13 +11363,11 @@
         <v>43</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X72" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="X72" s="2"/>
+      <c r="Y72" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>43</v>
@@ -11419,7 +11414,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -11445,16 +11440,16 @@
         <v>311</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>43</v>
@@ -11503,7 +11498,7 @@
         <v>43</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -11532,7 +11527,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11641,7 +11636,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11752,7 +11747,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11865,7 +11860,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11891,14 +11886,14 @@
         <v>420</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>43</v>
@@ -11947,7 +11942,7 @@
         <v>43</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>50</v>
@@ -11976,7 +11971,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -12002,16 +11997,16 @@
         <v>178</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>43</v>
@@ -12039,11 +12034,11 @@
         <v>116</v>
       </c>
       <c r="X78" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="Y78" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="Y78" t="s" s="2">
-        <v>466</v>
-      </c>
       <c r="Z78" t="s" s="2">
         <v>43</v>
       </c>
@@ -12060,7 +12055,7 @@
         <v>43</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>50</v>
@@ -12089,7 +12084,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -12115,16 +12110,16 @@
         <v>178</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>239</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>43</v>
@@ -12152,11 +12147,11 @@
         <v>116</v>
       </c>
       <c r="X79" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="Y79" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="Y79" t="s" s="2">
-        <v>472</v>
-      </c>
       <c r="Z79" t="s" s="2">
         <v>43</v>
       </c>
@@ -12173,7 +12168,7 @@
         <v>43</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -12202,7 +12197,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -12225,13 +12220,13 @@
         <v>43</v>
       </c>
       <c r="J80" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="K80" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="K80" t="s" s="2">
+      <c r="L80" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -12282,7 +12277,7 @@
         <v>43</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -12311,7 +12306,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -12334,19 +12329,19 @@
         <v>43</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="L81" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>43</v>
@@ -12395,7 +12390,7 @@
         <v>43</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -12424,7 +12419,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12450,16 +12445,16 @@
         <v>104</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>43</v>
@@ -12487,11 +12482,11 @@
         <v>116</v>
       </c>
       <c r="X82" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="Y82" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="Y82" t="s" s="2">
-        <v>489</v>
-      </c>
       <c r="Z82" t="s" s="2">
         <v>43</v>
       </c>
@@ -12508,7 +12503,7 @@
         <v>43</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -12537,7 +12532,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12563,14 +12558,14 @@
         <v>311</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>43</v>
@@ -12619,7 +12614,7 @@
         <v>43</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -12648,7 +12643,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12757,7 +12752,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12868,7 +12863,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12981,7 +12976,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -13007,16 +13002,16 @@
         <v>420</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>43</v>
@@ -13065,7 +13060,7 @@
         <v>43</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>50</v>
@@ -13094,7 +13089,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -13117,17 +13112,17 @@
         <v>43</v>
       </c>
       <c r="J88" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="K88" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="K88" t="s" s="2">
+      <c r="L88" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>43</v>
@@ -13155,11 +13150,11 @@
         <v>116</v>
       </c>
       <c r="X88" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="Y88" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="Y88" t="s" s="2">
-        <v>508</v>
-      </c>
       <c r="Z88" t="s" s="2">
         <v>43</v>
       </c>
@@ -13176,7 +13171,7 @@
         <v>43</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>50</v>
@@ -13205,7 +13200,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -13231,16 +13226,16 @@
         <v>178</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>43</v>
@@ -13268,11 +13263,11 @@
         <v>116</v>
       </c>
       <c r="X89" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="Y89" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="Y89" t="s" s="2">
-        <v>515</v>
-      </c>
       <c r="Z89" t="s" s="2">
         <v>43</v>
       </c>
@@ -13289,7 +13284,7 @@
         <v>43</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
@@ -13318,7 +13313,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -13344,14 +13339,14 @@
         <v>178</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>43</v>
@@ -13379,11 +13374,11 @@
         <v>116</v>
       </c>
       <c r="X90" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="Y90" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="Y90" t="s" s="2">
-        <v>521</v>
-      </c>
       <c r="Z90" t="s" s="2">
         <v>43</v>
       </c>
@@ -13400,7 +13395,7 @@
         <v>43</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
@@ -13429,7 +13424,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13455,16 +13450,16 @@
         <v>178</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>43</v>
@@ -13492,11 +13487,11 @@
         <v>116</v>
       </c>
       <c r="X91" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="Y91" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="Y91" t="s" s="2">
-        <v>528</v>
-      </c>
       <c r="Z91" t="s" s="2">
         <v>43</v>
       </c>
@@ -13513,7 +13508,7 @@
         <v>43</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
@@ -13542,7 +13537,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13568,14 +13563,14 @@
         <v>311</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>43</v>
@@ -13624,7 +13619,7 @@
         <v>43</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>41</v>
@@ -13653,7 +13648,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13762,7 +13757,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13873,7 +13868,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13986,7 +13981,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -14012,14 +14007,14 @@
         <v>420</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>43</v>
@@ -14068,7 +14063,7 @@
         <v>43</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>50</v>
@@ -14097,7 +14092,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -14123,14 +14118,14 @@
         <v>178</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>43</v>
@@ -14158,11 +14153,11 @@
         <v>116</v>
       </c>
       <c r="X97" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="Y97" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="Y97" t="s" s="2">
-        <v>543</v>
-      </c>
       <c r="Z97" t="s" s="2">
         <v>43</v>
       </c>
@@ -14179,7 +14174,7 @@
         <v>43</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>41</v>
@@ -14208,7 +14203,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -14234,14 +14229,14 @@
         <v>264</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>43</v>
@@ -14290,7 +14285,7 @@
         <v>43</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>41</v>
@@ -14319,7 +14314,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14342,17 +14337,17 @@
         <v>43</v>
       </c>
       <c r="J99" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="K99" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="K99" t="s" s="2">
+      <c r="L99" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>43</v>
@@ -14380,11 +14375,11 @@
         <v>116</v>
       </c>
       <c r="X99" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="Y99" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="Y99" t="s" s="2">
-        <v>554</v>
-      </c>
       <c r="Z99" t="s" s="2">
         <v>43</v>
       </c>
@@ -14401,7 +14396,7 @@
         <v>43</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>50</v>
@@ -14430,7 +14425,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14453,17 +14448,17 @@
         <v>43</v>
       </c>
       <c r="J100" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="K100" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="K100" t="s" s="2">
+      <c r="L100" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>43</v>
@@ -14512,7 +14507,7 @@
         <v>43</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>41</v>
@@ -14541,7 +14536,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14567,14 +14562,14 @@
         <v>420</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>43</v>
@@ -14623,7 +14618,7 @@
         <v>43</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>41</v>
@@ -14652,7 +14647,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14678,16 +14673,16 @@
         <v>311</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="M102" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>43</v>
@@ -14736,7 +14731,7 @@
         <v>43</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>50</v>
@@ -14748,16 +14743,16 @@
         <v>43</v>
       </c>
       <c r="AI102" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL102" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>570</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>43</v>
@@ -14765,7 +14760,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14874,7 +14869,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14985,7 +14980,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -15098,7 +15093,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -15124,16 +15119,16 @@
         <v>430</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="L106" t="s" s="2">
+      <c r="M106" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>43</v>
@@ -15182,7 +15177,7 @@
         <v>43</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>50</v>
@@ -15211,7 +15206,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -15234,17 +15229,17 @@
         <v>51</v>
       </c>
       <c r="J107" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="K107" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="K107" t="s" s="2">
+      <c r="L107" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>582</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>43</v>
@@ -15293,7 +15288,7 @@
         <v>43</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>50</v>
@@ -15322,7 +15317,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15348,16 +15343,16 @@
         <v>52</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="L108" t="s" s="2">
+      <c r="M108" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="M108" t="s" s="2">
+      <c r="N108" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>43</v>
@@ -15406,7 +15401,7 @@
         <v>43</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>41</v>
@@ -15435,7 +15430,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15461,14 +15456,14 @@
         <v>311</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="L109" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>43</v>
@@ -15517,7 +15512,7 @@
         <v>43</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>41</v>
@@ -15546,7 +15541,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15655,7 +15650,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15766,7 +15761,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15879,7 +15874,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15902,19 +15897,19 @@
         <v>43</v>
       </c>
       <c r="J113" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="K113" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="K113" t="s" s="2">
+      <c r="L113" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="L113" t="s" s="2">
+      <c r="M113" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="M113" t="s" s="2">
+      <c r="N113" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>43</v>
@@ -15963,7 +15958,7 @@
         <v>43</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>41</v>
@@ -15992,7 +15987,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -16018,14 +16013,14 @@
         <v>178</v>
       </c>
       <c r="K114" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="L114" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>43</v>
@@ -16053,11 +16048,11 @@
         <v>108</v>
       </c>
       <c r="X114" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="Y114" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="Y114" t="s" s="2">
-        <v>607</v>
-      </c>
       <c r="Z114" t="s" s="2">
         <v>43</v>
       </c>
@@ -16074,7 +16069,7 @@
         <v>43</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>41</v>
@@ -16103,7 +16098,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -16126,17 +16121,17 @@
         <v>43</v>
       </c>
       <c r="J115" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="K115" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="K115" t="s" s="2">
+      <c r="L115" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>43</v>
@@ -16185,7 +16180,7 @@
         <v>43</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>41</v>
@@ -16214,7 +16209,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -16240,14 +16235,14 @@
         <v>311</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="L116" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>615</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>43</v>
@@ -16296,7 +16291,7 @@
         <v>43</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>41</v>
@@ -16325,7 +16320,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16434,7 +16429,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16545,7 +16540,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16658,7 +16653,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16684,14 +16679,14 @@
         <v>420</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="L120" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>43</v>
@@ -16740,7 +16735,7 @@
         <v>43</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>50</v>
@@ -16769,7 +16764,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16795,14 +16790,14 @@
         <v>420</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="L121" t="s" s="2">
         <v>625</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>43</v>
@@ -16851,7 +16846,7 @@
         <v>43</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>41</v>
@@ -16880,7 +16875,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16906,14 +16901,14 @@
         <v>420</v>
       </c>
       <c r="K122" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="L122" t="s" s="2">
         <v>629</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>630</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>43</v>
@@ -16962,7 +16957,7 @@
         <v>43</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>41</v>
@@ -16991,7 +16986,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -17017,14 +17012,14 @@
         <v>420</v>
       </c>
       <c r="K123" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="L123" t="s" s="2">
         <v>633</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>634</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>43</v>
@@ -17073,7 +17068,7 @@
         <v>43</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>41</v>
@@ -17102,7 +17097,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -17128,14 +17123,14 @@
         <v>420</v>
       </c>
       <c r="K124" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="L124" t="s" s="2">
         <v>637</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>638</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>43</v>
@@ -17184,7 +17179,7 @@
         <v>43</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>41</v>
@@ -17213,7 +17208,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -17239,14 +17234,14 @@
         <v>178</v>
       </c>
       <c r="K125" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="L125" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>642</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>43</v>
@@ -17274,11 +17269,11 @@
         <v>116</v>
       </c>
       <c r="X125" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="Y125" t="s" s="2">
         <v>644</v>
       </c>
-      <c r="Y125" t="s" s="2">
-        <v>645</v>
-      </c>
       <c r="Z125" t="s" s="2">
         <v>43</v>
       </c>
@@ -17295,7 +17290,7 @@
         <v>43</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>41</v>
@@ -17324,7 +17319,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17350,16 +17345,16 @@
         <v>178</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="L126" t="s" s="2">
         <v>647</v>
       </c>
-      <c r="L126" t="s" s="2">
+      <c r="M126" t="s" s="2">
         <v>648</v>
       </c>
-      <c r="M126" t="s" s="2">
+      <c r="N126" t="s" s="2">
         <v>649</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>650</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>43</v>
@@ -17387,11 +17382,11 @@
         <v>116</v>
       </c>
       <c r="X126" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="Y126" t="s" s="2">
         <v>651</v>
       </c>
-      <c r="Y126" t="s" s="2">
-        <v>652</v>
-      </c>
       <c r="Z126" t="s" s="2">
         <v>43</v>
       </c>
@@ -17408,7 +17403,7 @@
         <v>43</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>41</v>
@@ -17437,11 +17432,11 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -17463,16 +17458,16 @@
         <v>178</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="L127" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="L127" t="s" s="2">
+      <c r="M127" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="M127" t="s" s="2">
+      <c r="N127" t="s" s="2">
         <v>657</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>658</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>43</v>
@@ -17500,11 +17495,11 @@
         <v>116</v>
       </c>
       <c r="X127" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="Y127" t="s" s="2">
         <v>659</v>
       </c>
-      <c r="Y127" t="s" s="2">
-        <v>660</v>
-      </c>
       <c r="Z127" t="s" s="2">
         <v>43</v>
       </c>
@@ -17521,7 +17516,7 @@
         <v>43</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>50</v>
@@ -17550,7 +17545,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17576,16 +17571,16 @@
         <v>178</v>
       </c>
       <c r="K128" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="L128" t="s" s="2">
         <v>662</v>
       </c>
-      <c r="L128" t="s" s="2">
+      <c r="M128" t="s" s="2">
         <v>663</v>
       </c>
-      <c r="M128" t="s" s="2">
+      <c r="N128" t="s" s="2">
         <v>664</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>665</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>43</v>
@@ -17613,11 +17608,11 @@
         <v>116</v>
       </c>
       <c r="X128" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="Y128" t="s" s="2">
         <v>666</v>
       </c>
-      <c r="Y128" t="s" s="2">
-        <v>667</v>
-      </c>
       <c r="Z128" t="s" s="2">
         <v>43</v>
       </c>
@@ -17634,7 +17629,7 @@
         <v>43</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>41</v>
@@ -17663,7 +17658,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17689,16 +17684,16 @@
         <v>178</v>
       </c>
       <c r="K129" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="L129" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="L129" t="s" s="2">
+      <c r="M129" t="s" s="2">
         <v>670</v>
       </c>
-      <c r="M129" t="s" s="2">
+      <c r="N129" t="s" s="2">
         <v>671</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>672</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>43</v>
@@ -17726,11 +17721,11 @@
         <v>116</v>
       </c>
       <c r="X129" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="Y129" t="s" s="2">
         <v>673</v>
       </c>
-      <c r="Y129" t="s" s="2">
-        <v>674</v>
-      </c>
       <c r="Z129" t="s" s="2">
         <v>43</v>
       </c>
@@ -17747,7 +17742,7 @@
         <v>43</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>41</v>
@@ -17776,7 +17771,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17799,17 +17794,17 @@
         <v>43</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K130" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="L130" t="s" s="2">
         <v>676</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>677</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>43</v>
@@ -17858,7 +17853,7 @@
         <v>43</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>41</v>
@@ -17887,7 +17882,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17910,17 +17905,17 @@
         <v>43</v>
       </c>
       <c r="J131" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="K131" t="s" s="2">
         <v>680</v>
       </c>
-      <c r="K131" t="s" s="2">
+      <c r="L131" t="s" s="2">
         <v>681</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>682</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>43</v>
@@ -17948,11 +17943,11 @@
         <v>116</v>
       </c>
       <c r="X131" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="Y131" t="s" s="2">
         <v>684</v>
       </c>
-      <c r="Y131" t="s" s="2">
-        <v>685</v>
-      </c>
       <c r="Z131" t="s" s="2">
         <v>43</v>
       </c>
@@ -17969,7 +17964,7 @@
         <v>43</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>41</v>
@@ -17998,7 +17993,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -18021,17 +18016,17 @@
         <v>43</v>
       </c>
       <c r="J132" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="K132" t="s" s="2">
         <v>687</v>
       </c>
-      <c r="K132" t="s" s="2">
+      <c r="L132" t="s" s="2">
         <v>688</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>689</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>43</v>
@@ -18080,7 +18075,7 @@
         <v>43</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>41</v>
@@ -18109,7 +18104,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -18132,17 +18127,17 @@
         <v>43</v>
       </c>
       <c r="J133" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="K133" t="s" s="2">
         <v>692</v>
       </c>
-      <c r="K133" t="s" s="2">
+      <c r="L133" t="s" s="2">
         <v>693</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>694</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>43</v>
@@ -18191,7 +18186,7 @@
         <v>43</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>41</v>
@@ -18220,7 +18215,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -18243,19 +18238,19 @@
         <v>43</v>
       </c>
       <c r="J134" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="K134" t="s" s="2">
         <v>697</v>
       </c>
-      <c r="K134" t="s" s="2">
+      <c r="L134" t="s" s="2">
         <v>698</v>
       </c>
-      <c r="L134" t="s" s="2">
+      <c r="M134" t="s" s="2">
         <v>699</v>
       </c>
-      <c r="M134" t="s" s="2">
+      <c r="N134" t="s" s="2">
         <v>700</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>701</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>43</v>
@@ -18304,7 +18299,7 @@
         <v>43</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>41</v>
@@ -18333,7 +18328,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -18356,19 +18351,19 @@
         <v>43</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="L135" t="s" s="2">
         <v>703</v>
       </c>
-      <c r="L135" t="s" s="2">
+      <c r="M135" t="s" s="2">
         <v>704</v>
       </c>
-      <c r="M135" t="s" s="2">
+      <c r="N135" t="s" s="2">
         <v>705</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>706</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>43</v>
@@ -18417,7 +18412,7 @@
         <v>43</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>41</v>
@@ -18446,7 +18441,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18469,17 +18464,17 @@
         <v>43</v>
       </c>
       <c r="J136" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="K136" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="K136" t="s" s="2">
+      <c r="L136" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>43</v>
@@ -18528,7 +18523,7 @@
         <v>43</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>41</v>
@@ -18557,7 +18552,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -18583,16 +18578,16 @@
         <v>178</v>
       </c>
       <c r="K137" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="L137" t="s" s="2">
         <v>709</v>
       </c>
-      <c r="L137" t="s" s="2">
+      <c r="M137" t="s" s="2">
         <v>710</v>
       </c>
-      <c r="M137" t="s" s="2">
+      <c r="N137" t="s" s="2">
         <v>711</v>
-      </c>
-      <c r="N137" t="s" s="2">
-        <v>712</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>43</v>
@@ -18620,11 +18615,11 @@
         <v>116</v>
       </c>
       <c r="X137" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="Y137" t="s" s="2">
         <v>713</v>
       </c>
-      <c r="Y137" t="s" s="2">
-        <v>714</v>
-      </c>
       <c r="Z137" t="s" s="2">
         <v>43</v>
       </c>
@@ -18641,7 +18636,7 @@
         <v>43</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>41</v>
@@ -18670,7 +18665,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -18696,14 +18691,14 @@
         <v>178</v>
       </c>
       <c r="K138" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="L138" t="s" s="2">
         <v>716</v>
-      </c>
-      <c r="L138" t="s" s="2">
-        <v>717</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>43</v>
@@ -18731,11 +18726,11 @@
         <v>116</v>
       </c>
       <c r="X138" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="Y138" t="s" s="2">
         <v>718</v>
       </c>
-      <c r="Y138" t="s" s="2">
-        <v>719</v>
-      </c>
       <c r="Z138" t="s" s="2">
         <v>43</v>
       </c>
@@ -18752,7 +18747,7 @@
         <v>43</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>41</v>
@@ -18781,7 +18776,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -18804,17 +18799,17 @@
         <v>43</v>
       </c>
       <c r="J139" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="K139" t="s" s="2">
         <v>721</v>
       </c>
-      <c r="K139" t="s" s="2">
+      <c r="L139" t="s" s="2">
         <v>722</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>723</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>43</v>
@@ -18863,7 +18858,7 @@
         <v>43</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>41</v>
@@ -18892,7 +18887,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18918,14 +18913,14 @@
         <v>420</v>
       </c>
       <c r="K140" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="L140" t="s" s="2">
         <v>726</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>727</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>43</v>
@@ -18974,7 +18969,7 @@
         <v>43</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>41</v>
@@ -19003,7 +18998,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -19029,14 +19024,14 @@
         <v>311</v>
       </c>
       <c r="K141" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="L141" t="s" s="2">
         <v>730</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>731</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>43</v>
@@ -19085,7 +19080,7 @@
         <v>43</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>41</v>
@@ -19114,7 +19109,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -19223,7 +19218,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -19334,7 +19329,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -19447,7 +19442,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19473,16 +19468,16 @@
         <v>178</v>
       </c>
       <c r="K145" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="L145" t="s" s="2">
         <v>737</v>
       </c>
-      <c r="L145" t="s" s="2">
+      <c r="M145" t="s" s="2">
         <v>738</v>
       </c>
-      <c r="M145" t="s" s="2">
+      <c r="N145" t="s" s="2">
         <v>739</v>
-      </c>
-      <c r="N145" t="s" s="2">
-        <v>740</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>43</v>
@@ -19511,7 +19506,7 @@
       </c>
       <c r="X145" s="2"/>
       <c r="Y145" t="s" s="2">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="Z145" t="s" s="2">
         <v>43</v>
@@ -19529,7 +19524,7 @@
         <v>43</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>50</v>
@@ -19558,7 +19553,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19584,16 +19579,16 @@
         <v>178</v>
       </c>
       <c r="K146" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="L146" t="s" s="2">
         <v>743</v>
       </c>
-      <c r="L146" t="s" s="2">
+      <c r="M146" t="s" s="2">
         <v>744</v>
       </c>
-      <c r="M146" t="s" s="2">
+      <c r="N146" t="s" s="2">
         <v>745</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>746</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>43</v>
@@ -19621,11 +19616,11 @@
         <v>116</v>
       </c>
       <c r="X146" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="Y146" t="s" s="2">
         <v>747</v>
       </c>
-      <c r="Y146" t="s" s="2">
-        <v>748</v>
-      </c>
       <c r="Z146" t="s" s="2">
         <v>43</v>
       </c>
@@ -19642,7 +19637,7 @@
         <v>43</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>41</v>
@@ -19671,7 +19666,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19694,19 +19689,19 @@
         <v>43</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K147" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="L147" t="s" s="2">
         <v>750</v>
       </c>
-      <c r="L147" t="s" s="2">
+      <c r="M147" t="s" s="2">
         <v>751</v>
       </c>
-      <c r="M147" t="s" s="2">
+      <c r="N147" t="s" s="2">
         <v>752</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>753</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>43</v>
@@ -19755,7 +19750,7 @@
         <v>43</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>41</v>
@@ -19784,7 +19779,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19807,19 +19802,19 @@
         <v>43</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="K148" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="L148" t="s" s="2">
         <v>755</v>
       </c>
-      <c r="L148" t="s" s="2">
+      <c r="M148" t="s" s="2">
         <v>756</v>
       </c>
-      <c r="M148" t="s" s="2">
+      <c r="N148" t="s" s="2">
         <v>757</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>758</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>43</v>
@@ -19868,7 +19863,7 @@
         <v>43</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>41</v>
@@ -19897,7 +19892,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19923,10 +19918,10 @@
         <v>311</v>
       </c>
       <c r="K149" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="L149" t="s" s="2">
         <v>760</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>761</v>
       </c>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
@@ -19977,7 +19972,7 @@
         <v>43</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>41</v>
@@ -20006,7 +20001,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -20115,7 +20110,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -20226,7 +20221,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -20339,7 +20334,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20365,14 +20360,14 @@
         <v>420</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>43</v>
@@ -20421,7 +20416,7 @@
         <v>43</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>50</v>
@@ -20450,7 +20445,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20476,14 +20471,14 @@
         <v>178</v>
       </c>
       <c r="K154" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="L154" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="L154" t="s" s="2">
-        <v>642</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>43</v>
@@ -20511,11 +20506,11 @@
         <v>116</v>
       </c>
       <c r="X154" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="Y154" t="s" s="2">
         <v>644</v>
       </c>
-      <c r="Y154" t="s" s="2">
-        <v>645</v>
-      </c>
       <c r="Z154" t="s" s="2">
         <v>43</v>
       </c>
@@ -20532,7 +20527,7 @@
         <v>43</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>41</v>
@@ -20561,7 +20556,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20587,16 +20582,16 @@
         <v>178</v>
       </c>
       <c r="K155" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="L155" t="s" s="2">
         <v>647</v>
       </c>
-      <c r="L155" t="s" s="2">
-        <v>648</v>
-      </c>
       <c r="M155" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>43</v>
@@ -20624,11 +20619,11 @@
         <v>116</v>
       </c>
       <c r="X155" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="Y155" t="s" s="2">
         <v>651</v>
       </c>
-      <c r="Y155" t="s" s="2">
-        <v>652</v>
-      </c>
       <c r="Z155" t="s" s="2">
         <v>43</v>
       </c>
@@ -20645,7 +20640,7 @@
         <v>43</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>41</v>
@@ -20674,11 +20669,11 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -20700,16 +20695,16 @@
         <v>178</v>
       </c>
       <c r="K156" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="L156" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="L156" t="s" s="2">
+      <c r="M156" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="M156" t="s" s="2">
+      <c r="N156" t="s" s="2">
         <v>657</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>658</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>43</v>
@@ -20737,11 +20732,11 @@
         <v>116</v>
       </c>
       <c r="X156" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="Y156" t="s" s="2">
         <v>659</v>
       </c>
-      <c r="Y156" t="s" s="2">
-        <v>660</v>
-      </c>
       <c r="Z156" t="s" s="2">
         <v>43</v>
       </c>
@@ -20758,7 +20753,7 @@
         <v>43</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>50</v>
@@ -20787,7 +20782,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20813,16 +20808,16 @@
         <v>178</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L157" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="M157" t="s" s="2">
         <v>663</v>
       </c>
-      <c r="M157" t="s" s="2">
+      <c r="N157" t="s" s="2">
         <v>664</v>
-      </c>
-      <c r="N157" t="s" s="2">
-        <v>665</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>43</v>
@@ -20850,11 +20845,11 @@
         <v>116</v>
       </c>
       <c r="X157" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="Y157" t="s" s="2">
         <v>666</v>
       </c>
-      <c r="Y157" t="s" s="2">
-        <v>667</v>
-      </c>
       <c r="Z157" t="s" s="2">
         <v>43</v>
       </c>
@@ -20871,7 +20866,7 @@
         <v>43</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>41</v>
@@ -20900,7 +20895,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20926,16 +20921,16 @@
         <v>178</v>
       </c>
       <c r="K158" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="L158" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="L158" t="s" s="2">
+      <c r="M158" t="s" s="2">
         <v>670</v>
       </c>
-      <c r="M158" t="s" s="2">
+      <c r="N158" t="s" s="2">
         <v>671</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>672</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>43</v>
@@ -20963,11 +20958,11 @@
         <v>116</v>
       </c>
       <c r="X158" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="Y158" t="s" s="2">
         <v>673</v>
       </c>
-      <c r="Y158" t="s" s="2">
-        <v>674</v>
-      </c>
       <c r="Z158" t="s" s="2">
         <v>43</v>
       </c>
@@ -20984,7 +20979,7 @@
         <v>43</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>41</v>
@@ -21013,7 +21008,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -21036,17 +21031,17 @@
         <v>43</v>
       </c>
       <c r="J159" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="K159" t="s" s="2">
         <v>687</v>
       </c>
-      <c r="K159" t="s" s="2">
+      <c r="L159" t="s" s="2">
         <v>688</v>
-      </c>
-      <c r="L159" t="s" s="2">
-        <v>689</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>43</v>
@@ -21095,7 +21090,7 @@
         <v>43</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>41</v>
@@ -21124,7 +21119,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -21147,17 +21142,17 @@
         <v>43</v>
       </c>
       <c r="J160" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="K160" t="s" s="2">
         <v>692</v>
       </c>
-      <c r="K160" t="s" s="2">
+      <c r="L160" t="s" s="2">
         <v>693</v>
-      </c>
-      <c r="L160" t="s" s="2">
-        <v>694</v>
       </c>
       <c r="M160" s="2"/>
       <c r="N160" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>43</v>
@@ -21206,7 +21201,7 @@
         <v>43</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>41</v>
@@ -21235,7 +21230,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -21258,19 +21253,19 @@
         <v>43</v>
       </c>
       <c r="J161" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="K161" t="s" s="2">
         <v>697</v>
       </c>
-      <c r="K161" t="s" s="2">
+      <c r="L161" t="s" s="2">
         <v>698</v>
       </c>
-      <c r="L161" t="s" s="2">
+      <c r="M161" t="s" s="2">
         <v>699</v>
       </c>
-      <c r="M161" t="s" s="2">
+      <c r="N161" t="s" s="2">
         <v>700</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>701</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>43</v>
@@ -21319,7 +21314,7 @@
         <v>43</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>41</v>
@@ -21348,7 +21343,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21371,19 +21366,19 @@
         <v>43</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K162" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="L162" t="s" s="2">
         <v>703</v>
       </c>
-      <c r="L162" t="s" s="2">
+      <c r="M162" t="s" s="2">
         <v>704</v>
       </c>
-      <c r="M162" t="s" s="2">
+      <c r="N162" t="s" s="2">
         <v>705</v>
-      </c>
-      <c r="N162" t="s" s="2">
-        <v>706</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>43</v>
@@ -21432,7 +21427,7 @@
         <v>43</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>41</v>
@@ -21461,7 +21456,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21484,17 +21479,17 @@
         <v>43</v>
       </c>
       <c r="J163" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="K163" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="K163" t="s" s="2">
+      <c r="L163" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="L163" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="M163" s="2"/>
       <c r="N163" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>43</v>
@@ -21543,7 +21538,7 @@
         <v>43</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>41</v>
@@ -21572,7 +21567,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21598,14 +21593,14 @@
         <v>420</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>43</v>
@@ -21654,7 +21649,7 @@
         <v>43</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>41</v>
@@ -21683,7 +21678,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21709,10 +21704,10 @@
         <v>43</v>
       </c>
       <c r="K165" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="L165" t="s" s="2">
         <v>782</v>
-      </c>
-      <c r="L165" t="s" s="2">
-        <v>783</v>
       </c>
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
@@ -21763,7 +21758,7 @@
         <v>43</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>41</v>
@@ -21792,7 +21787,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21818,10 +21813,10 @@
         <v>311</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
@@ -21872,7 +21867,7 @@
         <v>43</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>41</v>
@@ -21901,7 +21896,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -22010,7 +22005,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -22121,7 +22116,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -22234,7 +22229,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -22260,14 +22255,14 @@
         <v>420</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>43</v>
@@ -22316,7 +22311,7 @@
         <v>43</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>50</v>
@@ -22345,7 +22340,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -22371,14 +22366,14 @@
         <v>178</v>
       </c>
       <c r="K171" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="L171" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="L171" t="s" s="2">
-        <v>642</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>43</v>
@@ -22406,11 +22401,11 @@
         <v>116</v>
       </c>
       <c r="X171" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="Y171" t="s" s="2">
         <v>644</v>
       </c>
-      <c r="Y171" t="s" s="2">
-        <v>645</v>
-      </c>
       <c r="Z171" t="s" s="2">
         <v>43</v>
       </c>
@@ -22427,7 +22422,7 @@
         <v>43</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>41</v>
@@ -22456,7 +22451,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22482,16 +22477,16 @@
         <v>178</v>
       </c>
       <c r="K172" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="L172" t="s" s="2">
         <v>647</v>
       </c>
-      <c r="L172" t="s" s="2">
+      <c r="M172" t="s" s="2">
         <v>648</v>
       </c>
-      <c r="M172" t="s" s="2">
+      <c r="N172" t="s" s="2">
         <v>649</v>
-      </c>
-      <c r="N172" t="s" s="2">
-        <v>650</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>43</v>
@@ -22519,11 +22514,11 @@
         <v>116</v>
       </c>
       <c r="X172" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="Y172" t="s" s="2">
         <v>651</v>
       </c>
-      <c r="Y172" t="s" s="2">
-        <v>652</v>
-      </c>
       <c r="Z172" t="s" s="2">
         <v>43</v>
       </c>
@@ -22540,7 +22535,7 @@
         <v>43</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>41</v>
@@ -22569,11 +22564,11 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
@@ -22595,16 +22590,16 @@
         <v>178</v>
       </c>
       <c r="K173" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="L173" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="L173" t="s" s="2">
+      <c r="M173" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="M173" t="s" s="2">
+      <c r="N173" t="s" s="2">
         <v>657</v>
-      </c>
-      <c r="N173" t="s" s="2">
-        <v>658</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>43</v>
@@ -22632,11 +22627,11 @@
         <v>116</v>
       </c>
       <c r="X173" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="Y173" t="s" s="2">
         <v>659</v>
       </c>
-      <c r="Y173" t="s" s="2">
-        <v>660</v>
-      </c>
       <c r="Z173" t="s" s="2">
         <v>43</v>
       </c>
@@ -22653,7 +22648,7 @@
         <v>43</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>50</v>
@@ -22682,7 +22677,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22708,16 +22703,16 @@
         <v>178</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>43</v>
@@ -22745,11 +22740,11 @@
         <v>116</v>
       </c>
       <c r="X174" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="Y174" t="s" s="2">
         <v>666</v>
       </c>
-      <c r="Y174" t="s" s="2">
-        <v>667</v>
-      </c>
       <c r="Z174" t="s" s="2">
         <v>43</v>
       </c>
@@ -22766,7 +22761,7 @@
         <v>43</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>41</v>
@@ -22795,7 +22790,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22821,16 +22816,16 @@
         <v>178</v>
       </c>
       <c r="K175" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="L175" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="L175" t="s" s="2">
+      <c r="M175" t="s" s="2">
         <v>670</v>
       </c>
-      <c r="M175" t="s" s="2">
+      <c r="N175" t="s" s="2">
         <v>671</v>
-      </c>
-      <c r="N175" t="s" s="2">
-        <v>672</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>43</v>
@@ -22858,11 +22853,11 @@
         <v>116</v>
       </c>
       <c r="X175" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="Y175" t="s" s="2">
         <v>673</v>
       </c>
-      <c r="Y175" t="s" s="2">
-        <v>674</v>
-      </c>
       <c r="Z175" t="s" s="2">
         <v>43</v>
       </c>
@@ -22879,7 +22874,7 @@
         <v>43</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>41</v>
@@ -22908,7 +22903,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -22931,17 +22926,17 @@
         <v>43</v>
       </c>
       <c r="J176" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="K176" t="s" s="2">
         <v>687</v>
       </c>
-      <c r="K176" t="s" s="2">
+      <c r="L176" t="s" s="2">
         <v>688</v>
-      </c>
-      <c r="L176" t="s" s="2">
-        <v>689</v>
       </c>
       <c r="M176" s="2"/>
       <c r="N176" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>43</v>
@@ -22990,7 +22985,7 @@
         <v>43</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>41</v>
@@ -23019,7 +23014,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -23042,17 +23037,17 @@
         <v>43</v>
       </c>
       <c r="J177" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="K177" t="s" s="2">
         <v>692</v>
       </c>
-      <c r="K177" t="s" s="2">
+      <c r="L177" t="s" s="2">
         <v>693</v>
-      </c>
-      <c r="L177" t="s" s="2">
-        <v>694</v>
       </c>
       <c r="M177" s="2"/>
       <c r="N177" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>43</v>
@@ -23101,7 +23096,7 @@
         <v>43</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>41</v>
@@ -23130,7 +23125,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23153,19 +23148,19 @@
         <v>43</v>
       </c>
       <c r="J178" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="K178" t="s" s="2">
         <v>697</v>
       </c>
-      <c r="K178" t="s" s="2">
+      <c r="L178" t="s" s="2">
         <v>698</v>
       </c>
-      <c r="L178" t="s" s="2">
+      <c r="M178" t="s" s="2">
         <v>699</v>
       </c>
-      <c r="M178" t="s" s="2">
+      <c r="N178" t="s" s="2">
         <v>700</v>
-      </c>
-      <c r="N178" t="s" s="2">
-        <v>701</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>43</v>
@@ -23214,7 +23209,7 @@
         <v>43</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>41</v>
@@ -23243,7 +23238,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -23266,19 +23261,19 @@
         <v>43</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K179" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="L179" t="s" s="2">
         <v>703</v>
       </c>
-      <c r="L179" t="s" s="2">
+      <c r="M179" t="s" s="2">
         <v>704</v>
       </c>
-      <c r="M179" t="s" s="2">
+      <c r="N179" t="s" s="2">
         <v>705</v>
-      </c>
-      <c r="N179" t="s" s="2">
-        <v>706</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>43</v>
@@ -23327,7 +23322,7 @@
         <v>43</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>41</v>
@@ -23356,7 +23351,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23379,17 +23374,17 @@
         <v>43</v>
       </c>
       <c r="J180" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="K180" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="K180" t="s" s="2">
+      <c r="L180" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="L180" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="M180" s="2"/>
       <c r="N180" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>43</v>
@@ -23438,7 +23433,7 @@
         <v>43</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>41</v>
@@ -23467,7 +23462,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -23493,14 +23488,14 @@
         <v>420</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="M181" s="2"/>
       <c r="N181" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="O181" t="s" s="2">
         <v>43</v>
@@ -23549,7 +23544,7 @@
         <v>43</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>41</v>
@@ -23578,7 +23573,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23604,10 +23599,10 @@
         <v>43</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="M182" s="2"/>
       <c r="N182" s="2"/>
@@ -23658,7 +23653,7 @@
         <v>43</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>41</v>
@@ -23687,7 +23682,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -23713,14 +23708,14 @@
         <v>311</v>
       </c>
       <c r="K183" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="L183" t="s" s="2">
         <v>805</v>
-      </c>
-      <c r="L183" t="s" s="2">
-        <v>806</v>
       </c>
       <c r="M183" s="2"/>
       <c r="N183" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="O183" t="s" s="2">
         <v>43</v>
@@ -23769,7 +23764,7 @@
         <v>43</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>41</v>
@@ -23798,7 +23793,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23907,7 +23902,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -24018,7 +24013,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -24131,7 +24126,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -24157,14 +24152,14 @@
         <v>420</v>
       </c>
       <c r="K187" t="s" s="2">
+        <v>811</v>
+      </c>
+      <c r="L187" t="s" s="2">
         <v>812</v>
-      </c>
-      <c r="L187" t="s" s="2">
-        <v>813</v>
       </c>
       <c r="M187" s="2"/>
       <c r="N187" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>43</v>
@@ -24213,7 +24208,7 @@
         <v>43</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>41</v>
@@ -24242,7 +24237,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -24268,14 +24263,14 @@
         <v>420</v>
       </c>
       <c r="K188" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="L188" t="s" s="2">
         <v>816</v>
-      </c>
-      <c r="L188" t="s" s="2">
-        <v>817</v>
       </c>
       <c r="M188" s="2"/>
       <c r="N188" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>43</v>
@@ -24324,7 +24319,7 @@
         <v>43</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>41</v>
@@ -24353,7 +24348,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -24379,14 +24374,14 @@
         <v>420</v>
       </c>
       <c r="K189" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="L189" t="s" s="2">
         <v>820</v>
-      </c>
-      <c r="L189" t="s" s="2">
-        <v>821</v>
       </c>
       <c r="M189" s="2"/>
       <c r="N189" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>43</v>
@@ -24435,7 +24430,7 @@
         <v>43</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>41</v>
@@ -24464,7 +24459,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -24487,17 +24482,17 @@
         <v>43</v>
       </c>
       <c r="J190" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="K190" t="s" s="2">
         <v>824</v>
       </c>
-      <c r="K190" t="s" s="2">
+      <c r="L190" t="s" s="2">
         <v>825</v>
-      </c>
-      <c r="L190" t="s" s="2">
-        <v>826</v>
       </c>
       <c r="M190" s="2"/>
       <c r="N190" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>43</v>
@@ -24546,7 +24541,7 @@
         <v>43</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>41</v>
@@ -24575,11 +24570,11 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -24601,16 +24596,16 @@
         <v>178</v>
       </c>
       <c r="K191" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="L191" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="L191" t="s" s="2">
+      <c r="M191" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="M191" t="s" s="2">
+      <c r="N191" t="s" s="2">
         <v>657</v>
-      </c>
-      <c r="N191" t="s" s="2">
-        <v>658</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>43</v>
@@ -24638,11 +24633,11 @@
         <v>116</v>
       </c>
       <c r="X191" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="Y191" t="s" s="2">
         <v>659</v>
       </c>
-      <c r="Y191" t="s" s="2">
-        <v>660</v>
-      </c>
       <c r="Z191" t="s" s="2">
         <v>43</v>
       </c>
@@ -24659,7 +24654,7 @@
         <v>43</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>50</v>
@@ -24688,7 +24683,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24714,16 +24709,16 @@
         <v>178</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L192" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="M192" t="s" s="2">
         <v>663</v>
       </c>
-      <c r="M192" t="s" s="2">
+      <c r="N192" t="s" s="2">
         <v>664</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>665</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>43</v>
@@ -24751,11 +24746,11 @@
         <v>116</v>
       </c>
       <c r="X192" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="Y192" t="s" s="2">
         <v>666</v>
       </c>
-      <c r="Y192" t="s" s="2">
-        <v>667</v>
-      </c>
       <c r="Z192" t="s" s="2">
         <v>43</v>
       </c>
@@ -24772,7 +24767,7 @@
         <v>43</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>41</v>
@@ -24801,7 +24796,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -24827,16 +24822,16 @@
         <v>178</v>
       </c>
       <c r="K193" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="L193" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="L193" t="s" s="2">
+      <c r="M193" t="s" s="2">
         <v>670</v>
       </c>
-      <c r="M193" t="s" s="2">
+      <c r="N193" t="s" s="2">
         <v>671</v>
-      </c>
-      <c r="N193" t="s" s="2">
-        <v>672</v>
       </c>
       <c r="O193" t="s" s="2">
         <v>43</v>
@@ -24864,11 +24859,11 @@
         <v>116</v>
       </c>
       <c r="X193" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="Y193" t="s" s="2">
         <v>673</v>
       </c>
-      <c r="Y193" t="s" s="2">
-        <v>674</v>
-      </c>
       <c r="Z193" t="s" s="2">
         <v>43</v>
       </c>
@@ -24885,7 +24880,7 @@
         <v>43</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>41</v>
@@ -24914,7 +24909,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -24937,17 +24932,17 @@
         <v>43</v>
       </c>
       <c r="J194" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K194" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="L194" t="s" s="2">
         <v>676</v>
-      </c>
-      <c r="L194" t="s" s="2">
-        <v>677</v>
       </c>
       <c r="M194" s="2"/>
       <c r="N194" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="O194" t="s" s="2">
         <v>43</v>
@@ -24996,7 +24991,7 @@
         <v>43</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>41</v>
@@ -25025,7 +25020,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -25048,17 +25043,17 @@
         <v>43</v>
       </c>
       <c r="J195" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="K195" t="s" s="2">
         <v>680</v>
       </c>
-      <c r="K195" t="s" s="2">
+      <c r="L195" t="s" s="2">
         <v>681</v>
-      </c>
-      <c r="L195" t="s" s="2">
-        <v>682</v>
       </c>
       <c r="M195" s="2"/>
       <c r="N195" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O195" t="s" s="2">
         <v>43</v>
@@ -25086,11 +25081,11 @@
         <v>116</v>
       </c>
       <c r="X195" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="Y195" t="s" s="2">
         <v>684</v>
       </c>
-      <c r="Y195" t="s" s="2">
-        <v>685</v>
-      </c>
       <c r="Z195" t="s" s="2">
         <v>43</v>
       </c>
@@ -25107,7 +25102,7 @@
         <v>43</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>41</v>
@@ -25136,7 +25131,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -25159,17 +25154,17 @@
         <v>43</v>
       </c>
       <c r="J196" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="K196" t="s" s="2">
         <v>687</v>
       </c>
-      <c r="K196" t="s" s="2">
+      <c r="L196" t="s" s="2">
         <v>688</v>
-      </c>
-      <c r="L196" t="s" s="2">
-        <v>689</v>
       </c>
       <c r="M196" s="2"/>
       <c r="N196" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>43</v>
@@ -25218,7 +25213,7 @@
         <v>43</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>41</v>
@@ -25247,7 +25242,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -25270,17 +25265,17 @@
         <v>43</v>
       </c>
       <c r="J197" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="K197" t="s" s="2">
         <v>692</v>
       </c>
-      <c r="K197" t="s" s="2">
+      <c r="L197" t="s" s="2">
         <v>693</v>
-      </c>
-      <c r="L197" t="s" s="2">
-        <v>694</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>43</v>
@@ -25329,7 +25324,7 @@
         <v>43</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>41</v>
@@ -25358,7 +25353,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25381,19 +25376,19 @@
         <v>43</v>
       </c>
       <c r="J198" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="K198" t="s" s="2">
         <v>697</v>
       </c>
-      <c r="K198" t="s" s="2">
+      <c r="L198" t="s" s="2">
         <v>698</v>
       </c>
-      <c r="L198" t="s" s="2">
+      <c r="M198" t="s" s="2">
         <v>699</v>
       </c>
-      <c r="M198" t="s" s="2">
+      <c r="N198" t="s" s="2">
         <v>700</v>
-      </c>
-      <c r="N198" t="s" s="2">
-        <v>701</v>
       </c>
       <c r="O198" t="s" s="2">
         <v>43</v>
@@ -25442,7 +25437,7 @@
         <v>43</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>41</v>
@@ -25471,7 +25466,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25494,19 +25489,19 @@
         <v>43</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K199" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="L199" t="s" s="2">
         <v>703</v>
       </c>
-      <c r="L199" t="s" s="2">
+      <c r="M199" t="s" s="2">
         <v>704</v>
       </c>
-      <c r="M199" t="s" s="2">
+      <c r="N199" t="s" s="2">
         <v>705</v>
-      </c>
-      <c r="N199" t="s" s="2">
-        <v>706</v>
       </c>
       <c r="O199" t="s" s="2">
         <v>43</v>
@@ -25555,7 +25550,7 @@
         <v>43</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>41</v>
@@ -25584,7 +25579,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -25610,16 +25605,16 @@
         <v>178</v>
       </c>
       <c r="K200" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="L200" t="s" s="2">
         <v>709</v>
       </c>
-      <c r="L200" t="s" s="2">
-        <v>710</v>
-      </c>
       <c r="M200" t="s" s="2">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>43</v>
@@ -25647,11 +25642,11 @@
         <v>116</v>
       </c>
       <c r="X200" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="Y200" t="s" s="2">
         <v>713</v>
       </c>
-      <c r="Y200" t="s" s="2">
-        <v>714</v>
-      </c>
       <c r="Z200" t="s" s="2">
         <v>43</v>
       </c>
@@ -25668,7 +25663,7 @@
         <v>43</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>41</v>
@@ -25697,7 +25692,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -25723,14 +25718,14 @@
         <v>178</v>
       </c>
       <c r="K201" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="L201" t="s" s="2">
         <v>716</v>
-      </c>
-      <c r="L201" t="s" s="2">
-        <v>717</v>
       </c>
       <c r="M201" s="2"/>
       <c r="N201" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="O201" t="s" s="2">
         <v>43</v>
@@ -25758,11 +25753,11 @@
         <v>116</v>
       </c>
       <c r="X201" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="Y201" t="s" s="2">
         <v>718</v>
       </c>
-      <c r="Y201" t="s" s="2">
-        <v>719</v>
-      </c>
       <c r="Z201" t="s" s="2">
         <v>43</v>
       </c>
@@ -25779,7 +25774,7 @@
         <v>43</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>41</v>
@@ -25808,7 +25803,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -25834,14 +25829,14 @@
         <v>420</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="M202" s="2"/>
       <c r="N202" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="O202" t="s" s="2">
         <v>43</v>
@@ -25890,7 +25885,7 @@
         <v>43</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>41</v>
@@ -25919,7 +25914,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -25945,10 +25940,10 @@
         <v>43</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="M203" s="2"/>
       <c r="N203" s="2"/>
@@ -25999,7 +25994,7 @@
         <v>43</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>41</v>
@@ -26028,7 +26023,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -26054,10 +26049,10 @@
         <v>311</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" s="2"/>
@@ -26108,7 +26103,7 @@
         <v>43</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>41</v>
@@ -26137,7 +26132,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -26246,7 +26241,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26357,7 +26352,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -26470,11 +26465,11 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
@@ -26496,16 +26491,16 @@
         <v>178</v>
       </c>
       <c r="K208" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="L208" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="L208" t="s" s="2">
+      <c r="M208" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="M208" t="s" s="2">
+      <c r="N208" t="s" s="2">
         <v>657</v>
-      </c>
-      <c r="N208" t="s" s="2">
-        <v>658</v>
       </c>
       <c r="O208" t="s" s="2">
         <v>43</v>
@@ -26533,11 +26528,11 @@
         <v>116</v>
       </c>
       <c r="X208" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="Y208" t="s" s="2">
         <v>659</v>
       </c>
-      <c r="Y208" t="s" s="2">
-        <v>660</v>
-      </c>
       <c r="Z208" t="s" s="2">
         <v>43</v>
       </c>
@@ -26554,7 +26549,7 @@
         <v>43</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>50</v>
@@ -26583,7 +26578,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -26609,16 +26604,16 @@
         <v>178</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L209" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="M209" t="s" s="2">
         <v>663</v>
       </c>
-      <c r="M209" t="s" s="2">
+      <c r="N209" t="s" s="2">
         <v>664</v>
-      </c>
-      <c r="N209" t="s" s="2">
-        <v>665</v>
       </c>
       <c r="O209" t="s" s="2">
         <v>43</v>
@@ -26646,11 +26641,11 @@
         <v>116</v>
       </c>
       <c r="X209" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="Y209" t="s" s="2">
         <v>666</v>
       </c>
-      <c r="Y209" t="s" s="2">
-        <v>667</v>
-      </c>
       <c r="Z209" t="s" s="2">
         <v>43</v>
       </c>
@@ -26667,7 +26662,7 @@
         <v>43</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>41</v>
@@ -26696,7 +26691,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -26719,17 +26714,17 @@
         <v>43</v>
       </c>
       <c r="J210" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="K210" t="s" s="2">
         <v>687</v>
       </c>
-      <c r="K210" t="s" s="2">
+      <c r="L210" t="s" s="2">
         <v>688</v>
-      </c>
-      <c r="L210" t="s" s="2">
-        <v>689</v>
       </c>
       <c r="M210" s="2"/>
       <c r="N210" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>43</v>
@@ -26778,7 +26773,7 @@
         <v>43</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>41</v>
@@ -26807,7 +26802,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -26830,17 +26825,17 @@
         <v>43</v>
       </c>
       <c r="J211" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="K211" t="s" s="2">
         <v>692</v>
       </c>
-      <c r="K211" t="s" s="2">
+      <c r="L211" t="s" s="2">
         <v>693</v>
-      </c>
-      <c r="L211" t="s" s="2">
-        <v>694</v>
       </c>
       <c r="M211" s="2"/>
       <c r="N211" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="O211" t="s" s="2">
         <v>43</v>
@@ -26889,7 +26884,7 @@
         <v>43</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>41</v>
@@ -26918,7 +26913,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -26941,19 +26936,19 @@
         <v>43</v>
       </c>
       <c r="J212" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="K212" t="s" s="2">
         <v>697</v>
       </c>
-      <c r="K212" t="s" s="2">
+      <c r="L212" t="s" s="2">
         <v>698</v>
       </c>
-      <c r="L212" t="s" s="2">
+      <c r="M212" t="s" s="2">
         <v>699</v>
       </c>
-      <c r="M212" t="s" s="2">
+      <c r="N212" t="s" s="2">
         <v>700</v>
-      </c>
-      <c r="N212" t="s" s="2">
-        <v>701</v>
       </c>
       <c r="O212" t="s" s="2">
         <v>43</v>
@@ -27002,7 +26997,7 @@
         <v>43</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>41</v>
@@ -27031,7 +27026,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -27054,19 +27049,19 @@
         <v>43</v>
       </c>
       <c r="J213" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K213" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="L213" t="s" s="2">
         <v>703</v>
       </c>
-      <c r="L213" t="s" s="2">
+      <c r="M213" t="s" s="2">
         <v>704</v>
       </c>
-      <c r="M213" t="s" s="2">
+      <c r="N213" t="s" s="2">
         <v>705</v>
-      </c>
-      <c r="N213" t="s" s="2">
-        <v>706</v>
       </c>
       <c r="O213" t="s" s="2">
         <v>43</v>
@@ -27115,7 +27110,7 @@
         <v>43</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AF213" t="s" s="2">
         <v>41</v>
@@ -27144,7 +27139,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -27170,14 +27165,14 @@
         <v>420</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="M214" s="2"/>
       <c r="N214" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="O214" t="s" s="2">
         <v>43</v>
@@ -27226,7 +27221,7 @@
         <v>43</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>41</v>
@@ -27255,7 +27250,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -27281,10 +27276,10 @@
         <v>43</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="M215" s="2"/>
       <c r="N215" s="2"/>
@@ -27335,7 +27330,7 @@
         <v>43</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="AF215" t="s" s="2">
         <v>41</v>
@@ -27364,7 +27359,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -27390,10 +27385,10 @@
         <v>311</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="M216" s="2"/>
       <c r="N216" s="2"/>
@@ -27444,7 +27439,7 @@
         <v>43</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>41</v>
@@ -27473,7 +27468,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -27582,7 +27577,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -27693,7 +27688,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -27806,11 +27801,11 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" t="s" s="2">
@@ -27832,16 +27827,16 @@
         <v>178</v>
       </c>
       <c r="K220" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="L220" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="L220" t="s" s="2">
+      <c r="M220" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="M220" t="s" s="2">
+      <c r="N220" t="s" s="2">
         <v>657</v>
-      </c>
-      <c r="N220" t="s" s="2">
-        <v>658</v>
       </c>
       <c r="O220" t="s" s="2">
         <v>43</v>
@@ -27869,11 +27864,11 @@
         <v>116</v>
       </c>
       <c r="X220" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="Y220" t="s" s="2">
         <v>659</v>
       </c>
-      <c r="Y220" t="s" s="2">
-        <v>660</v>
-      </c>
       <c r="Z220" t="s" s="2">
         <v>43</v>
       </c>
@@ -27890,7 +27885,7 @@
         <v>43</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="AF220" t="s" s="2">
         <v>50</v>
@@ -27919,7 +27914,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -27945,16 +27940,16 @@
         <v>178</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L221" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="M221" t="s" s="2">
         <v>663</v>
       </c>
-      <c r="M221" t="s" s="2">
+      <c r="N221" t="s" s="2">
         <v>664</v>
-      </c>
-      <c r="N221" t="s" s="2">
-        <v>665</v>
       </c>
       <c r="O221" t="s" s="2">
         <v>43</v>
@@ -27982,11 +27977,11 @@
         <v>116</v>
       </c>
       <c r="X221" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="Y221" t="s" s="2">
         <v>666</v>
       </c>
-      <c r="Y221" t="s" s="2">
-        <v>667</v>
-      </c>
       <c r="Z221" t="s" s="2">
         <v>43</v>
       </c>
@@ -28003,7 +27998,7 @@
         <v>43</v>
       </c>
       <c r="AE221" t="s" s="2">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="AF221" t="s" s="2">
         <v>41</v>
@@ -28032,7 +28027,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -28055,17 +28050,17 @@
         <v>43</v>
       </c>
       <c r="J222" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="K222" t="s" s="2">
         <v>687</v>
       </c>
-      <c r="K222" t="s" s="2">
+      <c r="L222" t="s" s="2">
         <v>688</v>
-      </c>
-      <c r="L222" t="s" s="2">
-        <v>689</v>
       </c>
       <c r="M222" s="2"/>
       <c r="N222" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="O222" t="s" s="2">
         <v>43</v>
@@ -28114,7 +28109,7 @@
         <v>43</v>
       </c>
       <c r="AE222" t="s" s="2">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="AF222" t="s" s="2">
         <v>41</v>
@@ -28143,7 +28138,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -28166,17 +28161,17 @@
         <v>43</v>
       </c>
       <c r="J223" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="K223" t="s" s="2">
         <v>692</v>
       </c>
-      <c r="K223" t="s" s="2">
+      <c r="L223" t="s" s="2">
         <v>693</v>
-      </c>
-      <c r="L223" t="s" s="2">
-        <v>694</v>
       </c>
       <c r="M223" s="2"/>
       <c r="N223" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="O223" t="s" s="2">
         <v>43</v>
@@ -28225,7 +28220,7 @@
         <v>43</v>
       </c>
       <c r="AE223" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AF223" t="s" s="2">
         <v>41</v>
@@ -28254,7 +28249,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -28277,19 +28272,19 @@
         <v>43</v>
       </c>
       <c r="J224" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="K224" t="s" s="2">
         <v>697</v>
       </c>
-      <c r="K224" t="s" s="2">
+      <c r="L224" t="s" s="2">
         <v>698</v>
       </c>
-      <c r="L224" t="s" s="2">
+      <c r="M224" t="s" s="2">
         <v>699</v>
       </c>
-      <c r="M224" t="s" s="2">
+      <c r="N224" t="s" s="2">
         <v>700</v>
-      </c>
-      <c r="N224" t="s" s="2">
-        <v>701</v>
       </c>
       <c r="O224" t="s" s="2">
         <v>43</v>
@@ -28338,7 +28333,7 @@
         <v>43</v>
       </c>
       <c r="AE224" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="AF224" t="s" s="2">
         <v>41</v>
@@ -28367,7 +28362,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -28390,19 +28385,19 @@
         <v>43</v>
       </c>
       <c r="J225" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K225" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="L225" t="s" s="2">
         <v>703</v>
       </c>
-      <c r="L225" t="s" s="2">
+      <c r="M225" t="s" s="2">
         <v>704</v>
       </c>
-      <c r="M225" t="s" s="2">
+      <c r="N225" t="s" s="2">
         <v>705</v>
-      </c>
-      <c r="N225" t="s" s="2">
-        <v>706</v>
       </c>
       <c r="O225" t="s" s="2">
         <v>43</v>
@@ -28451,7 +28446,7 @@
         <v>43</v>
       </c>
       <c r="AE225" t="s" s="2">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="AF225" t="s" s="2">
         <v>41</v>
@@ -28480,7 +28475,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -28506,14 +28501,14 @@
         <v>420</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="M226" s="2"/>
       <c r="N226" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="O226" t="s" s="2">
         <v>43</v>
@@ -28562,7 +28557,7 @@
         <v>43</v>
       </c>
       <c r="AE226" t="s" s="2">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="AF226" t="s" s="2">
         <v>41</v>
@@ -28591,7 +28586,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -28617,10 +28612,10 @@
         <v>43</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="M227" s="2"/>
       <c r="N227" s="2"/>
@@ -28671,7 +28666,7 @@
         <v>43</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>41</v>
@@ -28700,7 +28695,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -28726,14 +28721,14 @@
         <v>311</v>
       </c>
       <c r="K228" t="s" s="2">
+        <v>869</v>
+      </c>
+      <c r="L228" t="s" s="2">
         <v>870</v>
-      </c>
-      <c r="L228" t="s" s="2">
-        <v>871</v>
       </c>
       <c r="M228" s="2"/>
       <c r="N228" t="s" s="2">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="O228" t="s" s="2">
         <v>43</v>
@@ -28782,7 +28777,7 @@
         <v>43</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="AF228" t="s" s="2">
         <v>41</v>
@@ -28811,7 +28806,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -28920,7 +28915,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -29031,7 +29026,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -29144,7 +29139,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -29170,16 +29165,16 @@
         <v>178</v>
       </c>
       <c r="K232" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="L232" t="s" s="2">
         <v>737</v>
       </c>
-      <c r="L232" t="s" s="2">
+      <c r="M232" t="s" s="2">
         <v>738</v>
       </c>
-      <c r="M232" t="s" s="2">
+      <c r="N232" t="s" s="2">
         <v>739</v>
-      </c>
-      <c r="N232" t="s" s="2">
-        <v>740</v>
       </c>
       <c r="O232" t="s" s="2">
         <v>43</v>
@@ -29208,7 +29203,7 @@
       </c>
       <c r="X232" s="2"/>
       <c r="Y232" t="s" s="2">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="Z232" t="s" s="2">
         <v>43</v>
@@ -29226,7 +29221,7 @@
         <v>43</v>
       </c>
       <c r="AE232" t="s" s="2">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AF232" t="s" s="2">
         <v>50</v>
@@ -29255,7 +29250,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -29281,16 +29276,16 @@
         <v>178</v>
       </c>
       <c r="K233" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="L233" t="s" s="2">
         <v>743</v>
       </c>
-      <c r="L233" t="s" s="2">
+      <c r="M233" t="s" s="2">
         <v>744</v>
       </c>
-      <c r="M233" t="s" s="2">
+      <c r="N233" t="s" s="2">
         <v>745</v>
-      </c>
-      <c r="N233" t="s" s="2">
-        <v>746</v>
       </c>
       <c r="O233" t="s" s="2">
         <v>43</v>
@@ -29318,11 +29313,11 @@
         <v>116</v>
       </c>
       <c r="X233" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="Y233" t="s" s="2">
         <v>747</v>
       </c>
-      <c r="Y233" t="s" s="2">
-        <v>748</v>
-      </c>
       <c r="Z233" t="s" s="2">
         <v>43</v>
       </c>
@@ -29339,7 +29334,7 @@
         <v>43</v>
       </c>
       <c r="AE233" t="s" s="2">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AF233" t="s" s="2">
         <v>41</v>
@@ -29368,7 +29363,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -29391,19 +29386,19 @@
         <v>43</v>
       </c>
       <c r="J234" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K234" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="L234" t="s" s="2">
         <v>750</v>
       </c>
-      <c r="L234" t="s" s="2">
+      <c r="M234" t="s" s="2">
         <v>751</v>
       </c>
-      <c r="M234" t="s" s="2">
+      <c r="N234" t="s" s="2">
         <v>752</v>
-      </c>
-      <c r="N234" t="s" s="2">
-        <v>753</v>
       </c>
       <c r="O234" t="s" s="2">
         <v>43</v>
@@ -29452,7 +29447,7 @@
         <v>43</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AF234" t="s" s="2">
         <v>41</v>
@@ -29481,7 +29476,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -29504,19 +29499,19 @@
         <v>43</v>
       </c>
       <c r="J235" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="K235" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="L235" t="s" s="2">
         <v>755</v>
       </c>
-      <c r="L235" t="s" s="2">
+      <c r="M235" t="s" s="2">
         <v>756</v>
       </c>
-      <c r="M235" t="s" s="2">
+      <c r="N235" t="s" s="2">
         <v>757</v>
-      </c>
-      <c r="N235" t="s" s="2">
-        <v>758</v>
       </c>
       <c r="O235" t="s" s="2">
         <v>43</v>
@@ -29565,7 +29560,7 @@
         <v>43</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>41</v>
@@ -29594,7 +29589,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -29620,16 +29615,16 @@
         <v>311</v>
       </c>
       <c r="K236" t="s" s="2">
+        <v>880</v>
+      </c>
+      <c r="L236" t="s" s="2">
         <v>881</v>
       </c>
-      <c r="L236" t="s" s="2">
+      <c r="M236" t="s" s="2">
         <v>882</v>
       </c>
-      <c r="M236" t="s" s="2">
+      <c r="N236" t="s" s="2">
         <v>883</v>
-      </c>
-      <c r="N236" t="s" s="2">
-        <v>884</v>
       </c>
       <c r="O236" t="s" s="2">
         <v>43</v>
@@ -29678,7 +29673,7 @@
         <v>43</v>
       </c>
       <c r="AE236" t="s" s="2">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="AF236" t="s" s="2">
         <v>41</v>
@@ -29707,7 +29702,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -29816,7 +29811,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -29927,7 +29922,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -30040,7 +30035,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -30066,16 +30061,16 @@
         <v>178</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="L240" t="s" s="2">
+        <v>888</v>
+      </c>
+      <c r="M240" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="N240" t="s" s="2">
         <v>889</v>
-      </c>
-      <c r="M240" t="s" s="2">
-        <v>739</v>
-      </c>
-      <c r="N240" t="s" s="2">
-        <v>890</v>
       </c>
       <c r="O240" t="s" s="2">
         <v>43</v>
@@ -30104,7 +30099,7 @@
       </c>
       <c r="X240" s="2"/>
       <c r="Y240" t="s" s="2">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="Z240" t="s" s="2">
         <v>43</v>
@@ -30122,7 +30117,7 @@
         <v>43</v>
       </c>
       <c r="AE240" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="AF240" t="s" s="2">
         <v>50</v>
@@ -30151,7 +30146,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -30174,17 +30169,17 @@
         <v>51</v>
       </c>
       <c r="J241" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K241" t="s" s="2">
+        <v>891</v>
+      </c>
+      <c r="L241" t="s" s="2">
         <v>892</v>
-      </c>
-      <c r="L241" t="s" s="2">
-        <v>893</v>
       </c>
       <c r="M241" s="2"/>
       <c r="N241" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="O241" t="s" s="2">
         <v>43</v>
@@ -30233,7 +30228,7 @@
         <v>43</v>
       </c>
       <c r="AE241" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AF241" t="s" s="2">
         <v>50</v>
@@ -30262,7 +30257,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -30288,14 +30283,14 @@
         <v>311</v>
       </c>
       <c r="K242" t="s" s="2">
+        <v>895</v>
+      </c>
+      <c r="L242" t="s" s="2">
         <v>896</v>
-      </c>
-      <c r="L242" t="s" s="2">
-        <v>897</v>
       </c>
       <c r="M242" s="2"/>
       <c r="N242" t="s" s="2">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="O242" t="s" s="2">
         <v>43</v>
@@ -30344,7 +30339,7 @@
         <v>43</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>41</v>
@@ -30373,7 +30368,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -30482,7 +30477,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -30593,7 +30588,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -30706,7 +30701,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -30732,14 +30727,14 @@
         <v>178</v>
       </c>
       <c r="K246" t="s" s="2">
+        <v>902</v>
+      </c>
+      <c r="L246" t="s" s="2">
         <v>903</v>
-      </c>
-      <c r="L246" t="s" s="2">
-        <v>904</v>
       </c>
       <c r="M246" s="2"/>
       <c r="N246" t="s" s="2">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="O246" t="s" s="2">
         <v>43</v>
@@ -30768,7 +30763,7 @@
       </c>
       <c r="X246" s="2"/>
       <c r="Y246" t="s" s="2">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="Z246" t="s" s="2">
         <v>43</v>
@@ -30786,7 +30781,7 @@
         <v>43</v>
       </c>
       <c r="AE246" t="s" s="2">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="AF246" t="s" s="2">
         <v>41</v>
@@ -30815,7 +30810,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -30838,19 +30833,19 @@
         <v>43</v>
       </c>
       <c r="J247" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K247" t="s" s="2">
+        <v>907</v>
+      </c>
+      <c r="L247" t="s" s="2">
         <v>908</v>
       </c>
-      <c r="L247" t="s" s="2">
+      <c r="M247" t="s" s="2">
         <v>909</v>
       </c>
-      <c r="M247" t="s" s="2">
+      <c r="N247" t="s" s="2">
         <v>910</v>
-      </c>
-      <c r="N247" t="s" s="2">
-        <v>911</v>
       </c>
       <c r="O247" t="s" s="2">
         <v>43</v>
@@ -30899,7 +30894,7 @@
         <v>43</v>
       </c>
       <c r="AE247" t="s" s="2">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="AF247" t="s" s="2">
         <v>41</v>
@@ -30928,7 +30923,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
@@ -30954,14 +30949,14 @@
         <v>178</v>
       </c>
       <c r="K248" t="s" s="2">
+        <v>912</v>
+      </c>
+      <c r="L248" t="s" s="2">
         <v>913</v>
-      </c>
-      <c r="L248" t="s" s="2">
-        <v>914</v>
       </c>
       <c r="M248" s="2"/>
       <c r="N248" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O248" t="s" s="2">
         <v>43</v>
@@ -30989,11 +30984,11 @@
         <v>116</v>
       </c>
       <c r="X248" t="s" s="2">
+        <v>915</v>
+      </c>
+      <c r="Y248" t="s" s="2">
         <v>916</v>
       </c>
-      <c r="Y248" t="s" s="2">
-        <v>917</v>
-      </c>
       <c r="Z248" t="s" s="2">
         <v>43</v>
       </c>
@@ -31010,7 +31005,7 @@
         <v>43</v>
       </c>
       <c r="AE248" t="s" s="2">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AF248" t="s" s="2">
         <v>41</v>
@@ -31039,7 +31034,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -31062,17 +31057,17 @@
         <v>43</v>
       </c>
       <c r="J249" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="K249" t="s" s="2">
+        <v>918</v>
+      </c>
+      <c r="L249" t="s" s="2">
         <v>919</v>
-      </c>
-      <c r="L249" t="s" s="2">
-        <v>920</v>
       </c>
       <c r="M249" s="2"/>
       <c r="N249" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="O249" t="s" s="2">
         <v>43</v>
@@ -31121,7 +31116,7 @@
         <v>43</v>
       </c>
       <c r="AE249" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="AF249" t="s" s="2">
         <v>41</v>
@@ -31150,7 +31145,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -31173,17 +31168,17 @@
         <v>43</v>
       </c>
       <c r="J250" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K250" t="s" s="2">
+        <v>922</v>
+      </c>
+      <c r="L250" t="s" s="2">
         <v>923</v>
-      </c>
-      <c r="L250" t="s" s="2">
-        <v>924</v>
       </c>
       <c r="M250" s="2"/>
       <c r="N250" t="s" s="2">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="O250" t="s" s="2">
         <v>43</v>
@@ -31232,7 +31227,7 @@
         <v>43</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>41</v>
@@ -31261,7 +31256,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -31287,16 +31282,16 @@
         <v>159</v>
       </c>
       <c r="K251" t="s" s="2">
+        <v>926</v>
+      </c>
+      <c r="L251" t="s" s="2">
         <v>927</v>
       </c>
-      <c r="L251" t="s" s="2">
+      <c r="M251" t="s" s="2">
         <v>928</v>
       </c>
-      <c r="M251" t="s" s="2">
+      <c r="N251" t="s" s="2">
         <v>929</v>
-      </c>
-      <c r="N251" t="s" s="2">
-        <v>930</v>
       </c>
       <c r="O251" t="s" s="2">
         <v>43</v>
@@ -31345,7 +31340,7 @@
         <v>43</v>
       </c>
       <c r="AE251" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="AF251" t="s" s="2">
         <v>41</v>
@@ -31374,7 +31369,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -31400,16 +31395,16 @@
         <v>178</v>
       </c>
       <c r="K252" t="s" s="2">
+        <v>931</v>
+      </c>
+      <c r="L252" t="s" s="2">
         <v>932</v>
       </c>
-      <c r="L252" t="s" s="2">
+      <c r="M252" t="s" s="2">
         <v>933</v>
       </c>
-      <c r="M252" t="s" s="2">
+      <c r="N252" t="s" s="2">
         <v>934</v>
-      </c>
-      <c r="N252" t="s" s="2">
-        <v>935</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>43</v>
@@ -31437,11 +31432,11 @@
         <v>116</v>
       </c>
       <c r="X252" t="s" s="2">
+        <v>935</v>
+      </c>
+      <c r="Y252" t="s" s="2">
         <v>936</v>
       </c>
-      <c r="Y252" t="s" s="2">
-        <v>937</v>
-      </c>
       <c r="Z252" t="s" s="2">
         <v>43</v>
       </c>
@@ -31458,7 +31453,7 @@
         <v>43</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="AF252" t="s" s="2">
         <v>41</v>
@@ -31487,7 +31482,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -31510,19 +31505,19 @@
         <v>43</v>
       </c>
       <c r="J253" t="s" s="2">
+        <v>938</v>
+      </c>
+      <c r="K253" t="s" s="2">
         <v>939</v>
       </c>
-      <c r="K253" t="s" s="2">
+      <c r="L253" t="s" s="2">
         <v>940</v>
       </c>
-      <c r="L253" t="s" s="2">
+      <c r="M253" t="s" s="2">
         <v>941</v>
       </c>
-      <c r="M253" t="s" s="2">
+      <c r="N253" t="s" s="2">
         <v>942</v>
-      </c>
-      <c r="N253" t="s" s="2">
-        <v>943</v>
       </c>
       <c r="O253" t="s" s="2">
         <v>43</v>
@@ -31571,7 +31566,7 @@
         <v>43</v>
       </c>
       <c r="AE253" t="s" s="2">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="AF253" t="s" s="2">
         <v>41</v>
@@ -31600,7 +31595,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -31626,14 +31621,14 @@
         <v>311</v>
       </c>
       <c r="K254" t="s" s="2">
+        <v>944</v>
+      </c>
+      <c r="L254" t="s" s="2">
         <v>945</v>
-      </c>
-      <c r="L254" t="s" s="2">
-        <v>946</v>
       </c>
       <c r="M254" s="2"/>
       <c r="N254" t="s" s="2">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="O254" t="s" s="2">
         <v>43</v>
@@ -31682,7 +31677,7 @@
         <v>43</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>41</v>
@@ -31711,7 +31706,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -31820,7 +31815,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -31931,7 +31926,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -32044,7 +32039,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -32070,14 +32065,14 @@
         <v>420</v>
       </c>
       <c r="K258" t="s" s="2">
+        <v>951</v>
+      </c>
+      <c r="L258" t="s" s="2">
         <v>952</v>
-      </c>
-      <c r="L258" t="s" s="2">
-        <v>953</v>
       </c>
       <c r="M258" s="2"/>
       <c r="N258" t="s" s="2">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="O258" t="s" s="2">
         <v>43</v>
@@ -32126,7 +32121,7 @@
         <v>43</v>
       </c>
       <c r="AE258" t="s" s="2">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="AF258" t="s" s="2">
         <v>41</v>
@@ -32155,7 +32150,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -32181,14 +32176,14 @@
         <v>126</v>
       </c>
       <c r="K259" t="s" s="2">
+        <v>955</v>
+      </c>
+      <c r="L259" t="s" s="2">
         <v>956</v>
-      </c>
-      <c r="L259" t="s" s="2">
-        <v>957</v>
       </c>
       <c r="M259" s="2"/>
       <c r="N259" t="s" s="2">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="O259" t="s" s="2">
         <v>43</v>
@@ -32216,11 +32211,11 @@
         <v>172</v>
       </c>
       <c r="X259" t="s" s="2">
+        <v>958</v>
+      </c>
+      <c r="Y259" t="s" s="2">
         <v>959</v>
       </c>
-      <c r="Y259" t="s" s="2">
-        <v>960</v>
-      </c>
       <c r="Z259" t="s" s="2">
         <v>43</v>
       </c>
@@ -32237,7 +32232,7 @@
         <v>43</v>
       </c>
       <c r="AE259" t="s" s="2">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="AF259" t="s" s="2">
         <v>41</v>
@@ -32266,7 +32261,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -32292,14 +32287,14 @@
         <v>52</v>
       </c>
       <c r="K260" t="s" s="2">
+        <v>961</v>
+      </c>
+      <c r="L260" t="s" s="2">
         <v>962</v>
-      </c>
-      <c r="L260" t="s" s="2">
-        <v>963</v>
       </c>
       <c r="M260" s="2"/>
       <c r="N260" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="O260" t="s" s="2">
         <v>43</v>
@@ -32348,7 +32343,7 @@
         <v>43</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>41</v>
@@ -32377,7 +32372,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -32403,16 +32398,16 @@
         <v>178</v>
       </c>
       <c r="K261" t="s" s="2">
+        <v>965</v>
+      </c>
+      <c r="L261" t="s" s="2">
         <v>966</v>
       </c>
-      <c r="L261" t="s" s="2">
+      <c r="M261" t="s" s="2">
         <v>967</v>
       </c>
-      <c r="M261" t="s" s="2">
+      <c r="N261" t="s" s="2">
         <v>968</v>
-      </c>
-      <c r="N261" t="s" s="2">
-        <v>969</v>
       </c>
       <c r="O261" t="s" s="2">
         <v>43</v>
@@ -32461,7 +32456,7 @@
         <v>43</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>41</v>
@@ -32490,7 +32485,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -32516,16 +32511,16 @@
         <v>205</v>
       </c>
       <c r="K262" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="L262" t="s" s="2">
         <v>971</v>
       </c>
-      <c r="L262" t="s" s="2">
+      <c r="M262" t="s" s="2">
         <v>972</v>
       </c>
-      <c r="M262" t="s" s="2">
+      <c r="N262" t="s" s="2">
         <v>973</v>
-      </c>
-      <c r="N262" t="s" s="2">
-        <v>974</v>
       </c>
       <c r="O262" t="s" s="2">
         <v>43</v>
@@ -32574,7 +32569,7 @@
         <v>43</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>41</v>
@@ -32603,7 +32598,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -32629,10 +32624,10 @@
         <v>311</v>
       </c>
       <c r="K263" t="s" s="2">
+        <v>975</v>
+      </c>
+      <c r="L263" t="s" s="2">
         <v>976</v>
-      </c>
-      <c r="L263" t="s" s="2">
-        <v>977</v>
       </c>
       <c r="M263" s="2"/>
       <c r="N263" s="2"/>
@@ -32683,7 +32678,7 @@
         <v>43</v>
       </c>
       <c r="AE263" t="s" s="2">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="AF263" t="s" s="2">
         <v>41</v>
@@ -32712,7 +32707,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -32821,7 +32816,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -32932,7 +32927,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -33045,7 +33040,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -33071,16 +33066,16 @@
         <v>178</v>
       </c>
       <c r="K267" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="L267" t="s" s="2">
         <v>647</v>
       </c>
-      <c r="L267" t="s" s="2">
+      <c r="M267" t="s" s="2">
         <v>648</v>
       </c>
-      <c r="M267" t="s" s="2">
-        <v>649</v>
-      </c>
       <c r="N267" t="s" s="2">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="O267" t="s" s="2">
         <v>43</v>
@@ -33108,11 +33103,11 @@
         <v>116</v>
       </c>
       <c r="X267" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="Y267" t="s" s="2">
         <v>651</v>
       </c>
-      <c r="Y267" t="s" s="2">
-        <v>652</v>
-      </c>
       <c r="Z267" t="s" s="2">
         <v>43</v>
       </c>
@@ -33129,7 +33124,7 @@
         <v>43</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>50</v>
@@ -33158,7 +33153,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -33184,14 +33179,14 @@
         <v>430</v>
       </c>
       <c r="K268" t="s" s="2">
+        <v>983</v>
+      </c>
+      <c r="L268" t="s" s="2">
         <v>984</v>
-      </c>
-      <c r="L268" t="s" s="2">
-        <v>985</v>
       </c>
       <c r="M268" s="2"/>
       <c r="N268" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="O268" t="s" s="2">
         <v>43</v>
@@ -33240,7 +33235,7 @@
         <v>43</v>
       </c>
       <c r="AE268" t="s" s="2">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AF268" t="s" s="2">
         <v>41</v>
@@ -33269,7 +33264,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -33295,16 +33290,16 @@
         <v>52</v>
       </c>
       <c r="K269" t="s" s="2">
+        <v>987</v>
+      </c>
+      <c r="L269" t="s" s="2">
         <v>988</v>
       </c>
-      <c r="L269" t="s" s="2">
+      <c r="M269" t="s" s="2">
         <v>989</v>
       </c>
-      <c r="M269" t="s" s="2">
+      <c r="N269" t="s" s="2">
         <v>990</v>
-      </c>
-      <c r="N269" t="s" s="2">
-        <v>991</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>43</v>
@@ -33353,7 +33348,7 @@
         <v>43</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>41</v>
@@ -33382,7 +33377,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -33408,16 +33403,16 @@
         <v>52</v>
       </c>
       <c r="K270" t="s" s="2">
+        <v>992</v>
+      </c>
+      <c r="L270" t="s" s="2">
         <v>993</v>
       </c>
-      <c r="L270" t="s" s="2">
+      <c r="M270" t="s" s="2">
         <v>994</v>
       </c>
-      <c r="M270" t="s" s="2">
+      <c r="N270" t="s" s="2">
         <v>995</v>
-      </c>
-      <c r="N270" t="s" s="2">
-        <v>996</v>
       </c>
       <c r="O270" t="s" s="2">
         <v>43</v>
@@ -33466,7 +33461,7 @@
         <v>43</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>41</v>
@@ -33495,7 +33490,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -33521,14 +33516,14 @@
         <v>178</v>
       </c>
       <c r="K271" t="s" s="2">
+        <v>997</v>
+      </c>
+      <c r="L271" t="s" s="2">
         <v>998</v>
-      </c>
-      <c r="L271" t="s" s="2">
-        <v>999</v>
       </c>
       <c r="M271" s="2"/>
       <c r="N271" t="s" s="2">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="O271" t="s" s="2">
         <v>43</v>
@@ -33556,11 +33551,11 @@
         <v>116</v>
       </c>
       <c r="X271" t="s" s="2">
+        <v>1000</v>
+      </c>
+      <c r="Y271" t="s" s="2">
         <v>1001</v>
       </c>
-      <c r="Y271" t="s" s="2">
-        <v>1002</v>
-      </c>
       <c r="Z271" t="s" s="2">
         <v>43</v>
       </c>
@@ -33577,7 +33572,7 @@
         <v>43</v>
       </c>
       <c r="AE271" t="s" s="2">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="AF271" t="s" s="2">
         <v>41</v>
@@ -33606,7 +33601,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -33632,14 +33627,14 @@
         <v>178</v>
       </c>
       <c r="K272" t="s" s="2">
+        <v>1003</v>
+      </c>
+      <c r="L272" t="s" s="2">
         <v>1004</v>
-      </c>
-      <c r="L272" t="s" s="2">
-        <v>1005</v>
       </c>
       <c r="M272" s="2"/>
       <c r="N272" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="O272" t="s" s="2">
         <v>43</v>
@@ -33667,11 +33662,11 @@
         <v>116</v>
       </c>
       <c r="X272" t="s" s="2">
+        <v>1006</v>
+      </c>
+      <c r="Y272" t="s" s="2">
         <v>1007</v>
       </c>
-      <c r="Y272" t="s" s="2">
-        <v>1008</v>
-      </c>
       <c r="Z272" t="s" s="2">
         <v>43</v>
       </c>
@@ -33688,7 +33683,7 @@
         <v>43</v>
       </c>
       <c r="AE272" t="s" s="2">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="AF272" t="s" s="2">
         <v>41</v>
@@ -33717,7 +33712,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -33743,14 +33738,14 @@
         <v>178</v>
       </c>
       <c r="K273" t="s" s="2">
+        <v>1009</v>
+      </c>
+      <c r="L273" t="s" s="2">
         <v>1010</v>
-      </c>
-      <c r="L273" t="s" s="2">
-        <v>1011</v>
       </c>
       <c r="M273" s="2"/>
       <c r="N273" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="O273" t="s" s="2">
         <v>43</v>
@@ -33778,11 +33773,11 @@
         <v>116</v>
       </c>
       <c r="X273" t="s" s="2">
+        <v>1011</v>
+      </c>
+      <c r="Y273" t="s" s="2">
         <v>1012</v>
       </c>
-      <c r="Y273" t="s" s="2">
-        <v>1013</v>
-      </c>
       <c r="Z273" t="s" s="2">
         <v>43</v>
       </c>
@@ -33799,7 +33794,7 @@
         <v>43</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>41</v>
@@ -33828,7 +33823,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -33854,10 +33849,10 @@
         <v>311</v>
       </c>
       <c r="K274" t="s" s="2">
+        <v>1014</v>
+      </c>
+      <c r="L274" t="s" s="2">
         <v>1015</v>
-      </c>
-      <c r="L274" t="s" s="2">
-        <v>1016</v>
       </c>
       <c r="M274" s="2"/>
       <c r="N274" s="2"/>
@@ -33908,7 +33903,7 @@
         <v>43</v>
       </c>
       <c r="AE274" t="s" s="2">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="AF274" t="s" s="2">
         <v>41</v>
@@ -33937,7 +33932,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -34046,7 +34041,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -34157,7 +34152,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -34270,7 +34265,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -34296,16 +34291,16 @@
         <v>178</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L278" t="s" s="2">
+        <v>1020</v>
+      </c>
+      <c r="M278" t="s" s="2">
         <v>1021</v>
       </c>
-      <c r="M278" t="s" s="2">
+      <c r="N278" t="s" s="2">
         <v>1022</v>
-      </c>
-      <c r="N278" t="s" s="2">
-        <v>1023</v>
       </c>
       <c r="O278" t="s" s="2">
         <v>43</v>
@@ -34333,11 +34328,11 @@
         <v>116</v>
       </c>
       <c r="X278" t="s" s="2">
+        <v>1023</v>
+      </c>
+      <c r="Y278" t="s" s="2">
         <v>1024</v>
       </c>
-      <c r="Y278" t="s" s="2">
-        <v>1025</v>
-      </c>
       <c r="Z278" t="s" s="2">
         <v>43</v>
       </c>
@@ -34354,7 +34349,7 @@
         <v>43</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>50</v>
@@ -34383,7 +34378,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -34406,17 +34401,17 @@
         <v>43</v>
       </c>
       <c r="J279" t="s" s="2">
+        <v>1026</v>
+      </c>
+      <c r="K279" t="s" s="2">
         <v>1027</v>
       </c>
-      <c r="K279" t="s" s="2">
+      <c r="L279" t="s" s="2">
         <v>1028</v>
-      </c>
-      <c r="L279" t="s" s="2">
-        <v>1029</v>
       </c>
       <c r="M279" s="2"/>
       <c r="N279" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="O279" t="s" s="2">
         <v>43</v>
@@ -34465,7 +34460,7 @@
         <v>43</v>
       </c>
       <c r="AE279" t="s" s="2">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AF279" t="s" s="2">
         <v>41</v>
@@ -34494,7 +34489,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -34517,17 +34512,17 @@
         <v>43</v>
       </c>
       <c r="J280" t="s" s="2">
+        <v>1031</v>
+      </c>
+      <c r="K280" t="s" s="2">
         <v>1032</v>
       </c>
-      <c r="K280" t="s" s="2">
+      <c r="L280" t="s" s="2">
         <v>1033</v>
-      </c>
-      <c r="L280" t="s" s="2">
-        <v>1034</v>
       </c>
       <c r="M280" s="2"/>
       <c r="N280" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="O280" t="s" s="2">
         <v>43</v>
@@ -34576,7 +34571,7 @@
         <v>43</v>
       </c>
       <c r="AE280" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="AF280" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9869" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9868" uniqueCount="1034">
   <si>
     <t>Path</t>
   </si>
@@ -929,10 +929,7 @@
     <t>The provider may need to indicate their processing requirements so that the processor can indicate if they are unable to comply.</t>
   </si>
   <si>
-    <t>The timeliness with which processing is required: stat, normal, deferred.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/CodeSystem/processpriority</t>
+    <t>http://hl7.org/fhir/ValueSet/process-priority</t>
   </si>
   <si>
     <t>Request.priority</t>
@@ -7563,13 +7560,11 @@
         <v>43</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X38" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="X38" s="2"/>
+      <c r="Y38" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>43</v>
@@ -7608,7 +7603,7 @@
         <v>43</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>43</v>
@@ -7616,11 +7611,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -7642,16 +7637,16 @@
         <v>178</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>43</v>
@@ -7679,11 +7674,11 @@
         <v>116</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="Y39" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="Y39" t="s" s="2">
-        <v>304</v>
-      </c>
       <c r="Z39" t="s" s="2">
         <v>43</v>
       </c>
@@ -7700,7 +7695,7 @@
         <v>43</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -7729,7 +7724,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7755,16 +7750,16 @@
         <v>178</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>43</v>
@@ -7792,28 +7787,28 @@
         <v>116</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="Y40" t="s" s="2">
+      <c r="Z40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE40" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -7842,7 +7837,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7865,19 +7860,19 @@
         <v>43</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>43</v>
@@ -7926,7 +7921,7 @@
         <v>43</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -7955,7 +7950,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -8064,7 +8059,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -8175,11 +8170,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -8201,10 +8196,10 @@
         <v>70</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>73</v>
@@ -8259,7 +8254,7 @@
         <v>43</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -8288,7 +8283,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -8311,17 +8306,17 @@
         <v>43</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>43</v>
@@ -8370,7 +8365,7 @@
         <v>43</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -8399,7 +8394,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -8425,16 +8420,16 @@
         <v>178</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>43</v>
@@ -8462,11 +8457,11 @@
         <v>116</v>
       </c>
       <c r="X46" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="Y46" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="Y46" t="s" s="2">
-        <v>333</v>
-      </c>
       <c r="Z46" t="s" s="2">
         <v>43</v>
       </c>
@@ -8483,7 +8478,7 @@
         <v>43</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -8512,7 +8507,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -8538,16 +8533,16 @@
         <v>159</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>43</v>
@@ -8596,7 +8591,7 @@
         <v>43</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -8625,7 +8620,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -8648,17 +8643,17 @@
         <v>43</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>43</v>
@@ -8707,7 +8702,7 @@
         <v>43</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -8736,7 +8731,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8759,19 +8754,19 @@
         <v>43</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>43</v>
@@ -8820,7 +8815,7 @@
         <v>43</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -8849,7 +8844,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8872,19 +8867,19 @@
         <v>43</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>43</v>
@@ -8933,7 +8928,7 @@
         <v>43</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -8962,7 +8957,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -9071,7 +9066,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -9182,11 +9177,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -9208,10 +9203,10 @@
         <v>70</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>73</v>
@@ -9266,7 +9261,7 @@
         <v>43</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -9295,7 +9290,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -9321,14 +9316,14 @@
         <v>178</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>43</v>
@@ -9357,7 +9352,7 @@
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>43</v>
@@ -9375,7 +9370,7 @@
         <v>43</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -9404,7 +9399,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -9427,19 +9422,19 @@
         <v>43</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>43</v>
@@ -9488,7 +9483,7 @@
         <v>43</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -9517,7 +9512,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -9540,19 +9535,19 @@
         <v>43</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>43</v>
@@ -9601,7 +9596,7 @@
         <v>43</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -9619,7 +9614,7 @@
         <v>43</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>43</v>
@@ -9630,7 +9625,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9653,17 +9648,17 @@
         <v>43</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>43</v>
@@ -9712,7 +9707,7 @@
         <v>43</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -9727,10 +9722,10 @@
         <v>62</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>43</v>
@@ -9741,7 +9736,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9764,17 +9759,17 @@
         <v>43</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>43</v>
@@ -9823,7 +9818,7 @@
         <v>43</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -9841,7 +9836,7 @@
         <v>43</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>43</v>
@@ -9852,7 +9847,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9875,17 +9870,17 @@
         <v>43</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>43</v>
@@ -9934,7 +9929,7 @@
         <v>43</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -9963,7 +9958,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9989,16 +9984,16 @@
         <v>126</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>43</v>
@@ -10026,11 +10021,11 @@
         <v>172</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Y60" t="s" s="2">
-        <v>399</v>
-      </c>
       <c r="Z60" t="s" s="2">
         <v>43</v>
       </c>
@@ -10047,7 +10042,7 @@
         <v>43</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>50</v>
@@ -10076,7 +10071,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -10102,14 +10097,14 @@
         <v>52</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>43</v>
@@ -10158,7 +10153,7 @@
         <v>43</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -10187,7 +10182,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -10213,16 +10208,16 @@
         <v>52</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>43</v>
@@ -10271,7 +10266,7 @@
         <v>43</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -10300,7 +10295,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -10326,16 +10321,16 @@
         <v>205</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L63" t="s" s="2">
-        <v>411</v>
-      </c>
       <c r="M63" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>43</v>
@@ -10384,7 +10379,7 @@
         <v>43</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -10413,7 +10408,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -10436,17 +10431,17 @@
         <v>43</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>43</v>
@@ -10495,7 +10490,7 @@
         <v>43</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -10524,7 +10519,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -10633,7 +10628,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -10744,11 +10739,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -10770,10 +10765,10 @@
         <v>70</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>73</v>
@@ -10828,7 +10823,7 @@
         <v>43</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -10857,7 +10852,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10880,17 +10875,17 @@
         <v>43</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>43</v>
@@ -10939,7 +10934,7 @@
         <v>43</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>50</v>
@@ -10968,7 +10963,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10994,14 +10989,14 @@
         <v>284</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>43</v>
@@ -11050,7 +11045,7 @@
         <v>43</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>50</v>
@@ -11068,7 +11063,7 @@
         <v>43</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>43</v>
@@ -11079,7 +11074,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -11102,19 +11097,19 @@
         <v>43</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>43</v>
@@ -11163,7 +11158,7 @@
         <v>43</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -11192,7 +11187,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -11218,16 +11213,16 @@
         <v>178</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>43</v>
@@ -11255,11 +11250,11 @@
         <v>116</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="Y71" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="Y71" t="s" s="2">
-        <v>441</v>
-      </c>
       <c r="Z71" t="s" s="2">
         <v>43</v>
       </c>
@@ -11276,7 +11271,7 @@
         <v>43</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -11305,7 +11300,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -11331,14 +11326,14 @@
         <v>178</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>43</v>
@@ -11367,7 +11362,7 @@
       </c>
       <c r="X72" s="2"/>
       <c r="Y72" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>43</v>
@@ -11385,7 +11380,7 @@
         <v>43</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -11414,7 +11409,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -11437,19 +11432,19 @@
         <v>43</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>43</v>
@@ -11498,7 +11493,7 @@
         <v>43</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -11527,7 +11522,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11636,7 +11631,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11747,11 +11742,11 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -11773,10 +11768,10 @@
         <v>70</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M76" t="s" s="2">
         <v>73</v>
@@ -11831,7 +11826,7 @@
         <v>43</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -11860,7 +11855,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11883,17 +11878,17 @@
         <v>43</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>43</v>
@@ -11942,7 +11937,7 @@
         <v>43</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>50</v>
@@ -11971,7 +11966,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11997,16 +11992,16 @@
         <v>178</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>43</v>
@@ -12034,11 +12029,11 @@
         <v>116</v>
       </c>
       <c r="X78" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="Y78" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="Y78" t="s" s="2">
-        <v>465</v>
-      </c>
       <c r="Z78" t="s" s="2">
         <v>43</v>
       </c>
@@ -12055,7 +12050,7 @@
         <v>43</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>50</v>
@@ -12084,7 +12079,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -12110,16 +12105,16 @@
         <v>178</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>239</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>43</v>
@@ -12147,11 +12142,11 @@
         <v>116</v>
       </c>
       <c r="X79" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="Y79" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="Y79" t="s" s="2">
-        <v>471</v>
-      </c>
       <c r="Z79" t="s" s="2">
         <v>43</v>
       </c>
@@ -12168,7 +12163,7 @@
         <v>43</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -12197,7 +12192,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -12220,13 +12215,13 @@
         <v>43</v>
       </c>
       <c r="J80" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="K80" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="K80" t="s" s="2">
+      <c r="L80" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -12277,7 +12272,7 @@
         <v>43</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -12306,7 +12301,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -12329,19 +12324,19 @@
         <v>43</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="L81" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>43</v>
@@ -12390,7 +12385,7 @@
         <v>43</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -12419,7 +12414,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12445,16 +12440,16 @@
         <v>104</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>43</v>
@@ -12482,11 +12477,11 @@
         <v>116</v>
       </c>
       <c r="X82" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="Y82" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="Y82" t="s" s="2">
-        <v>488</v>
-      </c>
       <c r="Z82" t="s" s="2">
         <v>43</v>
       </c>
@@ -12503,7 +12498,7 @@
         <v>43</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -12532,7 +12527,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12555,17 +12550,17 @@
         <v>43</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>43</v>
@@ -12614,7 +12609,7 @@
         <v>43</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -12643,7 +12638,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12752,7 +12747,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12863,11 +12858,11 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -12889,10 +12884,10 @@
         <v>70</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>73</v>
@@ -12947,7 +12942,7 @@
         <v>43</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
@@ -12976,7 +12971,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12999,19 +12994,19 @@
         <v>43</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>43</v>
@@ -13060,7 +13055,7 @@
         <v>43</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>50</v>
@@ -13089,7 +13084,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -13112,17 +13107,17 @@
         <v>43</v>
       </c>
       <c r="J88" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="K88" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="K88" t="s" s="2">
+      <c r="L88" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>43</v>
@@ -13150,11 +13145,11 @@
         <v>116</v>
       </c>
       <c r="X88" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="Y88" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="Y88" t="s" s="2">
-        <v>507</v>
-      </c>
       <c r="Z88" t="s" s="2">
         <v>43</v>
       </c>
@@ -13171,7 +13166,7 @@
         <v>43</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>50</v>
@@ -13200,7 +13195,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -13226,16 +13221,16 @@
         <v>178</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>43</v>
@@ -13263,11 +13258,11 @@
         <v>116</v>
       </c>
       <c r="X89" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="Y89" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="Y89" t="s" s="2">
-        <v>514</v>
-      </c>
       <c r="Z89" t="s" s="2">
         <v>43</v>
       </c>
@@ -13284,7 +13279,7 @@
         <v>43</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
@@ -13313,7 +13308,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -13339,14 +13334,14 @@
         <v>178</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>43</v>
@@ -13374,11 +13369,11 @@
         <v>116</v>
       </c>
       <c r="X90" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="Y90" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="Y90" t="s" s="2">
-        <v>520</v>
-      </c>
       <c r="Z90" t="s" s="2">
         <v>43</v>
       </c>
@@ -13395,7 +13390,7 @@
         <v>43</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
@@ -13424,7 +13419,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13450,16 +13445,16 @@
         <v>178</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>43</v>
@@ -13487,11 +13482,11 @@
         <v>116</v>
       </c>
       <c r="X91" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="Y91" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="Y91" t="s" s="2">
-        <v>527</v>
-      </c>
       <c r="Z91" t="s" s="2">
         <v>43</v>
       </c>
@@ -13508,7 +13503,7 @@
         <v>43</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
@@ -13537,7 +13532,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13560,17 +13555,17 @@
         <v>43</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>43</v>
@@ -13619,7 +13614,7 @@
         <v>43</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>41</v>
@@ -13648,7 +13643,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13757,7 +13752,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13868,11 +13863,11 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -13894,10 +13889,10 @@
         <v>70</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M95" t="s" s="2">
         <v>73</v>
@@ -13952,7 +13947,7 @@
         <v>43</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>41</v>
@@ -13981,7 +13976,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -14004,17 +13999,17 @@
         <v>43</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>43</v>
@@ -14063,7 +14058,7 @@
         <v>43</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>50</v>
@@ -14092,7 +14087,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -14118,14 +14113,14 @@
         <v>178</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>43</v>
@@ -14153,11 +14148,11 @@
         <v>116</v>
       </c>
       <c r="X97" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="Y97" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="Y97" t="s" s="2">
-        <v>542</v>
-      </c>
       <c r="Z97" t="s" s="2">
         <v>43</v>
       </c>
@@ -14174,7 +14169,7 @@
         <v>43</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>41</v>
@@ -14203,7 +14198,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -14229,14 +14224,14 @@
         <v>264</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>43</v>
@@ -14285,7 +14280,7 @@
         <v>43</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>41</v>
@@ -14314,7 +14309,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14337,17 +14332,17 @@
         <v>43</v>
       </c>
       <c r="J99" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="K99" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="K99" t="s" s="2">
+      <c r="L99" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>43</v>
@@ -14375,11 +14370,11 @@
         <v>116</v>
       </c>
       <c r="X99" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="Y99" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="Y99" t="s" s="2">
-        <v>553</v>
-      </c>
       <c r="Z99" t="s" s="2">
         <v>43</v>
       </c>
@@ -14396,7 +14391,7 @@
         <v>43</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>50</v>
@@ -14425,7 +14420,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14448,17 +14443,17 @@
         <v>43</v>
       </c>
       <c r="J100" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="K100" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="K100" t="s" s="2">
+      <c r="L100" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>43</v>
@@ -14507,7 +14502,7 @@
         <v>43</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>41</v>
@@ -14536,7 +14531,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14559,17 +14554,17 @@
         <v>43</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>43</v>
@@ -14618,7 +14613,7 @@
         <v>43</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>41</v>
@@ -14647,7 +14642,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14670,19 +14665,19 @@
         <v>51</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="M102" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>43</v>
@@ -14731,7 +14726,7 @@
         <v>43</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>50</v>
@@ -14743,16 +14738,16 @@
         <v>43</v>
       </c>
       <c r="AI102" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL102" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>43</v>
@@ -14760,7 +14755,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14869,7 +14864,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14980,11 +14975,11 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -15006,10 +15001,10 @@
         <v>70</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M105" t="s" s="2">
         <v>73</v>
@@ -15064,7 +15059,7 @@
         <v>43</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>41</v>
@@ -15093,7 +15088,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -15116,19 +15111,19 @@
         <v>51</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="L106" t="s" s="2">
+      <c r="M106" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>43</v>
@@ -15177,7 +15172,7 @@
         <v>43</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>50</v>
@@ -15206,7 +15201,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -15229,17 +15224,17 @@
         <v>51</v>
       </c>
       <c r="J107" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="K107" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="K107" t="s" s="2">
+      <c r="L107" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>43</v>
@@ -15288,7 +15283,7 @@
         <v>43</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>50</v>
@@ -15317,7 +15312,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15343,16 +15338,16 @@
         <v>52</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="L108" t="s" s="2">
+      <c r="M108" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="M108" t="s" s="2">
+      <c r="N108" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>43</v>
@@ -15401,7 +15396,7 @@
         <v>43</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>41</v>
@@ -15430,7 +15425,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15453,17 +15448,17 @@
         <v>43</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="L109" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>590</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>43</v>
@@ -15512,7 +15507,7 @@
         <v>43</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>41</v>
@@ -15541,7 +15536,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15650,7 +15645,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15761,11 +15756,11 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -15787,10 +15782,10 @@
         <v>70</v>
       </c>
       <c r="K112" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L112" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M112" t="s" s="2">
         <v>73</v>
@@ -15845,7 +15840,7 @@
         <v>43</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>41</v>
@@ -15874,7 +15869,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15897,19 +15892,19 @@
         <v>43</v>
       </c>
       <c r="J113" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="K113" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="K113" t="s" s="2">
+      <c r="L113" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="L113" t="s" s="2">
+      <c r="M113" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="M113" t="s" s="2">
+      <c r="N113" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>600</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>43</v>
@@ -15958,7 +15953,7 @@
         <v>43</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>41</v>
@@ -15987,7 +15982,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -16013,14 +16008,14 @@
         <v>178</v>
       </c>
       <c r="K114" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="L114" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>43</v>
@@ -16048,11 +16043,11 @@
         <v>108</v>
       </c>
       <c r="X114" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="Y114" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="Y114" t="s" s="2">
-        <v>606</v>
-      </c>
       <c r="Z114" t="s" s="2">
         <v>43</v>
       </c>
@@ -16069,7 +16064,7 @@
         <v>43</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>41</v>
@@ -16098,7 +16093,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -16121,17 +16116,17 @@
         <v>43</v>
       </c>
       <c r="J115" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="K115" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="K115" t="s" s="2">
+      <c r="L115" t="s" s="2">
         <v>609</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>610</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>43</v>
@@ -16180,7 +16175,7 @@
         <v>43</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>41</v>
@@ -16209,7 +16204,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -16232,17 +16227,17 @@
         <v>43</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="L116" t="s" s="2">
         <v>613</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>43</v>
@@ -16291,7 +16286,7 @@
         <v>43</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>41</v>
@@ -16320,7 +16315,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16429,7 +16424,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16540,11 +16535,11 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
@@ -16566,10 +16561,10 @@
         <v>70</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L119" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M119" t="s" s="2">
         <v>73</v>
@@ -16624,7 +16619,7 @@
         <v>43</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>41</v>
@@ -16653,7 +16648,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16676,17 +16671,17 @@
         <v>43</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="L120" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>43</v>
@@ -16735,7 +16730,7 @@
         <v>43</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>50</v>
@@ -16764,7 +16759,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16787,17 +16782,17 @@
         <v>43</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="L121" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>43</v>
@@ -16846,7 +16841,7 @@
         <v>43</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>41</v>
@@ -16875,7 +16870,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16898,17 +16893,17 @@
         <v>43</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K122" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="L122" t="s" s="2">
         <v>628</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>629</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>43</v>
@@ -16957,7 +16952,7 @@
         <v>43</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>41</v>
@@ -16986,7 +16981,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -17009,17 +17004,17 @@
         <v>43</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K123" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="L123" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>43</v>
@@ -17068,7 +17063,7 @@
         <v>43</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>41</v>
@@ -17097,7 +17092,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -17120,17 +17115,17 @@
         <v>43</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K124" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="L124" t="s" s="2">
         <v>636</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>637</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>43</v>
@@ -17179,7 +17174,7 @@
         <v>43</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>41</v>
@@ -17208,7 +17203,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -17234,14 +17229,14 @@
         <v>178</v>
       </c>
       <c r="K125" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="L125" t="s" s="2">
         <v>640</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>641</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>43</v>
@@ -17269,11 +17264,11 @@
         <v>116</v>
       </c>
       <c r="X125" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="Y125" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="Y125" t="s" s="2">
-        <v>644</v>
-      </c>
       <c r="Z125" t="s" s="2">
         <v>43</v>
       </c>
@@ -17290,7 +17285,7 @@
         <v>43</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>41</v>
@@ -17319,7 +17314,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17345,16 +17340,16 @@
         <v>178</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="L126" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="L126" t="s" s="2">
+      <c r="M126" t="s" s="2">
         <v>647</v>
       </c>
-      <c r="M126" t="s" s="2">
+      <c r="N126" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>649</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>43</v>
@@ -17382,11 +17377,11 @@
         <v>116</v>
       </c>
       <c r="X126" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="Y126" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="Y126" t="s" s="2">
-        <v>651</v>
-      </c>
       <c r="Z126" t="s" s="2">
         <v>43</v>
       </c>
@@ -17403,7 +17398,7 @@
         <v>43</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>41</v>
@@ -17432,11 +17427,11 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -17458,16 +17453,16 @@
         <v>178</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="L127" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="L127" t="s" s="2">
+      <c r="M127" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="M127" t="s" s="2">
+      <c r="N127" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>657</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>43</v>
@@ -17495,11 +17490,11 @@
         <v>116</v>
       </c>
       <c r="X127" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="Y127" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="Y127" t="s" s="2">
-        <v>659</v>
-      </c>
       <c r="Z127" t="s" s="2">
         <v>43</v>
       </c>
@@ -17516,7 +17511,7 @@
         <v>43</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>50</v>
@@ -17545,7 +17540,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17571,16 +17566,16 @@
         <v>178</v>
       </c>
       <c r="K128" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="L128" t="s" s="2">
         <v>661</v>
       </c>
-      <c r="L128" t="s" s="2">
+      <c r="M128" t="s" s="2">
         <v>662</v>
       </c>
-      <c r="M128" t="s" s="2">
+      <c r="N128" t="s" s="2">
         <v>663</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>664</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>43</v>
@@ -17608,11 +17603,11 @@
         <v>116</v>
       </c>
       <c r="X128" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="Y128" t="s" s="2">
         <v>665</v>
       </c>
-      <c r="Y128" t="s" s="2">
-        <v>666</v>
-      </c>
       <c r="Z128" t="s" s="2">
         <v>43</v>
       </c>
@@ -17629,7 +17624,7 @@
         <v>43</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>41</v>
@@ -17658,7 +17653,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17684,16 +17679,16 @@
         <v>178</v>
       </c>
       <c r="K129" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="L129" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="L129" t="s" s="2">
+      <c r="M129" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="M129" t="s" s="2">
+      <c r="N129" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>671</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>43</v>
@@ -17721,11 +17716,11 @@
         <v>116</v>
       </c>
       <c r="X129" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="Y129" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="Y129" t="s" s="2">
-        <v>673</v>
-      </c>
       <c r="Z129" t="s" s="2">
         <v>43</v>
       </c>
@@ -17742,7 +17737,7 @@
         <v>43</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>41</v>
@@ -17771,7 +17766,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17794,17 +17789,17 @@
         <v>43</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K130" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="L130" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>676</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>43</v>
@@ -17853,7 +17848,7 @@
         <v>43</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>41</v>
@@ -17882,7 +17877,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17905,17 +17900,17 @@
         <v>43</v>
       </c>
       <c r="J131" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="K131" t="s" s="2">
         <v>679</v>
       </c>
-      <c r="K131" t="s" s="2">
+      <c r="L131" t="s" s="2">
         <v>680</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>681</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>43</v>
@@ -17943,11 +17938,11 @@
         <v>116</v>
       </c>
       <c r="X131" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="Y131" t="s" s="2">
         <v>683</v>
       </c>
-      <c r="Y131" t="s" s="2">
-        <v>684</v>
-      </c>
       <c r="Z131" t="s" s="2">
         <v>43</v>
       </c>
@@ -17964,7 +17959,7 @@
         <v>43</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>41</v>
@@ -17982,7 +17977,7 @@
         <v>43</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>43</v>
@@ -17993,7 +17988,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -18016,17 +18011,17 @@
         <v>43</v>
       </c>
       <c r="J132" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="K132" t="s" s="2">
         <v>686</v>
       </c>
-      <c r="K132" t="s" s="2">
+      <c r="L132" t="s" s="2">
         <v>687</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>688</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>43</v>
@@ -18075,7 +18070,7 @@
         <v>43</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>41</v>
@@ -18104,7 +18099,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -18127,17 +18122,17 @@
         <v>43</v>
       </c>
       <c r="J133" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="K133" t="s" s="2">
         <v>691</v>
       </c>
-      <c r="K133" t="s" s="2">
+      <c r="L133" t="s" s="2">
         <v>692</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>693</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>43</v>
@@ -18186,7 +18181,7 @@
         <v>43</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>41</v>
@@ -18215,7 +18210,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -18238,19 +18233,19 @@
         <v>43</v>
       </c>
       <c r="J134" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="K134" t="s" s="2">
         <v>696</v>
       </c>
-      <c r="K134" t="s" s="2">
+      <c r="L134" t="s" s="2">
         <v>697</v>
       </c>
-      <c r="L134" t="s" s="2">
+      <c r="M134" t="s" s="2">
         <v>698</v>
       </c>
-      <c r="M134" t="s" s="2">
+      <c r="N134" t="s" s="2">
         <v>699</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>700</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>43</v>
@@ -18299,7 +18294,7 @@
         <v>43</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>41</v>
@@ -18328,7 +18323,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -18351,19 +18346,19 @@
         <v>43</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="L135" t="s" s="2">
         <v>702</v>
       </c>
-      <c r="L135" t="s" s="2">
+      <c r="M135" t="s" s="2">
         <v>703</v>
       </c>
-      <c r="M135" t="s" s="2">
+      <c r="N135" t="s" s="2">
         <v>704</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>705</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>43</v>
@@ -18412,7 +18407,7 @@
         <v>43</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>41</v>
@@ -18441,7 +18436,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18464,17 +18459,17 @@
         <v>43</v>
       </c>
       <c r="J136" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="K136" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="K136" t="s" s="2">
+      <c r="L136" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>43</v>
@@ -18523,7 +18518,7 @@
         <v>43</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>41</v>
@@ -18552,7 +18547,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -18578,16 +18573,16 @@
         <v>178</v>
       </c>
       <c r="K137" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="L137" t="s" s="2">
         <v>708</v>
       </c>
-      <c r="L137" t="s" s="2">
+      <c r="M137" t="s" s="2">
         <v>709</v>
       </c>
-      <c r="M137" t="s" s="2">
+      <c r="N137" t="s" s="2">
         <v>710</v>
-      </c>
-      <c r="N137" t="s" s="2">
-        <v>711</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>43</v>
@@ -18615,11 +18610,11 @@
         <v>116</v>
       </c>
       <c r="X137" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="Y137" t="s" s="2">
         <v>712</v>
       </c>
-      <c r="Y137" t="s" s="2">
-        <v>713</v>
-      </c>
       <c r="Z137" t="s" s="2">
         <v>43</v>
       </c>
@@ -18636,7 +18631,7 @@
         <v>43</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>41</v>
@@ -18665,7 +18660,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -18691,14 +18686,14 @@
         <v>178</v>
       </c>
       <c r="K138" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="L138" t="s" s="2">
         <v>715</v>
-      </c>
-      <c r="L138" t="s" s="2">
-        <v>716</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>43</v>
@@ -18726,11 +18721,11 @@
         <v>116</v>
       </c>
       <c r="X138" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="Y138" t="s" s="2">
         <v>717</v>
       </c>
-      <c r="Y138" t="s" s="2">
-        <v>718</v>
-      </c>
       <c r="Z138" t="s" s="2">
         <v>43</v>
       </c>
@@ -18747,7 +18742,7 @@
         <v>43</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>41</v>
@@ -18776,7 +18771,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -18799,17 +18794,17 @@
         <v>43</v>
       </c>
       <c r="J139" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="K139" t="s" s="2">
         <v>720</v>
       </c>
-      <c r="K139" t="s" s="2">
+      <c r="L139" t="s" s="2">
         <v>721</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>722</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" t="s" s="2">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>43</v>
@@ -18858,7 +18853,7 @@
         <v>43</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>41</v>
@@ -18887,7 +18882,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18910,17 +18905,17 @@
         <v>43</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K140" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="L140" t="s" s="2">
         <v>725</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>726</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>43</v>
@@ -18969,7 +18964,7 @@
         <v>43</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>41</v>
@@ -18998,7 +18993,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -19021,17 +19016,17 @@
         <v>43</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K141" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="L141" t="s" s="2">
         <v>729</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>730</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>43</v>
@@ -19080,7 +19075,7 @@
         <v>43</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>41</v>
@@ -19109,7 +19104,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -19218,7 +19213,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -19329,11 +19324,11 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -19355,10 +19350,10 @@
         <v>70</v>
       </c>
       <c r="K144" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L144" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L144" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M144" t="s" s="2">
         <v>73</v>
@@ -19413,7 +19408,7 @@
         <v>43</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>41</v>
@@ -19442,7 +19437,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19468,16 +19463,16 @@
         <v>178</v>
       </c>
       <c r="K145" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="L145" t="s" s="2">
         <v>736</v>
       </c>
-      <c r="L145" t="s" s="2">
+      <c r="M145" t="s" s="2">
         <v>737</v>
       </c>
-      <c r="M145" t="s" s="2">
+      <c r="N145" t="s" s="2">
         <v>738</v>
-      </c>
-      <c r="N145" t="s" s="2">
-        <v>739</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>43</v>
@@ -19506,7 +19501,7 @@
       </c>
       <c r="X145" s="2"/>
       <c r="Y145" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="Z145" t="s" s="2">
         <v>43</v>
@@ -19524,7 +19519,7 @@
         <v>43</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>50</v>
@@ -19553,7 +19548,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19579,16 +19574,16 @@
         <v>178</v>
       </c>
       <c r="K146" t="s" s="2">
+        <v>741</v>
+      </c>
+      <c r="L146" t="s" s="2">
         <v>742</v>
       </c>
-      <c r="L146" t="s" s="2">
+      <c r="M146" t="s" s="2">
         <v>743</v>
       </c>
-      <c r="M146" t="s" s="2">
+      <c r="N146" t="s" s="2">
         <v>744</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>745</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>43</v>
@@ -19616,11 +19611,11 @@
         <v>116</v>
       </c>
       <c r="X146" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="Y146" t="s" s="2">
         <v>746</v>
       </c>
-      <c r="Y146" t="s" s="2">
-        <v>747</v>
-      </c>
       <c r="Z146" t="s" s="2">
         <v>43</v>
       </c>
@@ -19637,7 +19632,7 @@
         <v>43</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>41</v>
@@ -19666,7 +19661,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19689,19 +19684,19 @@
         <v>43</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K147" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="L147" t="s" s="2">
         <v>749</v>
       </c>
-      <c r="L147" t="s" s="2">
+      <c r="M147" t="s" s="2">
         <v>750</v>
       </c>
-      <c r="M147" t="s" s="2">
+      <c r="N147" t="s" s="2">
         <v>751</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>752</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>43</v>
@@ -19750,7 +19745,7 @@
         <v>43</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>41</v>
@@ -19779,7 +19774,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19802,19 +19797,19 @@
         <v>43</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="K148" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="L148" t="s" s="2">
         <v>754</v>
       </c>
-      <c r="L148" t="s" s="2">
+      <c r="M148" t="s" s="2">
         <v>755</v>
       </c>
-      <c r="M148" t="s" s="2">
+      <c r="N148" t="s" s="2">
         <v>756</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>757</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>43</v>
@@ -19863,7 +19858,7 @@
         <v>43</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>41</v>
@@ -19892,7 +19887,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19915,13 +19910,13 @@
         <v>43</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K149" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="L149" t="s" s="2">
         <v>759</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>760</v>
       </c>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
@@ -19972,7 +19967,7 @@
         <v>43</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>41</v>
@@ -20001,7 +19996,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -20110,7 +20105,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -20221,11 +20216,11 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -20247,10 +20242,10 @@
         <v>70</v>
       </c>
       <c r="K152" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L152" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L152" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M152" t="s" s="2">
         <v>73</v>
@@ -20305,7 +20300,7 @@
         <v>43</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>41</v>
@@ -20334,7 +20329,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20357,17 +20352,17 @@
         <v>43</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>43</v>
@@ -20416,7 +20411,7 @@
         <v>43</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>50</v>
@@ -20445,7 +20440,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20471,14 +20466,14 @@
         <v>178</v>
       </c>
       <c r="K154" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="L154" t="s" s="2">
         <v>640</v>
-      </c>
-      <c r="L154" t="s" s="2">
-        <v>641</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>43</v>
@@ -20506,11 +20501,11 @@
         <v>116</v>
       </c>
       <c r="X154" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="Y154" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="Y154" t="s" s="2">
-        <v>644</v>
-      </c>
       <c r="Z154" t="s" s="2">
         <v>43</v>
       </c>
@@ -20527,7 +20522,7 @@
         <v>43</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>41</v>
@@ -20556,7 +20551,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20582,16 +20577,16 @@
         <v>178</v>
       </c>
       <c r="K155" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="L155" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="L155" t="s" s="2">
-        <v>647</v>
-      </c>
       <c r="M155" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>43</v>
@@ -20619,11 +20614,11 @@
         <v>116</v>
       </c>
       <c r="X155" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="Y155" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="Y155" t="s" s="2">
-        <v>651</v>
-      </c>
       <c r="Z155" t="s" s="2">
         <v>43</v>
       </c>
@@ -20640,7 +20635,7 @@
         <v>43</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>41</v>
@@ -20669,11 +20664,11 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -20695,16 +20690,16 @@
         <v>178</v>
       </c>
       <c r="K156" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="L156" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="L156" t="s" s="2">
+      <c r="M156" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="M156" t="s" s="2">
+      <c r="N156" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>657</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>43</v>
@@ -20732,11 +20727,11 @@
         <v>116</v>
       </c>
       <c r="X156" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="Y156" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="Y156" t="s" s="2">
-        <v>659</v>
-      </c>
       <c r="Z156" t="s" s="2">
         <v>43</v>
       </c>
@@ -20753,7 +20748,7 @@
         <v>43</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>50</v>
@@ -20782,7 +20777,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20808,16 +20803,16 @@
         <v>178</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="L157" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="M157" t="s" s="2">
         <v>662</v>
       </c>
-      <c r="M157" t="s" s="2">
+      <c r="N157" t="s" s="2">
         <v>663</v>
-      </c>
-      <c r="N157" t="s" s="2">
-        <v>664</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>43</v>
@@ -20845,11 +20840,11 @@
         <v>116</v>
       </c>
       <c r="X157" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="Y157" t="s" s="2">
         <v>665</v>
       </c>
-      <c r="Y157" t="s" s="2">
-        <v>666</v>
-      </c>
       <c r="Z157" t="s" s="2">
         <v>43</v>
       </c>
@@ -20866,7 +20861,7 @@
         <v>43</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>41</v>
@@ -20895,7 +20890,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20921,16 +20916,16 @@
         <v>178</v>
       </c>
       <c r="K158" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="L158" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="L158" t="s" s="2">
+      <c r="M158" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="M158" t="s" s="2">
+      <c r="N158" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>671</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>43</v>
@@ -20958,11 +20953,11 @@
         <v>116</v>
       </c>
       <c r="X158" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="Y158" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="Y158" t="s" s="2">
-        <v>673</v>
-      </c>
       <c r="Z158" t="s" s="2">
         <v>43</v>
       </c>
@@ -20979,7 +20974,7 @@
         <v>43</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>41</v>
@@ -21008,7 +21003,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -21031,17 +21026,17 @@
         <v>43</v>
       </c>
       <c r="J159" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="K159" t="s" s="2">
         <v>686</v>
       </c>
-      <c r="K159" t="s" s="2">
+      <c r="L159" t="s" s="2">
         <v>687</v>
-      </c>
-      <c r="L159" t="s" s="2">
-        <v>688</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>43</v>
@@ -21090,7 +21085,7 @@
         <v>43</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>41</v>
@@ -21119,7 +21114,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -21142,17 +21137,17 @@
         <v>43</v>
       </c>
       <c r="J160" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="K160" t="s" s="2">
         <v>691</v>
       </c>
-      <c r="K160" t="s" s="2">
+      <c r="L160" t="s" s="2">
         <v>692</v>
-      </c>
-      <c r="L160" t="s" s="2">
-        <v>693</v>
       </c>
       <c r="M160" s="2"/>
       <c r="N160" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>43</v>
@@ -21201,7 +21196,7 @@
         <v>43</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>41</v>
@@ -21230,7 +21225,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -21253,19 +21248,19 @@
         <v>43</v>
       </c>
       <c r="J161" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="K161" t="s" s="2">
         <v>696</v>
       </c>
-      <c r="K161" t="s" s="2">
+      <c r="L161" t="s" s="2">
         <v>697</v>
       </c>
-      <c r="L161" t="s" s="2">
+      <c r="M161" t="s" s="2">
         <v>698</v>
       </c>
-      <c r="M161" t="s" s="2">
+      <c r="N161" t="s" s="2">
         <v>699</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>700</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>43</v>
@@ -21314,7 +21309,7 @@
         <v>43</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>41</v>
@@ -21343,7 +21338,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21366,19 +21361,19 @@
         <v>43</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K162" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="L162" t="s" s="2">
         <v>702</v>
       </c>
-      <c r="L162" t="s" s="2">
+      <c r="M162" t="s" s="2">
         <v>703</v>
       </c>
-      <c r="M162" t="s" s="2">
+      <c r="N162" t="s" s="2">
         <v>704</v>
-      </c>
-      <c r="N162" t="s" s="2">
-        <v>705</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>43</v>
@@ -21427,7 +21422,7 @@
         <v>43</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>41</v>
@@ -21456,7 +21451,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21479,17 +21474,17 @@
         <v>43</v>
       </c>
       <c r="J163" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="K163" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="K163" t="s" s="2">
+      <c r="L163" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="L163" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="M163" s="2"/>
       <c r="N163" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>43</v>
@@ -21538,7 +21533,7 @@
         <v>43</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>41</v>
@@ -21567,7 +21562,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21590,17 +21585,17 @@
         <v>43</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>43</v>
@@ -21649,7 +21644,7 @@
         <v>43</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>41</v>
@@ -21678,7 +21673,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21704,10 +21699,10 @@
         <v>43</v>
       </c>
       <c r="K165" t="s" s="2">
+        <v>780</v>
+      </c>
+      <c r="L165" t="s" s="2">
         <v>781</v>
-      </c>
-      <c r="L165" t="s" s="2">
-        <v>782</v>
       </c>
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
@@ -21758,7 +21753,7 @@
         <v>43</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>41</v>
@@ -21787,7 +21782,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21810,13 +21805,13 @@
         <v>43</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
@@ -21867,7 +21862,7 @@
         <v>43</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>41</v>
@@ -21896,7 +21891,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -22005,7 +22000,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -22116,11 +22111,11 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
@@ -22142,10 +22137,10 @@
         <v>70</v>
       </c>
       <c r="K169" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L169" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L169" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M169" t="s" s="2">
         <v>73</v>
@@ -22200,7 +22195,7 @@
         <v>43</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>41</v>
@@ -22229,7 +22224,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -22252,17 +22247,17 @@
         <v>43</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>43</v>
@@ -22311,7 +22306,7 @@
         <v>43</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>50</v>
@@ -22340,7 +22335,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -22366,14 +22361,14 @@
         <v>178</v>
       </c>
       <c r="K171" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="L171" t="s" s="2">
         <v>640</v>
-      </c>
-      <c r="L171" t="s" s="2">
-        <v>641</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>43</v>
@@ -22401,11 +22396,11 @@
         <v>116</v>
       </c>
       <c r="X171" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="Y171" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="Y171" t="s" s="2">
-        <v>644</v>
-      </c>
       <c r="Z171" t="s" s="2">
         <v>43</v>
       </c>
@@ -22422,7 +22417,7 @@
         <v>43</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>41</v>
@@ -22451,7 +22446,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22477,16 +22472,16 @@
         <v>178</v>
       </c>
       <c r="K172" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="L172" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="L172" t="s" s="2">
+      <c r="M172" t="s" s="2">
         <v>647</v>
       </c>
-      <c r="M172" t="s" s="2">
+      <c r="N172" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="N172" t="s" s="2">
-        <v>649</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>43</v>
@@ -22514,11 +22509,11 @@
         <v>116</v>
       </c>
       <c r="X172" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="Y172" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="Y172" t="s" s="2">
-        <v>651</v>
-      </c>
       <c r="Z172" t="s" s="2">
         <v>43</v>
       </c>
@@ -22535,7 +22530,7 @@
         <v>43</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>41</v>
@@ -22564,11 +22559,11 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
@@ -22590,16 +22585,16 @@
         <v>178</v>
       </c>
       <c r="K173" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="L173" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="L173" t="s" s="2">
+      <c r="M173" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="M173" t="s" s="2">
+      <c r="N173" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="N173" t="s" s="2">
-        <v>657</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>43</v>
@@ -22627,11 +22622,11 @@
         <v>116</v>
       </c>
       <c r="X173" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="Y173" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="Y173" t="s" s="2">
-        <v>659</v>
-      </c>
       <c r="Z173" t="s" s="2">
         <v>43</v>
       </c>
@@ -22648,7 +22643,7 @@
         <v>43</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>50</v>
@@ -22677,7 +22672,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22703,16 +22698,16 @@
         <v>178</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>43</v>
@@ -22740,11 +22735,11 @@
         <v>116</v>
       </c>
       <c r="X174" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="Y174" t="s" s="2">
         <v>665</v>
       </c>
-      <c r="Y174" t="s" s="2">
-        <v>666</v>
-      </c>
       <c r="Z174" t="s" s="2">
         <v>43</v>
       </c>
@@ -22761,7 +22756,7 @@
         <v>43</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>41</v>
@@ -22790,7 +22785,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22816,16 +22811,16 @@
         <v>178</v>
       </c>
       <c r="K175" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="L175" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="L175" t="s" s="2">
+      <c r="M175" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="M175" t="s" s="2">
+      <c r="N175" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="N175" t="s" s="2">
-        <v>671</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>43</v>
@@ -22853,11 +22848,11 @@
         <v>116</v>
       </c>
       <c r="X175" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="Y175" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="Y175" t="s" s="2">
-        <v>673</v>
-      </c>
       <c r="Z175" t="s" s="2">
         <v>43</v>
       </c>
@@ -22874,7 +22869,7 @@
         <v>43</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>41</v>
@@ -22903,7 +22898,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -22926,17 +22921,17 @@
         <v>43</v>
       </c>
       <c r="J176" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="K176" t="s" s="2">
         <v>686</v>
       </c>
-      <c r="K176" t="s" s="2">
+      <c r="L176" t="s" s="2">
         <v>687</v>
-      </c>
-      <c r="L176" t="s" s="2">
-        <v>688</v>
       </c>
       <c r="M176" s="2"/>
       <c r="N176" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>43</v>
@@ -22985,7 +22980,7 @@
         <v>43</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>41</v>
@@ -23014,7 +23009,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -23037,17 +23032,17 @@
         <v>43</v>
       </c>
       <c r="J177" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="K177" t="s" s="2">
         <v>691</v>
       </c>
-      <c r="K177" t="s" s="2">
+      <c r="L177" t="s" s="2">
         <v>692</v>
-      </c>
-      <c r="L177" t="s" s="2">
-        <v>693</v>
       </c>
       <c r="M177" s="2"/>
       <c r="N177" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>43</v>
@@ -23096,7 +23091,7 @@
         <v>43</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>41</v>
@@ -23125,7 +23120,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23148,19 +23143,19 @@
         <v>43</v>
       </c>
       <c r="J178" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="K178" t="s" s="2">
         <v>696</v>
       </c>
-      <c r="K178" t="s" s="2">
+      <c r="L178" t="s" s="2">
         <v>697</v>
       </c>
-      <c r="L178" t="s" s="2">
+      <c r="M178" t="s" s="2">
         <v>698</v>
       </c>
-      <c r="M178" t="s" s="2">
+      <c r="N178" t="s" s="2">
         <v>699</v>
-      </c>
-      <c r="N178" t="s" s="2">
-        <v>700</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>43</v>
@@ -23209,7 +23204,7 @@
         <v>43</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>41</v>
@@ -23238,7 +23233,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -23261,19 +23256,19 @@
         <v>43</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K179" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="L179" t="s" s="2">
         <v>702</v>
       </c>
-      <c r="L179" t="s" s="2">
+      <c r="M179" t="s" s="2">
         <v>703</v>
       </c>
-      <c r="M179" t="s" s="2">
+      <c r="N179" t="s" s="2">
         <v>704</v>
-      </c>
-      <c r="N179" t="s" s="2">
-        <v>705</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>43</v>
@@ -23322,7 +23317,7 @@
         <v>43</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>41</v>
@@ -23351,7 +23346,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23374,17 +23369,17 @@
         <v>43</v>
       </c>
       <c r="J180" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="K180" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="K180" t="s" s="2">
+      <c r="L180" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="L180" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="M180" s="2"/>
       <c r="N180" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>43</v>
@@ -23433,7 +23428,7 @@
         <v>43</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>41</v>
@@ -23462,7 +23457,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -23485,17 +23480,17 @@
         <v>43</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="M181" s="2"/>
       <c r="N181" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="O181" t="s" s="2">
         <v>43</v>
@@ -23544,7 +23539,7 @@
         <v>43</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>41</v>
@@ -23573,7 +23568,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23599,10 +23594,10 @@
         <v>43</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M182" s="2"/>
       <c r="N182" s="2"/>
@@ -23653,7 +23648,7 @@
         <v>43</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>41</v>
@@ -23682,7 +23677,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -23705,17 +23700,17 @@
         <v>43</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K183" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="L183" t="s" s="2">
         <v>804</v>
-      </c>
-      <c r="L183" t="s" s="2">
-        <v>805</v>
       </c>
       <c r="M183" s="2"/>
       <c r="N183" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="O183" t="s" s="2">
         <v>43</v>
@@ -23764,7 +23759,7 @@
         <v>43</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>41</v>
@@ -23793,7 +23788,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23902,7 +23897,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -24013,11 +24008,11 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" t="s" s="2">
@@ -24039,10 +24034,10 @@
         <v>70</v>
       </c>
       <c r="K186" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L186" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L186" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M186" t="s" s="2">
         <v>73</v>
@@ -24097,7 +24092,7 @@
         <v>43</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>41</v>
@@ -24126,7 +24121,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -24149,17 +24144,17 @@
         <v>43</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K187" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="L187" t="s" s="2">
         <v>811</v>
-      </c>
-      <c r="L187" t="s" s="2">
-        <v>812</v>
       </c>
       <c r="M187" s="2"/>
       <c r="N187" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>43</v>
@@ -24208,7 +24203,7 @@
         <v>43</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>41</v>
@@ -24237,7 +24232,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -24260,17 +24255,17 @@
         <v>43</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K188" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="L188" t="s" s="2">
         <v>815</v>
-      </c>
-      <c r="L188" t="s" s="2">
-        <v>816</v>
       </c>
       <c r="M188" s="2"/>
       <c r="N188" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>43</v>
@@ -24319,7 +24314,7 @@
         <v>43</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>41</v>
@@ -24348,7 +24343,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -24371,17 +24366,17 @@
         <v>43</v>
       </c>
       <c r="J189" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K189" t="s" s="2">
+        <v>818</v>
+      </c>
+      <c r="L189" t="s" s="2">
         <v>819</v>
-      </c>
-      <c r="L189" t="s" s="2">
-        <v>820</v>
       </c>
       <c r="M189" s="2"/>
       <c r="N189" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>43</v>
@@ -24430,7 +24425,7 @@
         <v>43</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>41</v>
@@ -24459,7 +24454,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -24482,17 +24477,17 @@
         <v>43</v>
       </c>
       <c r="J190" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="K190" t="s" s="2">
         <v>823</v>
       </c>
-      <c r="K190" t="s" s="2">
+      <c r="L190" t="s" s="2">
         <v>824</v>
-      </c>
-      <c r="L190" t="s" s="2">
-        <v>825</v>
       </c>
       <c r="M190" s="2"/>
       <c r="N190" t="s" s="2">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>43</v>
@@ -24541,7 +24536,7 @@
         <v>43</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>41</v>
@@ -24570,11 +24565,11 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -24596,16 +24591,16 @@
         <v>178</v>
       </c>
       <c r="K191" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="L191" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="L191" t="s" s="2">
+      <c r="M191" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="M191" t="s" s="2">
+      <c r="N191" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="N191" t="s" s="2">
-        <v>657</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>43</v>
@@ -24633,11 +24628,11 @@
         <v>116</v>
       </c>
       <c r="X191" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="Y191" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="Y191" t="s" s="2">
-        <v>659</v>
-      </c>
       <c r="Z191" t="s" s="2">
         <v>43</v>
       </c>
@@ -24654,7 +24649,7 @@
         <v>43</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>50</v>
@@ -24683,7 +24678,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24709,16 +24704,16 @@
         <v>178</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="L192" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="M192" t="s" s="2">
         <v>662</v>
       </c>
-      <c r="M192" t="s" s="2">
+      <c r="N192" t="s" s="2">
         <v>663</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>664</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>43</v>
@@ -24746,11 +24741,11 @@
         <v>116</v>
       </c>
       <c r="X192" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="Y192" t="s" s="2">
         <v>665</v>
       </c>
-      <c r="Y192" t="s" s="2">
-        <v>666</v>
-      </c>
       <c r="Z192" t="s" s="2">
         <v>43</v>
       </c>
@@ -24767,7 +24762,7 @@
         <v>43</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>41</v>
@@ -24796,7 +24791,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -24822,16 +24817,16 @@
         <v>178</v>
       </c>
       <c r="K193" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="L193" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="L193" t="s" s="2">
+      <c r="M193" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="M193" t="s" s="2">
+      <c r="N193" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="N193" t="s" s="2">
-        <v>671</v>
       </c>
       <c r="O193" t="s" s="2">
         <v>43</v>
@@ -24859,11 +24854,11 @@
         <v>116</v>
       </c>
       <c r="X193" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="Y193" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="Y193" t="s" s="2">
-        <v>673</v>
-      </c>
       <c r="Z193" t="s" s="2">
         <v>43</v>
       </c>
@@ -24880,7 +24875,7 @@
         <v>43</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>41</v>
@@ -24909,7 +24904,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -24932,17 +24927,17 @@
         <v>43</v>
       </c>
       <c r="J194" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K194" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="L194" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="L194" t="s" s="2">
-        <v>676</v>
       </c>
       <c r="M194" s="2"/>
       <c r="N194" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="O194" t="s" s="2">
         <v>43</v>
@@ -24991,7 +24986,7 @@
         <v>43</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>41</v>
@@ -25020,7 +25015,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -25043,17 +25038,17 @@
         <v>43</v>
       </c>
       <c r="J195" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="K195" t="s" s="2">
         <v>679</v>
       </c>
-      <c r="K195" t="s" s="2">
+      <c r="L195" t="s" s="2">
         <v>680</v>
-      </c>
-      <c r="L195" t="s" s="2">
-        <v>681</v>
       </c>
       <c r="M195" s="2"/>
       <c r="N195" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O195" t="s" s="2">
         <v>43</v>
@@ -25081,11 +25076,11 @@
         <v>116</v>
       </c>
       <c r="X195" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="Y195" t="s" s="2">
         <v>683</v>
       </c>
-      <c r="Y195" t="s" s="2">
-        <v>684</v>
-      </c>
       <c r="Z195" t="s" s="2">
         <v>43</v>
       </c>
@@ -25102,7 +25097,7 @@
         <v>43</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>41</v>
@@ -25120,7 +25115,7 @@
         <v>43</v>
       </c>
       <c r="AK195" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AL195" t="s" s="2">
         <v>43</v>
@@ -25131,7 +25126,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -25154,17 +25149,17 @@
         <v>43</v>
       </c>
       <c r="J196" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="K196" t="s" s="2">
         <v>686</v>
       </c>
-      <c r="K196" t="s" s="2">
+      <c r="L196" t="s" s="2">
         <v>687</v>
-      </c>
-      <c r="L196" t="s" s="2">
-        <v>688</v>
       </c>
       <c r="M196" s="2"/>
       <c r="N196" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>43</v>
@@ -25213,7 +25208,7 @@
         <v>43</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>41</v>
@@ -25242,7 +25237,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -25265,17 +25260,17 @@
         <v>43</v>
       </c>
       <c r="J197" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="K197" t="s" s="2">
         <v>691</v>
       </c>
-      <c r="K197" t="s" s="2">
+      <c r="L197" t="s" s="2">
         <v>692</v>
-      </c>
-      <c r="L197" t="s" s="2">
-        <v>693</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>43</v>
@@ -25324,7 +25319,7 @@
         <v>43</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>41</v>
@@ -25353,7 +25348,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25376,19 +25371,19 @@
         <v>43</v>
       </c>
       <c r="J198" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="K198" t="s" s="2">
         <v>696</v>
       </c>
-      <c r="K198" t="s" s="2">
+      <c r="L198" t="s" s="2">
         <v>697</v>
       </c>
-      <c r="L198" t="s" s="2">
+      <c r="M198" t="s" s="2">
         <v>698</v>
       </c>
-      <c r="M198" t="s" s="2">
+      <c r="N198" t="s" s="2">
         <v>699</v>
-      </c>
-      <c r="N198" t="s" s="2">
-        <v>700</v>
       </c>
       <c r="O198" t="s" s="2">
         <v>43</v>
@@ -25437,7 +25432,7 @@
         <v>43</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>41</v>
@@ -25466,7 +25461,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25489,19 +25484,19 @@
         <v>43</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K199" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="L199" t="s" s="2">
         <v>702</v>
       </c>
-      <c r="L199" t="s" s="2">
+      <c r="M199" t="s" s="2">
         <v>703</v>
       </c>
-      <c r="M199" t="s" s="2">
+      <c r="N199" t="s" s="2">
         <v>704</v>
-      </c>
-      <c r="N199" t="s" s="2">
-        <v>705</v>
       </c>
       <c r="O199" t="s" s="2">
         <v>43</v>
@@ -25550,7 +25545,7 @@
         <v>43</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>41</v>
@@ -25579,7 +25574,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -25605,16 +25600,16 @@
         <v>178</v>
       </c>
       <c r="K200" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="L200" t="s" s="2">
         <v>708</v>
       </c>
-      <c r="L200" t="s" s="2">
-        <v>709</v>
-      </c>
       <c r="M200" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>43</v>
@@ -25642,11 +25637,11 @@
         <v>116</v>
       </c>
       <c r="X200" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="Y200" t="s" s="2">
         <v>712</v>
       </c>
-      <c r="Y200" t="s" s="2">
-        <v>713</v>
-      </c>
       <c r="Z200" t="s" s="2">
         <v>43</v>
       </c>
@@ -25663,7 +25658,7 @@
         <v>43</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>41</v>
@@ -25692,7 +25687,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -25718,14 +25713,14 @@
         <v>178</v>
       </c>
       <c r="K201" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="L201" t="s" s="2">
         <v>715</v>
-      </c>
-      <c r="L201" t="s" s="2">
-        <v>716</v>
       </c>
       <c r="M201" s="2"/>
       <c r="N201" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="O201" t="s" s="2">
         <v>43</v>
@@ -25753,11 +25748,11 @@
         <v>116</v>
       </c>
       <c r="X201" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="Y201" t="s" s="2">
         <v>717</v>
       </c>
-      <c r="Y201" t="s" s="2">
-        <v>718</v>
-      </c>
       <c r="Z201" t="s" s="2">
         <v>43</v>
       </c>
@@ -25774,7 +25769,7 @@
         <v>43</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>41</v>
@@ -25803,7 +25798,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -25826,17 +25821,17 @@
         <v>43</v>
       </c>
       <c r="J202" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="M202" s="2"/>
       <c r="N202" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="O202" t="s" s="2">
         <v>43</v>
@@ -25885,7 +25880,7 @@
         <v>43</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>41</v>
@@ -25914,7 +25909,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -25940,10 +25935,10 @@
         <v>43</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M203" s="2"/>
       <c r="N203" s="2"/>
@@ -25994,7 +25989,7 @@
         <v>43</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>41</v>
@@ -26023,7 +26018,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -26046,13 +26041,13 @@
         <v>43</v>
       </c>
       <c r="J204" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" s="2"/>
@@ -26103,7 +26098,7 @@
         <v>43</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>41</v>
@@ -26132,7 +26127,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -26241,7 +26236,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26352,11 +26347,11 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
@@ -26378,10 +26373,10 @@
         <v>70</v>
       </c>
       <c r="K207" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L207" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L207" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M207" t="s" s="2">
         <v>73</v>
@@ -26436,7 +26431,7 @@
         <v>43</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF207" t="s" s="2">
         <v>41</v>
@@ -26465,11 +26460,11 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
@@ -26491,16 +26486,16 @@
         <v>178</v>
       </c>
       <c r="K208" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="L208" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="L208" t="s" s="2">
+      <c r="M208" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="M208" t="s" s="2">
+      <c r="N208" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="N208" t="s" s="2">
-        <v>657</v>
       </c>
       <c r="O208" t="s" s="2">
         <v>43</v>
@@ -26528,11 +26523,11 @@
         <v>116</v>
       </c>
       <c r="X208" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="Y208" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="Y208" t="s" s="2">
-        <v>659</v>
-      </c>
       <c r="Z208" t="s" s="2">
         <v>43</v>
       </c>
@@ -26549,7 +26544,7 @@
         <v>43</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>50</v>
@@ -26578,7 +26573,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -26604,16 +26599,16 @@
         <v>178</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="L209" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="M209" t="s" s="2">
         <v>662</v>
       </c>
-      <c r="M209" t="s" s="2">
+      <c r="N209" t="s" s="2">
         <v>663</v>
-      </c>
-      <c r="N209" t="s" s="2">
-        <v>664</v>
       </c>
       <c r="O209" t="s" s="2">
         <v>43</v>
@@ -26641,11 +26636,11 @@
         <v>116</v>
       </c>
       <c r="X209" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="Y209" t="s" s="2">
         <v>665</v>
       </c>
-      <c r="Y209" t="s" s="2">
-        <v>666</v>
-      </c>
       <c r="Z209" t="s" s="2">
         <v>43</v>
       </c>
@@ -26662,7 +26657,7 @@
         <v>43</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>41</v>
@@ -26691,7 +26686,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -26714,17 +26709,17 @@
         <v>43</v>
       </c>
       <c r="J210" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="K210" t="s" s="2">
         <v>686</v>
       </c>
-      <c r="K210" t="s" s="2">
+      <c r="L210" t="s" s="2">
         <v>687</v>
-      </c>
-      <c r="L210" t="s" s="2">
-        <v>688</v>
       </c>
       <c r="M210" s="2"/>
       <c r="N210" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>43</v>
@@ -26773,7 +26768,7 @@
         <v>43</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>41</v>
@@ -26802,7 +26797,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -26825,17 +26820,17 @@
         <v>43</v>
       </c>
       <c r="J211" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="K211" t="s" s="2">
         <v>691</v>
       </c>
-      <c r="K211" t="s" s="2">
+      <c r="L211" t="s" s="2">
         <v>692</v>
-      </c>
-      <c r="L211" t="s" s="2">
-        <v>693</v>
       </c>
       <c r="M211" s="2"/>
       <c r="N211" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="O211" t="s" s="2">
         <v>43</v>
@@ -26884,7 +26879,7 @@
         <v>43</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>41</v>
@@ -26913,7 +26908,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -26936,19 +26931,19 @@
         <v>43</v>
       </c>
       <c r="J212" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="K212" t="s" s="2">
         <v>696</v>
       </c>
-      <c r="K212" t="s" s="2">
+      <c r="L212" t="s" s="2">
         <v>697</v>
       </c>
-      <c r="L212" t="s" s="2">
+      <c r="M212" t="s" s="2">
         <v>698</v>
       </c>
-      <c r="M212" t="s" s="2">
+      <c r="N212" t="s" s="2">
         <v>699</v>
-      </c>
-      <c r="N212" t="s" s="2">
-        <v>700</v>
       </c>
       <c r="O212" t="s" s="2">
         <v>43</v>
@@ -26997,7 +26992,7 @@
         <v>43</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>41</v>
@@ -27026,7 +27021,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -27049,19 +27044,19 @@
         <v>43</v>
       </c>
       <c r="J213" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K213" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="L213" t="s" s="2">
         <v>702</v>
       </c>
-      <c r="L213" t="s" s="2">
+      <c r="M213" t="s" s="2">
         <v>703</v>
       </c>
-      <c r="M213" t="s" s="2">
+      <c r="N213" t="s" s="2">
         <v>704</v>
-      </c>
-      <c r="N213" t="s" s="2">
-        <v>705</v>
       </c>
       <c r="O213" t="s" s="2">
         <v>43</v>
@@ -27110,7 +27105,7 @@
         <v>43</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="AF213" t="s" s="2">
         <v>41</v>
@@ -27139,7 +27134,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -27162,17 +27157,17 @@
         <v>43</v>
       </c>
       <c r="J214" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="M214" s="2"/>
       <c r="N214" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="O214" t="s" s="2">
         <v>43</v>
@@ -27221,7 +27216,7 @@
         <v>43</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>41</v>
@@ -27250,7 +27245,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -27276,10 +27271,10 @@
         <v>43</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M215" s="2"/>
       <c r="N215" s="2"/>
@@ -27330,7 +27325,7 @@
         <v>43</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AF215" t="s" s="2">
         <v>41</v>
@@ -27359,7 +27354,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -27382,13 +27377,13 @@
         <v>43</v>
       </c>
       <c r="J216" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="M216" s="2"/>
       <c r="N216" s="2"/>
@@ -27439,7 +27434,7 @@
         <v>43</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>41</v>
@@ -27468,7 +27463,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -27577,7 +27572,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -27688,11 +27683,11 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" t="s" s="2">
@@ -27714,10 +27709,10 @@
         <v>70</v>
       </c>
       <c r="K219" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L219" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L219" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M219" t="s" s="2">
         <v>73</v>
@@ -27772,7 +27767,7 @@
         <v>43</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>41</v>
@@ -27801,11 +27796,11 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" t="s" s="2">
@@ -27827,16 +27822,16 @@
         <v>178</v>
       </c>
       <c r="K220" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="L220" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="L220" t="s" s="2">
+      <c r="M220" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="M220" t="s" s="2">
+      <c r="N220" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="N220" t="s" s="2">
-        <v>657</v>
       </c>
       <c r="O220" t="s" s="2">
         <v>43</v>
@@ -27864,11 +27859,11 @@
         <v>116</v>
       </c>
       <c r="X220" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="Y220" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="Y220" t="s" s="2">
-        <v>659</v>
-      </c>
       <c r="Z220" t="s" s="2">
         <v>43</v>
       </c>
@@ -27885,7 +27880,7 @@
         <v>43</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AF220" t="s" s="2">
         <v>50</v>
@@ -27914,7 +27909,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -27940,16 +27935,16 @@
         <v>178</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="L221" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="M221" t="s" s="2">
         <v>662</v>
       </c>
-      <c r="M221" t="s" s="2">
+      <c r="N221" t="s" s="2">
         <v>663</v>
-      </c>
-      <c r="N221" t="s" s="2">
-        <v>664</v>
       </c>
       <c r="O221" t="s" s="2">
         <v>43</v>
@@ -27977,11 +27972,11 @@
         <v>116</v>
       </c>
       <c r="X221" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="Y221" t="s" s="2">
         <v>665</v>
       </c>
-      <c r="Y221" t="s" s="2">
-        <v>666</v>
-      </c>
       <c r="Z221" t="s" s="2">
         <v>43</v>
       </c>
@@ -27998,7 +27993,7 @@
         <v>43</v>
       </c>
       <c r="AE221" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="AF221" t="s" s="2">
         <v>41</v>
@@ -28027,7 +28022,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -28050,17 +28045,17 @@
         <v>43</v>
       </c>
       <c r="J222" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="K222" t="s" s="2">
         <v>686</v>
       </c>
-      <c r="K222" t="s" s="2">
+      <c r="L222" t="s" s="2">
         <v>687</v>
-      </c>
-      <c r="L222" t="s" s="2">
-        <v>688</v>
       </c>
       <c r="M222" s="2"/>
       <c r="N222" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="O222" t="s" s="2">
         <v>43</v>
@@ -28109,7 +28104,7 @@
         <v>43</v>
       </c>
       <c r="AE222" t="s" s="2">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="AF222" t="s" s="2">
         <v>41</v>
@@ -28138,7 +28133,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -28161,17 +28156,17 @@
         <v>43</v>
       </c>
       <c r="J223" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="K223" t="s" s="2">
         <v>691</v>
       </c>
-      <c r="K223" t="s" s="2">
+      <c r="L223" t="s" s="2">
         <v>692</v>
-      </c>
-      <c r="L223" t="s" s="2">
-        <v>693</v>
       </c>
       <c r="M223" s="2"/>
       <c r="N223" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="O223" t="s" s="2">
         <v>43</v>
@@ -28220,7 +28215,7 @@
         <v>43</v>
       </c>
       <c r="AE223" t="s" s="2">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="AF223" t="s" s="2">
         <v>41</v>
@@ -28249,7 +28244,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -28272,19 +28267,19 @@
         <v>43</v>
       </c>
       <c r="J224" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="K224" t="s" s="2">
         <v>696</v>
       </c>
-      <c r="K224" t="s" s="2">
+      <c r="L224" t="s" s="2">
         <v>697</v>
       </c>
-      <c r="L224" t="s" s="2">
+      <c r="M224" t="s" s="2">
         <v>698</v>
       </c>
-      <c r="M224" t="s" s="2">
+      <c r="N224" t="s" s="2">
         <v>699</v>
-      </c>
-      <c r="N224" t="s" s="2">
-        <v>700</v>
       </c>
       <c r="O224" t="s" s="2">
         <v>43</v>
@@ -28333,7 +28328,7 @@
         <v>43</v>
       </c>
       <c r="AE224" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AF224" t="s" s="2">
         <v>41</v>
@@ -28362,7 +28357,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -28385,19 +28380,19 @@
         <v>43</v>
       </c>
       <c r="J225" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K225" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="L225" t="s" s="2">
         <v>702</v>
       </c>
-      <c r="L225" t="s" s="2">
+      <c r="M225" t="s" s="2">
         <v>703</v>
       </c>
-      <c r="M225" t="s" s="2">
+      <c r="N225" t="s" s="2">
         <v>704</v>
-      </c>
-      <c r="N225" t="s" s="2">
-        <v>705</v>
       </c>
       <c r="O225" t="s" s="2">
         <v>43</v>
@@ -28446,7 +28441,7 @@
         <v>43</v>
       </c>
       <c r="AE225" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="AF225" t="s" s="2">
         <v>41</v>
@@ -28475,7 +28470,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -28498,17 +28493,17 @@
         <v>43</v>
       </c>
       <c r="J226" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="M226" s="2"/>
       <c r="N226" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="O226" t="s" s="2">
         <v>43</v>
@@ -28557,7 +28552,7 @@
         <v>43</v>
       </c>
       <c r="AE226" t="s" s="2">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="AF226" t="s" s="2">
         <v>41</v>
@@ -28586,7 +28581,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -28612,10 +28607,10 @@
         <v>43</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M227" s="2"/>
       <c r="N227" s="2"/>
@@ -28666,7 +28661,7 @@
         <v>43</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>41</v>
@@ -28695,7 +28690,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -28718,17 +28713,17 @@
         <v>43</v>
       </c>
       <c r="J228" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K228" t="s" s="2">
+        <v>868</v>
+      </c>
+      <c r="L228" t="s" s="2">
         <v>869</v>
-      </c>
-      <c r="L228" t="s" s="2">
-        <v>870</v>
       </c>
       <c r="M228" s="2"/>
       <c r="N228" t="s" s="2">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="O228" t="s" s="2">
         <v>43</v>
@@ -28777,7 +28772,7 @@
         <v>43</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="AF228" t="s" s="2">
         <v>41</v>
@@ -28806,7 +28801,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -28915,7 +28910,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -29026,11 +29021,11 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" t="s" s="2">
@@ -29052,10 +29047,10 @@
         <v>70</v>
       </c>
       <c r="K231" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L231" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L231" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M231" t="s" s="2">
         <v>73</v>
@@ -29110,7 +29105,7 @@
         <v>43</v>
       </c>
       <c r="AE231" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF231" t="s" s="2">
         <v>41</v>
@@ -29139,7 +29134,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -29165,16 +29160,16 @@
         <v>178</v>
       </c>
       <c r="K232" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="L232" t="s" s="2">
         <v>736</v>
       </c>
-      <c r="L232" t="s" s="2">
+      <c r="M232" t="s" s="2">
         <v>737</v>
       </c>
-      <c r="M232" t="s" s="2">
+      <c r="N232" t="s" s="2">
         <v>738</v>
-      </c>
-      <c r="N232" t="s" s="2">
-        <v>739</v>
       </c>
       <c r="O232" t="s" s="2">
         <v>43</v>
@@ -29203,7 +29198,7 @@
       </c>
       <c r="X232" s="2"/>
       <c r="Y232" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="Z232" t="s" s="2">
         <v>43</v>
@@ -29221,7 +29216,7 @@
         <v>43</v>
       </c>
       <c r="AE232" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AF232" t="s" s="2">
         <v>50</v>
@@ -29250,7 +29245,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -29276,16 +29271,16 @@
         <v>178</v>
       </c>
       <c r="K233" t="s" s="2">
+        <v>741</v>
+      </c>
+      <c r="L233" t="s" s="2">
         <v>742</v>
       </c>
-      <c r="L233" t="s" s="2">
+      <c r="M233" t="s" s="2">
         <v>743</v>
       </c>
-      <c r="M233" t="s" s="2">
+      <c r="N233" t="s" s="2">
         <v>744</v>
-      </c>
-      <c r="N233" t="s" s="2">
-        <v>745</v>
       </c>
       <c r="O233" t="s" s="2">
         <v>43</v>
@@ -29313,11 +29308,11 @@
         <v>116</v>
       </c>
       <c r="X233" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="Y233" t="s" s="2">
         <v>746</v>
       </c>
-      <c r="Y233" t="s" s="2">
-        <v>747</v>
-      </c>
       <c r="Z233" t="s" s="2">
         <v>43</v>
       </c>
@@ -29334,7 +29329,7 @@
         <v>43</v>
       </c>
       <c r="AE233" t="s" s="2">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AF233" t="s" s="2">
         <v>41</v>
@@ -29363,7 +29358,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -29386,19 +29381,19 @@
         <v>43</v>
       </c>
       <c r="J234" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K234" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="L234" t="s" s="2">
         <v>749</v>
       </c>
-      <c r="L234" t="s" s="2">
+      <c r="M234" t="s" s="2">
         <v>750</v>
       </c>
-      <c r="M234" t="s" s="2">
+      <c r="N234" t="s" s="2">
         <v>751</v>
-      </c>
-      <c r="N234" t="s" s="2">
-        <v>752</v>
       </c>
       <c r="O234" t="s" s="2">
         <v>43</v>
@@ -29447,7 +29442,7 @@
         <v>43</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AF234" t="s" s="2">
         <v>41</v>
@@ -29476,7 +29471,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -29499,19 +29494,19 @@
         <v>43</v>
       </c>
       <c r="J235" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="K235" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="L235" t="s" s="2">
         <v>754</v>
       </c>
-      <c r="L235" t="s" s="2">
+      <c r="M235" t="s" s="2">
         <v>755</v>
       </c>
-      <c r="M235" t="s" s="2">
+      <c r="N235" t="s" s="2">
         <v>756</v>
-      </c>
-      <c r="N235" t="s" s="2">
-        <v>757</v>
       </c>
       <c r="O235" t="s" s="2">
         <v>43</v>
@@ -29560,7 +29555,7 @@
         <v>43</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>41</v>
@@ -29589,7 +29584,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -29612,19 +29607,19 @@
         <v>51</v>
       </c>
       <c r="J236" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K236" t="s" s="2">
+        <v>879</v>
+      </c>
+      <c r="L236" t="s" s="2">
         <v>880</v>
       </c>
-      <c r="L236" t="s" s="2">
+      <c r="M236" t="s" s="2">
         <v>881</v>
       </c>
-      <c r="M236" t="s" s="2">
+      <c r="N236" t="s" s="2">
         <v>882</v>
-      </c>
-      <c r="N236" t="s" s="2">
-        <v>883</v>
       </c>
       <c r="O236" t="s" s="2">
         <v>43</v>
@@ -29673,7 +29668,7 @@
         <v>43</v>
       </c>
       <c r="AE236" t="s" s="2">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="AF236" t="s" s="2">
         <v>41</v>
@@ -29702,7 +29697,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -29811,7 +29806,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -29922,11 +29917,11 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D239" s="2"/>
       <c r="E239" t="s" s="2">
@@ -29948,10 +29943,10 @@
         <v>70</v>
       </c>
       <c r="K239" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L239" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L239" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M239" t="s" s="2">
         <v>73</v>
@@ -30006,7 +30001,7 @@
         <v>43</v>
       </c>
       <c r="AE239" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF239" t="s" s="2">
         <v>41</v>
@@ -30035,7 +30030,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -30061,16 +30056,16 @@
         <v>178</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="L240" t="s" s="2">
+        <v>887</v>
+      </c>
+      <c r="M240" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="N240" t="s" s="2">
         <v>888</v>
-      </c>
-      <c r="M240" t="s" s="2">
-        <v>738</v>
-      </c>
-      <c r="N240" t="s" s="2">
-        <v>889</v>
       </c>
       <c r="O240" t="s" s="2">
         <v>43</v>
@@ -30099,7 +30094,7 @@
       </c>
       <c r="X240" s="2"/>
       <c r="Y240" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="Z240" t="s" s="2">
         <v>43</v>
@@ -30117,7 +30112,7 @@
         <v>43</v>
       </c>
       <c r="AE240" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="AF240" t="s" s="2">
         <v>50</v>
@@ -30146,7 +30141,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -30169,17 +30164,17 @@
         <v>51</v>
       </c>
       <c r="J241" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K241" t="s" s="2">
+        <v>890</v>
+      </c>
+      <c r="L241" t="s" s="2">
         <v>891</v>
-      </c>
-      <c r="L241" t="s" s="2">
-        <v>892</v>
       </c>
       <c r="M241" s="2"/>
       <c r="N241" t="s" s="2">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="O241" t="s" s="2">
         <v>43</v>
@@ -30228,7 +30223,7 @@
         <v>43</v>
       </c>
       <c r="AE241" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="AF241" t="s" s="2">
         <v>50</v>
@@ -30257,7 +30252,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -30280,17 +30275,17 @@
         <v>43</v>
       </c>
       <c r="J242" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K242" t="s" s="2">
+        <v>894</v>
+      </c>
+      <c r="L242" t="s" s="2">
         <v>895</v>
-      </c>
-      <c r="L242" t="s" s="2">
-        <v>896</v>
       </c>
       <c r="M242" s="2"/>
       <c r="N242" t="s" s="2">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="O242" t="s" s="2">
         <v>43</v>
@@ -30339,7 +30334,7 @@
         <v>43</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>41</v>
@@ -30368,7 +30363,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -30477,7 +30472,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -30588,11 +30583,11 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" t="s" s="2">
@@ -30614,10 +30609,10 @@
         <v>70</v>
       </c>
       <c r="K245" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L245" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L245" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M245" t="s" s="2">
         <v>73</v>
@@ -30672,7 +30667,7 @@
         <v>43</v>
       </c>
       <c r="AE245" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF245" t="s" s="2">
         <v>41</v>
@@ -30701,7 +30696,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -30727,14 +30722,14 @@
         <v>178</v>
       </c>
       <c r="K246" t="s" s="2">
+        <v>901</v>
+      </c>
+      <c r="L246" t="s" s="2">
         <v>902</v>
-      </c>
-      <c r="L246" t="s" s="2">
-        <v>903</v>
       </c>
       <c r="M246" s="2"/>
       <c r="N246" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="O246" t="s" s="2">
         <v>43</v>
@@ -30763,7 +30758,7 @@
       </c>
       <c r="X246" s="2"/>
       <c r="Y246" t="s" s="2">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="Z246" t="s" s="2">
         <v>43</v>
@@ -30781,7 +30776,7 @@
         <v>43</v>
       </c>
       <c r="AE246" t="s" s="2">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="AF246" t="s" s="2">
         <v>41</v>
@@ -30810,7 +30805,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -30833,19 +30828,19 @@
         <v>43</v>
       </c>
       <c r="J247" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K247" t="s" s="2">
+        <v>906</v>
+      </c>
+      <c r="L247" t="s" s="2">
         <v>907</v>
       </c>
-      <c r="L247" t="s" s="2">
+      <c r="M247" t="s" s="2">
         <v>908</v>
       </c>
-      <c r="M247" t="s" s="2">
+      <c r="N247" t="s" s="2">
         <v>909</v>
-      </c>
-      <c r="N247" t="s" s="2">
-        <v>910</v>
       </c>
       <c r="O247" t="s" s="2">
         <v>43</v>
@@ -30894,7 +30889,7 @@
         <v>43</v>
       </c>
       <c r="AE247" t="s" s="2">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="AF247" t="s" s="2">
         <v>41</v>
@@ -30923,7 +30918,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
@@ -30949,14 +30944,14 @@
         <v>178</v>
       </c>
       <c r="K248" t="s" s="2">
+        <v>911</v>
+      </c>
+      <c r="L248" t="s" s="2">
         <v>912</v>
-      </c>
-      <c r="L248" t="s" s="2">
-        <v>913</v>
       </c>
       <c r="M248" s="2"/>
       <c r="N248" t="s" s="2">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="O248" t="s" s="2">
         <v>43</v>
@@ -30984,11 +30979,11 @@
         <v>116</v>
       </c>
       <c r="X248" t="s" s="2">
+        <v>914</v>
+      </c>
+      <c r="Y248" t="s" s="2">
         <v>915</v>
       </c>
-      <c r="Y248" t="s" s="2">
-        <v>916</v>
-      </c>
       <c r="Z248" t="s" s="2">
         <v>43</v>
       </c>
@@ -31005,7 +31000,7 @@
         <v>43</v>
       </c>
       <c r="AE248" t="s" s="2">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="AF248" t="s" s="2">
         <v>41</v>
@@ -31034,7 +31029,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -31057,17 +31052,17 @@
         <v>43</v>
       </c>
       <c r="J249" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K249" t="s" s="2">
+        <v>917</v>
+      </c>
+      <c r="L249" t="s" s="2">
         <v>918</v>
-      </c>
-      <c r="L249" t="s" s="2">
-        <v>919</v>
       </c>
       <c r="M249" s="2"/>
       <c r="N249" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="O249" t="s" s="2">
         <v>43</v>
@@ -31116,7 +31111,7 @@
         <v>43</v>
       </c>
       <c r="AE249" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AF249" t="s" s="2">
         <v>41</v>
@@ -31145,7 +31140,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -31168,17 +31163,17 @@
         <v>43</v>
       </c>
       <c r="J250" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K250" t="s" s="2">
+        <v>921</v>
+      </c>
+      <c r="L250" t="s" s="2">
         <v>922</v>
-      </c>
-      <c r="L250" t="s" s="2">
-        <v>923</v>
       </c>
       <c r="M250" s="2"/>
       <c r="N250" t="s" s="2">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="O250" t="s" s="2">
         <v>43</v>
@@ -31227,7 +31222,7 @@
         <v>43</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>41</v>
@@ -31256,7 +31251,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -31282,16 +31277,16 @@
         <v>159</v>
       </c>
       <c r="K251" t="s" s="2">
+        <v>925</v>
+      </c>
+      <c r="L251" t="s" s="2">
         <v>926</v>
       </c>
-      <c r="L251" t="s" s="2">
+      <c r="M251" t="s" s="2">
         <v>927</v>
       </c>
-      <c r="M251" t="s" s="2">
+      <c r="N251" t="s" s="2">
         <v>928</v>
-      </c>
-      <c r="N251" t="s" s="2">
-        <v>929</v>
       </c>
       <c r="O251" t="s" s="2">
         <v>43</v>
@@ -31340,7 +31335,7 @@
         <v>43</v>
       </c>
       <c r="AE251" t="s" s="2">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="AF251" t="s" s="2">
         <v>41</v>
@@ -31369,7 +31364,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -31395,16 +31390,16 @@
         <v>178</v>
       </c>
       <c r="K252" t="s" s="2">
+        <v>930</v>
+      </c>
+      <c r="L252" t="s" s="2">
         <v>931</v>
       </c>
-      <c r="L252" t="s" s="2">
+      <c r="M252" t="s" s="2">
         <v>932</v>
       </c>
-      <c r="M252" t="s" s="2">
+      <c r="N252" t="s" s="2">
         <v>933</v>
-      </c>
-      <c r="N252" t="s" s="2">
-        <v>934</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>43</v>
@@ -31432,11 +31427,11 @@
         <v>116</v>
       </c>
       <c r="X252" t="s" s="2">
+        <v>934</v>
+      </c>
+      <c r="Y252" t="s" s="2">
         <v>935</v>
       </c>
-      <c r="Y252" t="s" s="2">
-        <v>936</v>
-      </c>
       <c r="Z252" t="s" s="2">
         <v>43</v>
       </c>
@@ -31453,7 +31448,7 @@
         <v>43</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="AF252" t="s" s="2">
         <v>41</v>
@@ -31482,7 +31477,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -31505,19 +31500,19 @@
         <v>43</v>
       </c>
       <c r="J253" t="s" s="2">
+        <v>937</v>
+      </c>
+      <c r="K253" t="s" s="2">
         <v>938</v>
       </c>
-      <c r="K253" t="s" s="2">
+      <c r="L253" t="s" s="2">
         <v>939</v>
       </c>
-      <c r="L253" t="s" s="2">
+      <c r="M253" t="s" s="2">
         <v>940</v>
       </c>
-      <c r="M253" t="s" s="2">
+      <c r="N253" t="s" s="2">
         <v>941</v>
-      </c>
-      <c r="N253" t="s" s="2">
-        <v>942</v>
       </c>
       <c r="O253" t="s" s="2">
         <v>43</v>
@@ -31566,7 +31561,7 @@
         <v>43</v>
       </c>
       <c r="AE253" t="s" s="2">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="AF253" t="s" s="2">
         <v>41</v>
@@ -31595,7 +31590,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -31618,17 +31613,17 @@
         <v>43</v>
       </c>
       <c r="J254" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K254" t="s" s="2">
+        <v>943</v>
+      </c>
+      <c r="L254" t="s" s="2">
         <v>944</v>
-      </c>
-      <c r="L254" t="s" s="2">
-        <v>945</v>
       </c>
       <c r="M254" s="2"/>
       <c r="N254" t="s" s="2">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="O254" t="s" s="2">
         <v>43</v>
@@ -31677,7 +31672,7 @@
         <v>43</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>41</v>
@@ -31706,7 +31701,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -31815,7 +31810,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -31926,11 +31921,11 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" t="s" s="2">
@@ -31952,10 +31947,10 @@
         <v>70</v>
       </c>
       <c r="K257" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L257" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L257" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M257" t="s" s="2">
         <v>73</v>
@@ -32010,7 +32005,7 @@
         <v>43</v>
       </c>
       <c r="AE257" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF257" t="s" s="2">
         <v>41</v>
@@ -32039,7 +32034,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -32062,17 +32057,17 @@
         <v>43</v>
       </c>
       <c r="J258" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K258" t="s" s="2">
+        <v>950</v>
+      </c>
+      <c r="L258" t="s" s="2">
         <v>951</v>
-      </c>
-      <c r="L258" t="s" s="2">
-        <v>952</v>
       </c>
       <c r="M258" s="2"/>
       <c r="N258" t="s" s="2">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="O258" t="s" s="2">
         <v>43</v>
@@ -32121,7 +32116,7 @@
         <v>43</v>
       </c>
       <c r="AE258" t="s" s="2">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="AF258" t="s" s="2">
         <v>41</v>
@@ -32150,7 +32145,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -32176,14 +32171,14 @@
         <v>126</v>
       </c>
       <c r="K259" t="s" s="2">
+        <v>954</v>
+      </c>
+      <c r="L259" t="s" s="2">
         <v>955</v>
-      </c>
-      <c r="L259" t="s" s="2">
-        <v>956</v>
       </c>
       <c r="M259" s="2"/>
       <c r="N259" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="O259" t="s" s="2">
         <v>43</v>
@@ -32211,11 +32206,11 @@
         <v>172</v>
       </c>
       <c r="X259" t="s" s="2">
+        <v>957</v>
+      </c>
+      <c r="Y259" t="s" s="2">
         <v>958</v>
       </c>
-      <c r="Y259" t="s" s="2">
-        <v>959</v>
-      </c>
       <c r="Z259" t="s" s="2">
         <v>43</v>
       </c>
@@ -32232,7 +32227,7 @@
         <v>43</v>
       </c>
       <c r="AE259" t="s" s="2">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="AF259" t="s" s="2">
         <v>41</v>
@@ -32261,7 +32256,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -32287,14 +32282,14 @@
         <v>52</v>
       </c>
       <c r="K260" t="s" s="2">
+        <v>960</v>
+      </c>
+      <c r="L260" t="s" s="2">
         <v>961</v>
-      </c>
-      <c r="L260" t="s" s="2">
-        <v>962</v>
       </c>
       <c r="M260" s="2"/>
       <c r="N260" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="O260" t="s" s="2">
         <v>43</v>
@@ -32343,7 +32338,7 @@
         <v>43</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>41</v>
@@ -32372,7 +32367,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -32398,16 +32393,16 @@
         <v>178</v>
       </c>
       <c r="K261" t="s" s="2">
+        <v>964</v>
+      </c>
+      <c r="L261" t="s" s="2">
         <v>965</v>
       </c>
-      <c r="L261" t="s" s="2">
+      <c r="M261" t="s" s="2">
         <v>966</v>
       </c>
-      <c r="M261" t="s" s="2">
+      <c r="N261" t="s" s="2">
         <v>967</v>
-      </c>
-      <c r="N261" t="s" s="2">
-        <v>968</v>
       </c>
       <c r="O261" t="s" s="2">
         <v>43</v>
@@ -32456,7 +32451,7 @@
         <v>43</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>41</v>
@@ -32485,7 +32480,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -32511,16 +32506,16 @@
         <v>205</v>
       </c>
       <c r="K262" t="s" s="2">
+        <v>969</v>
+      </c>
+      <c r="L262" t="s" s="2">
         <v>970</v>
       </c>
-      <c r="L262" t="s" s="2">
+      <c r="M262" t="s" s="2">
         <v>971</v>
       </c>
-      <c r="M262" t="s" s="2">
+      <c r="N262" t="s" s="2">
         <v>972</v>
-      </c>
-      <c r="N262" t="s" s="2">
-        <v>973</v>
       </c>
       <c r="O262" t="s" s="2">
         <v>43</v>
@@ -32569,7 +32564,7 @@
         <v>43</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>41</v>
@@ -32598,7 +32593,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -32621,13 +32616,13 @@
         <v>43</v>
       </c>
       <c r="J263" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K263" t="s" s="2">
+        <v>974</v>
+      </c>
+      <c r="L263" t="s" s="2">
         <v>975</v>
-      </c>
-      <c r="L263" t="s" s="2">
-        <v>976</v>
       </c>
       <c r="M263" s="2"/>
       <c r="N263" s="2"/>
@@ -32678,7 +32673,7 @@
         <v>43</v>
       </c>
       <c r="AE263" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="AF263" t="s" s="2">
         <v>41</v>
@@ -32707,7 +32702,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -32816,7 +32811,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -32927,11 +32922,11 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" t="s" s="2">
@@ -32953,10 +32948,10 @@
         <v>70</v>
       </c>
       <c r="K266" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L266" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L266" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M266" t="s" s="2">
         <v>73</v>
@@ -33011,7 +33006,7 @@
         <v>43</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>41</v>
@@ -33040,7 +33035,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -33066,16 +33061,16 @@
         <v>178</v>
       </c>
       <c r="K267" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="L267" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="L267" t="s" s="2">
+      <c r="M267" t="s" s="2">
         <v>647</v>
       </c>
-      <c r="M267" t="s" s="2">
-        <v>648</v>
-      </c>
       <c r="N267" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="O267" t="s" s="2">
         <v>43</v>
@@ -33103,11 +33098,11 @@
         <v>116</v>
       </c>
       <c r="X267" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="Y267" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="Y267" t="s" s="2">
-        <v>651</v>
-      </c>
       <c r="Z267" t="s" s="2">
         <v>43</v>
       </c>
@@ -33124,7 +33119,7 @@
         <v>43</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>50</v>
@@ -33153,7 +33148,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -33176,17 +33171,17 @@
         <v>43</v>
       </c>
       <c r="J268" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K268" t="s" s="2">
+        <v>982</v>
+      </c>
+      <c r="L268" t="s" s="2">
         <v>983</v>
-      </c>
-      <c r="L268" t="s" s="2">
-        <v>984</v>
       </c>
       <c r="M268" s="2"/>
       <c r="N268" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="O268" t="s" s="2">
         <v>43</v>
@@ -33235,7 +33230,7 @@
         <v>43</v>
       </c>
       <c r="AE268" t="s" s="2">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="AF268" t="s" s="2">
         <v>41</v>
@@ -33264,7 +33259,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -33290,16 +33285,16 @@
         <v>52</v>
       </c>
       <c r="K269" t="s" s="2">
+        <v>986</v>
+      </c>
+      <c r="L269" t="s" s="2">
         <v>987</v>
       </c>
-      <c r="L269" t="s" s="2">
+      <c r="M269" t="s" s="2">
         <v>988</v>
       </c>
-      <c r="M269" t="s" s="2">
+      <c r="N269" t="s" s="2">
         <v>989</v>
-      </c>
-      <c r="N269" t="s" s="2">
-        <v>990</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>43</v>
@@ -33348,7 +33343,7 @@
         <v>43</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>41</v>
@@ -33377,7 +33372,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -33403,16 +33398,16 @@
         <v>52</v>
       </c>
       <c r="K270" t="s" s="2">
+        <v>991</v>
+      </c>
+      <c r="L270" t="s" s="2">
         <v>992</v>
       </c>
-      <c r="L270" t="s" s="2">
+      <c r="M270" t="s" s="2">
         <v>993</v>
       </c>
-      <c r="M270" t="s" s="2">
+      <c r="N270" t="s" s="2">
         <v>994</v>
-      </c>
-      <c r="N270" t="s" s="2">
-        <v>995</v>
       </c>
       <c r="O270" t="s" s="2">
         <v>43</v>
@@ -33461,7 +33456,7 @@
         <v>43</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>41</v>
@@ -33490,7 +33485,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -33516,14 +33511,14 @@
         <v>178</v>
       </c>
       <c r="K271" t="s" s="2">
+        <v>996</v>
+      </c>
+      <c r="L271" t="s" s="2">
         <v>997</v>
-      </c>
-      <c r="L271" t="s" s="2">
-        <v>998</v>
       </c>
       <c r="M271" s="2"/>
       <c r="N271" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="O271" t="s" s="2">
         <v>43</v>
@@ -33551,11 +33546,11 @@
         <v>116</v>
       </c>
       <c r="X271" t="s" s="2">
+        <v>999</v>
+      </c>
+      <c r="Y271" t="s" s="2">
         <v>1000</v>
       </c>
-      <c r="Y271" t="s" s="2">
-        <v>1001</v>
-      </c>
       <c r="Z271" t="s" s="2">
         <v>43</v>
       </c>
@@ -33572,7 +33567,7 @@
         <v>43</v>
       </c>
       <c r="AE271" t="s" s="2">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AF271" t="s" s="2">
         <v>41</v>
@@ -33601,7 +33596,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -33627,14 +33622,14 @@
         <v>178</v>
       </c>
       <c r="K272" t="s" s="2">
+        <v>1002</v>
+      </c>
+      <c r="L272" t="s" s="2">
         <v>1003</v>
-      </c>
-      <c r="L272" t="s" s="2">
-        <v>1004</v>
       </c>
       <c r="M272" s="2"/>
       <c r="N272" t="s" s="2">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="O272" t="s" s="2">
         <v>43</v>
@@ -33662,11 +33657,11 @@
         <v>116</v>
       </c>
       <c r="X272" t="s" s="2">
+        <v>1005</v>
+      </c>
+      <c r="Y272" t="s" s="2">
         <v>1006</v>
       </c>
-      <c r="Y272" t="s" s="2">
-        <v>1007</v>
-      </c>
       <c r="Z272" t="s" s="2">
         <v>43</v>
       </c>
@@ -33683,7 +33678,7 @@
         <v>43</v>
       </c>
       <c r="AE272" t="s" s="2">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="AF272" t="s" s="2">
         <v>41</v>
@@ -33712,7 +33707,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -33738,14 +33733,14 @@
         <v>178</v>
       </c>
       <c r="K273" t="s" s="2">
+        <v>1008</v>
+      </c>
+      <c r="L273" t="s" s="2">
         <v>1009</v>
-      </c>
-      <c r="L273" t="s" s="2">
-        <v>1010</v>
       </c>
       <c r="M273" s="2"/>
       <c r="N273" t="s" s="2">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="O273" t="s" s="2">
         <v>43</v>
@@ -33773,11 +33768,11 @@
         <v>116</v>
       </c>
       <c r="X273" t="s" s="2">
+        <v>1010</v>
+      </c>
+      <c r="Y273" t="s" s="2">
         <v>1011</v>
       </c>
-      <c r="Y273" t="s" s="2">
-        <v>1012</v>
-      </c>
       <c r="Z273" t="s" s="2">
         <v>43</v>
       </c>
@@ -33794,7 +33789,7 @@
         <v>43</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>41</v>
@@ -33823,7 +33818,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -33846,13 +33841,13 @@
         <v>43</v>
       </c>
       <c r="J274" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K274" t="s" s="2">
+        <v>1013</v>
+      </c>
+      <c r="L274" t="s" s="2">
         <v>1014</v>
-      </c>
-      <c r="L274" t="s" s="2">
-        <v>1015</v>
       </c>
       <c r="M274" s="2"/>
       <c r="N274" s="2"/>
@@ -33903,7 +33898,7 @@
         <v>43</v>
       </c>
       <c r="AE274" t="s" s="2">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AF274" t="s" s="2">
         <v>41</v>
@@ -33932,7 +33927,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -34041,7 +34036,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -34152,11 +34147,11 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" t="s" s="2">
@@ -34178,10 +34173,10 @@
         <v>70</v>
       </c>
       <c r="K277" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L277" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L277" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M277" t="s" s="2">
         <v>73</v>
@@ -34236,7 +34231,7 @@
         <v>43</v>
       </c>
       <c r="AE277" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF277" t="s" s="2">
         <v>41</v>
@@ -34265,7 +34260,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -34291,16 +34286,16 @@
         <v>178</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="L278" t="s" s="2">
+        <v>1019</v>
+      </c>
+      <c r="M278" t="s" s="2">
         <v>1020</v>
       </c>
-      <c r="M278" t="s" s="2">
+      <c r="N278" t="s" s="2">
         <v>1021</v>
-      </c>
-      <c r="N278" t="s" s="2">
-        <v>1022</v>
       </c>
       <c r="O278" t="s" s="2">
         <v>43</v>
@@ -34328,11 +34323,11 @@
         <v>116</v>
       </c>
       <c r="X278" t="s" s="2">
+        <v>1022</v>
+      </c>
+      <c r="Y278" t="s" s="2">
         <v>1023</v>
       </c>
-      <c r="Y278" t="s" s="2">
-        <v>1024</v>
-      </c>
       <c r="Z278" t="s" s="2">
         <v>43</v>
       </c>
@@ -34349,7 +34344,7 @@
         <v>43</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>50</v>
@@ -34378,7 +34373,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -34401,17 +34396,17 @@
         <v>43</v>
       </c>
       <c r="J279" t="s" s="2">
+        <v>1025</v>
+      </c>
+      <c r="K279" t="s" s="2">
         <v>1026</v>
       </c>
-      <c r="K279" t="s" s="2">
+      <c r="L279" t="s" s="2">
         <v>1027</v>
-      </c>
-      <c r="L279" t="s" s="2">
-        <v>1028</v>
       </c>
       <c r="M279" s="2"/>
       <c r="N279" t="s" s="2">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="O279" t="s" s="2">
         <v>43</v>
@@ -34460,7 +34455,7 @@
         <v>43</v>
       </c>
       <c r="AE279" t="s" s="2">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AF279" t="s" s="2">
         <v>41</v>
@@ -34489,7 +34484,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -34512,17 +34507,17 @@
         <v>43</v>
       </c>
       <c r="J280" t="s" s="2">
+        <v>1030</v>
+      </c>
+      <c r="K280" t="s" s="2">
         <v>1031</v>
       </c>
-      <c r="K280" t="s" s="2">
+      <c r="L280" t="s" s="2">
         <v>1032</v>
-      </c>
-      <c r="L280" t="s" s="2">
-        <v>1033</v>
       </c>
       <c r="M280" s="2"/>
       <c r="N280" t="s" s="2">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="O280" t="s" s="2">
         <v>43</v>
@@ -34571,7 +34566,7 @@
         <v>43</v>
       </c>
       <c r="AE280" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="AF280" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9868" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9868" uniqueCount="1035">
   <si>
     <t>Path</t>
   </si>
@@ -1301,6 +1301,10 @@
   </si>
   <si>
     <t>Common to identify the responsible and supporting practitioners.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+EOB-careteam-qualification:Care Team Performing physician's qualifications are from US-Core-Provider-Specialty Value Set {ExplanationOfBenefit.careTeam.role.coding.code='performing' implies ExplanationOfBenefit.careTeam.qualification.memberOf('http://hl7.org/fhir/us/core/ValueSet/us-core-provider-specialty')}</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.careTeam.id</t>
@@ -10502,7 +10506,7 @@
         <v>43</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>62</v>
+        <v>415</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>43</v>
@@ -10519,7 +10523,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -10628,7 +10632,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -10739,7 +10743,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10852,7 +10856,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10875,17 +10879,17 @@
         <v>43</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>43</v>
@@ -10934,7 +10938,7 @@
         <v>43</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>50</v>
@@ -10963,7 +10967,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10989,14 +10993,14 @@
         <v>284</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>43</v>
@@ -11045,7 +11049,7 @@
         <v>43</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>50</v>
@@ -11063,7 +11067,7 @@
         <v>43</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>43</v>
@@ -11074,7 +11078,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -11097,19 +11101,19 @@
         <v>43</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>43</v>
@@ -11158,7 +11162,7 @@
         <v>43</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -11187,7 +11191,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -11213,16 +11217,16 @@
         <v>178</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>43</v>
@@ -11250,10 +11254,10 @@
         <v>116</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>43</v>
@@ -11271,7 +11275,7 @@
         <v>43</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -11300,7 +11304,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -11326,14 +11330,14 @@
         <v>178</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>43</v>
@@ -11362,7 +11366,7 @@
       </c>
       <c r="X72" s="2"/>
       <c r="Y72" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>43</v>
@@ -11380,7 +11384,7 @@
         <v>43</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -11409,7 +11413,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -11435,16 +11439,16 @@
         <v>310</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>43</v>
@@ -11493,7 +11497,7 @@
         <v>43</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -11522,7 +11526,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11631,7 +11635,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11742,7 +11746,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11855,7 +11859,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11878,17 +11882,17 @@
         <v>43</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>43</v>
@@ -11937,7 +11941,7 @@
         <v>43</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>50</v>
@@ -11966,7 +11970,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11992,16 +11996,16 @@
         <v>178</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>43</v>
@@ -12029,10 +12033,10 @@
         <v>116</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>43</v>
@@ -12050,7 +12054,7 @@
         <v>43</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>50</v>
@@ -12079,7 +12083,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -12105,16 +12109,16 @@
         <v>178</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>239</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>43</v>
@@ -12142,10 +12146,10 @@
         <v>116</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>43</v>
@@ -12163,7 +12167,7 @@
         <v>43</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -12192,7 +12196,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -12215,13 +12219,13 @@
         <v>43</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -12272,7 +12276,7 @@
         <v>43</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -12301,7 +12305,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -12324,19 +12328,19 @@
         <v>43</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>43</v>
@@ -12385,7 +12389,7 @@
         <v>43</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -12414,7 +12418,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12440,16 +12444,16 @@
         <v>104</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>43</v>
@@ -12477,10 +12481,10 @@
         <v>116</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>43</v>
@@ -12498,7 +12502,7 @@
         <v>43</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -12527,7 +12531,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12553,14 +12557,14 @@
         <v>310</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>43</v>
@@ -12609,7 +12613,7 @@
         <v>43</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -12638,7 +12642,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12747,7 +12751,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12858,7 +12862,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12971,7 +12975,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12994,19 +12998,19 @@
         <v>43</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>43</v>
@@ -13055,7 +13059,7 @@
         <v>43</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>50</v>
@@ -13084,7 +13088,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -13107,17 +13111,17 @@
         <v>43</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>43</v>
@@ -13145,10 +13149,10 @@
         <v>116</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>43</v>
@@ -13166,7 +13170,7 @@
         <v>43</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>50</v>
@@ -13195,7 +13199,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -13221,16 +13225,16 @@
         <v>178</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>43</v>
@@ -13258,10 +13262,10 @@
         <v>116</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>43</v>
@@ -13279,7 +13283,7 @@
         <v>43</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
@@ -13308,7 +13312,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -13334,14 +13338,14 @@
         <v>178</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>43</v>
@@ -13369,10 +13373,10 @@
         <v>116</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>43</v>
@@ -13390,7 +13394,7 @@
         <v>43</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
@@ -13419,7 +13423,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13445,16 +13449,16 @@
         <v>178</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>43</v>
@@ -13482,10 +13486,10 @@
         <v>116</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>43</v>
@@ -13503,7 +13507,7 @@
         <v>43</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
@@ -13532,7 +13536,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13558,14 +13562,14 @@
         <v>310</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>43</v>
@@ -13614,7 +13618,7 @@
         <v>43</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>41</v>
@@ -13643,7 +13647,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13752,7 +13756,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13863,7 +13867,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13976,7 +13980,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13999,17 +14003,17 @@
         <v>43</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>43</v>
@@ -14058,7 +14062,7 @@
         <v>43</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>50</v>
@@ -14087,7 +14091,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -14113,14 +14117,14 @@
         <v>178</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>43</v>
@@ -14148,10 +14152,10 @@
         <v>116</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>43</v>
@@ -14169,7 +14173,7 @@
         <v>43</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>41</v>
@@ -14198,7 +14202,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -14224,14 +14228,14 @@
         <v>264</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>43</v>
@@ -14280,7 +14284,7 @@
         <v>43</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>41</v>
@@ -14309,7 +14313,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14332,17 +14336,17 @@
         <v>43</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>43</v>
@@ -14370,10 +14374,10 @@
         <v>116</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Z99" t="s" s="2">
         <v>43</v>
@@ -14391,7 +14395,7 @@
         <v>43</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>50</v>
@@ -14420,7 +14424,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14443,17 +14447,17 @@
         <v>43</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>43</v>
@@ -14502,7 +14506,7 @@
         <v>43</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>41</v>
@@ -14531,7 +14535,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14554,17 +14558,17 @@
         <v>43</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>43</v>
@@ -14613,7 +14617,7 @@
         <v>43</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>41</v>
@@ -14642,7 +14646,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14668,16 +14672,16 @@
         <v>310</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>43</v>
@@ -14726,7 +14730,7 @@
         <v>43</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>50</v>
@@ -14738,7 +14742,7 @@
         <v>43</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>43</v>
@@ -14747,7 +14751,7 @@
         <v>43</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>43</v>
@@ -14755,7 +14759,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14864,7 +14868,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14975,7 +14979,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -15088,7 +15092,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -15111,19 +15115,19 @@
         <v>51</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>43</v>
@@ -15172,7 +15176,7 @@
         <v>43</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>50</v>
@@ -15201,7 +15205,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -15224,17 +15228,17 @@
         <v>51</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>43</v>
@@ -15283,7 +15287,7 @@
         <v>43</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>50</v>
@@ -15312,7 +15316,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15338,16 +15342,16 @@
         <v>52</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>43</v>
@@ -15396,7 +15400,7 @@
         <v>43</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>41</v>
@@ -15425,7 +15429,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15451,14 +15455,14 @@
         <v>310</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>43</v>
@@ -15507,7 +15511,7 @@
         <v>43</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>41</v>
@@ -15536,7 +15540,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15645,7 +15649,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15756,7 +15760,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15869,7 +15873,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15892,19 +15896,19 @@
         <v>43</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>43</v>
@@ -15953,7 +15957,7 @@
         <v>43</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>41</v>
@@ -15982,7 +15986,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -16008,14 +16012,14 @@
         <v>178</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>43</v>
@@ -16043,10 +16047,10 @@
         <v>108</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="Z114" t="s" s="2">
         <v>43</v>
@@ -16064,7 +16068,7 @@
         <v>43</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>41</v>
@@ -16093,7 +16097,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -16116,17 +16120,17 @@
         <v>43</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>43</v>
@@ -16175,7 +16179,7 @@
         <v>43</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>41</v>
@@ -16204,7 +16208,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -16230,14 +16234,14 @@
         <v>310</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>43</v>
@@ -16286,7 +16290,7 @@
         <v>43</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>41</v>
@@ -16315,7 +16319,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16424,7 +16428,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16535,7 +16539,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16648,7 +16652,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16671,17 +16675,17 @@
         <v>43</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>43</v>
@@ -16730,7 +16734,7 @@
         <v>43</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>50</v>
@@ -16759,7 +16763,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16782,17 +16786,17 @@
         <v>43</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>43</v>
@@ -16841,7 +16845,7 @@
         <v>43</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>41</v>
@@ -16870,7 +16874,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16893,17 +16897,17 @@
         <v>43</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>43</v>
@@ -16952,7 +16956,7 @@
         <v>43</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>41</v>
@@ -16981,7 +16985,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -17004,17 +17008,17 @@
         <v>43</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>43</v>
@@ -17063,7 +17067,7 @@
         <v>43</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>41</v>
@@ -17092,7 +17096,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -17115,17 +17119,17 @@
         <v>43</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>43</v>
@@ -17174,7 +17178,7 @@
         <v>43</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>41</v>
@@ -17203,7 +17207,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -17229,14 +17233,14 @@
         <v>178</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>43</v>
@@ -17264,10 +17268,10 @@
         <v>116</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>43</v>
@@ -17285,7 +17289,7 @@
         <v>43</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>41</v>
@@ -17314,7 +17318,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17340,16 +17344,16 @@
         <v>178</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>43</v>
@@ -17377,10 +17381,10 @@
         <v>116</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="Z126" t="s" s="2">
         <v>43</v>
@@ -17398,7 +17402,7 @@
         <v>43</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>41</v>
@@ -17427,11 +17431,11 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -17453,16 +17457,16 @@
         <v>178</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>43</v>
@@ -17490,10 +17494,10 @@
         <v>116</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>43</v>
@@ -17511,7 +17515,7 @@
         <v>43</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>50</v>
@@ -17540,7 +17544,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17566,16 +17570,16 @@
         <v>178</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>43</v>
@@ -17603,10 +17607,10 @@
         <v>116</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>43</v>
@@ -17624,7 +17628,7 @@
         <v>43</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>41</v>
@@ -17653,7 +17657,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17679,16 +17683,16 @@
         <v>178</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>43</v>
@@ -17716,10 +17720,10 @@
         <v>116</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>43</v>
@@ -17737,7 +17741,7 @@
         <v>43</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>41</v>
@@ -17766,7 +17770,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17789,17 +17793,17 @@
         <v>43</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>43</v>
@@ -17848,7 +17852,7 @@
         <v>43</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>41</v>
@@ -17877,7 +17881,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17900,17 +17904,17 @@
         <v>43</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>43</v>
@@ -17938,10 +17942,10 @@
         <v>116</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>43</v>
@@ -17959,7 +17963,7 @@
         <v>43</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>41</v>
@@ -17988,7 +17992,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -18011,17 +18015,17 @@
         <v>43</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>43</v>
@@ -18070,7 +18074,7 @@
         <v>43</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>41</v>
@@ -18099,7 +18103,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -18122,17 +18126,17 @@
         <v>43</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>43</v>
@@ -18181,7 +18185,7 @@
         <v>43</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>41</v>
@@ -18210,7 +18214,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -18233,19 +18237,19 @@
         <v>43</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>43</v>
@@ -18294,7 +18298,7 @@
         <v>43</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>41</v>
@@ -18323,7 +18327,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -18346,19 +18350,19 @@
         <v>43</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>43</v>
@@ -18407,7 +18411,7 @@
         <v>43</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>41</v>
@@ -18436,7 +18440,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18459,17 +18463,17 @@
         <v>43</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>43</v>
@@ -18518,7 +18522,7 @@
         <v>43</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>41</v>
@@ -18547,7 +18551,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -18573,16 +18577,16 @@
         <v>178</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>43</v>
@@ -18610,10 +18614,10 @@
         <v>116</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="Z137" t="s" s="2">
         <v>43</v>
@@ -18631,7 +18635,7 @@
         <v>43</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>41</v>
@@ -18660,7 +18664,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -18686,14 +18690,14 @@
         <v>178</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>43</v>
@@ -18721,10 +18725,10 @@
         <v>116</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="Z138" t="s" s="2">
         <v>43</v>
@@ -18742,7 +18746,7 @@
         <v>43</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>41</v>
@@ -18771,7 +18775,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -18794,17 +18798,17 @@
         <v>43</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>43</v>
@@ -18853,7 +18857,7 @@
         <v>43</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>41</v>
@@ -18882,7 +18886,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18905,17 +18909,17 @@
         <v>43</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>43</v>
@@ -18964,7 +18968,7 @@
         <v>43</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>41</v>
@@ -18993,7 +18997,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -19019,14 +19023,14 @@
         <v>310</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>43</v>
@@ -19075,7 +19079,7 @@
         <v>43</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>41</v>
@@ -19104,7 +19108,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -19213,7 +19217,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -19324,7 +19328,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -19437,7 +19441,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19463,16 +19467,16 @@
         <v>178</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>43</v>
@@ -19501,7 +19505,7 @@
       </c>
       <c r="X145" s="2"/>
       <c r="Y145" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="Z145" t="s" s="2">
         <v>43</v>
@@ -19519,7 +19523,7 @@
         <v>43</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>50</v>
@@ -19548,7 +19552,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19574,16 +19578,16 @@
         <v>178</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>43</v>
@@ -19611,10 +19615,10 @@
         <v>116</v>
       </c>
       <c r="X146" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="Z146" t="s" s="2">
         <v>43</v>
@@ -19632,7 +19636,7 @@
         <v>43</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>41</v>
@@ -19661,7 +19665,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19684,19 +19688,19 @@
         <v>43</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>43</v>
@@ -19745,7 +19749,7 @@
         <v>43</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>41</v>
@@ -19774,7 +19778,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19797,19 +19801,19 @@
         <v>43</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>43</v>
@@ -19858,7 +19862,7 @@
         <v>43</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>41</v>
@@ -19887,7 +19891,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19913,10 +19917,10 @@
         <v>310</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
@@ -19967,7 +19971,7 @@
         <v>43</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>41</v>
@@ -19996,7 +20000,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -20105,7 +20109,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -20216,7 +20220,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -20329,7 +20333,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20352,17 +20356,17 @@
         <v>43</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>43</v>
@@ -20411,7 +20415,7 @@
         <v>43</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>50</v>
@@ -20440,7 +20444,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20466,14 +20470,14 @@
         <v>178</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>43</v>
@@ -20501,10 +20505,10 @@
         <v>116</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="Z154" t="s" s="2">
         <v>43</v>
@@ -20522,7 +20526,7 @@
         <v>43</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>41</v>
@@ -20551,7 +20555,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20577,16 +20581,16 @@
         <v>178</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>43</v>
@@ -20614,10 +20618,10 @@
         <v>116</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="Z155" t="s" s="2">
         <v>43</v>
@@ -20635,7 +20639,7 @@
         <v>43</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>41</v>
@@ -20664,11 +20668,11 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -20690,16 +20694,16 @@
         <v>178</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>43</v>
@@ -20727,10 +20731,10 @@
         <v>116</v>
       </c>
       <c r="X156" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="Y156" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Z156" t="s" s="2">
         <v>43</v>
@@ -20748,7 +20752,7 @@
         <v>43</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>50</v>
@@ -20777,7 +20781,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20803,16 +20807,16 @@
         <v>178</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>43</v>
@@ -20840,10 +20844,10 @@
         <v>116</v>
       </c>
       <c r="X157" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="Y157" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="Z157" t="s" s="2">
         <v>43</v>
@@ -20861,7 +20865,7 @@
         <v>43</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>41</v>
@@ -20890,7 +20894,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20916,16 +20920,16 @@
         <v>178</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>43</v>
@@ -20953,10 +20957,10 @@
         <v>116</v>
       </c>
       <c r="X158" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="Y158" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="Z158" t="s" s="2">
         <v>43</v>
@@ -20974,7 +20978,7 @@
         <v>43</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>41</v>
@@ -21003,7 +21007,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -21026,17 +21030,17 @@
         <v>43</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>43</v>
@@ -21085,7 +21089,7 @@
         <v>43</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>41</v>
@@ -21114,7 +21118,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -21137,17 +21141,17 @@
         <v>43</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M160" s="2"/>
       <c r="N160" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>43</v>
@@ -21196,7 +21200,7 @@
         <v>43</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>41</v>
@@ -21225,7 +21229,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -21248,19 +21252,19 @@
         <v>43</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>43</v>
@@ -21309,7 +21313,7 @@
         <v>43</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>41</v>
@@ -21338,7 +21342,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21361,19 +21365,19 @@
         <v>43</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>43</v>
@@ -21422,7 +21426,7 @@
         <v>43</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>41</v>
@@ -21451,7 +21455,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21474,17 +21478,17 @@
         <v>43</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M163" s="2"/>
       <c r="N163" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>43</v>
@@ -21533,7 +21537,7 @@
         <v>43</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>41</v>
@@ -21562,7 +21566,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21585,17 +21589,17 @@
         <v>43</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>43</v>
@@ -21644,7 +21648,7 @@
         <v>43</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>41</v>
@@ -21673,7 +21677,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21699,10 +21703,10 @@
         <v>43</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
@@ -21753,7 +21757,7 @@
         <v>43</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>41</v>
@@ -21782,7 +21786,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21808,10 +21812,10 @@
         <v>310</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
@@ -21862,7 +21866,7 @@
         <v>43</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>41</v>
@@ -21891,7 +21895,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -22000,7 +22004,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -22111,7 +22115,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -22224,7 +22228,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -22247,17 +22251,17 @@
         <v>43</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>43</v>
@@ -22306,7 +22310,7 @@
         <v>43</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>50</v>
@@ -22335,7 +22339,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -22361,14 +22365,14 @@
         <v>178</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>43</v>
@@ -22396,10 +22400,10 @@
         <v>116</v>
       </c>
       <c r="X171" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="Y171" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="Z171" t="s" s="2">
         <v>43</v>
@@ -22417,7 +22421,7 @@
         <v>43</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>41</v>
@@ -22446,7 +22450,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22472,16 +22476,16 @@
         <v>178</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>43</v>
@@ -22509,10 +22513,10 @@
         <v>116</v>
       </c>
       <c r="X172" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="Y172" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="Z172" t="s" s="2">
         <v>43</v>
@@ -22530,7 +22534,7 @@
         <v>43</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>41</v>
@@ -22559,11 +22563,11 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
@@ -22585,16 +22589,16 @@
         <v>178</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>43</v>
@@ -22622,10 +22626,10 @@
         <v>116</v>
       </c>
       <c r="X173" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="Y173" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Z173" t="s" s="2">
         <v>43</v>
@@ -22643,7 +22647,7 @@
         <v>43</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>50</v>
@@ -22672,7 +22676,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22698,16 +22702,16 @@
         <v>178</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>43</v>
@@ -22735,10 +22739,10 @@
         <v>116</v>
       </c>
       <c r="X174" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="Y174" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="Z174" t="s" s="2">
         <v>43</v>
@@ -22756,7 +22760,7 @@
         <v>43</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>41</v>
@@ -22785,7 +22789,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22811,16 +22815,16 @@
         <v>178</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>43</v>
@@ -22848,10 +22852,10 @@
         <v>116</v>
       </c>
       <c r="X175" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="Y175" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="Z175" t="s" s="2">
         <v>43</v>
@@ -22869,7 +22873,7 @@
         <v>43</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>41</v>
@@ -22898,7 +22902,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -22921,17 +22925,17 @@
         <v>43</v>
       </c>
       <c r="J176" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="M176" s="2"/>
       <c r="N176" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>43</v>
@@ -22980,7 +22984,7 @@
         <v>43</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>41</v>
@@ -23009,7 +23013,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -23032,17 +23036,17 @@
         <v>43</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M177" s="2"/>
       <c r="N177" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>43</v>
@@ -23091,7 +23095,7 @@
         <v>43</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>41</v>
@@ -23120,7 +23124,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23143,19 +23147,19 @@
         <v>43</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>43</v>
@@ -23204,7 +23208,7 @@
         <v>43</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>41</v>
@@ -23233,7 +23237,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -23256,19 +23260,19 @@
         <v>43</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>43</v>
@@ -23317,7 +23321,7 @@
         <v>43</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>41</v>
@@ -23346,7 +23350,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23369,17 +23373,17 @@
         <v>43</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M180" s="2"/>
       <c r="N180" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>43</v>
@@ -23428,7 +23432,7 @@
         <v>43</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>41</v>
@@ -23457,7 +23461,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -23480,17 +23484,17 @@
         <v>43</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M181" s="2"/>
       <c r="N181" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="O181" t="s" s="2">
         <v>43</v>
@@ -23539,7 +23543,7 @@
         <v>43</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>41</v>
@@ -23568,7 +23572,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23594,10 +23598,10 @@
         <v>43</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="M182" s="2"/>
       <c r="N182" s="2"/>
@@ -23648,7 +23652,7 @@
         <v>43</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>41</v>
@@ -23677,7 +23681,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -23703,14 +23707,14 @@
         <v>310</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="M183" s="2"/>
       <c r="N183" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="O183" t="s" s="2">
         <v>43</v>
@@ -23759,7 +23763,7 @@
         <v>43</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>41</v>
@@ -23788,7 +23792,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23897,7 +23901,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -24008,7 +24012,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -24121,7 +24125,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -24144,17 +24148,17 @@
         <v>43</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="M187" s="2"/>
       <c r="N187" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>43</v>
@@ -24203,7 +24207,7 @@
         <v>43</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>41</v>
@@ -24232,7 +24236,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -24255,17 +24259,17 @@
         <v>43</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="M188" s="2"/>
       <c r="N188" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>43</v>
@@ -24314,7 +24318,7 @@
         <v>43</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>41</v>
@@ -24343,7 +24347,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -24366,17 +24370,17 @@
         <v>43</v>
       </c>
       <c r="J189" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="M189" s="2"/>
       <c r="N189" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>43</v>
@@ -24425,7 +24429,7 @@
         <v>43</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>41</v>
@@ -24454,7 +24458,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -24477,17 +24481,17 @@
         <v>43</v>
       </c>
       <c r="J190" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="M190" s="2"/>
       <c r="N190" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>43</v>
@@ -24536,7 +24540,7 @@
         <v>43</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>41</v>
@@ -24565,11 +24569,11 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -24591,16 +24595,16 @@
         <v>178</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>43</v>
@@ -24628,10 +24632,10 @@
         <v>116</v>
       </c>
       <c r="X191" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="Y191" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Z191" t="s" s="2">
         <v>43</v>
@@ -24649,7 +24653,7 @@
         <v>43</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>50</v>
@@ -24678,7 +24682,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24704,16 +24708,16 @@
         <v>178</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>43</v>
@@ -24741,10 +24745,10 @@
         <v>116</v>
       </c>
       <c r="X192" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="Y192" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="Z192" t="s" s="2">
         <v>43</v>
@@ -24762,7 +24766,7 @@
         <v>43</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>41</v>
@@ -24791,7 +24795,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -24817,16 +24821,16 @@
         <v>178</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="O193" t="s" s="2">
         <v>43</v>
@@ -24854,10 +24858,10 @@
         <v>116</v>
       </c>
       <c r="X193" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="Y193" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="Z193" t="s" s="2">
         <v>43</v>
@@ -24875,7 +24879,7 @@
         <v>43</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>41</v>
@@ -24904,7 +24908,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -24927,17 +24931,17 @@
         <v>43</v>
       </c>
       <c r="J194" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="M194" s="2"/>
       <c r="N194" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="O194" t="s" s="2">
         <v>43</v>
@@ -24986,7 +24990,7 @@
         <v>43</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>41</v>
@@ -25015,7 +25019,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -25038,17 +25042,17 @@
         <v>43</v>
       </c>
       <c r="J195" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="M195" s="2"/>
       <c r="N195" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="O195" t="s" s="2">
         <v>43</v>
@@ -25076,10 +25080,10 @@
         <v>116</v>
       </c>
       <c r="X195" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="Y195" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="Z195" t="s" s="2">
         <v>43</v>
@@ -25097,7 +25101,7 @@
         <v>43</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>41</v>
@@ -25126,7 +25130,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -25149,17 +25153,17 @@
         <v>43</v>
       </c>
       <c r="J196" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="M196" s="2"/>
       <c r="N196" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>43</v>
@@ -25208,7 +25212,7 @@
         <v>43</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>41</v>
@@ -25237,7 +25241,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -25260,17 +25264,17 @@
         <v>43</v>
       </c>
       <c r="J197" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>43</v>
@@ -25319,7 +25323,7 @@
         <v>43</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>41</v>
@@ -25348,7 +25352,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25371,19 +25375,19 @@
         <v>43</v>
       </c>
       <c r="J198" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="O198" t="s" s="2">
         <v>43</v>
@@ -25432,7 +25436,7 @@
         <v>43</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>41</v>
@@ -25461,7 +25465,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25484,19 +25488,19 @@
         <v>43</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="O199" t="s" s="2">
         <v>43</v>
@@ -25545,7 +25549,7 @@
         <v>43</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>41</v>
@@ -25574,7 +25578,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -25600,16 +25604,16 @@
         <v>178</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>43</v>
@@ -25637,10 +25641,10 @@
         <v>116</v>
       </c>
       <c r="X200" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="Y200" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="Z200" t="s" s="2">
         <v>43</v>
@@ -25658,7 +25662,7 @@
         <v>43</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>41</v>
@@ -25687,7 +25691,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -25713,14 +25717,14 @@
         <v>178</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M201" s="2"/>
       <c r="N201" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="O201" t="s" s="2">
         <v>43</v>
@@ -25748,10 +25752,10 @@
         <v>116</v>
       </c>
       <c r="X201" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Y201" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="Z201" t="s" s="2">
         <v>43</v>
@@ -25769,7 +25773,7 @@
         <v>43</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>41</v>
@@ -25798,7 +25802,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -25821,17 +25825,17 @@
         <v>43</v>
       </c>
       <c r="J202" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M202" s="2"/>
       <c r="N202" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="O202" t="s" s="2">
         <v>43</v>
@@ -25880,7 +25884,7 @@
         <v>43</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>41</v>
@@ -25909,7 +25913,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -25935,10 +25939,10 @@
         <v>43</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="M203" s="2"/>
       <c r="N203" s="2"/>
@@ -25989,7 +25993,7 @@
         <v>43</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>41</v>
@@ -26018,7 +26022,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -26044,10 +26048,10 @@
         <v>310</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" s="2"/>
@@ -26098,7 +26102,7 @@
         <v>43</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>41</v>
@@ -26127,7 +26131,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -26236,7 +26240,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26347,7 +26351,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -26460,11 +26464,11 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
@@ -26486,16 +26490,16 @@
         <v>178</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="O208" t="s" s="2">
         <v>43</v>
@@ -26523,10 +26527,10 @@
         <v>116</v>
       </c>
       <c r="X208" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="Y208" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Z208" t="s" s="2">
         <v>43</v>
@@ -26544,7 +26548,7 @@
         <v>43</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>50</v>
@@ -26573,7 +26577,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -26599,16 +26603,16 @@
         <v>178</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="O209" t="s" s="2">
         <v>43</v>
@@ -26636,10 +26640,10 @@
         <v>116</v>
       </c>
       <c r="X209" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="Y209" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="Z209" t="s" s="2">
         <v>43</v>
@@ -26657,7 +26661,7 @@
         <v>43</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>41</v>
@@ -26686,7 +26690,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -26709,17 +26713,17 @@
         <v>43</v>
       </c>
       <c r="J210" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="M210" s="2"/>
       <c r="N210" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>43</v>
@@ -26768,7 +26772,7 @@
         <v>43</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>41</v>
@@ -26797,7 +26801,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -26820,17 +26824,17 @@
         <v>43</v>
       </c>
       <c r="J211" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M211" s="2"/>
       <c r="N211" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="O211" t="s" s="2">
         <v>43</v>
@@ -26879,7 +26883,7 @@
         <v>43</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>41</v>
@@ -26908,7 +26912,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -26931,19 +26935,19 @@
         <v>43</v>
       </c>
       <c r="J212" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="O212" t="s" s="2">
         <v>43</v>
@@ -26992,7 +26996,7 @@
         <v>43</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>41</v>
@@ -27021,7 +27025,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -27044,19 +27048,19 @@
         <v>43</v>
       </c>
       <c r="J213" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="N213" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="O213" t="s" s="2">
         <v>43</v>
@@ -27105,7 +27109,7 @@
         <v>43</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="AF213" t="s" s="2">
         <v>41</v>
@@ -27134,7 +27138,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -27157,17 +27161,17 @@
         <v>43</v>
       </c>
       <c r="J214" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M214" s="2"/>
       <c r="N214" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="O214" t="s" s="2">
         <v>43</v>
@@ -27216,7 +27220,7 @@
         <v>43</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>41</v>
@@ -27245,7 +27249,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -27271,10 +27275,10 @@
         <v>43</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="M215" s="2"/>
       <c r="N215" s="2"/>
@@ -27325,7 +27329,7 @@
         <v>43</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="AF215" t="s" s="2">
         <v>41</v>
@@ -27354,7 +27358,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -27380,10 +27384,10 @@
         <v>310</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="M216" s="2"/>
       <c r="N216" s="2"/>
@@ -27434,7 +27438,7 @@
         <v>43</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>41</v>
@@ -27463,7 +27467,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -27572,7 +27576,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -27683,7 +27687,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -27796,11 +27800,11 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" t="s" s="2">
@@ -27822,16 +27826,16 @@
         <v>178</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="O220" t="s" s="2">
         <v>43</v>
@@ -27859,10 +27863,10 @@
         <v>116</v>
       </c>
       <c r="X220" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="Y220" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Z220" t="s" s="2">
         <v>43</v>
@@ -27880,7 +27884,7 @@
         <v>43</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="AF220" t="s" s="2">
         <v>50</v>
@@ -27909,7 +27913,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -27935,16 +27939,16 @@
         <v>178</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="O221" t="s" s="2">
         <v>43</v>
@@ -27972,10 +27976,10 @@
         <v>116</v>
       </c>
       <c r="X221" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="Y221" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="Z221" t="s" s="2">
         <v>43</v>
@@ -27993,7 +27997,7 @@
         <v>43</v>
       </c>
       <c r="AE221" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="AF221" t="s" s="2">
         <v>41</v>
@@ -28022,7 +28026,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -28045,17 +28049,17 @@
         <v>43</v>
       </c>
       <c r="J222" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="M222" s="2"/>
       <c r="N222" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="O222" t="s" s="2">
         <v>43</v>
@@ -28104,7 +28108,7 @@
         <v>43</v>
       </c>
       <c r="AE222" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="AF222" t="s" s="2">
         <v>41</v>
@@ -28133,7 +28137,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -28156,17 +28160,17 @@
         <v>43</v>
       </c>
       <c r="J223" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M223" s="2"/>
       <c r="N223" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="O223" t="s" s="2">
         <v>43</v>
@@ -28215,7 +28219,7 @@
         <v>43</v>
       </c>
       <c r="AE223" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="AF223" t="s" s="2">
         <v>41</v>
@@ -28244,7 +28248,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -28267,19 +28271,19 @@
         <v>43</v>
       </c>
       <c r="J224" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="O224" t="s" s="2">
         <v>43</v>
@@ -28328,7 +28332,7 @@
         <v>43</v>
       </c>
       <c r="AE224" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="AF224" t="s" s="2">
         <v>41</v>
@@ -28357,7 +28361,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -28380,19 +28384,19 @@
         <v>43</v>
       </c>
       <c r="J225" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="O225" t="s" s="2">
         <v>43</v>
@@ -28441,7 +28445,7 @@
         <v>43</v>
       </c>
       <c r="AE225" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="AF225" t="s" s="2">
         <v>41</v>
@@ -28470,7 +28474,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -28493,17 +28497,17 @@
         <v>43</v>
       </c>
       <c r="J226" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M226" s="2"/>
       <c r="N226" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="O226" t="s" s="2">
         <v>43</v>
@@ -28552,7 +28556,7 @@
         <v>43</v>
       </c>
       <c r="AE226" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="AF226" t="s" s="2">
         <v>41</v>
@@ -28581,7 +28585,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -28607,10 +28611,10 @@
         <v>43</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="M227" s="2"/>
       <c r="N227" s="2"/>
@@ -28661,7 +28665,7 @@
         <v>43</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>41</v>
@@ -28690,7 +28694,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -28716,14 +28720,14 @@
         <v>310</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="M228" s="2"/>
       <c r="N228" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="O228" t="s" s="2">
         <v>43</v>
@@ -28772,7 +28776,7 @@
         <v>43</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="AF228" t="s" s="2">
         <v>41</v>
@@ -28801,7 +28805,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -28910,7 +28914,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -29021,7 +29025,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -29134,7 +29138,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -29160,16 +29164,16 @@
         <v>178</v>
       </c>
       <c r="K232" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N232" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="O232" t="s" s="2">
         <v>43</v>
@@ -29198,7 +29202,7 @@
       </c>
       <c r="X232" s="2"/>
       <c r="Y232" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="Z232" t="s" s="2">
         <v>43</v>
@@ -29216,7 +29220,7 @@
         <v>43</v>
       </c>
       <c r="AE232" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AF232" t="s" s="2">
         <v>50</v>
@@ -29245,7 +29249,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -29271,16 +29275,16 @@
         <v>178</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="O233" t="s" s="2">
         <v>43</v>
@@ -29308,10 +29312,10 @@
         <v>116</v>
       </c>
       <c r="X233" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="Y233" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="Z233" t="s" s="2">
         <v>43</v>
@@ -29329,7 +29333,7 @@
         <v>43</v>
       </c>
       <c r="AE233" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AF233" t="s" s="2">
         <v>41</v>
@@ -29358,7 +29362,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -29381,19 +29385,19 @@
         <v>43</v>
       </c>
       <c r="J234" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="O234" t="s" s="2">
         <v>43</v>
@@ -29442,7 +29446,7 @@
         <v>43</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AF234" t="s" s="2">
         <v>41</v>
@@ -29471,7 +29475,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -29494,19 +29498,19 @@
         <v>43</v>
       </c>
       <c r="J235" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="O235" t="s" s="2">
         <v>43</v>
@@ -29555,7 +29559,7 @@
         <v>43</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>41</v>
@@ -29584,7 +29588,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -29610,16 +29614,16 @@
         <v>310</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="N236" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="O236" t="s" s="2">
         <v>43</v>
@@ -29668,7 +29672,7 @@
         <v>43</v>
       </c>
       <c r="AE236" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="AF236" t="s" s="2">
         <v>41</v>
@@ -29697,7 +29701,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -29806,7 +29810,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -29917,7 +29921,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -30030,7 +30034,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -30056,16 +30060,16 @@
         <v>178</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N240" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="O240" t="s" s="2">
         <v>43</v>
@@ -30094,7 +30098,7 @@
       </c>
       <c r="X240" s="2"/>
       <c r="Y240" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="Z240" t="s" s="2">
         <v>43</v>
@@ -30112,7 +30116,7 @@
         <v>43</v>
       </c>
       <c r="AE240" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="AF240" t="s" s="2">
         <v>50</v>
@@ -30141,7 +30145,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -30164,17 +30168,17 @@
         <v>51</v>
       </c>
       <c r="J241" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="M241" s="2"/>
       <c r="N241" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="O241" t="s" s="2">
         <v>43</v>
@@ -30223,7 +30227,7 @@
         <v>43</v>
       </c>
       <c r="AE241" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="AF241" t="s" s="2">
         <v>50</v>
@@ -30252,7 +30256,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -30278,14 +30282,14 @@
         <v>310</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="M242" s="2"/>
       <c r="N242" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="O242" t="s" s="2">
         <v>43</v>
@@ -30334,7 +30338,7 @@
         <v>43</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>41</v>
@@ -30363,7 +30367,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -30472,7 +30476,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -30583,7 +30587,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -30696,7 +30700,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -30722,14 +30726,14 @@
         <v>178</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="M246" s="2"/>
       <c r="N246" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="O246" t="s" s="2">
         <v>43</v>
@@ -30758,7 +30762,7 @@
       </c>
       <c r="X246" s="2"/>
       <c r="Y246" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="Z246" t="s" s="2">
         <v>43</v>
@@ -30776,7 +30780,7 @@
         <v>43</v>
       </c>
       <c r="AE246" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="AF246" t="s" s="2">
         <v>41</v>
@@ -30805,7 +30809,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -30828,19 +30832,19 @@
         <v>43</v>
       </c>
       <c r="J247" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="N247" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="O247" t="s" s="2">
         <v>43</v>
@@ -30889,7 +30893,7 @@
         <v>43</v>
       </c>
       <c r="AE247" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="AF247" t="s" s="2">
         <v>41</v>
@@ -30918,7 +30922,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
@@ -30944,14 +30948,14 @@
         <v>178</v>
       </c>
       <c r="K248" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="M248" s="2"/>
       <c r="N248" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="O248" t="s" s="2">
         <v>43</v>
@@ -30979,10 +30983,10 @@
         <v>116</v>
       </c>
       <c r="X248" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="Y248" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="Z248" t="s" s="2">
         <v>43</v>
@@ -31000,7 +31004,7 @@
         <v>43</v>
       </c>
       <c r="AE248" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="AF248" t="s" s="2">
         <v>41</v>
@@ -31029,7 +31033,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -31052,17 +31056,17 @@
         <v>43</v>
       </c>
       <c r="J249" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="K249" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="M249" s="2"/>
       <c r="N249" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="O249" t="s" s="2">
         <v>43</v>
@@ -31111,7 +31115,7 @@
         <v>43</v>
       </c>
       <c r="AE249" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="AF249" t="s" s="2">
         <v>41</v>
@@ -31140,7 +31144,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -31163,17 +31167,17 @@
         <v>43</v>
       </c>
       <c r="J250" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="M250" s="2"/>
       <c r="N250" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="O250" t="s" s="2">
         <v>43</v>
@@ -31222,7 +31226,7 @@
         <v>43</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>41</v>
@@ -31251,7 +31255,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -31277,16 +31281,16 @@
         <v>159</v>
       </c>
       <c r="K251" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="N251" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="O251" t="s" s="2">
         <v>43</v>
@@ -31335,7 +31339,7 @@
         <v>43</v>
       </c>
       <c r="AE251" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="AF251" t="s" s="2">
         <v>41</v>
@@ -31364,7 +31368,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -31390,16 +31394,16 @@
         <v>178</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="N252" t="s" s="2">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>43</v>
@@ -31427,10 +31431,10 @@
         <v>116</v>
       </c>
       <c r="X252" t="s" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="Y252" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="Z252" t="s" s="2">
         <v>43</v>
@@ -31448,7 +31452,7 @@
         <v>43</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="AF252" t="s" s="2">
         <v>41</v>
@@ -31477,7 +31481,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -31500,19 +31504,19 @@
         <v>43</v>
       </c>
       <c r="J253" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="N253" t="s" s="2">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="O253" t="s" s="2">
         <v>43</v>
@@ -31561,7 +31565,7 @@
         <v>43</v>
       </c>
       <c r="AE253" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="AF253" t="s" s="2">
         <v>41</v>
@@ -31590,7 +31594,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -31616,14 +31620,14 @@
         <v>310</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="M254" s="2"/>
       <c r="N254" t="s" s="2">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="O254" t="s" s="2">
         <v>43</v>
@@ -31672,7 +31676,7 @@
         <v>43</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>41</v>
@@ -31701,7 +31705,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -31810,7 +31814,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -31921,7 +31925,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -32034,7 +32038,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -32057,17 +32061,17 @@
         <v>43</v>
       </c>
       <c r="J258" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K258" t="s" s="2">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="M258" s="2"/>
       <c r="N258" t="s" s="2">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="O258" t="s" s="2">
         <v>43</v>
@@ -32116,7 +32120,7 @@
         <v>43</v>
       </c>
       <c r="AE258" t="s" s="2">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="AF258" t="s" s="2">
         <v>41</v>
@@ -32145,7 +32149,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -32171,14 +32175,14 @@
         <v>126</v>
       </c>
       <c r="K259" t="s" s="2">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="M259" s="2"/>
       <c r="N259" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="O259" t="s" s="2">
         <v>43</v>
@@ -32206,10 +32210,10 @@
         <v>172</v>
       </c>
       <c r="X259" t="s" s="2">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="Y259" t="s" s="2">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="Z259" t="s" s="2">
         <v>43</v>
@@ -32227,7 +32231,7 @@
         <v>43</v>
       </c>
       <c r="AE259" t="s" s="2">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="AF259" t="s" s="2">
         <v>41</v>
@@ -32256,7 +32260,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -32282,14 +32286,14 @@
         <v>52</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="M260" s="2"/>
       <c r="N260" t="s" s="2">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="O260" t="s" s="2">
         <v>43</v>
@@ -32338,7 +32342,7 @@
         <v>43</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>41</v>
@@ -32367,7 +32371,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -32393,16 +32397,16 @@
         <v>178</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="N261" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="O261" t="s" s="2">
         <v>43</v>
@@ -32451,7 +32455,7 @@
         <v>43</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>41</v>
@@ -32480,7 +32484,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -32506,16 +32510,16 @@
         <v>205</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="M262" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="N262" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="O262" t="s" s="2">
         <v>43</v>
@@ -32564,7 +32568,7 @@
         <v>43</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>41</v>
@@ -32593,7 +32597,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -32619,10 +32623,10 @@
         <v>310</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="M263" s="2"/>
       <c r="N263" s="2"/>
@@ -32673,7 +32677,7 @@
         <v>43</v>
       </c>
       <c r="AE263" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="AF263" t="s" s="2">
         <v>41</v>
@@ -32702,7 +32706,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -32811,7 +32815,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -32922,7 +32926,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -33035,7 +33039,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -33061,16 +33065,16 @@
         <v>178</v>
       </c>
       <c r="K267" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="N267" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="O267" t="s" s="2">
         <v>43</v>
@@ -33098,10 +33102,10 @@
         <v>116</v>
       </c>
       <c r="X267" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="Y267" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="Z267" t="s" s="2">
         <v>43</v>
@@ -33119,7 +33123,7 @@
         <v>43</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>50</v>
@@ -33148,7 +33152,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -33171,17 +33175,17 @@
         <v>43</v>
       </c>
       <c r="J268" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K268" t="s" s="2">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="M268" s="2"/>
       <c r="N268" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="O268" t="s" s="2">
         <v>43</v>
@@ -33230,7 +33234,7 @@
         <v>43</v>
       </c>
       <c r="AE268" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="AF268" t="s" s="2">
         <v>41</v>
@@ -33259,7 +33263,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -33285,16 +33289,16 @@
         <v>52</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="N269" t="s" s="2">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>43</v>
@@ -33343,7 +33347,7 @@
         <v>43</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>41</v>
@@ -33372,7 +33376,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -33398,16 +33402,16 @@
         <v>52</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="N270" t="s" s="2">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="O270" t="s" s="2">
         <v>43</v>
@@ -33456,7 +33460,7 @@
         <v>43</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>41</v>
@@ -33485,7 +33489,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -33511,14 +33515,14 @@
         <v>178</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="M271" s="2"/>
       <c r="N271" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="O271" t="s" s="2">
         <v>43</v>
@@ -33546,10 +33550,10 @@
         <v>116</v>
       </c>
       <c r="X271" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="Y271" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="Z271" t="s" s="2">
         <v>43</v>
@@ -33567,7 +33571,7 @@
         <v>43</v>
       </c>
       <c r="AE271" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="AF271" t="s" s="2">
         <v>41</v>
@@ -33596,7 +33600,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -33622,14 +33626,14 @@
         <v>178</v>
       </c>
       <c r="K272" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="M272" s="2"/>
       <c r="N272" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="O272" t="s" s="2">
         <v>43</v>
@@ -33657,10 +33661,10 @@
         <v>116</v>
       </c>
       <c r="X272" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="Y272" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="Z272" t="s" s="2">
         <v>43</v>
@@ -33678,7 +33682,7 @@
         <v>43</v>
       </c>
       <c r="AE272" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="AF272" t="s" s="2">
         <v>41</v>
@@ -33707,7 +33711,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -33733,14 +33737,14 @@
         <v>178</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="M273" s="2"/>
       <c r="N273" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="O273" t="s" s="2">
         <v>43</v>
@@ -33768,10 +33772,10 @@
         <v>116</v>
       </c>
       <c r="X273" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="Y273" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="Z273" t="s" s="2">
         <v>43</v>
@@ -33789,7 +33793,7 @@
         <v>43</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>41</v>
@@ -33818,7 +33822,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -33844,10 +33848,10 @@
         <v>310</v>
       </c>
       <c r="K274" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="M274" s="2"/>
       <c r="N274" s="2"/>
@@ -33898,7 +33902,7 @@
         <v>43</v>
       </c>
       <c r="AE274" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="AF274" t="s" s="2">
         <v>41</v>
@@ -33927,7 +33931,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -34036,7 +34040,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -34147,7 +34151,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -34260,7 +34264,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -34286,16 +34290,16 @@
         <v>178</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="O278" t="s" s="2">
         <v>43</v>
@@ -34323,10 +34327,10 @@
         <v>116</v>
       </c>
       <c r="X278" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="Y278" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="Z278" t="s" s="2">
         <v>43</v>
@@ -34344,7 +34348,7 @@
         <v>43</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>50</v>
@@ -34373,7 +34377,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -34396,17 +34400,17 @@
         <v>43</v>
       </c>
       <c r="J279" t="s" s="2">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="M279" s="2"/>
       <c r="N279" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="O279" t="s" s="2">
         <v>43</v>
@@ -34455,7 +34459,7 @@
         <v>43</v>
       </c>
       <c r="AE279" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="AF279" t="s" s="2">
         <v>41</v>
@@ -34484,7 +34488,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -34507,17 +34511,17 @@
         <v>43</v>
       </c>
       <c r="J280" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="K280" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="M280" s="2"/>
       <c r="N280" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="O280" t="s" s="2">
         <v>43</v>
@@ -34566,7 +34570,7 @@
         <v>43</v>
       </c>
       <c r="AE280" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="AF280" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9868" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9869" uniqueCount="1035">
   <si>
     <t>Path</t>
   </si>
@@ -1303,10 +1303,6 @@
     <t>Common to identify the responsible and supporting practitioners.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-EOB-careteam-qualification:Care Team Performing physician's qualifications are from US-Core-Provider-Specialty Value Set {ExplanationOfBenefit.careTeam.role.coding.code='performing' implies ExplanationOfBenefit.careTeam.qualification.memberOf('http://hl7.org/fhir/us/core/ValueSet/us-core-provider-specialty')}</t>
-  </si>
-  <si>
     <t>ExplanationOfBenefit.careTeam.id</t>
   </si>
   <si>
@@ -1399,7 +1395,10 @@
     <t>Need to specify which qualification a provider is delivering the product or service under.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-provider-specialty</t>
+    <t>Provider professional qualifications.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/provider-qualification</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.supportingInfo</t>
@@ -10506,7 +10505,7 @@
         <v>43</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>415</v>
+        <v>62</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>43</v>
@@ -10523,7 +10522,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -10632,7 +10631,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -10743,7 +10742,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10856,7 +10855,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10879,17 +10878,17 @@
         <v>43</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>43</v>
@@ -10938,7 +10937,7 @@
         <v>43</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>50</v>
@@ -10967,7 +10966,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10993,14 +10992,14 @@
         <v>284</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>43</v>
@@ -11049,7 +11048,7 @@
         <v>43</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>50</v>
@@ -11067,7 +11066,7 @@
         <v>43</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>43</v>
@@ -11078,7 +11077,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -11101,19 +11100,19 @@
         <v>43</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>43</v>
@@ -11162,7 +11161,7 @@
         <v>43</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -11191,7 +11190,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -11217,16 +11216,16 @@
         <v>178</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>43</v>
@@ -11254,11 +11253,11 @@
         <v>116</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="Y71" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="Y71" t="s" s="2">
-        <v>441</v>
-      </c>
       <c r="Z71" t="s" s="2">
         <v>43</v>
       </c>
@@ -11275,7 +11274,7 @@
         <v>43</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -11304,7 +11303,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -11330,14 +11329,14 @@
         <v>178</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>43</v>
@@ -11362,9 +11361,11 @@
         <v>43</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X72" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="Y72" t="s" s="2">
         <v>446</v>
       </c>
@@ -11384,7 +11385,7 @@
         <v>43</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -11882,7 +11883,7 @@
         <v>43</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>456</v>
@@ -12998,7 +12999,7 @@
         <v>43</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K87" t="s" s="2">
         <v>497</v>
@@ -14003,7 +14004,7 @@
         <v>43</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K96" t="s" s="2">
         <v>536</v>
@@ -14558,7 +14559,7 @@
         <v>43</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K101" t="s" s="2">
         <v>560</v>
@@ -15115,7 +15116,7 @@
         <v>51</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K106" t="s" s="2">
         <v>574</v>
@@ -16675,7 +16676,7 @@
         <v>43</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K120" t="s" s="2">
         <v>620</v>
@@ -16786,7 +16787,7 @@
         <v>43</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K121" t="s" s="2">
         <v>624</v>
@@ -16897,7 +16898,7 @@
         <v>43</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K122" t="s" s="2">
         <v>628</v>
@@ -17008,7 +17009,7 @@
         <v>43</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K123" t="s" s="2">
         <v>632</v>
@@ -17119,7 +17120,7 @@
         <v>43</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K124" t="s" s="2">
         <v>636</v>
@@ -18909,7 +18910,7 @@
         <v>43</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K140" t="s" s="2">
         <v>725</v>
@@ -20356,7 +20357,7 @@
         <v>43</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K153" t="s" s="2">
         <v>613</v>
@@ -21589,7 +21590,7 @@
         <v>43</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K164" t="s" s="2">
         <v>779</v>
@@ -22251,7 +22252,7 @@
         <v>43</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K170" t="s" s="2">
         <v>613</v>
@@ -23484,7 +23485,7 @@
         <v>43</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K181" t="s" s="2">
         <v>779</v>
@@ -24148,7 +24149,7 @@
         <v>43</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K187" t="s" s="2">
         <v>811</v>
@@ -24259,7 +24260,7 @@
         <v>43</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K188" t="s" s="2">
         <v>815</v>
@@ -24370,7 +24371,7 @@
         <v>43</v>
       </c>
       <c r="J189" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K189" t="s" s="2">
         <v>819</v>
@@ -25825,7 +25826,7 @@
         <v>43</v>
       </c>
       <c r="J202" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K202" t="s" s="2">
         <v>779</v>
@@ -27161,7 +27162,7 @@
         <v>43</v>
       </c>
       <c r="J214" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K214" t="s" s="2">
         <v>779</v>
@@ -28497,7 +28498,7 @@
         <v>43</v>
       </c>
       <c r="J226" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K226" t="s" s="2">
         <v>779</v>
@@ -32061,7 +32062,7 @@
         <v>43</v>
       </c>
       <c r="J258" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K258" t="s" s="2">
         <v>951</v>
@@ -33175,7 +33176,7 @@
         <v>43</v>
       </c>
       <c r="J268" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K268" t="s" s="2">
         <v>983</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$280</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$273</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9869" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9623" uniqueCount="1029">
   <si>
     <t>Path</t>
   </si>
@@ -2295,7 +2295,10 @@
     <t>Needed to enable understanding of the context of the other information in the adjudication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimAdjudicationCategory</t>
+    <t>The adjudication codes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/adjudication</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.item.adjudication.reason</t>
@@ -2692,27 +2695,6 @@
     <t>Some insurers will receive line-items but provide the adjudication only at a summary or header-level.</t>
   </si>
   <si>
-    <t>ExplanationOfBenefit.adjudication.id</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.extension</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.modifierExtension</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.category</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.reason</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.amount</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.value</t>
-  </si>
-  <si>
     <t>ExplanationOfBenefit.total</t>
   </si>
   <si>
@@ -2791,7 +2773,7 @@
     <t>To advise the requestor when the insurer believes all payments to have been completed.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimPaymentStatusCode</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/C4BBPayerClaimPaymentStatusCode</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.payment.adjustment</t>
@@ -3330,7 +3312,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM280"/>
+  <dimension ref="A1:AM273"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3363,7 +3345,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="124.64453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.1171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="71.13671875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -19502,11 +19484,13 @@
         <v>43</v>
       </c>
       <c r="W145" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X145" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="X145" t="s" s="2">
+        <v>740</v>
+      </c>
       <c r="Y145" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Z145" t="s" s="2">
         <v>43</v>
@@ -19553,7 +19537,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19579,16 +19563,16 @@
         <v>178</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>43</v>
@@ -19616,10 +19600,10 @@
         <v>116</v>
       </c>
       <c r="X146" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="Z146" t="s" s="2">
         <v>43</v>
@@ -19637,7 +19621,7 @@
         <v>43</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>41</v>
@@ -19666,7 +19650,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19692,16 +19676,16 @@
         <v>691</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>43</v>
@@ -19750,7 +19734,7 @@
         <v>43</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>41</v>
@@ -19779,7 +19763,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19805,16 +19789,16 @@
         <v>696</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>43</v>
@@ -19863,7 +19847,7 @@
         <v>43</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>41</v>
@@ -19892,7 +19876,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19918,10 +19902,10 @@
         <v>310</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
@@ -19972,7 +19956,7 @@
         <v>43</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>41</v>
@@ -20001,7 +19985,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -20110,7 +20094,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -20221,7 +20205,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -20334,7 +20318,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20363,7 +20347,7 @@
         <v>613</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" t="s" s="2">
@@ -20416,7 +20400,7 @@
         <v>43</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>50</v>
@@ -20445,7 +20429,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20527,7 +20511,7 @@
         <v>43</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>41</v>
@@ -20556,7 +20540,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20588,7 +20572,7 @@
         <v>647</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="N155" t="s" s="2">
         <v>649</v>
@@ -20640,7 +20624,7 @@
         <v>43</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>41</v>
@@ -20669,7 +20653,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20753,7 +20737,7 @@
         <v>43</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>50</v>
@@ -20782,7 +20766,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20808,7 +20792,7 @@
         <v>178</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="L157" t="s" s="2">
         <v>662</v>
@@ -20866,7 +20850,7 @@
         <v>43</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>41</v>
@@ -20895,7 +20879,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20979,7 +20963,7 @@
         <v>43</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>41</v>
@@ -21008,7 +20992,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -21090,7 +21074,7 @@
         <v>43</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>41</v>
@@ -21119,7 +21103,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -21201,7 +21185,7 @@
         <v>43</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>41</v>
@@ -21230,7 +21214,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -21314,7 +21298,7 @@
         <v>43</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>41</v>
@@ -21343,7 +21327,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21427,7 +21411,7 @@
         <v>43</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>41</v>
@@ -21456,7 +21440,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21538,7 +21522,7 @@
         <v>43</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>41</v>
@@ -21567,7 +21551,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21593,7 +21577,7 @@
         <v>419</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="L164" t="s" s="2">
         <v>726</v>
@@ -21649,7 +21633,7 @@
         <v>43</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>41</v>
@@ -21678,7 +21662,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21704,10 +21688,10 @@
         <v>43</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
@@ -21758,7 +21742,7 @@
         <v>43</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>41</v>
@@ -21787,7 +21771,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21813,10 +21797,10 @@
         <v>310</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
@@ -21867,7 +21851,7 @@
         <v>43</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>41</v>
@@ -21896,7 +21880,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -22005,7 +21989,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -22116,7 +22100,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -22229,7 +22213,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -22258,7 +22242,7 @@
         <v>613</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" t="s" s="2">
@@ -22311,7 +22295,7 @@
         <v>43</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>50</v>
@@ -22340,7 +22324,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -22422,7 +22406,7 @@
         <v>43</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>41</v>
@@ -22451,7 +22435,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22535,7 +22519,7 @@
         <v>43</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>41</v>
@@ -22564,7 +22548,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -22648,7 +22632,7 @@
         <v>43</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>50</v>
@@ -22677,7 +22661,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22703,13 +22687,13 @@
         <v>178</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="L174" t="s" s="2">
         <v>662</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="N174" t="s" s="2">
         <v>664</v>
@@ -22761,7 +22745,7 @@
         <v>43</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>41</v>
@@ -22790,7 +22774,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22874,7 +22858,7 @@
         <v>43</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>41</v>
@@ -22903,7 +22887,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -22985,7 +22969,7 @@
         <v>43</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>41</v>
@@ -23014,7 +22998,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -23096,7 +23080,7 @@
         <v>43</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>41</v>
@@ -23125,7 +23109,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23209,7 +23193,7 @@
         <v>43</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>41</v>
@@ -23238,7 +23222,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -23322,7 +23306,7 @@
         <v>43</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>41</v>
@@ -23351,7 +23335,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23433,7 +23417,7 @@
         <v>43</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>41</v>
@@ -23462,7 +23446,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -23488,7 +23472,7 @@
         <v>419</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="L181" t="s" s="2">
         <v>726</v>
@@ -23544,7 +23528,7 @@
         <v>43</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>41</v>
@@ -23573,7 +23557,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23599,10 +23583,10 @@
         <v>43</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="M182" s="2"/>
       <c r="N182" s="2"/>
@@ -23653,7 +23637,7 @@
         <v>43</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>41</v>
@@ -23682,7 +23666,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -23708,14 +23692,14 @@
         <v>310</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="M183" s="2"/>
       <c r="N183" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="O183" t="s" s="2">
         <v>43</v>
@@ -23764,7 +23748,7 @@
         <v>43</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>41</v>
@@ -23793,7 +23777,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23902,7 +23886,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -24013,7 +23997,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -24126,7 +24110,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -24152,14 +24136,14 @@
         <v>419</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="M187" s="2"/>
       <c r="N187" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>43</v>
@@ -24208,7 +24192,7 @@
         <v>43</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>41</v>
@@ -24237,7 +24221,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -24263,14 +24247,14 @@
         <v>419</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="M188" s="2"/>
       <c r="N188" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>43</v>
@@ -24319,7 +24303,7 @@
         <v>43</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>41</v>
@@ -24348,7 +24332,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -24374,14 +24358,14 @@
         <v>419</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="M189" s="2"/>
       <c r="N189" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>43</v>
@@ -24430,7 +24414,7 @@
         <v>43</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>41</v>
@@ -24459,7 +24443,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -24482,17 +24466,17 @@
         <v>43</v>
       </c>
       <c r="J190" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="M190" s="2"/>
       <c r="N190" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>43</v>
@@ -24541,7 +24525,7 @@
         <v>43</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>41</v>
@@ -24570,7 +24554,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -24654,7 +24638,7 @@
         <v>43</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>50</v>
@@ -24683,7 +24667,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24709,7 +24693,7 @@
         <v>178</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="L192" t="s" s="2">
         <v>662</v>
@@ -24767,7 +24751,7 @@
         <v>43</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>41</v>
@@ -24796,7 +24780,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -24880,7 +24864,7 @@
         <v>43</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>41</v>
@@ -24909,7 +24893,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -24991,7 +24975,7 @@
         <v>43</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>41</v>
@@ -25020,7 +25004,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -25102,7 +25086,7 @@
         <v>43</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>41</v>
@@ -25131,7 +25115,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -25213,7 +25197,7 @@
         <v>43</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>41</v>
@@ -25242,7 +25226,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -25324,7 +25308,7 @@
         <v>43</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>41</v>
@@ -25353,7 +25337,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25437,7 +25421,7 @@
         <v>43</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>41</v>
@@ -25466,7 +25450,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25550,7 +25534,7 @@
         <v>43</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>41</v>
@@ -25579,7 +25563,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -25611,7 +25595,7 @@
         <v>709</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="N200" t="s" s="2">
         <v>711</v>
@@ -25663,7 +25647,7 @@
         <v>43</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>41</v>
@@ -25692,7 +25676,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -25774,7 +25758,7 @@
         <v>43</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>41</v>
@@ -25803,7 +25787,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -25829,7 +25813,7 @@
         <v>419</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="L202" t="s" s="2">
         <v>726</v>
@@ -25885,7 +25869,7 @@
         <v>43</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>41</v>
@@ -25914,7 +25898,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -25940,10 +25924,10 @@
         <v>43</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="M203" s="2"/>
       <c r="N203" s="2"/>
@@ -25994,7 +25978,7 @@
         <v>43</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>41</v>
@@ -26023,7 +26007,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -26049,10 +26033,10 @@
         <v>310</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" s="2"/>
@@ -26103,7 +26087,7 @@
         <v>43</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>41</v>
@@ -26132,7 +26116,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -26241,7 +26225,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26352,7 +26336,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -26465,7 +26449,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -26549,7 +26533,7 @@
         <v>43</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>50</v>
@@ -26578,7 +26562,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -26604,7 +26588,7 @@
         <v>178</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="L209" t="s" s="2">
         <v>662</v>
@@ -26662,7 +26646,7 @@
         <v>43</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>41</v>
@@ -26691,7 +26675,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -26773,7 +26757,7 @@
         <v>43</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>41</v>
@@ -26802,7 +26786,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -26884,7 +26868,7 @@
         <v>43</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>41</v>
@@ -26913,7 +26897,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -26997,7 +26981,7 @@
         <v>43</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>41</v>
@@ -27026,7 +27010,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -27110,7 +27094,7 @@
         <v>43</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="AF213" t="s" s="2">
         <v>41</v>
@@ -27139,7 +27123,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -27165,7 +27149,7 @@
         <v>419</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="L214" t="s" s="2">
         <v>726</v>
@@ -27221,7 +27205,7 @@
         <v>43</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>41</v>
@@ -27250,7 +27234,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -27276,10 +27260,10 @@
         <v>43</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="M215" s="2"/>
       <c r="N215" s="2"/>
@@ -27330,7 +27314,7 @@
         <v>43</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="AF215" t="s" s="2">
         <v>41</v>
@@ -27359,7 +27343,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -27385,10 +27369,10 @@
         <v>310</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="M216" s="2"/>
       <c r="N216" s="2"/>
@@ -27439,7 +27423,7 @@
         <v>43</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>41</v>
@@ -27468,7 +27452,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -27577,7 +27561,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -27688,7 +27672,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -27801,7 +27785,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -27885,7 +27869,7 @@
         <v>43</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="AF220" t="s" s="2">
         <v>50</v>
@@ -27914,7 +27898,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -27940,7 +27924,7 @@
         <v>178</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="L221" t="s" s="2">
         <v>662</v>
@@ -27998,7 +27982,7 @@
         <v>43</v>
       </c>
       <c r="AE221" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="AF221" t="s" s="2">
         <v>41</v>
@@ -28027,7 +28011,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -28109,7 +28093,7 @@
         <v>43</v>
       </c>
       <c r="AE222" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="AF222" t="s" s="2">
         <v>41</v>
@@ -28138,7 +28122,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -28220,7 +28204,7 @@
         <v>43</v>
       </c>
       <c r="AE223" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="AF223" t="s" s="2">
         <v>41</v>
@@ -28249,7 +28233,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -28333,7 +28317,7 @@
         <v>43</v>
       </c>
       <c r="AE224" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="AF224" t="s" s="2">
         <v>41</v>
@@ -28362,7 +28346,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -28446,7 +28430,7 @@
         <v>43</v>
       </c>
       <c r="AE225" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="AF225" t="s" s="2">
         <v>41</v>
@@ -28475,7 +28459,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -28501,7 +28485,7 @@
         <v>419</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="L226" t="s" s="2">
         <v>726</v>
@@ -28557,7 +28541,7 @@
         <v>43</v>
       </c>
       <c r="AE226" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="AF226" t="s" s="2">
         <v>41</v>
@@ -28586,7 +28570,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -28612,10 +28596,10 @@
         <v>43</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="M227" s="2"/>
       <c r="N227" s="2"/>
@@ -28666,7 +28650,7 @@
         <v>43</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>41</v>
@@ -28695,7 +28679,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -28718,17 +28702,17 @@
         <v>43</v>
       </c>
       <c r="J228" t="s" s="2">
-        <v>310</v>
+        <v>43</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="M228" s="2"/>
       <c r="N228" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="O228" t="s" s="2">
         <v>43</v>
@@ -28777,7 +28761,7 @@
         <v>43</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="AF228" t="s" s="2">
         <v>41</v>
@@ -28806,7 +28790,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -28817,7 +28801,7 @@
         <v>41</v>
       </c>
       <c r="F229" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G229" t="s" s="2">
         <v>43</v>
@@ -28826,19 +28810,23 @@
         <v>43</v>
       </c>
       <c r="I229" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J229" t="s" s="2">
-        <v>52</v>
+        <v>310</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>64</v>
+        <v>874</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M229" s="2"/>
-      <c r="N229" s="2"/>
+        <v>875</v>
+      </c>
+      <c r="M229" t="s" s="2">
+        <v>876</v>
+      </c>
+      <c r="N229" t="s" s="2">
+        <v>877</v>
+      </c>
       <c r="O229" t="s" s="2">
         <v>43</v>
       </c>
@@ -28886,19 +28874,19 @@
         <v>43</v>
       </c>
       <c r="AE229" t="s" s="2">
-        <v>66</v>
+        <v>873</v>
       </c>
       <c r="AF229" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG229" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH229" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI229" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ229" t="s" s="2">
         <v>43</v>
@@ -28910,23 +28898,23 @@
         <v>43</v>
       </c>
       <c r="AM229" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F230" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G230" t="s" s="2">
         <v>43</v>
@@ -28938,17 +28926,15 @@
         <v>43</v>
       </c>
       <c r="J230" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M230" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M230" s="2"/>
       <c r="N230" s="2"/>
       <c r="O230" t="s" s="2">
         <v>43</v>
@@ -28997,19 +28983,19 @@
         <v>43</v>
       </c>
       <c r="AE230" t="s" s="2">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="AF230" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG230" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH230" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI230" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AJ230" t="s" s="2">
         <v>43</v>
@@ -29026,11 +29012,11 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
-        <v>318</v>
+        <v>69</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" t="s" s="2">
@@ -29043,26 +29029,24 @@
         <v>43</v>
       </c>
       <c r="H231" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I231" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J231" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>319</v>
+        <v>71</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>320</v>
+        <v>72</v>
       </c>
       <c r="M231" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N231" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="N231" s="2"/>
       <c r="O231" t="s" s="2">
         <v>43</v>
       </c>
@@ -29110,7 +29094,7 @@
         <v>43</v>
       </c>
       <c r="AE231" t="s" s="2">
-        <v>321</v>
+        <v>77</v>
       </c>
       <c r="AF231" t="s" s="2">
         <v>41</v>
@@ -29134,47 +29118,47 @@
         <v>43</v>
       </c>
       <c r="AM231" t="s" s="2">
-        <v>149</v>
+        <v>67</v>
       </c>
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F232" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G232" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H232" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I232" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J232" t="s" s="2">
-        <v>178</v>
+        <v>70</v>
       </c>
       <c r="K232" t="s" s="2">
-        <v>736</v>
+        <v>319</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>737</v>
+        <v>320</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>738</v>
+        <v>73</v>
       </c>
       <c r="N232" t="s" s="2">
-        <v>739</v>
+        <v>156</v>
       </c>
       <c r="O232" t="s" s="2">
         <v>43</v>
@@ -29199,11 +29183,13 @@
         <v>43</v>
       </c>
       <c r="W232" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X232" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X232" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y232" t="s" s="2">
-        <v>740</v>
+        <v>43</v>
       </c>
       <c r="Z232" t="s" s="2">
         <v>43</v>
@@ -29221,19 +29207,19 @@
         <v>43</v>
       </c>
       <c r="AE232" t="s" s="2">
-        <v>735</v>
+        <v>321</v>
       </c>
       <c r="AF232" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG232" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH232" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI232" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ232" t="s" s="2">
         <v>43</v>
@@ -29245,12 +29231,12 @@
         <v>43</v>
       </c>
       <c r="AM232" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -29258,7 +29244,7 @@
       </c>
       <c r="D233" s="2"/>
       <c r="E233" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F233" t="s" s="2">
         <v>50</v>
@@ -29270,22 +29256,22 @@
         <v>43</v>
       </c>
       <c r="I233" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J233" t="s" s="2">
         <v>178</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>743</v>
+        <v>882</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>745</v>
+        <v>883</v>
       </c>
       <c r="O233" t="s" s="2">
         <v>43</v>
@@ -29313,10 +29299,10 @@
         <v>116</v>
       </c>
       <c r="X233" t="s" s="2">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="Y233" t="s" s="2">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="Z233" t="s" s="2">
         <v>43</v>
@@ -29334,10 +29320,10 @@
         <v>43</v>
       </c>
       <c r="AE233" t="s" s="2">
-        <v>741</v>
+        <v>881</v>
       </c>
       <c r="AF233" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG233" t="s" s="2">
         <v>50</v>
@@ -29363,7 +29349,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>877</v>
+        <v>884</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -29371,7 +29357,7 @@
       </c>
       <c r="D234" s="2"/>
       <c r="E234" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F234" t="s" s="2">
         <v>50</v>
@@ -29383,22 +29369,20 @@
         <v>43</v>
       </c>
       <c r="I234" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J234" t="s" s="2">
         <v>691</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>749</v>
+        <v>885</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>750</v>
-      </c>
-      <c r="M234" t="s" s="2">
-        <v>751</v>
-      </c>
+        <v>886</v>
+      </c>
+      <c r="M234" s="2"/>
       <c r="N234" t="s" s="2">
-        <v>752</v>
+        <v>887</v>
       </c>
       <c r="O234" t="s" s="2">
         <v>43</v>
@@ -29447,10 +29431,10 @@
         <v>43</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>748</v>
+        <v>884</v>
       </c>
       <c r="AF234" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG234" t="s" s="2">
         <v>50</v>
@@ -29474,9 +29458,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="235" hidden="true">
+    <row r="235">
       <c r="A235" t="s" s="2">
-        <v>878</v>
+        <v>888</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -29490,7 +29474,7 @@
         <v>50</v>
       </c>
       <c r="G235" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H235" t="s" s="2">
         <v>43</v>
@@ -29499,19 +29483,17 @@
         <v>43</v>
       </c>
       <c r="J235" t="s" s="2">
-        <v>696</v>
+        <v>310</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>754</v>
+        <v>889</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>755</v>
-      </c>
-      <c r="M235" t="s" s="2">
-        <v>756</v>
-      </c>
+        <v>890</v>
+      </c>
+      <c r="M235" s="2"/>
       <c r="N235" t="s" s="2">
-        <v>757</v>
+        <v>891</v>
       </c>
       <c r="O235" t="s" s="2">
         <v>43</v>
@@ -29560,7 +29542,7 @@
         <v>43</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>753</v>
+        <v>888</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>41</v>
@@ -29589,7 +29571,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>879</v>
+        <v>892</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -29600,7 +29582,7 @@
         <v>41</v>
       </c>
       <c r="F236" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G236" t="s" s="2">
         <v>43</v>
@@ -29609,23 +29591,19 @@
         <v>43</v>
       </c>
       <c r="I236" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J236" t="s" s="2">
-        <v>310</v>
+        <v>52</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>880</v>
+        <v>64</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>881</v>
-      </c>
-      <c r="M236" t="s" s="2">
-        <v>882</v>
-      </c>
-      <c r="N236" t="s" s="2">
-        <v>883</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M236" s="2"/>
+      <c r="N236" s="2"/>
       <c r="O236" t="s" s="2">
         <v>43</v>
       </c>
@@ -29673,19 +29651,19 @@
         <v>43</v>
       </c>
       <c r="AE236" t="s" s="2">
-        <v>879</v>
+        <v>66</v>
       </c>
       <c r="AF236" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG236" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH236" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI236" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ236" t="s" s="2">
         <v>43</v>
@@ -29697,23 +29675,23 @@
         <v>43</v>
       </c>
       <c r="AM236" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>884</v>
+        <v>893</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F237" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G237" t="s" s="2">
         <v>43</v>
@@ -29725,15 +29703,17 @@
         <v>43</v>
       </c>
       <c r="J237" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M237" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M237" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N237" s="2"/>
       <c r="O237" t="s" s="2">
         <v>43</v>
@@ -29782,19 +29762,19 @@
         <v>43</v>
       </c>
       <c r="AE237" t="s" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AF237" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG237" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH237" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI237" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AJ237" t="s" s="2">
         <v>43</v>
@@ -29811,11 +29791,11 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>885</v>
+        <v>894</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
-        <v>69</v>
+        <v>318</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" t="s" s="2">
@@ -29828,24 +29808,26 @@
         <v>43</v>
       </c>
       <c r="H238" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I238" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J238" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>71</v>
+        <v>319</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>72</v>
+        <v>320</v>
       </c>
       <c r="M238" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N238" s="2"/>
+      <c r="N238" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O238" t="s" s="2">
         <v>43</v>
       </c>
@@ -29893,7 +29875,7 @@
         <v>43</v>
       </c>
       <c r="AE238" t="s" s="2">
-        <v>77</v>
+        <v>321</v>
       </c>
       <c r="AF238" t="s" s="2">
         <v>41</v>
@@ -29917,47 +29899,45 @@
         <v>43</v>
       </c>
       <c r="AM238" t="s" s="2">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>886</v>
+        <v>895</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="D239" s="2"/>
       <c r="E239" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F239" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G239" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H239" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I239" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J239" t="s" s="2">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="K239" t="s" s="2">
-        <v>319</v>
+        <v>896</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M239" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>897</v>
+      </c>
+      <c r="M239" s="2"/>
       <c r="N239" t="s" s="2">
-        <v>156</v>
+        <v>898</v>
       </c>
       <c r="O239" t="s" s="2">
         <v>43</v>
@@ -29982,13 +29962,11 @@
         <v>43</v>
       </c>
       <c r="W239" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X239" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X239" s="2"/>
       <c r="Y239" t="s" s="2">
-        <v>43</v>
+        <v>899</v>
       </c>
       <c r="Z239" t="s" s="2">
         <v>43</v>
@@ -30006,19 +29984,19 @@
         <v>43</v>
       </c>
       <c r="AE239" t="s" s="2">
-        <v>321</v>
+        <v>895</v>
       </c>
       <c r="AF239" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG239" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH239" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI239" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ239" t="s" s="2">
         <v>43</v>
@@ -30030,12 +30008,12 @@
         <v>43</v>
       </c>
       <c r="AM239" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>887</v>
+        <v>900</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -30043,7 +30021,7 @@
       </c>
       <c r="D240" s="2"/>
       <c r="E240" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F240" t="s" s="2">
         <v>50</v>
@@ -30055,22 +30033,22 @@
         <v>43</v>
       </c>
       <c r="I240" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J240" t="s" s="2">
-        <v>178</v>
+        <v>691</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>736</v>
+        <v>901</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>888</v>
+        <v>902</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>738</v>
+        <v>903</v>
       </c>
       <c r="N240" t="s" s="2">
-        <v>889</v>
+        <v>904</v>
       </c>
       <c r="O240" t="s" s="2">
         <v>43</v>
@@ -30095,11 +30073,13 @@
         <v>43</v>
       </c>
       <c r="W240" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X240" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X240" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y240" t="s" s="2">
-        <v>740</v>
+        <v>43</v>
       </c>
       <c r="Z240" t="s" s="2">
         <v>43</v>
@@ -30117,10 +30097,10 @@
         <v>43</v>
       </c>
       <c r="AE240" t="s" s="2">
-        <v>887</v>
+        <v>900</v>
       </c>
       <c r="AF240" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG240" t="s" s="2">
         <v>50</v>
@@ -30146,7 +30126,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>890</v>
+        <v>905</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -30154,7 +30134,7 @@
       </c>
       <c r="D241" s="2"/>
       <c r="E241" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F241" t="s" s="2">
         <v>50</v>
@@ -30166,20 +30146,20 @@
         <v>43</v>
       </c>
       <c r="I241" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J241" t="s" s="2">
-        <v>691</v>
+        <v>178</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>891</v>
+        <v>906</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>892</v>
+        <v>907</v>
       </c>
       <c r="M241" s="2"/>
       <c r="N241" t="s" s="2">
-        <v>893</v>
+        <v>908</v>
       </c>
       <c r="O241" t="s" s="2">
         <v>43</v>
@@ -30204,13 +30184,13 @@
         <v>43</v>
       </c>
       <c r="W241" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X241" t="s" s="2">
-        <v>43</v>
+        <v>909</v>
       </c>
       <c r="Y241" t="s" s="2">
-        <v>43</v>
+        <v>910</v>
       </c>
       <c r="Z241" t="s" s="2">
         <v>43</v>
@@ -30228,10 +30208,10 @@
         <v>43</v>
       </c>
       <c r="AE241" t="s" s="2">
-        <v>890</v>
+        <v>905</v>
       </c>
       <c r="AF241" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG241" t="s" s="2">
         <v>50</v>
@@ -30255,9 +30235,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>894</v>
+        <v>911</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -30271,7 +30251,7 @@
         <v>50</v>
       </c>
       <c r="G242" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H242" t="s" s="2">
         <v>43</v>
@@ -30280,17 +30260,17 @@
         <v>43</v>
       </c>
       <c r="J242" t="s" s="2">
-        <v>310</v>
+        <v>596</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>895</v>
+        <v>912</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>896</v>
+        <v>913</v>
       </c>
       <c r="M242" s="2"/>
       <c r="N242" t="s" s="2">
-        <v>897</v>
+        <v>914</v>
       </c>
       <c r="O242" t="s" s="2">
         <v>43</v>
@@ -30339,7 +30319,7 @@
         <v>43</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>894</v>
+        <v>911</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>41</v>
@@ -30368,7 +30348,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>898</v>
+        <v>915</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -30391,16 +30371,18 @@
         <v>43</v>
       </c>
       <c r="J243" t="s" s="2">
-        <v>52</v>
+        <v>691</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>64</v>
+        <v>916</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>65</v>
+        <v>917</v>
       </c>
       <c r="M243" s="2"/>
-      <c r="N243" s="2"/>
+      <c r="N243" t="s" s="2">
+        <v>918</v>
+      </c>
       <c r="O243" t="s" s="2">
         <v>43</v>
       </c>
@@ -30448,7 +30430,7 @@
         <v>43</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>66</v>
+        <v>915</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>41</v>
@@ -30460,7 +30442,7 @@
         <v>43</v>
       </c>
       <c r="AI243" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ243" t="s" s="2">
         <v>43</v>
@@ -30472,23 +30454,23 @@
         <v>43</v>
       </c>
       <c r="AM243" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>899</v>
+        <v>919</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F244" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G244" t="s" s="2">
         <v>43</v>
@@ -30500,18 +30482,20 @@
         <v>43</v>
       </c>
       <c r="J244" t="s" s="2">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>71</v>
+        <v>920</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>72</v>
+        <v>921</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N244" s="2"/>
+        <v>922</v>
+      </c>
+      <c r="N244" t="s" s="2">
+        <v>923</v>
+      </c>
       <c r="O244" t="s" s="2">
         <v>43</v>
       </c>
@@ -30559,19 +30543,19 @@
         <v>43</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>77</v>
+        <v>919</v>
       </c>
       <c r="AF244" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG244" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH244" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI244" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ244" t="s" s="2">
         <v>43</v>
@@ -30583,47 +30567,47 @@
         <v>43</v>
       </c>
       <c r="AM244" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>900</v>
+        <v>924</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F245" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G245" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H245" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I245" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J245" t="s" s="2">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>319</v>
+        <v>925</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>320</v>
+        <v>926</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>73</v>
+        <v>927</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>156</v>
+        <v>928</v>
       </c>
       <c r="O245" t="s" s="2">
         <v>43</v>
@@ -30648,13 +30632,13 @@
         <v>43</v>
       </c>
       <c r="W245" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X245" t="s" s="2">
-        <v>43</v>
+        <v>929</v>
       </c>
       <c r="Y245" t="s" s="2">
-        <v>43</v>
+        <v>930</v>
       </c>
       <c r="Z245" t="s" s="2">
         <v>43</v>
@@ -30672,19 +30656,19 @@
         <v>43</v>
       </c>
       <c r="AE245" t="s" s="2">
-        <v>321</v>
+        <v>924</v>
       </c>
       <c r="AF245" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG245" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH245" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI245" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ245" t="s" s="2">
         <v>43</v>
@@ -30696,12 +30680,12 @@
         <v>43</v>
       </c>
       <c r="AM245" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>901</v>
+        <v>931</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -30724,17 +30708,19 @@
         <v>43</v>
       </c>
       <c r="J246" t="s" s="2">
-        <v>178</v>
+        <v>932</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>902</v>
+        <v>933</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>903</v>
-      </c>
-      <c r="M246" s="2"/>
+        <v>934</v>
+      </c>
+      <c r="M246" t="s" s="2">
+        <v>935</v>
+      </c>
       <c r="N246" t="s" s="2">
-        <v>904</v>
+        <v>936</v>
       </c>
       <c r="O246" t="s" s="2">
         <v>43</v>
@@ -30759,11 +30745,13 @@
         <v>43</v>
       </c>
       <c r="W246" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X246" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X246" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y246" t="s" s="2">
-        <v>905</v>
+        <v>43</v>
       </c>
       <c r="Z246" t="s" s="2">
         <v>43</v>
@@ -30781,7 +30769,7 @@
         <v>43</v>
       </c>
       <c r="AE246" t="s" s="2">
-        <v>901</v>
+        <v>931</v>
       </c>
       <c r="AF246" t="s" s="2">
         <v>41</v>
@@ -30808,9 +30796,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="247" hidden="true">
+    <row r="247">
       <c r="A247" t="s" s="2">
-        <v>906</v>
+        <v>937</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -30821,10 +30809,10 @@
         <v>41</v>
       </c>
       <c r="F247" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G247" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H247" t="s" s="2">
         <v>43</v>
@@ -30833,19 +30821,17 @@
         <v>43</v>
       </c>
       <c r="J247" t="s" s="2">
-        <v>691</v>
+        <v>310</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>907</v>
+        <v>938</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>908</v>
-      </c>
-      <c r="M247" t="s" s="2">
-        <v>909</v>
-      </c>
+        <v>939</v>
+      </c>
+      <c r="M247" s="2"/>
       <c r="N247" t="s" s="2">
-        <v>910</v>
+        <v>940</v>
       </c>
       <c r="O247" t="s" s="2">
         <v>43</v>
@@ -30894,13 +30880,13 @@
         <v>43</v>
       </c>
       <c r="AE247" t="s" s="2">
-        <v>906</v>
+        <v>937</v>
       </c>
       <c r="AF247" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG247" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH247" t="s" s="2">
         <v>43</v>
@@ -30923,7 +30909,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>911</v>
+        <v>941</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
@@ -30946,18 +30932,16 @@
         <v>43</v>
       </c>
       <c r="J248" t="s" s="2">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="K248" t="s" s="2">
-        <v>912</v>
+        <v>64</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>913</v>
+        <v>65</v>
       </c>
       <c r="M248" s="2"/>
-      <c r="N248" t="s" s="2">
-        <v>914</v>
-      </c>
+      <c r="N248" s="2"/>
       <c r="O248" t="s" s="2">
         <v>43</v>
       </c>
@@ -30981,13 +30965,13 @@
         <v>43</v>
       </c>
       <c r="W248" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X248" t="s" s="2">
-        <v>915</v>
+        <v>43</v>
       </c>
       <c r="Y248" t="s" s="2">
-        <v>916</v>
+        <v>43</v>
       </c>
       <c r="Z248" t="s" s="2">
         <v>43</v>
@@ -31005,7 +30989,7 @@
         <v>43</v>
       </c>
       <c r="AE248" t="s" s="2">
-        <v>911</v>
+        <v>66</v>
       </c>
       <c r="AF248" t="s" s="2">
         <v>41</v>
@@ -31017,7 +31001,7 @@
         <v>43</v>
       </c>
       <c r="AI248" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ248" t="s" s="2">
         <v>43</v>
@@ -31029,23 +31013,23 @@
         <v>43</v>
       </c>
       <c r="AM248" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>917</v>
+        <v>942</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D249" s="2"/>
       <c r="E249" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F249" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G249" t="s" s="2">
         <v>43</v>
@@ -31057,18 +31041,18 @@
         <v>43</v>
       </c>
       <c r="J249" t="s" s="2">
-        <v>596</v>
+        <v>70</v>
       </c>
       <c r="K249" t="s" s="2">
-        <v>918</v>
+        <v>71</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>919</v>
-      </c>
-      <c r="M249" s="2"/>
-      <c r="N249" t="s" s="2">
-        <v>920</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="M249" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N249" s="2"/>
       <c r="O249" t="s" s="2">
         <v>43</v>
       </c>
@@ -31116,19 +31100,19 @@
         <v>43</v>
       </c>
       <c r="AE249" t="s" s="2">
-        <v>917</v>
+        <v>77</v>
       </c>
       <c r="AF249" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG249" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH249" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI249" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ249" t="s" s="2">
         <v>43</v>
@@ -31140,45 +31124,47 @@
         <v>43</v>
       </c>
       <c r="AM249" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>921</v>
+        <v>943</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F250" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G250" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H250" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I250" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J250" t="s" s="2">
-        <v>691</v>
+        <v>70</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>922</v>
+        <v>319</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>923</v>
-      </c>
-      <c r="M250" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="M250" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N250" t="s" s="2">
-        <v>924</v>
+        <v>156</v>
       </c>
       <c r="O250" t="s" s="2">
         <v>43</v>
@@ -31227,19 +31213,19 @@
         <v>43</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>921</v>
+        <v>321</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG250" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH250" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI250" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ250" t="s" s="2">
         <v>43</v>
@@ -31251,12 +31237,12 @@
         <v>43</v>
       </c>
       <c r="AM250" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>925</v>
+        <v>944</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -31279,19 +31265,17 @@
         <v>43</v>
       </c>
       <c r="J251" t="s" s="2">
-        <v>159</v>
+        <v>419</v>
       </c>
       <c r="K251" t="s" s="2">
-        <v>926</v>
+        <v>945</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>927</v>
-      </c>
-      <c r="M251" t="s" s="2">
-        <v>928</v>
-      </c>
+        <v>946</v>
+      </c>
+      <c r="M251" s="2"/>
       <c r="N251" t="s" s="2">
-        <v>929</v>
+        <v>947</v>
       </c>
       <c r="O251" t="s" s="2">
         <v>43</v>
@@ -31340,7 +31324,7 @@
         <v>43</v>
       </c>
       <c r="AE251" t="s" s="2">
-        <v>925</v>
+        <v>944</v>
       </c>
       <c r="AF251" t="s" s="2">
         <v>41</v>
@@ -31369,7 +31353,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>930</v>
+        <v>948</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -31392,19 +31376,17 @@
         <v>43</v>
       </c>
       <c r="J252" t="s" s="2">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>931</v>
+        <v>949</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>932</v>
-      </c>
-      <c r="M252" t="s" s="2">
-        <v>933</v>
-      </c>
+        <v>950</v>
+      </c>
+      <c r="M252" s="2"/>
       <c r="N252" t="s" s="2">
-        <v>934</v>
+        <v>951</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>43</v>
@@ -31429,13 +31411,13 @@
         <v>43</v>
       </c>
       <c r="W252" t="s" s="2">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="X252" t="s" s="2">
-        <v>935</v>
+        <v>952</v>
       </c>
       <c r="Y252" t="s" s="2">
-        <v>936</v>
+        <v>953</v>
       </c>
       <c r="Z252" t="s" s="2">
         <v>43</v>
@@ -31453,7 +31435,7 @@
         <v>43</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>930</v>
+        <v>948</v>
       </c>
       <c r="AF252" t="s" s="2">
         <v>41</v>
@@ -31482,7 +31464,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>937</v>
+        <v>954</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -31505,19 +31487,17 @@
         <v>43</v>
       </c>
       <c r="J253" t="s" s="2">
-        <v>938</v>
+        <v>52</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>939</v>
+        <v>955</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>940</v>
-      </c>
-      <c r="M253" t="s" s="2">
-        <v>941</v>
-      </c>
+        <v>956</v>
+      </c>
+      <c r="M253" s="2"/>
       <c r="N253" t="s" s="2">
-        <v>942</v>
+        <v>957</v>
       </c>
       <c r="O253" t="s" s="2">
         <v>43</v>
@@ -31566,7 +31546,7 @@
         <v>43</v>
       </c>
       <c r="AE253" t="s" s="2">
-        <v>937</v>
+        <v>954</v>
       </c>
       <c r="AF253" t="s" s="2">
         <v>41</v>
@@ -31593,9 +31573,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>943</v>
+        <v>958</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -31606,10 +31586,10 @@
         <v>41</v>
       </c>
       <c r="F254" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G254" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H254" t="s" s="2">
         <v>43</v>
@@ -31618,17 +31598,19 @@
         <v>43</v>
       </c>
       <c r="J254" t="s" s="2">
-        <v>310</v>
+        <v>178</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>944</v>
+        <v>959</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>945</v>
-      </c>
-      <c r="M254" s="2"/>
+        <v>960</v>
+      </c>
+      <c r="M254" t="s" s="2">
+        <v>961</v>
+      </c>
       <c r="N254" t="s" s="2">
-        <v>946</v>
+        <v>962</v>
       </c>
       <c r="O254" t="s" s="2">
         <v>43</v>
@@ -31653,13 +31635,13 @@
         <v>43</v>
       </c>
       <c r="W254" t="s" s="2">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="X254" t="s" s="2">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="Y254" t="s" s="2">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="Z254" t="s" s="2">
         <v>43</v>
@@ -31677,13 +31659,13 @@
         <v>43</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>943</v>
+        <v>958</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG254" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH254" t="s" s="2">
         <v>43</v>
@@ -31706,7 +31688,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>947</v>
+        <v>963</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -31729,16 +31711,20 @@
         <v>43</v>
       </c>
       <c r="J255" t="s" s="2">
-        <v>52</v>
+        <v>205</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>64</v>
+        <v>964</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M255" s="2"/>
-      <c r="N255" s="2"/>
+        <v>965</v>
+      </c>
+      <c r="M255" t="s" s="2">
+        <v>966</v>
+      </c>
+      <c r="N255" t="s" s="2">
+        <v>967</v>
+      </c>
       <c r="O255" t="s" s="2">
         <v>43</v>
       </c>
@@ -31786,7 +31772,7 @@
         <v>43</v>
       </c>
       <c r="AE255" t="s" s="2">
-        <v>66</v>
+        <v>963</v>
       </c>
       <c r="AF255" t="s" s="2">
         <v>41</v>
@@ -31798,7 +31784,7 @@
         <v>43</v>
       </c>
       <c r="AI255" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ255" t="s" s="2">
         <v>43</v>
@@ -31810,16 +31796,16 @@
         <v>43</v>
       </c>
       <c r="AM255" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>948</v>
+        <v>968</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D256" s="2"/>
       <c r="E256" t="s" s="2">
@@ -31838,17 +31824,15 @@
         <v>43</v>
       </c>
       <c r="J256" t="s" s="2">
-        <v>70</v>
+        <v>310</v>
       </c>
       <c r="K256" t="s" s="2">
-        <v>71</v>
+        <v>969</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M256" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>970</v>
+      </c>
+      <c r="M256" s="2"/>
       <c r="N256" s="2"/>
       <c r="O256" t="s" s="2">
         <v>43</v>
@@ -31897,7 +31881,7 @@
         <v>43</v>
       </c>
       <c r="AE256" t="s" s="2">
-        <v>77</v>
+        <v>968</v>
       </c>
       <c r="AF256" t="s" s="2">
         <v>41</v>
@@ -31909,7 +31893,7 @@
         <v>43</v>
       </c>
       <c r="AI256" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ256" t="s" s="2">
         <v>43</v>
@@ -31921,48 +31905,44 @@
         <v>43</v>
       </c>
       <c r="AM256" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>949</v>
+        <v>971</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F257" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G257" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H257" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I257" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J257" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K257" t="s" s="2">
-        <v>319</v>
+        <v>64</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M257" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N257" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M257" s="2"/>
+      <c r="N257" s="2"/>
       <c r="O257" t="s" s="2">
         <v>43</v>
       </c>
@@ -32010,19 +31990,19 @@
         <v>43</v>
       </c>
       <c r="AE257" t="s" s="2">
-        <v>321</v>
+        <v>66</v>
       </c>
       <c r="AF257" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG257" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH257" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI257" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AJ257" t="s" s="2">
         <v>43</v>
@@ -32034,23 +32014,23 @@
         <v>43</v>
       </c>
       <c r="AM257" t="s" s="2">
-        <v>149</v>
+        <v>67</v>
       </c>
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>950</v>
+        <v>972</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F258" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G258" t="s" s="2">
         <v>43</v>
@@ -32062,18 +32042,18 @@
         <v>43</v>
       </c>
       <c r="J258" t="s" s="2">
-        <v>419</v>
+        <v>70</v>
       </c>
       <c r="K258" t="s" s="2">
-        <v>951</v>
+        <v>71</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>952</v>
-      </c>
-      <c r="M258" s="2"/>
-      <c r="N258" t="s" s="2">
-        <v>953</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="M258" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N258" s="2"/>
       <c r="O258" t="s" s="2">
         <v>43</v>
       </c>
@@ -32121,19 +32101,19 @@
         <v>43</v>
       </c>
       <c r="AE258" t="s" s="2">
-        <v>950</v>
+        <v>77</v>
       </c>
       <c r="AF258" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG258" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH258" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI258" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ258" t="s" s="2">
         <v>43</v>
@@ -32145,45 +32125,47 @@
         <v>43</v>
       </c>
       <c r="AM258" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>954</v>
+        <v>973</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F259" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G259" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H259" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I259" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J259" t="s" s="2">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="K259" t="s" s="2">
-        <v>955</v>
+        <v>319</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>956</v>
-      </c>
-      <c r="M259" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="M259" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N259" t="s" s="2">
-        <v>957</v>
+        <v>156</v>
       </c>
       <c r="O259" t="s" s="2">
         <v>43</v>
@@ -32208,13 +32190,13 @@
         <v>43</v>
       </c>
       <c r="W259" t="s" s="2">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="X259" t="s" s="2">
-        <v>958</v>
+        <v>43</v>
       </c>
       <c r="Y259" t="s" s="2">
-        <v>959</v>
+        <v>43</v>
       </c>
       <c r="Z259" t="s" s="2">
         <v>43</v>
@@ -32232,19 +32214,19 @@
         <v>43</v>
       </c>
       <c r="AE259" t="s" s="2">
-        <v>954</v>
+        <v>321</v>
       </c>
       <c r="AF259" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG259" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH259" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI259" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ259" t="s" s="2">
         <v>43</v>
@@ -32256,12 +32238,12 @@
         <v>43</v>
       </c>
       <c r="AM259" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>960</v>
+        <v>974</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -32269,7 +32251,7 @@
       </c>
       <c r="D260" s="2"/>
       <c r="E260" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F260" t="s" s="2">
         <v>50</v>
@@ -32284,17 +32266,19 @@
         <v>43</v>
       </c>
       <c r="J260" t="s" s="2">
-        <v>52</v>
+        <v>178</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>961</v>
+        <v>646</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>962</v>
-      </c>
-      <c r="M260" s="2"/>
+        <v>647</v>
+      </c>
+      <c r="M260" t="s" s="2">
+        <v>648</v>
+      </c>
       <c r="N260" t="s" s="2">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="O260" t="s" s="2">
         <v>43</v>
@@ -32319,13 +32303,13 @@
         <v>43</v>
       </c>
       <c r="W260" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X260" t="s" s="2">
-        <v>43</v>
+        <v>650</v>
       </c>
       <c r="Y260" t="s" s="2">
-        <v>43</v>
+        <v>651</v>
       </c>
       <c r="Z260" t="s" s="2">
         <v>43</v>
@@ -32343,10 +32327,10 @@
         <v>43</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>960</v>
+        <v>974</v>
       </c>
       <c r="AF260" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG260" t="s" s="2">
         <v>50</v>
@@ -32372,7 +32356,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>964</v>
+        <v>976</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -32395,19 +32379,17 @@
         <v>43</v>
       </c>
       <c r="J261" t="s" s="2">
-        <v>178</v>
+        <v>429</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>965</v>
+        <v>977</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>966</v>
-      </c>
-      <c r="M261" t="s" s="2">
-        <v>967</v>
-      </c>
+        <v>978</v>
+      </c>
+      <c r="M261" s="2"/>
       <c r="N261" t="s" s="2">
-        <v>968</v>
+        <v>979</v>
       </c>
       <c r="O261" t="s" s="2">
         <v>43</v>
@@ -32432,13 +32414,13 @@
         <v>43</v>
       </c>
       <c r="W261" t="s" s="2">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="X261" t="s" s="2">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="Y261" t="s" s="2">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="Z261" t="s" s="2">
         <v>43</v>
@@ -32456,7 +32438,7 @@
         <v>43</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>964</v>
+        <v>976</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>41</v>
@@ -32485,7 +32467,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>969</v>
+        <v>980</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -32508,19 +32490,19 @@
         <v>43</v>
       </c>
       <c r="J262" t="s" s="2">
-        <v>205</v>
+        <v>52</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>970</v>
+        <v>981</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>971</v>
+        <v>982</v>
       </c>
       <c r="M262" t="s" s="2">
-        <v>972</v>
+        <v>983</v>
       </c>
       <c r="N262" t="s" s="2">
-        <v>973</v>
+        <v>984</v>
       </c>
       <c r="O262" t="s" s="2">
         <v>43</v>
@@ -32569,7 +32551,7 @@
         <v>43</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>969</v>
+        <v>980</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>41</v>
@@ -32598,7 +32580,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>974</v>
+        <v>985</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -32609,7 +32591,7 @@
         <v>41</v>
       </c>
       <c r="F263" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G263" t="s" s="2">
         <v>43</v>
@@ -32621,16 +32603,20 @@
         <v>43</v>
       </c>
       <c r="J263" t="s" s="2">
-        <v>310</v>
+        <v>52</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>975</v>
+        <v>986</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>976</v>
-      </c>
-      <c r="M263" s="2"/>
-      <c r="N263" s="2"/>
+        <v>987</v>
+      </c>
+      <c r="M263" t="s" s="2">
+        <v>988</v>
+      </c>
+      <c r="N263" t="s" s="2">
+        <v>989</v>
+      </c>
       <c r="O263" t="s" s="2">
         <v>43</v>
       </c>
@@ -32678,13 +32664,13 @@
         <v>43</v>
       </c>
       <c r="AE263" t="s" s="2">
-        <v>974</v>
+        <v>985</v>
       </c>
       <c r="AF263" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG263" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH263" t="s" s="2">
         <v>43</v>
@@ -32707,7 +32693,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>977</v>
+        <v>990</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -32730,16 +32716,18 @@
         <v>43</v>
       </c>
       <c r="J264" t="s" s="2">
-        <v>52</v>
+        <v>178</v>
       </c>
       <c r="K264" t="s" s="2">
-        <v>64</v>
+        <v>991</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>65</v>
+        <v>992</v>
       </c>
       <c r="M264" s="2"/>
-      <c r="N264" s="2"/>
+      <c r="N264" t="s" s="2">
+        <v>993</v>
+      </c>
       <c r="O264" t="s" s="2">
         <v>43</v>
       </c>
@@ -32763,13 +32751,13 @@
         <v>43</v>
       </c>
       <c r="W264" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X264" t="s" s="2">
-        <v>43</v>
+        <v>994</v>
       </c>
       <c r="Y264" t="s" s="2">
-        <v>43</v>
+        <v>995</v>
       </c>
       <c r="Z264" t="s" s="2">
         <v>43</v>
@@ -32787,7 +32775,7 @@
         <v>43</v>
       </c>
       <c r="AE264" t="s" s="2">
-        <v>66</v>
+        <v>990</v>
       </c>
       <c r="AF264" t="s" s="2">
         <v>41</v>
@@ -32799,7 +32787,7 @@
         <v>43</v>
       </c>
       <c r="AI264" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ264" t="s" s="2">
         <v>43</v>
@@ -32811,23 +32799,23 @@
         <v>43</v>
       </c>
       <c r="AM264" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>978</v>
+        <v>996</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F265" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G265" t="s" s="2">
         <v>43</v>
@@ -32839,18 +32827,18 @@
         <v>43</v>
       </c>
       <c r="J265" t="s" s="2">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>71</v>
+        <v>997</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M265" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N265" s="2"/>
+        <v>998</v>
+      </c>
+      <c r="M265" s="2"/>
+      <c r="N265" t="s" s="2">
+        <v>999</v>
+      </c>
       <c r="O265" t="s" s="2">
         <v>43</v>
       </c>
@@ -32874,13 +32862,13 @@
         <v>43</v>
       </c>
       <c r="W265" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X265" t="s" s="2">
-        <v>43</v>
+        <v>1000</v>
       </c>
       <c r="Y265" t="s" s="2">
-        <v>43</v>
+        <v>1001</v>
       </c>
       <c r="Z265" t="s" s="2">
         <v>43</v>
@@ -32898,19 +32886,19 @@
         <v>43</v>
       </c>
       <c r="AE265" t="s" s="2">
-        <v>77</v>
+        <v>996</v>
       </c>
       <c r="AF265" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG265" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH265" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI265" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ265" t="s" s="2">
         <v>43</v>
@@ -32922,47 +32910,45 @@
         <v>43</v>
       </c>
       <c r="AM265" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>979</v>
+        <v>1002</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F266" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G266" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H266" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I266" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J266" t="s" s="2">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>319</v>
+        <v>1003</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M266" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>1004</v>
+      </c>
+      <c r="M266" s="2"/>
       <c r="N266" t="s" s="2">
-        <v>156</v>
+        <v>999</v>
       </c>
       <c r="O266" t="s" s="2">
         <v>43</v>
@@ -32987,13 +32973,13 @@
         <v>43</v>
       </c>
       <c r="W266" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X266" t="s" s="2">
-        <v>43</v>
+        <v>1005</v>
       </c>
       <c r="Y266" t="s" s="2">
-        <v>43</v>
+        <v>1006</v>
       </c>
       <c r="Z266" t="s" s="2">
         <v>43</v>
@@ -33011,19 +32997,19 @@
         <v>43</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>321</v>
+        <v>1002</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG266" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH266" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI266" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ266" t="s" s="2">
         <v>43</v>
@@ -33035,12 +33021,12 @@
         <v>43</v>
       </c>
       <c r="AM266" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>980</v>
+        <v>1007</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -33048,10 +33034,10 @@
       </c>
       <c r="D267" s="2"/>
       <c r="E267" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F267" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G267" t="s" s="2">
         <v>43</v>
@@ -33063,20 +33049,16 @@
         <v>43</v>
       </c>
       <c r="J267" t="s" s="2">
-        <v>178</v>
+        <v>310</v>
       </c>
       <c r="K267" t="s" s="2">
-        <v>646</v>
+        <v>1008</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="M267" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="N267" t="s" s="2">
-        <v>981</v>
-      </c>
+        <v>1009</v>
+      </c>
+      <c r="M267" s="2"/>
+      <c r="N267" s="2"/>
       <c r="O267" t="s" s="2">
         <v>43</v>
       </c>
@@ -33100,13 +33082,13 @@
         <v>43</v>
       </c>
       <c r="W267" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X267" t="s" s="2">
-        <v>650</v>
+        <v>43</v>
       </c>
       <c r="Y267" t="s" s="2">
-        <v>651</v>
+        <v>43</v>
       </c>
       <c r="Z267" t="s" s="2">
         <v>43</v>
@@ -33124,13 +33106,13 @@
         <v>43</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>980</v>
+        <v>1007</v>
       </c>
       <c r="AF267" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG267" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH267" t="s" s="2">
         <v>43</v>
@@ -33153,7 +33135,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>982</v>
+        <v>1010</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -33176,18 +33158,16 @@
         <v>43</v>
       </c>
       <c r="J268" t="s" s="2">
-        <v>429</v>
+        <v>52</v>
       </c>
       <c r="K268" t="s" s="2">
-        <v>983</v>
+        <v>64</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>984</v>
+        <v>65</v>
       </c>
       <c r="M268" s="2"/>
-      <c r="N268" t="s" s="2">
-        <v>985</v>
-      </c>
+      <c r="N268" s="2"/>
       <c r="O268" t="s" s="2">
         <v>43</v>
       </c>
@@ -33235,7 +33215,7 @@
         <v>43</v>
       </c>
       <c r="AE268" t="s" s="2">
-        <v>982</v>
+        <v>66</v>
       </c>
       <c r="AF268" t="s" s="2">
         <v>41</v>
@@ -33247,7 +33227,7 @@
         <v>43</v>
       </c>
       <c r="AI268" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ268" t="s" s="2">
         <v>43</v>
@@ -33259,23 +33239,23 @@
         <v>43</v>
       </c>
       <c r="AM268" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>986</v>
+        <v>1011</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F269" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G269" t="s" s="2">
         <v>43</v>
@@ -33287,20 +33267,18 @@
         <v>43</v>
       </c>
       <c r="J269" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>987</v>
+        <v>71</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>988</v>
+        <v>72</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>989</v>
-      </c>
-      <c r="N269" t="s" s="2">
-        <v>990</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="N269" s="2"/>
       <c r="O269" t="s" s="2">
         <v>43</v>
       </c>
@@ -33348,19 +33326,19 @@
         <v>43</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>986</v>
+        <v>77</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG269" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH269" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI269" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ269" t="s" s="2">
         <v>43</v>
@@ -33372,47 +33350,47 @@
         <v>43</v>
       </c>
       <c r="AM269" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>991</v>
+        <v>1012</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F270" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G270" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H270" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I270" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J270" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>992</v>
+        <v>319</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>993</v>
+        <v>320</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>994</v>
+        <v>73</v>
       </c>
       <c r="N270" t="s" s="2">
-        <v>995</v>
+        <v>156</v>
       </c>
       <c r="O270" t="s" s="2">
         <v>43</v>
@@ -33461,19 +33439,19 @@
         <v>43</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>991</v>
+        <v>321</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG270" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH270" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI270" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ270" t="s" s="2">
         <v>43</v>
@@ -33485,12 +33463,12 @@
         <v>43</v>
       </c>
       <c r="AM270" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>996</v>
+        <v>1013</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -33498,7 +33476,7 @@
       </c>
       <c r="D271" s="2"/>
       <c r="E271" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F271" t="s" s="2">
         <v>50</v>
@@ -33516,14 +33494,16 @@
         <v>178</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>997</v>
+        <v>646</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>998</v>
-      </c>
-      <c r="M271" s="2"/>
+        <v>1014</v>
+      </c>
+      <c r="M271" t="s" s="2">
+        <v>1015</v>
+      </c>
       <c r="N271" t="s" s="2">
-        <v>999</v>
+        <v>1016</v>
       </c>
       <c r="O271" t="s" s="2">
         <v>43</v>
@@ -33551,10 +33531,10 @@
         <v>116</v>
       </c>
       <c r="X271" t="s" s="2">
-        <v>1000</v>
+        <v>1017</v>
       </c>
       <c r="Y271" t="s" s="2">
-        <v>1001</v>
+        <v>1018</v>
       </c>
       <c r="Z271" t="s" s="2">
         <v>43</v>
@@ -33572,10 +33552,10 @@
         <v>43</v>
       </c>
       <c r="AE271" t="s" s="2">
-        <v>996</v>
+        <v>1013</v>
       </c>
       <c r="AF271" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG271" t="s" s="2">
         <v>50</v>
@@ -33601,7 +33581,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>1002</v>
+        <v>1019</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -33624,17 +33604,17 @@
         <v>43</v>
       </c>
       <c r="J272" t="s" s="2">
-        <v>178</v>
+        <v>1020</v>
       </c>
       <c r="K272" t="s" s="2">
-        <v>1003</v>
+        <v>1021</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>1004</v>
+        <v>1022</v>
       </c>
       <c r="M272" s="2"/>
       <c r="N272" t="s" s="2">
-        <v>1005</v>
+        <v>1023</v>
       </c>
       <c r="O272" t="s" s="2">
         <v>43</v>
@@ -33659,13 +33639,13 @@
         <v>43</v>
       </c>
       <c r="W272" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X272" t="s" s="2">
-        <v>1006</v>
+        <v>43</v>
       </c>
       <c r="Y272" t="s" s="2">
-        <v>1007</v>
+        <v>43</v>
       </c>
       <c r="Z272" t="s" s="2">
         <v>43</v>
@@ -33683,7 +33663,7 @@
         <v>43</v>
       </c>
       <c r="AE272" t="s" s="2">
-        <v>1002</v>
+        <v>1019</v>
       </c>
       <c r="AF272" t="s" s="2">
         <v>41</v>
@@ -33712,7 +33692,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>1008</v>
+        <v>1024</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -33735,17 +33715,17 @@
         <v>43</v>
       </c>
       <c r="J273" t="s" s="2">
-        <v>178</v>
+        <v>1025</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>1009</v>
+        <v>1026</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>1010</v>
+        <v>1027</v>
       </c>
       <c r="M273" s="2"/>
       <c r="N273" t="s" s="2">
-        <v>1005</v>
+        <v>1028</v>
       </c>
       <c r="O273" t="s" s="2">
         <v>43</v>
@@ -33770,13 +33750,13 @@
         <v>43</v>
       </c>
       <c r="W273" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X273" t="s" s="2">
-        <v>1011</v>
+        <v>43</v>
       </c>
       <c r="Y273" t="s" s="2">
-        <v>1012</v>
+        <v>43</v>
       </c>
       <c r="Z273" t="s" s="2">
         <v>43</v>
@@ -33794,7 +33774,7 @@
         <v>43</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>1008</v>
+        <v>1024</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>41</v>
@@ -33821,785 +33801,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="274" hidden="true">
-      <c r="A274" t="s" s="2">
-        <v>1013</v>
-      </c>
-      <c r="B274" s="2"/>
-      <c r="C274" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D274" s="2"/>
-      <c r="E274" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F274" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G274" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H274" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I274" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J274" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="K274" t="s" s="2">
-        <v>1014</v>
-      </c>
-      <c r="L274" t="s" s="2">
-        <v>1015</v>
-      </c>
-      <c r="M274" s="2"/>
-      <c r="N274" s="2"/>
-      <c r="O274" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P274" s="2"/>
-      <c r="Q274" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R274" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S274" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T274" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U274" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V274" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W274" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X274" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y274" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z274" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA274" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB274" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC274" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD274" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE274" t="s" s="2">
-        <v>1013</v>
-      </c>
-      <c r="AF274" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG274" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH274" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI274" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ274" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK274" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL274" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM274" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="275" hidden="true">
-      <c r="A275" t="s" s="2">
-        <v>1016</v>
-      </c>
-      <c r="B275" s="2"/>
-      <c r="C275" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D275" s="2"/>
-      <c r="E275" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F275" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G275" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H275" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I275" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J275" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K275" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="L275" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M275" s="2"/>
-      <c r="N275" s="2"/>
-      <c r="O275" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P275" s="2"/>
-      <c r="Q275" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R275" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S275" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T275" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U275" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V275" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W275" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X275" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y275" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z275" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA275" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB275" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC275" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD275" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE275" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="AF275" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG275" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH275" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI275" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ275" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK275" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL275" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM275" t="s" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="276" hidden="true">
-      <c r="A276" t="s" s="2">
-        <v>1017</v>
-      </c>
-      <c r="B276" s="2"/>
-      <c r="C276" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D276" s="2"/>
-      <c r="E276" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F276" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G276" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H276" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I276" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J276" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="K276" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="L276" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M276" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N276" s="2"/>
-      <c r="O276" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P276" s="2"/>
-      <c r="Q276" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R276" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S276" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T276" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U276" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V276" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W276" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X276" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y276" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z276" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA276" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB276" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC276" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD276" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE276" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF276" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG276" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH276" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI276" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ276" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK276" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL276" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM276" t="s" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="277" hidden="true">
-      <c r="A277" t="s" s="2">
-        <v>1018</v>
-      </c>
-      <c r="B277" s="2"/>
-      <c r="C277" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="D277" s="2"/>
-      <c r="E277" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F277" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G277" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H277" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="I277" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J277" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="K277" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="L277" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M277" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N277" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O277" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P277" s="2"/>
-      <c r="Q277" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R277" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S277" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T277" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U277" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V277" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W277" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X277" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y277" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z277" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA277" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB277" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC277" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD277" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE277" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AF277" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG277" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH277" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI277" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ277" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK277" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL277" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM277" t="s" s="2">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="278" hidden="true">
-      <c r="A278" t="s" s="2">
-        <v>1019</v>
-      </c>
-      <c r="B278" s="2"/>
-      <c r="C278" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D278" s="2"/>
-      <c r="E278" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="F278" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G278" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H278" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I278" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J278" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="K278" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="L278" t="s" s="2">
-        <v>1020</v>
-      </c>
-      <c r="M278" t="s" s="2">
-        <v>1021</v>
-      </c>
-      <c r="N278" t="s" s="2">
-        <v>1022</v>
-      </c>
-      <c r="O278" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P278" s="2"/>
-      <c r="Q278" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R278" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S278" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T278" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U278" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V278" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W278" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X278" t="s" s="2">
-        <v>1023</v>
-      </c>
-      <c r="Y278" t="s" s="2">
-        <v>1024</v>
-      </c>
-      <c r="Z278" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA278" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB278" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC278" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD278" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE278" t="s" s="2">
-        <v>1019</v>
-      </c>
-      <c r="AF278" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG278" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH278" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI278" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ278" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK278" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL278" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM278" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="279" hidden="true">
-      <c r="A279" t="s" s="2">
-        <v>1025</v>
-      </c>
-      <c r="B279" s="2"/>
-      <c r="C279" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D279" s="2"/>
-      <c r="E279" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F279" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G279" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H279" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I279" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J279" t="s" s="2">
-        <v>1026</v>
-      </c>
-      <c r="K279" t="s" s="2">
-        <v>1027</v>
-      </c>
-      <c r="L279" t="s" s="2">
-        <v>1028</v>
-      </c>
-      <c r="M279" s="2"/>
-      <c r="N279" t="s" s="2">
-        <v>1029</v>
-      </c>
-      <c r="O279" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P279" s="2"/>
-      <c r="Q279" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R279" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S279" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T279" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U279" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V279" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W279" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X279" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y279" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z279" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA279" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB279" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC279" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD279" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE279" t="s" s="2">
-        <v>1025</v>
-      </c>
-      <c r="AF279" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG279" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH279" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI279" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ279" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK279" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL279" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM279" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="280" hidden="true">
-      <c r="A280" t="s" s="2">
-        <v>1030</v>
-      </c>
-      <c r="B280" s="2"/>
-      <c r="C280" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D280" s="2"/>
-      <c r="E280" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F280" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G280" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H280" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I280" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J280" t="s" s="2">
-        <v>1031</v>
-      </c>
-      <c r="K280" t="s" s="2">
-        <v>1032</v>
-      </c>
-      <c r="L280" t="s" s="2">
-        <v>1033</v>
-      </c>
-      <c r="M280" s="2"/>
-      <c r="N280" t="s" s="2">
-        <v>1034</v>
-      </c>
-      <c r="O280" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P280" s="2"/>
-      <c r="Q280" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R280" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S280" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T280" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U280" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V280" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W280" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X280" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y280" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z280" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA280" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB280" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC280" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD280" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE280" t="s" s="2">
-        <v>1030</v>
-      </c>
-      <c r="AF280" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG280" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH280" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI280" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ280" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK280" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL280" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM280" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AM280">
+  <autoFilter ref="A1:AM273">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -34609,7 +33812,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI279">
+  <conditionalFormatting sqref="A2:AI272">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
